--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 7_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 7_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="164">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -512,6 +512,12 @@
   </si>
   <si>
     <t>BẢNG CHẤM CÔNG THÁNG 7 NĂM 2020</t>
+  </si>
+  <si>
+    <t>Vé vào bến</t>
+  </si>
+  <si>
+    <t>Đơn Anh Giáp Cao Bằng</t>
   </si>
 </sst>
 </file>
@@ -2289,6 +2295,48 @@
     <xf numFmtId="0" fontId="34" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2319,18 +2367,6 @@
     <xf numFmtId="168" fontId="18" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2379,6 +2415,99 @@
     <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="38" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2390,6 +2519,63 @@
     </xf>
     <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2398,121 +2584,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="38" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2521,44 +2596,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2595,6 +2652,42 @@
     <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2607,33 +2700,6 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2663,66 +2729,6 @@
     </xf>
     <xf numFmtId="14" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3037,7 +3043,7 @@
   <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -3090,15 +3096,15 @@
       <c r="H3" s="117"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="425" t="s">
+      <c r="A4" s="439" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="425"/>
-      <c r="C4" s="425"/>
-      <c r="D4" s="425"/>
-      <c r="E4" s="425"/>
-      <c r="F4" s="425"/>
-      <c r="G4" s="425"/>
+      <c r="B4" s="439"/>
+      <c r="C4" s="439"/>
+      <c r="D4" s="439"/>
+      <c r="E4" s="439"/>
+      <c r="F4" s="439"/>
+      <c r="G4" s="439"/>
       <c r="H4" s="117"/>
     </row>
     <row r="5" spans="1:8" s="115" customFormat="1" x14ac:dyDescent="0.25">
@@ -3110,28 +3116,28 @@
       <c r="G5" s="114"/>
     </row>
     <row r="6" spans="1:8" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="426" t="s">
+      <c r="A6" s="440" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="426" t="s">
+      <c r="B6" s="440" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="428" t="s">
+      <c r="C6" s="442" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="430" t="s">
+      <c r="D6" s="444" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="430"/>
-      <c r="F6" s="430" t="s">
+      <c r="E6" s="444"/>
+      <c r="F6" s="444" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="430"/>
+      <c r="G6" s="444"/>
     </row>
     <row r="7" spans="1:8" s="115" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="427"/>
-      <c r="B7" s="427"/>
-      <c r="C7" s="429"/>
+      <c r="A7" s="441"/>
+      <c r="B7" s="441"/>
+      <c r="C7" s="443"/>
       <c r="D7" s="119" t="s">
         <v>83</v>
       </c>
@@ -3778,11 +3784,11 @@
       <c r="G77" s="122"/>
     </row>
     <row r="78" spans="1:7" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A78" s="422" t="s">
+      <c r="A78" s="436" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="423"/>
-      <c r="C78" s="424"/>
+      <c r="B78" s="437"/>
+      <c r="C78" s="438"/>
       <c r="D78" s="124">
         <f>SUM(D8:D77)</f>
         <v>0</v>
@@ -3810,10 +3816,10 @@
       <c r="G79" s="127"/>
     </row>
     <row r="80" spans="1:7" s="125" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="421" t="s">
+      <c r="A80" s="435" t="s">
         <v>84</v>
       </c>
-      <c r="B80" s="421"/>
+      <c r="B80" s="435"/>
       <c r="C80" s="126"/>
       <c r="D80" s="127"/>
       <c r="E80" s="127"/>
@@ -3915,9 +3921,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R127"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7:I8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3942,13 +3948,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="314" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="435" t="s">
+      <c r="A1" s="445" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="435"/>
-      <c r="C1" s="435"/>
-      <c r="D1" s="435"/>
-      <c r="E1" s="435"/>
+      <c r="B1" s="445"/>
+      <c r="C1" s="445"/>
+      <c r="D1" s="445"/>
+      <c r="E1" s="445"/>
       <c r="H1" s="315"/>
       <c r="I1" s="315"/>
       <c r="J1" s="315"/>
@@ -3976,153 +3982,153 @@
       <c r="O2" s="315"/>
     </row>
     <row r="3" spans="1:17" s="314" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="435" t="s">
+      <c r="A3" s="445" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="435"/>
-      <c r="C3" s="435"/>
-      <c r="D3" s="435"/>
-      <c r="E3" s="435"/>
-      <c r="F3" s="435"/>
-      <c r="G3" s="435"/>
-      <c r="H3" s="435"/>
-      <c r="I3" s="435"/>
-      <c r="J3" s="435"/>
-      <c r="K3" s="435"/>
-      <c r="L3" s="435"/>
-      <c r="M3" s="435"/>
-      <c r="N3" s="435"/>
-      <c r="O3" s="435"/>
-      <c r="P3" s="435"/>
+      <c r="B3" s="445"/>
+      <c r="C3" s="445"/>
+      <c r="D3" s="445"/>
+      <c r="E3" s="445"/>
+      <c r="F3" s="445"/>
+      <c r="G3" s="445"/>
+      <c r="H3" s="445"/>
+      <c r="I3" s="445"/>
+      <c r="J3" s="445"/>
+      <c r="K3" s="445"/>
+      <c r="L3" s="445"/>
+      <c r="M3" s="445"/>
+      <c r="N3" s="445"/>
+      <c r="O3" s="445"/>
+      <c r="P3" s="445"/>
     </row>
     <row r="4" spans="1:17" s="314" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="435" t="s">
+      <c r="A4" s="445" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="435"/>
-      <c r="C4" s="435"/>
-      <c r="D4" s="435"/>
-      <c r="E4" s="435"/>
-      <c r="F4" s="435"/>
-      <c r="G4" s="435"/>
-      <c r="H4" s="435"/>
-      <c r="I4" s="435"/>
-      <c r="J4" s="435"/>
-      <c r="K4" s="435"/>
-      <c r="L4" s="435"/>
-      <c r="M4" s="435"/>
-      <c r="N4" s="435"/>
-      <c r="O4" s="435"/>
-      <c r="P4" s="435"/>
+      <c r="B4" s="445"/>
+      <c r="C4" s="445"/>
+      <c r="D4" s="445"/>
+      <c r="E4" s="445"/>
+      <c r="F4" s="445"/>
+      <c r="G4" s="445"/>
+      <c r="H4" s="445"/>
+      <c r="I4" s="445"/>
+      <c r="J4" s="445"/>
+      <c r="K4" s="445"/>
+      <c r="L4" s="445"/>
+      <c r="M4" s="445"/>
+      <c r="N4" s="445"/>
+      <c r="O4" s="445"/>
+      <c r="P4" s="445"/>
     </row>
     <row r="5" spans="1:17" s="314" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="435"/>
-      <c r="B5" s="435"/>
-      <c r="C5" s="435"/>
-      <c r="D5" s="435"/>
-      <c r="E5" s="435"/>
-      <c r="F5" s="435"/>
-      <c r="G5" s="435"/>
-      <c r="H5" s="435"/>
-      <c r="I5" s="435"/>
-      <c r="J5" s="435"/>
-      <c r="K5" s="436"/>
-      <c r="L5" s="436"/>
+      <c r="A5" s="445"/>
+      <c r="B5" s="445"/>
+      <c r="C5" s="445"/>
+      <c r="D5" s="445"/>
+      <c r="E5" s="445"/>
+      <c r="F5" s="445"/>
+      <c r="G5" s="445"/>
+      <c r="H5" s="445"/>
+      <c r="I5" s="445"/>
+      <c r="J5" s="445"/>
+      <c r="K5" s="446"/>
+      <c r="L5" s="446"/>
       <c r="M5" s="315"/>
       <c r="N5" s="315"/>
       <c r="O5" s="315"/>
     </row>
     <row r="6" spans="1:17" s="322" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="437" t="s">
+      <c r="A6" s="447" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="439" t="s">
+      <c r="B6" s="449" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="443" t="s">
+      <c r="C6" s="453" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="445" t="s">
+      <c r="D6" s="455" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="445"/>
-      <c r="F6" s="446" t="s">
+      <c r="E6" s="455"/>
+      <c r="F6" s="456" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="446"/>
-      <c r="H6" s="446"/>
-      <c r="I6" s="446"/>
-      <c r="J6" s="446"/>
-      <c r="K6" s="446"/>
-      <c r="L6" s="446"/>
-      <c r="M6" s="447"/>
-      <c r="N6" s="447"/>
-      <c r="O6" s="447"/>
-      <c r="P6" s="448" t="s">
+      <c r="G6" s="456"/>
+      <c r="H6" s="456"/>
+      <c r="I6" s="456"/>
+      <c r="J6" s="456"/>
+      <c r="K6" s="456"/>
+      <c r="L6" s="456"/>
+      <c r="M6" s="457"/>
+      <c r="N6" s="457"/>
+      <c r="O6" s="457"/>
+      <c r="P6" s="458" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="322" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="438"/>
-      <c r="B7" s="440"/>
-      <c r="C7" s="444"/>
-      <c r="D7" s="437" t="s">
+      <c r="A7" s="448"/>
+      <c r="B7" s="450"/>
+      <c r="C7" s="454"/>
+      <c r="D7" s="447" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="437" t="s">
+      <c r="E7" s="447" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="437" t="s">
+      <c r="F7" s="447" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="437" t="s">
+      <c r="G7" s="447" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="441" t="s">
+      <c r="H7" s="451" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="441" t="s">
+      <c r="I7" s="451" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="450" t="s">
+      <c r="J7" s="460" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="450"/>
-      <c r="L7" s="441" t="s">
+      <c r="K7" s="460"/>
+      <c r="L7" s="451" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="441" t="s">
+      <c r="M7" s="451" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="441" t="s">
+      <c r="N7" s="451" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="441" t="s">
+      <c r="O7" s="451" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="449"/>
+      <c r="P7" s="459"/>
     </row>
     <row r="8" spans="1:17" s="322" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="438"/>
-      <c r="B8" s="440"/>
-      <c r="C8" s="444"/>
-      <c r="D8" s="438"/>
-      <c r="E8" s="438"/>
-      <c r="F8" s="438"/>
-      <c r="G8" s="438"/>
-      <c r="H8" s="442"/>
-      <c r="I8" s="442"/>
+      <c r="A8" s="448"/>
+      <c r="B8" s="450"/>
+      <c r="C8" s="454"/>
+      <c r="D8" s="448"/>
+      <c r="E8" s="448"/>
+      <c r="F8" s="448"/>
+      <c r="G8" s="448"/>
+      <c r="H8" s="452"/>
+      <c r="I8" s="452"/>
       <c r="J8" s="323" t="s">
         <v>86</v>
       </c>
       <c r="K8" s="324" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="442"/>
-      <c r="M8" s="442"/>
-      <c r="N8" s="442"/>
-      <c r="O8" s="442"/>
-      <c r="P8" s="449"/>
+      <c r="L8" s="452"/>
+      <c r="M8" s="452"/>
+      <c r="N8" s="452"/>
+      <c r="O8" s="452"/>
+      <c r="P8" s="459"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="243"/>
@@ -4383,7 +4389,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="231"/>
-      <c r="B23" s="546"/>
+      <c r="B23" s="421"/>
       <c r="C23" s="231"/>
       <c r="D23" s="231"/>
       <c r="E23" s="231"/>
@@ -4401,7 +4407,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="231"/>
-      <c r="B24" s="546"/>
+      <c r="B24" s="421"/>
       <c r="C24" s="231"/>
       <c r="D24" s="231"/>
       <c r="E24" s="231"/>
@@ -4419,7 +4425,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="231"/>
-      <c r="B25" s="546"/>
+      <c r="B25" s="421"/>
       <c r="C25" s="231"/>
       <c r="D25" s="231"/>
       <c r="E25" s="231"/>
@@ -4437,7 +4443,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="231"/>
-      <c r="B26" s="546"/>
+      <c r="B26" s="421"/>
       <c r="C26" s="231"/>
       <c r="D26" s="231"/>
       <c r="E26" s="231"/>
@@ -4455,7 +4461,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="231"/>
-      <c r="B27" s="546"/>
+      <c r="B27" s="421"/>
       <c r="C27" s="231"/>
       <c r="D27" s="231"/>
       <c r="E27" s="231"/>
@@ -4473,7 +4479,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="231"/>
-      <c r="B28" s="546"/>
+      <c r="B28" s="421"/>
       <c r="C28" s="231"/>
       <c r="D28" s="231"/>
       <c r="E28" s="231"/>
@@ -4512,7 +4518,7 @@
       <c r="B30" s="376"/>
       <c r="C30" s="363"/>
       <c r="D30" s="363"/>
-      <c r="E30" s="549"/>
+      <c r="E30" s="424"/>
       <c r="F30" s="243"/>
       <c r="G30" s="243"/>
       <c r="H30" s="326"/>
@@ -4526,11 +4532,11 @@
       <c r="P30" s="243"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="547"/>
-      <c r="B31" s="548"/>
-      <c r="C31" s="547"/>
-      <c r="D31" s="547"/>
-      <c r="E31" s="550"/>
+      <c r="A31" s="422"/>
+      <c r="B31" s="423"/>
+      <c r="C31" s="422"/>
+      <c r="D31" s="422"/>
+      <c r="E31" s="425"/>
       <c r="F31" s="243"/>
       <c r="G31" s="243"/>
       <c r="H31" s="326"/>
@@ -4617,7 +4623,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="231"/>
-      <c r="B36" s="546"/>
+      <c r="B36" s="421"/>
       <c r="C36" s="231"/>
       <c r="D36" s="235"/>
       <c r="E36" s="231"/>
@@ -4707,7 +4713,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="231"/>
-      <c r="B41" s="546"/>
+      <c r="B41" s="421"/>
       <c r="C41" s="231"/>
       <c r="D41" s="235"/>
       <c r="E41" s="231"/>
@@ -4725,7 +4731,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="231"/>
-      <c r="B42" s="546"/>
+      <c r="B42" s="421"/>
       <c r="C42" s="231"/>
       <c r="D42" s="235"/>
       <c r="E42" s="231"/>
@@ -4743,7 +4749,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="231"/>
-      <c r="B43" s="546"/>
+      <c r="B43" s="421"/>
       <c r="C43" s="231"/>
       <c r="D43" s="235"/>
       <c r="E43" s="231"/>
@@ -4761,7 +4767,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="231"/>
-      <c r="B44" s="546"/>
+      <c r="B44" s="421"/>
       <c r="C44" s="231"/>
       <c r="D44" s="235"/>
       <c r="E44" s="231"/>
@@ -4779,7 +4785,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="231"/>
-      <c r="B45" s="546"/>
+      <c r="B45" s="421"/>
       <c r="C45" s="231"/>
       <c r="D45" s="235"/>
       <c r="E45" s="231"/>
@@ -4797,7 +4803,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="231"/>
-      <c r="B46" s="546"/>
+      <c r="B46" s="421"/>
       <c r="C46" s="231"/>
       <c r="D46" s="235"/>
       <c r="E46" s="231"/>
@@ -4834,7 +4840,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="227"/>
-      <c r="B48" s="551"/>
+      <c r="B48" s="426"/>
       <c r="C48" s="227"/>
       <c r="D48" s="230"/>
       <c r="E48" s="227"/>
@@ -4853,7 +4859,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="231"/>
-      <c r="B49" s="552"/>
+      <c r="B49" s="427"/>
       <c r="C49" s="231"/>
       <c r="D49" s="235"/>
       <c r="E49" s="231"/>
@@ -4872,7 +4878,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="231"/>
-      <c r="B50" s="552"/>
+      <c r="B50" s="427"/>
       <c r="C50" s="231"/>
       <c r="D50" s="235"/>
       <c r="E50" s="231"/>
@@ -4891,7 +4897,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="236"/>
-      <c r="B51" s="553"/>
+      <c r="B51" s="428"/>
       <c r="C51" s="236"/>
       <c r="D51" s="239"/>
       <c r="E51" s="236"/>
@@ -4986,7 +4992,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="231"/>
-      <c r="B56" s="546"/>
+      <c r="B56" s="421"/>
       <c r="C56" s="231"/>
       <c r="D56" s="235"/>
       <c r="E56" s="231"/>
@@ -5005,7 +5011,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="231"/>
-      <c r="B57" s="546"/>
+      <c r="B57" s="421"/>
       <c r="C57" s="231"/>
       <c r="D57" s="235"/>
       <c r="E57" s="231"/>
@@ -5024,7 +5030,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="231"/>
-      <c r="B58" s="546"/>
+      <c r="B58" s="421"/>
       <c r="C58" s="231"/>
       <c r="D58" s="235"/>
       <c r="E58" s="231"/>
@@ -5100,7 +5106,7 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="231"/>
-      <c r="B62" s="546"/>
+      <c r="B62" s="421"/>
       <c r="C62" s="231"/>
       <c r="D62" s="235"/>
       <c r="E62" s="231"/>
@@ -5119,7 +5125,7 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="231"/>
-      <c r="B63" s="546"/>
+      <c r="B63" s="421"/>
       <c r="C63" s="231"/>
       <c r="D63" s="235"/>
       <c r="E63" s="231"/>
@@ -5176,7 +5182,7 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="227"/>
-      <c r="B66" s="551"/>
+      <c r="B66" s="426"/>
       <c r="C66" s="227"/>
       <c r="D66" s="227"/>
       <c r="E66" s="227"/>
@@ -5194,7 +5200,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="231"/>
-      <c r="B67" s="552"/>
+      <c r="B67" s="427"/>
       <c r="C67" s="231"/>
       <c r="D67" s="231"/>
       <c r="E67" s="231"/>
@@ -5212,7 +5218,7 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="231"/>
-      <c r="B68" s="552"/>
+      <c r="B68" s="427"/>
       <c r="C68" s="231"/>
       <c r="D68" s="231"/>
       <c r="E68" s="231"/>
@@ -5230,7 +5236,7 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="231"/>
-      <c r="B69" s="552"/>
+      <c r="B69" s="427"/>
       <c r="C69" s="231"/>
       <c r="D69" s="231"/>
       <c r="E69" s="231"/>
@@ -5248,7 +5254,7 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="231"/>
-      <c r="B70" s="552"/>
+      <c r="B70" s="427"/>
       <c r="C70" s="231"/>
       <c r="D70" s="231"/>
       <c r="E70" s="231"/>
@@ -5266,7 +5272,7 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="231"/>
-      <c r="B71" s="552"/>
+      <c r="B71" s="427"/>
       <c r="C71" s="231"/>
       <c r="D71" s="231"/>
       <c r="E71" s="231"/>
@@ -5284,7 +5290,7 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="231"/>
-      <c r="B72" s="552"/>
+      <c r="B72" s="427"/>
       <c r="C72" s="231"/>
       <c r="D72" s="231"/>
       <c r="E72" s="231"/>
@@ -5302,7 +5308,7 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="231"/>
-      <c r="B73" s="552"/>
+      <c r="B73" s="427"/>
       <c r="C73" s="231"/>
       <c r="D73" s="231"/>
       <c r="E73" s="231"/>
@@ -5320,7 +5326,7 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="236"/>
-      <c r="B74" s="553"/>
+      <c r="B74" s="428"/>
       <c r="C74" s="236"/>
       <c r="D74" s="236"/>
       <c r="E74" s="236"/>
@@ -5356,7 +5362,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="227"/>
-      <c r="B76" s="551"/>
+      <c r="B76" s="426"/>
       <c r="C76" s="227"/>
       <c r="D76" s="227"/>
       <c r="E76" s="227"/>
@@ -5374,7 +5380,7 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="231"/>
-      <c r="B77" s="552"/>
+      <c r="B77" s="427"/>
       <c r="C77" s="231"/>
       <c r="D77" s="231"/>
       <c r="E77" s="231"/>
@@ -5392,7 +5398,7 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="236"/>
-      <c r="B78" s="553"/>
+      <c r="B78" s="428"/>
       <c r="C78" s="236"/>
       <c r="D78" s="236"/>
       <c r="E78" s="236"/>
@@ -5410,7 +5416,7 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="227"/>
-      <c r="B79" s="551"/>
+      <c r="B79" s="426"/>
       <c r="C79" s="227"/>
       <c r="D79" s="227"/>
       <c r="E79" s="227"/>
@@ -5428,7 +5434,7 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="236"/>
-      <c r="B80" s="553"/>
+      <c r="B80" s="428"/>
       <c r="C80" s="236"/>
       <c r="D80" s="236"/>
       <c r="E80" s="236"/>
@@ -5518,7 +5524,7 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="227"/>
-      <c r="B85" s="551"/>
+      <c r="B85" s="426"/>
       <c r="C85" s="227"/>
       <c r="D85" s="230"/>
       <c r="E85" s="227"/>
@@ -5536,7 +5542,7 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="231"/>
-      <c r="B86" s="552"/>
+      <c r="B86" s="427"/>
       <c r="C86" s="231"/>
       <c r="D86" s="235"/>
       <c r="E86" s="231"/>
@@ -5554,7 +5560,7 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="231"/>
-      <c r="B87" s="552"/>
+      <c r="B87" s="427"/>
       <c r="C87" s="231"/>
       <c r="D87" s="235"/>
       <c r="E87" s="231"/>
@@ -5572,7 +5578,7 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="236"/>
-      <c r="B88" s="553"/>
+      <c r="B88" s="428"/>
       <c r="C88" s="236"/>
       <c r="D88" s="239"/>
       <c r="E88" s="236"/>
@@ -5590,7 +5596,7 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="227"/>
-      <c r="B89" s="551"/>
+      <c r="B89" s="426"/>
       <c r="C89" s="227"/>
       <c r="D89" s="227"/>
       <c r="E89" s="227"/>
@@ -5608,7 +5614,7 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="236"/>
-      <c r="B90" s="553"/>
+      <c r="B90" s="428"/>
       <c r="C90" s="236"/>
       <c r="D90" s="236"/>
       <c r="E90" s="236"/>
@@ -5644,7 +5650,7 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="227"/>
-      <c r="B92" s="551"/>
+      <c r="B92" s="426"/>
       <c r="C92" s="227"/>
       <c r="D92" s="227"/>
       <c r="E92" s="227"/>
@@ -5662,7 +5668,7 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="231"/>
-      <c r="B93" s="552"/>
+      <c r="B93" s="427"/>
       <c r="C93" s="231"/>
       <c r="D93" s="231"/>
       <c r="E93" s="231"/>
@@ -5680,7 +5686,7 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="236"/>
-      <c r="B94" s="553"/>
+      <c r="B94" s="428"/>
       <c r="C94" s="236"/>
       <c r="D94" s="236"/>
       <c r="E94" s="236"/>
@@ -5770,7 +5776,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="227"/>
-      <c r="B99" s="551"/>
+      <c r="B99" s="426"/>
       <c r="C99" s="227"/>
       <c r="D99" s="227"/>
       <c r="E99" s="227"/>
@@ -5788,7 +5794,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="236"/>
-      <c r="B100" s="553"/>
+      <c r="B100" s="428"/>
       <c r="C100" s="236"/>
       <c r="D100" s="236"/>
       <c r="E100" s="236"/>
@@ -5806,7 +5812,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="227"/>
-      <c r="B101" s="551"/>
+      <c r="B101" s="426"/>
       <c r="C101" s="227"/>
       <c r="D101" s="227"/>
       <c r="E101" s="227"/>
@@ -5824,7 +5830,7 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="231"/>
-      <c r="B102" s="552"/>
+      <c r="B102" s="427"/>
       <c r="C102" s="231"/>
       <c r="D102" s="231"/>
       <c r="E102" s="231"/>
@@ -5842,7 +5848,7 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="231"/>
-      <c r="B103" s="552"/>
+      <c r="B103" s="427"/>
       <c r="C103" s="231"/>
       <c r="D103" s="231"/>
       <c r="E103" s="231"/>
@@ -5860,7 +5866,7 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="231"/>
-      <c r="B104" s="552"/>
+      <c r="B104" s="427"/>
       <c r="C104" s="231"/>
       <c r="D104" s="231"/>
       <c r="E104" s="231"/>
@@ -5878,7 +5884,7 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="236"/>
-      <c r="B105" s="553"/>
+      <c r="B105" s="428"/>
       <c r="C105" s="236"/>
       <c r="D105" s="236"/>
       <c r="E105" s="236"/>
@@ -5914,7 +5920,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="227"/>
-      <c r="B107" s="551"/>
+      <c r="B107" s="426"/>
       <c r="C107" s="227"/>
       <c r="D107" s="227"/>
       <c r="E107" s="227"/>
@@ -5932,7 +5938,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="231"/>
-      <c r="B108" s="552"/>
+      <c r="B108" s="427"/>
       <c r="C108" s="231"/>
       <c r="D108" s="231"/>
       <c r="E108" s="231"/>
@@ -5950,7 +5956,7 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="231"/>
-      <c r="B109" s="552"/>
+      <c r="B109" s="427"/>
       <c r="C109" s="231"/>
       <c r="D109" s="231"/>
       <c r="E109" s="231"/>
@@ -5968,7 +5974,7 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="231"/>
-      <c r="B110" s="552"/>
+      <c r="B110" s="427"/>
       <c r="C110" s="231"/>
       <c r="D110" s="231"/>
       <c r="E110" s="231"/>
@@ -5986,7 +5992,7 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="231"/>
-      <c r="B111" s="552"/>
+      <c r="B111" s="427"/>
       <c r="C111" s="231"/>
       <c r="D111" s="231"/>
       <c r="E111" s="231"/>
@@ -6004,7 +6010,7 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="231"/>
-      <c r="B112" s="552"/>
+      <c r="B112" s="427"/>
       <c r="C112" s="231"/>
       <c r="D112" s="231"/>
       <c r="E112" s="231"/>
@@ -6022,7 +6028,7 @@
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="231"/>
-      <c r="B113" s="552"/>
+      <c r="B113" s="427"/>
       <c r="C113" s="231"/>
       <c r="D113" s="231"/>
       <c r="E113" s="231"/>
@@ -6040,7 +6046,7 @@
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="236"/>
-      <c r="B114" s="553"/>
+      <c r="B114" s="428"/>
       <c r="C114" s="236"/>
       <c r="D114" s="236"/>
       <c r="E114" s="236"/>
@@ -6075,14 +6081,14 @@
       <c r="P115" s="243"/>
     </row>
     <row r="116" spans="1:17" s="340" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A116" s="433" t="s">
+      <c r="A116" s="463" t="s">
         <v>79</v>
       </c>
-      <c r="B116" s="433"/>
-      <c r="C116" s="433"/>
-      <c r="D116" s="433"/>
-      <c r="E116" s="433"/>
-      <c r="F116" s="433"/>
+      <c r="B116" s="463"/>
+      <c r="C116" s="463"/>
+      <c r="D116" s="463"/>
+      <c r="E116" s="463"/>
+      <c r="F116" s="463"/>
       <c r="G116" s="334">
         <f>SUM(G9:G115)</f>
         <v>0</v>
@@ -6101,18 +6107,18 @@
       <c r="M116" s="335"/>
       <c r="N116" s="335"/>
       <c r="O116" s="335"/>
-      <c r="P116" s="434"/>
-      <c r="Q116" s="431"/>
+      <c r="P116" s="464"/>
+      <c r="Q116" s="461"/>
     </row>
     <row r="117" spans="1:17" s="340" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A117" s="432" t="s">
+      <c r="A117" s="462" t="s">
         <v>152</v>
       </c>
-      <c r="B117" s="432"/>
-      <c r="C117" s="432"/>
-      <c r="D117" s="432"/>
-      <c r="E117" s="432"/>
-      <c r="F117" s="432"/>
+      <c r="B117" s="462"/>
+      <c r="C117" s="462"/>
+      <c r="D117" s="462"/>
+      <c r="E117" s="462"/>
+      <c r="F117" s="462"/>
       <c r="G117" s="334">
         <f>G116</f>
         <v>0</v>
@@ -6128,18 +6134,18 @@
       <c r="M117" s="337"/>
       <c r="N117" s="337"/>
       <c r="O117" s="337"/>
-      <c r="P117" s="434"/>
-      <c r="Q117" s="431"/>
+      <c r="P117" s="464"/>
+      <c r="Q117" s="461"/>
     </row>
     <row r="118" spans="1:17" s="340" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A118" s="432" t="s">
+      <c r="A118" s="462" t="s">
         <v>80</v>
       </c>
-      <c r="B118" s="432"/>
-      <c r="C118" s="432"/>
-      <c r="D118" s="432"/>
-      <c r="E118" s="432"/>
-      <c r="F118" s="432"/>
+      <c r="B118" s="462"/>
+      <c r="C118" s="462"/>
+      <c r="D118" s="462"/>
+      <c r="E118" s="462"/>
+      <c r="F118" s="462"/>
       <c r="G118" s="341" t="s">
         <v>50</v>
       </c>
@@ -6156,14 +6162,14 @@
       <c r="O118" s="337"/>
     </row>
     <row r="119" spans="1:17" s="340" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A119" s="432" t="s">
+      <c r="A119" s="462" t="s">
         <v>81</v>
       </c>
-      <c r="B119" s="432"/>
-      <c r="C119" s="432"/>
-      <c r="D119" s="432"/>
-      <c r="E119" s="432"/>
-      <c r="F119" s="432"/>
+      <c r="B119" s="462"/>
+      <c r="C119" s="462"/>
+      <c r="D119" s="462"/>
+      <c r="E119" s="462"/>
+      <c r="F119" s="462"/>
       <c r="G119" s="341"/>
       <c r="H119" s="337"/>
       <c r="I119" s="335"/>
@@ -6178,14 +6184,14 @@
       <c r="O119" s="337"/>
     </row>
     <row r="120" spans="1:17" s="340" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A120" s="432" t="s">
+      <c r="A120" s="462" t="s">
         <v>82</v>
       </c>
-      <c r="B120" s="432"/>
-      <c r="C120" s="432"/>
-      <c r="D120" s="432"/>
-      <c r="E120" s="432"/>
-      <c r="F120" s="432"/>
+      <c r="B120" s="462"/>
+      <c r="C120" s="462"/>
+      <c r="D120" s="462"/>
+      <c r="E120" s="462"/>
+      <c r="F120" s="462"/>
       <c r="G120" s="341"/>
       <c r="H120" s="337"/>
       <c r="I120" s="335"/>
@@ -6258,6 +6264,19 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="29">
+    <mergeCell ref="Q116:Q117"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="P116:P117"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A4:P4"/>
@@ -6274,19 +6293,6 @@
     <mergeCell ref="P6:P8"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="Q116:Q117"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="P116:P117"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -6297,7 +6303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -6317,134 +6323,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="460" t="s">
+      <c r="A1" s="465" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="460"/>
-      <c r="C1" s="460"/>
-      <c r="D1" s="460"/>
+      <c r="B1" s="465"/>
+      <c r="C1" s="465"/>
+      <c r="D1" s="465"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="461" t="s">
+      <c r="A2" s="466" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="461"/>
-      <c r="C2" s="461"/>
-      <c r="D2" s="461"/>
+      <c r="B2" s="466"/>
+      <c r="C2" s="466"/>
+      <c r="D2" s="466"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="463" t="s">
+      <c r="A3" s="468" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="463"/>
-      <c r="C3" s="463"/>
-      <c r="D3" s="463"/>
-      <c r="E3" s="463"/>
-      <c r="F3" s="463"/>
-      <c r="G3" s="463"/>
-      <c r="H3" s="463"/>
-      <c r="I3" s="463"/>
-      <c r="J3" s="463"/>
-      <c r="K3" s="463"/>
-      <c r="L3" s="463"/>
-      <c r="M3" s="463"/>
-      <c r="N3" s="463"/>
-      <c r="O3" s="463"/>
-      <c r="P3" s="463"/>
+      <c r="B3" s="468"/>
+      <c r="C3" s="468"/>
+      <c r="D3" s="468"/>
+      <c r="E3" s="468"/>
+      <c r="F3" s="468"/>
+      <c r="G3" s="468"/>
+      <c r="H3" s="468"/>
+      <c r="I3" s="468"/>
+      <c r="J3" s="468"/>
+      <c r="K3" s="468"/>
+      <c r="L3" s="468"/>
+      <c r="M3" s="468"/>
+      <c r="N3" s="468"/>
+      <c r="O3" s="468"/>
+      <c r="P3" s="468"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="464" t="s">
+      <c r="A4" s="469" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="464"/>
-      <c r="C4" s="464"/>
-      <c r="D4" s="464"/>
-      <c r="E4" s="464"/>
-      <c r="F4" s="464"/>
-      <c r="G4" s="464"/>
-      <c r="H4" s="464"/>
-      <c r="I4" s="464"/>
-      <c r="J4" s="464"/>
-      <c r="K4" s="465"/>
-      <c r="L4" s="464"/>
-      <c r="M4" s="464"/>
-      <c r="N4" s="464"/>
-      <c r="O4" s="464"/>
-      <c r="P4" s="464"/>
+      <c r="B4" s="469"/>
+      <c r="C4" s="469"/>
+      <c r="D4" s="469"/>
+      <c r="E4" s="469"/>
+      <c r="F4" s="469"/>
+      <c r="G4" s="469"/>
+      <c r="H4" s="469"/>
+      <c r="I4" s="469"/>
+      <c r="J4" s="469"/>
+      <c r="K4" s="470"/>
+      <c r="L4" s="469"/>
+      <c r="M4" s="469"/>
+      <c r="N4" s="469"/>
+      <c r="O4" s="469"/>
+      <c r="P4" s="469"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="557" t="s">
+      <c r="A5" s="471" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="558" t="s">
+      <c r="B5" s="472" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="559" t="s">
+      <c r="C5" s="473" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="559" t="s">
+      <c r="D5" s="473" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="559"/>
-      <c r="F5" s="559"/>
-      <c r="G5" s="560" t="s">
+      <c r="E5" s="473"/>
+      <c r="F5" s="473"/>
+      <c r="G5" s="474" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="560"/>
-      <c r="I5" s="560"/>
-      <c r="J5" s="560"/>
-      <c r="K5" s="561"/>
-      <c r="L5" s="562" t="s">
+      <c r="H5" s="474"/>
+      <c r="I5" s="474"/>
+      <c r="J5" s="474"/>
+      <c r="K5" s="475"/>
+      <c r="L5" s="476" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="560" t="s">
+      <c r="M5" s="474" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="560"/>
-      <c r="O5" s="560"/>
-      <c r="P5" s="559" t="s">
+      <c r="N5" s="474"/>
+      <c r="O5" s="474"/>
+      <c r="P5" s="473" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="57" x14ac:dyDescent="0.25">
-      <c r="A6" s="557"/>
-      <c r="B6" s="558"/>
-      <c r="C6" s="559"/>
-      <c r="D6" s="563" t="s">
+      <c r="A6" s="471"/>
+      <c r="B6" s="472"/>
+      <c r="C6" s="473"/>
+      <c r="D6" s="432" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="563" t="s">
+      <c r="E6" s="432" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="563" t="s">
+      <c r="F6" s="432" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="563" t="s">
+      <c r="G6" s="432" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="563" t="s">
+      <c r="H6" s="432" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="564" t="s">
+      <c r="I6" s="433" t="s">
         <v>33</v>
       </c>
       <c r="J6" s="419" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="565" t="s">
+      <c r="K6" s="434" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="562"/>
-      <c r="M6" s="563" t="s">
+      <c r="L6" s="476"/>
+      <c r="M6" s="432" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="563" t="s">
+      <c r="N6" s="432" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="563" t="s">
+      <c r="O6" s="432" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="559"/>
+      <c r="P6" s="473"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="243"/>
@@ -6505,7 +6511,7 @@
       <c r="B10" s="376"/>
       <c r="C10" s="363"/>
       <c r="D10" s="363"/>
-      <c r="E10" s="549"/>
+      <c r="E10" s="424"/>
       <c r="F10" s="363"/>
       <c r="G10" s="373"/>
       <c r="H10" s="373"/>
@@ -6519,12 +6525,12 @@
       <c r="P10" s="375"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="554"/>
-      <c r="B11" s="555"/>
-      <c r="C11" s="554"/>
-      <c r="D11" s="554"/>
-      <c r="E11" s="556"/>
-      <c r="F11" s="554"/>
+      <c r="A11" s="429"/>
+      <c r="B11" s="430"/>
+      <c r="C11" s="429"/>
+      <c r="D11" s="429"/>
+      <c r="E11" s="431"/>
+      <c r="F11" s="429"/>
       <c r="G11" s="373"/>
       <c r="H11" s="373"/>
       <c r="I11" s="374"/>
@@ -6537,12 +6543,12 @@
       <c r="P11" s="373"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="554"/>
-      <c r="B12" s="555"/>
-      <c r="C12" s="554"/>
-      <c r="D12" s="554"/>
-      <c r="E12" s="556"/>
-      <c r="F12" s="554"/>
+      <c r="A12" s="429"/>
+      <c r="B12" s="430"/>
+      <c r="C12" s="429"/>
+      <c r="D12" s="429"/>
+      <c r="E12" s="431"/>
+      <c r="F12" s="429"/>
       <c r="G12" s="373"/>
       <c r="H12" s="373"/>
       <c r="I12" s="374"/>
@@ -6557,12 +6563,12 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="554"/>
-      <c r="B13" s="555"/>
-      <c r="C13" s="554"/>
-      <c r="D13" s="554"/>
-      <c r="E13" s="556"/>
-      <c r="F13" s="554"/>
+      <c r="A13" s="429"/>
+      <c r="B13" s="430"/>
+      <c r="C13" s="429"/>
+      <c r="D13" s="429"/>
+      <c r="E13" s="431"/>
+      <c r="F13" s="429"/>
       <c r="G13" s="373"/>
       <c r="H13" s="373"/>
       <c r="I13" s="374"/>
@@ -6575,12 +6581,12 @@
       <c r="P13" s="375"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="547"/>
-      <c r="B14" s="548"/>
-      <c r="C14" s="547"/>
-      <c r="D14" s="547"/>
-      <c r="E14" s="550"/>
-      <c r="F14" s="547"/>
+      <c r="A14" s="422"/>
+      <c r="B14" s="423"/>
+      <c r="C14" s="422"/>
+      <c r="D14" s="422"/>
+      <c r="E14" s="425"/>
+      <c r="F14" s="422"/>
       <c r="G14" s="373"/>
       <c r="H14" s="373"/>
       <c r="I14" s="374"/>
@@ -6597,7 +6603,7 @@
       <c r="B15" s="376"/>
       <c r="C15" s="363"/>
       <c r="D15" s="363"/>
-      <c r="E15" s="549"/>
+      <c r="E15" s="424"/>
       <c r="F15" s="363"/>
       <c r="G15" s="373"/>
       <c r="H15" s="373"/>
@@ -6611,12 +6617,12 @@
       <c r="P15" s="375"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="547"/>
-      <c r="B16" s="548"/>
-      <c r="C16" s="547"/>
-      <c r="D16" s="547"/>
-      <c r="E16" s="550"/>
-      <c r="F16" s="547"/>
+      <c r="A16" s="422"/>
+      <c r="B16" s="423"/>
+      <c r="C16" s="422"/>
+      <c r="D16" s="422"/>
+      <c r="E16" s="425"/>
+      <c r="F16" s="422"/>
       <c r="G16" s="373"/>
       <c r="H16" s="373"/>
       <c r="I16" s="374"/>
@@ -6665,12 +6671,12 @@
       <c r="P18" s="145"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="547"/>
-      <c r="B19" s="548"/>
-      <c r="C19" s="547"/>
-      <c r="D19" s="547"/>
-      <c r="E19" s="547"/>
-      <c r="F19" s="547"/>
+      <c r="A19" s="422"/>
+      <c r="B19" s="423"/>
+      <c r="C19" s="422"/>
+      <c r="D19" s="422"/>
+      <c r="E19" s="422"/>
+      <c r="F19" s="422"/>
       <c r="G19" s="140"/>
       <c r="H19" s="140"/>
       <c r="I19" s="144"/>
@@ -6719,12 +6725,12 @@
       <c r="P21" s="235"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="554"/>
-      <c r="B22" s="555"/>
-      <c r="C22" s="554"/>
-      <c r="D22" s="554"/>
-      <c r="E22" s="554"/>
-      <c r="F22" s="554"/>
+      <c r="A22" s="429"/>
+      <c r="B22" s="430"/>
+      <c r="C22" s="429"/>
+      <c r="D22" s="429"/>
+      <c r="E22" s="429"/>
+      <c r="F22" s="429"/>
       <c r="G22" s="243"/>
       <c r="H22" s="378"/>
       <c r="I22" s="232"/>
@@ -6737,12 +6743,12 @@
       <c r="P22" s="235"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="554"/>
-      <c r="B23" s="555"/>
-      <c r="C23" s="554"/>
-      <c r="D23" s="554"/>
-      <c r="E23" s="554"/>
-      <c r="F23" s="554"/>
+      <c r="A23" s="429"/>
+      <c r="B23" s="430"/>
+      <c r="C23" s="429"/>
+      <c r="D23" s="429"/>
+      <c r="E23" s="429"/>
+      <c r="F23" s="429"/>
       <c r="G23" s="243"/>
       <c r="H23" s="378"/>
       <c r="I23" s="232"/>
@@ -6755,12 +6761,12 @@
       <c r="P23" s="235"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="554"/>
-      <c r="B24" s="555"/>
-      <c r="C24" s="554"/>
-      <c r="D24" s="554"/>
-      <c r="E24" s="554"/>
-      <c r="F24" s="554"/>
+      <c r="A24" s="429"/>
+      <c r="B24" s="430"/>
+      <c r="C24" s="429"/>
+      <c r="D24" s="429"/>
+      <c r="E24" s="429"/>
+      <c r="F24" s="429"/>
       <c r="G24" s="243"/>
       <c r="H24" s="378"/>
       <c r="I24" s="232"/>
@@ -6773,12 +6779,12 @@
       <c r="P24" s="235"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="547"/>
-      <c r="B25" s="548"/>
-      <c r="C25" s="547"/>
-      <c r="D25" s="547"/>
-      <c r="E25" s="547"/>
-      <c r="F25" s="547"/>
+      <c r="A25" s="422"/>
+      <c r="B25" s="423"/>
+      <c r="C25" s="422"/>
+      <c r="D25" s="422"/>
+      <c r="E25" s="422"/>
+      <c r="F25" s="422"/>
       <c r="G25" s="243"/>
       <c r="H25" s="378"/>
       <c r="I25" s="232"/>
@@ -6791,14 +6797,14 @@
       <c r="P25" s="235"/>
     </row>
     <row r="26" spans="1:16" s="135" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="462" t="s">
+      <c r="A26" s="467" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="462"/>
-      <c r="C26" s="462"/>
-      <c r="D26" s="462"/>
-      <c r="E26" s="462"/>
-      <c r="F26" s="462"/>
+      <c r="B26" s="467"/>
+      <c r="C26" s="467"/>
+      <c r="D26" s="467"/>
+      <c r="E26" s="467"/>
+      <c r="F26" s="467"/>
       <c r="G26" s="131"/>
       <c r="H26" s="131">
         <f>SUM(H7:H25)</f>
@@ -6915,7 +6921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -6993,14 +6999,14 @@
       <c r="Q3" s="17"/>
     </row>
     <row r="4" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="466" t="s">
+      <c r="A4" s="477" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="466"/>
-      <c r="C4" s="466"/>
-      <c r="D4" s="466"/>
-      <c r="E4" s="466"/>
-      <c r="F4" s="466"/>
+      <c r="B4" s="477"/>
+      <c r="C4" s="477"/>
+      <c r="D4" s="477"/>
+      <c r="E4" s="477"/>
+      <c r="F4" s="477"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="19"/>
@@ -7014,14 +7020,14 @@
       <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="467" t="s">
+      <c r="A5" s="478" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="467"/>
-      <c r="C5" s="467"/>
-      <c r="D5" s="467"/>
-      <c r="E5" s="467"/>
-      <c r="F5" s="467"/>
+      <c r="B5" s="478"/>
+      <c r="C5" s="478"/>
+      <c r="D5" s="478"/>
+      <c r="E5" s="478"/>
+      <c r="F5" s="478"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="20"/>
@@ -7368,10 +7374,10 @@
       <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="468" t="s">
+      <c r="A25" s="479" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="468"/>
+      <c r="B25" s="479"/>
       <c r="C25" s="31"/>
       <c r="D25" s="261">
         <f>C24-D24</f>
@@ -7429,7 +7435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D60" sqref="D60:I60"/>
     </sheetView>
   </sheetViews>
@@ -7454,13 +7460,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="495" t="s">
+      <c r="A1" s="480" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="495"/>
-      <c r="C1" s="495"/>
-      <c r="D1" s="495"/>
-      <c r="E1" s="495"/>
+      <c r="B1" s="480"/>
+      <c r="C1" s="480"/>
+      <c r="D1" s="480"/>
+      <c r="E1" s="480"/>
       <c r="F1" s="69"/>
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
@@ -7504,90 +7510,90 @@
       <c r="L4" s="481"/>
     </row>
     <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="490"/>
-      <c r="B5" s="490"/>
-      <c r="C5" s="490"/>
-      <c r="D5" s="490"/>
-      <c r="E5" s="490"/>
-      <c r="F5" s="490"/>
-      <c r="G5" s="490"/>
-      <c r="H5" s="490"/>
-      <c r="I5" s="490"/>
-      <c r="J5" s="490"/>
-      <c r="K5" s="490"/>
-      <c r="L5" s="490"/>
+      <c r="A5" s="485"/>
+      <c r="B5" s="485"/>
+      <c r="C5" s="485"/>
+      <c r="D5" s="485"/>
+      <c r="E5" s="485"/>
+      <c r="F5" s="485"/>
+      <c r="G5" s="485"/>
+      <c r="H5" s="485"/>
+      <c r="I5" s="485"/>
+      <c r="J5" s="485"/>
+      <c r="K5" s="485"/>
+      <c r="L5" s="485"/>
     </row>
     <row r="6" spans="1:13" s="146" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="478" t="s">
+      <c r="A6" s="482" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="491" t="s">
+      <c r="B6" s="488" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="478" t="s">
+      <c r="C6" s="482" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="478" t="s">
+      <c r="D6" s="482" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="478"/>
-      <c r="F6" s="479" t="s">
+      <c r="E6" s="482"/>
+      <c r="F6" s="487" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="479"/>
-      <c r="H6" s="479"/>
-      <c r="I6" s="479"/>
-      <c r="J6" s="479"/>
-      <c r="K6" s="479"/>
-      <c r="L6" s="479"/>
+      <c r="G6" s="487"/>
+      <c r="H6" s="487"/>
+      <c r="I6" s="487"/>
+      <c r="J6" s="487"/>
+      <c r="K6" s="487"/>
+      <c r="L6" s="487"/>
     </row>
     <row r="7" spans="1:13" s="146" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="478"/>
-      <c r="B7" s="491"/>
-      <c r="C7" s="478"/>
-      <c r="D7" s="478" t="s">
+      <c r="A7" s="482"/>
+      <c r="B7" s="488"/>
+      <c r="C7" s="482"/>
+      <c r="D7" s="482" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="478" t="s">
+      <c r="E7" s="482" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="478" t="s">
+      <c r="F7" s="482" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="478" t="s">
+      <c r="G7" s="482" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="469" t="s">
+      <c r="H7" s="483" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="469" t="s">
+      <c r="I7" s="483" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="470" t="s">
+      <c r="J7" s="484" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="470"/>
-      <c r="L7" s="469" t="s">
+      <c r="K7" s="484"/>
+      <c r="L7" s="483" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="146" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="478"/>
-      <c r="B8" s="491"/>
-      <c r="C8" s="478"/>
-      <c r="D8" s="478"/>
-      <c r="E8" s="478"/>
-      <c r="F8" s="478"/>
-      <c r="G8" s="478"/>
-      <c r="H8" s="469"/>
-      <c r="I8" s="469"/>
+      <c r="A8" s="482"/>
+      <c r="B8" s="488"/>
+      <c r="C8" s="482"/>
+      <c r="D8" s="482"/>
+      <c r="E8" s="482"/>
+      <c r="F8" s="482"/>
+      <c r="G8" s="482"/>
+      <c r="H8" s="483"/>
+      <c r="I8" s="483"/>
       <c r="J8" s="172" t="s">
         <v>86</v>
       </c>
       <c r="K8" s="159" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="469"/>
+      <c r="L8" s="483"/>
     </row>
     <row r="9" spans="1:13" s="328" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="243"/>
@@ -7618,11 +7624,11 @@
       <c r="L10" s="326"/>
     </row>
     <row r="11" spans="1:13" s="328" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="451"/>
-      <c r="B11" s="453"/>
-      <c r="C11" s="451"/>
-      <c r="D11" s="451"/>
-      <c r="E11" s="458"/>
+      <c r="A11" s="492"/>
+      <c r="B11" s="494"/>
+      <c r="C11" s="492"/>
+      <c r="D11" s="492"/>
+      <c r="E11" s="496"/>
       <c r="F11" s="243"/>
       <c r="G11" s="243"/>
       <c r="H11" s="326"/>
@@ -7632,11 +7638,11 @@
       <c r="L11" s="326"/>
     </row>
     <row r="12" spans="1:13" s="328" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="452"/>
-      <c r="B12" s="454"/>
-      <c r="C12" s="452"/>
-      <c r="D12" s="452"/>
-      <c r="E12" s="459"/>
+      <c r="A12" s="493"/>
+      <c r="B12" s="495"/>
+      <c r="C12" s="493"/>
+      <c r="D12" s="493"/>
+      <c r="E12" s="497"/>
       <c r="F12" s="243"/>
       <c r="G12" s="243"/>
       <c r="H12" s="326"/>
@@ -7754,7 +7760,7 @@
       <c r="G20" s="169"/>
       <c r="H20" s="160"/>
       <c r="I20" s="160"/>
-      <c r="J20" s="492"/>
+      <c r="J20" s="489"/>
       <c r="K20" s="161"/>
       <c r="L20" s="160"/>
     </row>
@@ -7768,7 +7774,7 @@
       <c r="G21" s="170"/>
       <c r="H21" s="162"/>
       <c r="I21" s="162"/>
-      <c r="J21" s="493"/>
+      <c r="J21" s="490"/>
       <c r="K21" s="163"/>
       <c r="L21" s="162"/>
     </row>
@@ -7782,7 +7788,7 @@
       <c r="G22" s="171"/>
       <c r="H22" s="164"/>
       <c r="I22" s="164"/>
-      <c r="J22" s="494"/>
+      <c r="J22" s="491"/>
       <c r="K22" s="165"/>
       <c r="L22" s="164"/>
     </row>
@@ -7913,16 +7919,16 @@
       <c r="L31" s="166"/>
     </row>
     <row r="32" spans="1:12" s="213" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="486" t="s">
+      <c r="A32" s="498" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="487"/>
-      <c r="C32" s="487"/>
-      <c r="D32" s="487"/>
-      <c r="E32" s="487"/>
-      <c r="F32" s="487"/>
-      <c r="G32" s="487"/>
-      <c r="H32" s="488"/>
+      <c r="B32" s="499"/>
+      <c r="C32" s="499"/>
+      <c r="D32" s="499"/>
+      <c r="E32" s="499"/>
+      <c r="F32" s="499"/>
+      <c r="G32" s="499"/>
+      <c r="H32" s="500"/>
       <c r="I32" s="214">
         <f>SUM(I9:I31)</f>
         <v>0</v>
@@ -7963,90 +7969,90 @@
       <c r="L34" s="481"/>
     </row>
     <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="490"/>
-      <c r="B35" s="490"/>
-      <c r="C35" s="490"/>
-      <c r="D35" s="490"/>
-      <c r="E35" s="490"/>
-      <c r="F35" s="490"/>
-      <c r="G35" s="490"/>
-      <c r="H35" s="490"/>
-      <c r="I35" s="490"/>
-      <c r="J35" s="490"/>
-      <c r="K35" s="490"/>
-      <c r="L35" s="490"/>
+      <c r="A35" s="485"/>
+      <c r="B35" s="485"/>
+      <c r="C35" s="485"/>
+      <c r="D35" s="485"/>
+      <c r="E35" s="485"/>
+      <c r="F35" s="485"/>
+      <c r="G35" s="485"/>
+      <c r="H35" s="485"/>
+      <c r="I35" s="485"/>
+      <c r="J35" s="485"/>
+      <c r="K35" s="485"/>
+      <c r="L35" s="485"/>
     </row>
     <row r="36" spans="1:13" s="146" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="478" t="s">
+      <c r="A36" s="482" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="491" t="s">
+      <c r="B36" s="488" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="478" t="s">
+      <c r="C36" s="482" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="478" t="s">
+      <c r="D36" s="482" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="478"/>
-      <c r="F36" s="479" t="s">
+      <c r="E36" s="482"/>
+      <c r="F36" s="487" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="479"/>
-      <c r="H36" s="479"/>
-      <c r="I36" s="479"/>
-      <c r="J36" s="479"/>
-      <c r="K36" s="479"/>
-      <c r="L36" s="479"/>
+      <c r="G36" s="487"/>
+      <c r="H36" s="487"/>
+      <c r="I36" s="487"/>
+      <c r="J36" s="487"/>
+      <c r="K36" s="487"/>
+      <c r="L36" s="487"/>
     </row>
     <row r="37" spans="1:13" s="146" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="478"/>
-      <c r="B37" s="491"/>
-      <c r="C37" s="478"/>
-      <c r="D37" s="478" t="s">
+      <c r="A37" s="482"/>
+      <c r="B37" s="488"/>
+      <c r="C37" s="482"/>
+      <c r="D37" s="482" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="478" t="s">
+      <c r="E37" s="482" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="478" t="s">
+      <c r="F37" s="482" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="478" t="s">
+      <c r="G37" s="482" t="s">
         <v>32</v>
       </c>
-      <c r="H37" s="469" t="s">
+      <c r="H37" s="483" t="s">
         <v>33</v>
       </c>
-      <c r="I37" s="469" t="s">
+      <c r="I37" s="483" t="s">
         <v>44</v>
       </c>
-      <c r="J37" s="470" t="s">
+      <c r="J37" s="484" t="s">
         <v>35</v>
       </c>
-      <c r="K37" s="470"/>
-      <c r="L37" s="469" t="s">
+      <c r="K37" s="484"/>
+      <c r="L37" s="483" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:13" s="146" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="478"/>
-      <c r="B38" s="491"/>
-      <c r="C38" s="478"/>
-      <c r="D38" s="478"/>
-      <c r="E38" s="478"/>
-      <c r="F38" s="478"/>
-      <c r="G38" s="478"/>
-      <c r="H38" s="469"/>
-      <c r="I38" s="469"/>
+      <c r="A38" s="482"/>
+      <c r="B38" s="488"/>
+      <c r="C38" s="482"/>
+      <c r="D38" s="482"/>
+      <c r="E38" s="482"/>
+      <c r="F38" s="482"/>
+      <c r="G38" s="482"/>
+      <c r="H38" s="483"/>
+      <c r="I38" s="483"/>
       <c r="J38" s="313" t="s">
         <v>86</v>
       </c>
       <c r="K38" s="159" t="s">
         <v>49</v>
       </c>
-      <c r="L38" s="469"/>
+      <c r="L38" s="483"/>
     </row>
     <row r="39" spans="1:13" s="328" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="243"/>
@@ -8079,16 +8085,16 @@
       <c r="M40" s="329"/>
     </row>
     <row r="41" spans="1:13" s="213" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="486" t="s">
+      <c r="A41" s="498" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="487"/>
-      <c r="C41" s="487"/>
-      <c r="D41" s="487"/>
-      <c r="E41" s="487"/>
-      <c r="F41" s="487"/>
-      <c r="G41" s="487"/>
-      <c r="H41" s="488"/>
+      <c r="B41" s="499"/>
+      <c r="C41" s="499"/>
+      <c r="D41" s="499"/>
+      <c r="E41" s="499"/>
+      <c r="F41" s="499"/>
+      <c r="G41" s="499"/>
+      <c r="H41" s="500"/>
       <c r="I41" s="214">
         <f>SUM(I39)</f>
         <v>0</v>
@@ -8141,74 +8147,74 @@
       <c r="L44" s="220"/>
     </row>
     <row r="45" spans="1:13" s="146" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="484"/>
-      <c r="B45" s="485" t="s">
+      <c r="A45" s="504"/>
+      <c r="B45" s="505" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="478" t="s">
+      <c r="C45" s="482" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="478" t="s">
+      <c r="D45" s="482" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="478"/>
-      <c r="F45" s="479" t="s">
+      <c r="E45" s="482"/>
+      <c r="F45" s="487" t="s">
         <v>29</v>
       </c>
-      <c r="G45" s="479"/>
-      <c r="H45" s="479"/>
-      <c r="I45" s="479"/>
-      <c r="J45" s="479"/>
-      <c r="K45" s="479"/>
-      <c r="L45" s="480"/>
+      <c r="G45" s="487"/>
+      <c r="H45" s="487"/>
+      <c r="I45" s="487"/>
+      <c r="J45" s="487"/>
+      <c r="K45" s="487"/>
+      <c r="L45" s="512"/>
     </row>
     <row r="46" spans="1:13" s="146" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="484"/>
-      <c r="B46" s="485"/>
-      <c r="C46" s="478"/>
-      <c r="D46" s="478" t="s">
+      <c r="A46" s="504"/>
+      <c r="B46" s="505"/>
+      <c r="C46" s="482"/>
+      <c r="D46" s="482" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="478" t="s">
+      <c r="E46" s="482" t="s">
         <v>42</v>
       </c>
-      <c r="F46" s="478" t="s">
+      <c r="F46" s="482" t="s">
         <v>31</v>
       </c>
-      <c r="G46" s="478" t="s">
+      <c r="G46" s="482" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="469" t="s">
+      <c r="H46" s="483" t="s">
         <v>33</v>
       </c>
-      <c r="I46" s="469" t="s">
+      <c r="I46" s="483" t="s">
         <v>44</v>
       </c>
-      <c r="J46" s="470" t="s">
+      <c r="J46" s="484" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="470"/>
-      <c r="L46" s="469" t="s">
+      <c r="K46" s="484"/>
+      <c r="L46" s="483" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="146" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="484"/>
-      <c r="B47" s="485"/>
-      <c r="C47" s="478"/>
-      <c r="D47" s="478"/>
-      <c r="E47" s="478"/>
-      <c r="F47" s="478"/>
-      <c r="G47" s="478"/>
-      <c r="H47" s="469"/>
-      <c r="I47" s="469"/>
+      <c r="A47" s="504"/>
+      <c r="B47" s="505"/>
+      <c r="C47" s="482"/>
+      <c r="D47" s="482"/>
+      <c r="E47" s="482"/>
+      <c r="F47" s="482"/>
+      <c r="G47" s="482"/>
+      <c r="H47" s="483"/>
+      <c r="I47" s="483"/>
       <c r="J47" s="364" t="s">
         <v>86</v>
       </c>
       <c r="K47" s="159" t="s">
         <v>49</v>
       </c>
-      <c r="L47" s="469"/>
+      <c r="L47" s="483"/>
     </row>
     <row r="48" spans="1:13" s="146" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="395"/>
@@ -8328,126 +8334,126 @@
       <c r="A56" s="312"/>
       <c r="B56" s="312"/>
       <c r="C56" s="312"/>
-      <c r="D56" s="482" t="s">
+      <c r="D56" s="502" t="s">
         <v>139</v>
       </c>
-      <c r="E56" s="482"/>
-      <c r="F56" s="482"/>
-      <c r="G56" s="482"/>
-      <c r="H56" s="482"/>
-      <c r="I56" s="482"/>
-      <c r="J56" s="483" t="s">
+      <c r="E56" s="502"/>
+      <c r="F56" s="502"/>
+      <c r="G56" s="502"/>
+      <c r="H56" s="502"/>
+      <c r="I56" s="502"/>
+      <c r="J56" s="503" t="s">
         <v>51</v>
       </c>
-      <c r="K56" s="483"/>
+      <c r="K56" s="503"/>
       <c r="L56" s="220"/>
     </row>
     <row r="57" spans="1:12" s="221" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="312"/>
       <c r="B57" s="312"/>
       <c r="C57" s="312"/>
-      <c r="D57" s="471" t="s">
+      <c r="D57" s="501" t="s">
         <v>158</v>
       </c>
-      <c r="E57" s="471"/>
-      <c r="F57" s="471"/>
-      <c r="G57" s="471"/>
-      <c r="H57" s="471"/>
-      <c r="I57" s="471"/>
-      <c r="J57" s="475"/>
-      <c r="K57" s="475"/>
+      <c r="E57" s="501"/>
+      <c r="F57" s="501"/>
+      <c r="G57" s="501"/>
+      <c r="H57" s="501"/>
+      <c r="I57" s="501"/>
+      <c r="J57" s="509"/>
+      <c r="K57" s="509"/>
       <c r="L57" s="220"/>
     </row>
     <row r="58" spans="1:12" s="221" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="312"/>
       <c r="B58" s="312"/>
       <c r="C58" s="312"/>
-      <c r="D58" s="471" t="s">
+      <c r="D58" s="501" t="s">
         <v>159</v>
       </c>
-      <c r="E58" s="471"/>
-      <c r="F58" s="471"/>
-      <c r="G58" s="471"/>
-      <c r="H58" s="471"/>
-      <c r="I58" s="471"/>
-      <c r="J58" s="475">
+      <c r="E58" s="501"/>
+      <c r="F58" s="501"/>
+      <c r="G58" s="501"/>
+      <c r="H58" s="501"/>
+      <c r="I58" s="501"/>
+      <c r="J58" s="509">
         <f>L32</f>
         <v>0</v>
       </c>
-      <c r="K58" s="475"/>
+      <c r="K58" s="509"/>
       <c r="L58" s="220"/>
     </row>
     <row r="59" spans="1:12" s="221" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="262"/>
       <c r="B59" s="262"/>
       <c r="C59" s="262"/>
-      <c r="D59" s="471" t="s">
+      <c r="D59" s="501" t="s">
         <v>160</v>
       </c>
-      <c r="E59" s="471"/>
-      <c r="F59" s="471"/>
-      <c r="G59" s="471"/>
-      <c r="H59" s="471"/>
-      <c r="I59" s="471"/>
-      <c r="J59" s="475">
+      <c r="E59" s="501"/>
+      <c r="F59" s="501"/>
+      <c r="G59" s="501"/>
+      <c r="H59" s="501"/>
+      <c r="I59" s="501"/>
+      <c r="J59" s="509">
         <f>L41</f>
         <v>0</v>
       </c>
-      <c r="K59" s="475"/>
+      <c r="K59" s="509"/>
       <c r="L59" s="220"/>
     </row>
     <row r="60" spans="1:12" s="221" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="312"/>
       <c r="B60" s="312"/>
       <c r="C60" s="312"/>
-      <c r="D60" s="472" t="s">
+      <c r="D60" s="506" t="s">
         <v>157</v>
       </c>
-      <c r="E60" s="473"/>
-      <c r="F60" s="473"/>
-      <c r="G60" s="473"/>
-      <c r="H60" s="473"/>
-      <c r="I60" s="474"/>
-      <c r="J60" s="476"/>
-      <c r="K60" s="477"/>
+      <c r="E60" s="507"/>
+      <c r="F60" s="507"/>
+      <c r="G60" s="507"/>
+      <c r="H60" s="507"/>
+      <c r="I60" s="508"/>
+      <c r="J60" s="510"/>
+      <c r="K60" s="511"/>
       <c r="L60" s="220"/>
     </row>
     <row r="61" spans="1:12" s="221" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="312"/>
       <c r="B61" s="312"/>
       <c r="C61" s="312"/>
-      <c r="D61" s="472" t="s">
+      <c r="D61" s="506" t="s">
         <v>148</v>
       </c>
-      <c r="E61" s="473"/>
-      <c r="F61" s="473"/>
-      <c r="G61" s="473"/>
-      <c r="H61" s="473"/>
-      <c r="I61" s="474"/>
-      <c r="J61" s="476">
+      <c r="E61" s="507"/>
+      <c r="F61" s="507"/>
+      <c r="G61" s="507"/>
+      <c r="H61" s="507"/>
+      <c r="I61" s="508"/>
+      <c r="J61" s="510">
         <f>L53</f>
         <v>0</v>
       </c>
-      <c r="K61" s="477"/>
+      <c r="K61" s="511"/>
       <c r="L61" s="359"/>
     </row>
     <row r="62" spans="1:12" s="221" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="262"/>
       <c r="B62" s="262"/>
       <c r="C62" s="262"/>
-      <c r="D62" s="471" t="s">
+      <c r="D62" s="501" t="s">
         <v>141</v>
       </c>
-      <c r="E62" s="471"/>
-      <c r="F62" s="471"/>
-      <c r="G62" s="471"/>
-      <c r="H62" s="471"/>
-      <c r="I62" s="471"/>
-      <c r="J62" s="475">
+      <c r="E62" s="501"/>
+      <c r="F62" s="501"/>
+      <c r="G62" s="501"/>
+      <c r="H62" s="501"/>
+      <c r="I62" s="501"/>
+      <c r="J62" s="509">
         <f>J57+J58+J59+J61-J60</f>
         <v>0</v>
       </c>
-      <c r="K62" s="475"/>
+      <c r="K62" s="509"/>
       <c r="L62" s="220"/>
     </row>
     <row r="63" spans="1:12" s="221" customFormat="1" x14ac:dyDescent="0.25">
@@ -8568,8 +8574,8 @@
       <c r="I72" s="217"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="489"/>
-      <c r="B73" s="489"/>
+      <c r="A73" s="486"/>
+      <c r="B73" s="486"/>
       <c r="E73" s="39"/>
       <c r="F73" s="39"/>
       <c r="G73" s="39"/>
@@ -8579,8 +8585,8 @@
       <c r="H75" s="218"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="489"/>
-      <c r="B77" s="489"/>
+      <c r="A77" s="486"/>
+      <c r="B77" s="486"/>
       <c r="E77" s="39"/>
       <c r="F77" s="39"/>
       <c r="G77" s="39"/>
@@ -8588,17 +8594,51 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:L45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:L36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="D57:I57"/>
+    <mergeCell ref="D58:I58"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:L6"/>
@@ -8615,51 +8655,17 @@
     <mergeCell ref="G37:G38"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="B65:D65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:L36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="A43:L43"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="D56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:L45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A5:L5"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.2" top="0.37" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -8670,7 +8676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -8695,13 +8701,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="495" t="s">
+      <c r="A1" s="480" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="495"/>
-      <c r="C1" s="495"/>
-      <c r="D1" s="495"/>
-      <c r="E1" s="495"/>
+      <c r="B1" s="480"/>
+      <c r="C1" s="480"/>
+      <c r="D1" s="480"/>
+      <c r="E1" s="480"/>
       <c r="F1" s="69"/>
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
@@ -8745,97 +8751,97 @@
       <c r="L4" s="481"/>
     </row>
     <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="490"/>
-      <c r="B5" s="490"/>
-      <c r="C5" s="490"/>
-      <c r="D5" s="490"/>
-      <c r="E5" s="490"/>
-      <c r="F5" s="490"/>
-      <c r="G5" s="490"/>
-      <c r="H5" s="490"/>
-      <c r="I5" s="490"/>
-      <c r="J5" s="490"/>
-      <c r="K5" s="490"/>
-      <c r="L5" s="490"/>
+      <c r="A5" s="485"/>
+      <c r="B5" s="485"/>
+      <c r="C5" s="485"/>
+      <c r="D5" s="485"/>
+      <c r="E5" s="485"/>
+      <c r="F5" s="485"/>
+      <c r="G5" s="485"/>
+      <c r="H5" s="485"/>
+      <c r="I5" s="485"/>
+      <c r="J5" s="485"/>
+      <c r="K5" s="485"/>
+      <c r="L5" s="485"/>
     </row>
     <row r="6" spans="1:13" s="146" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="478" t="s">
+      <c r="A6" s="482" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="491" t="s">
+      <c r="B6" s="488" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="478" t="s">
+      <c r="C6" s="482" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="478" t="s">
+      <c r="D6" s="482" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="478"/>
-      <c r="F6" s="479" t="s">
+      <c r="E6" s="482"/>
+      <c r="F6" s="487" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="479"/>
-      <c r="H6" s="479"/>
-      <c r="I6" s="479"/>
-      <c r="J6" s="479"/>
-      <c r="K6" s="479"/>
-      <c r="L6" s="479"/>
+      <c r="G6" s="487"/>
+      <c r="H6" s="487"/>
+      <c r="I6" s="487"/>
+      <c r="J6" s="487"/>
+      <c r="K6" s="487"/>
+      <c r="L6" s="487"/>
     </row>
     <row r="7" spans="1:13" s="146" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="478"/>
-      <c r="B7" s="491"/>
-      <c r="C7" s="478"/>
-      <c r="D7" s="478" t="s">
+      <c r="A7" s="482"/>
+      <c r="B7" s="488"/>
+      <c r="C7" s="482"/>
+      <c r="D7" s="482" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="478" t="s">
+      <c r="E7" s="482" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="478" t="s">
+      <c r="F7" s="482" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="478" t="s">
+      <c r="G7" s="482" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="469" t="s">
+      <c r="H7" s="483" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="469" t="s">
+      <c r="I7" s="483" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="470" t="s">
+      <c r="J7" s="484" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="470"/>
-      <c r="L7" s="499" t="s">
+      <c r="K7" s="484"/>
+      <c r="L7" s="513" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="146" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="478"/>
-      <c r="B8" s="491"/>
-      <c r="C8" s="478"/>
-      <c r="D8" s="478"/>
-      <c r="E8" s="478"/>
-      <c r="F8" s="478"/>
-      <c r="G8" s="478"/>
-      <c r="H8" s="469"/>
-      <c r="I8" s="469"/>
+      <c r="A8" s="482"/>
+      <c r="B8" s="488"/>
+      <c r="C8" s="482"/>
+      <c r="D8" s="482"/>
+      <c r="E8" s="482"/>
+      <c r="F8" s="482"/>
+      <c r="G8" s="482"/>
+      <c r="H8" s="483"/>
+      <c r="I8" s="483"/>
       <c r="J8" s="364" t="s">
         <v>86</v>
       </c>
       <c r="K8" s="159" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="500"/>
+      <c r="L8" s="514"/>
     </row>
     <row r="9" spans="1:13" s="328" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="451"/>
-      <c r="B9" s="453"/>
-      <c r="C9" s="455"/>
-      <c r="D9" s="455"/>
-      <c r="E9" s="455"/>
+      <c r="A9" s="492"/>
+      <c r="B9" s="494"/>
+      <c r="C9" s="515"/>
+      <c r="D9" s="515"/>
+      <c r="E9" s="515"/>
       <c r="F9" s="243"/>
       <c r="G9" s="243"/>
       <c r="H9" s="326"/>
@@ -8846,11 +8852,11 @@
       <c r="M9" s="329"/>
     </row>
     <row r="10" spans="1:13" s="328" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="452"/>
-      <c r="B10" s="454"/>
-      <c r="C10" s="456"/>
-      <c r="D10" s="456"/>
-      <c r="E10" s="456"/>
+      <c r="A10" s="493"/>
+      <c r="B10" s="495"/>
+      <c r="C10" s="516"/>
+      <c r="D10" s="516"/>
+      <c r="E10" s="516"/>
       <c r="F10" s="243"/>
       <c r="G10" s="243"/>
       <c r="H10" s="326"/>
@@ -8888,11 +8894,11 @@
       <c r="L12" s="326"/>
     </row>
     <row r="13" spans="1:13" s="328" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="451"/>
-      <c r="B13" s="496"/>
-      <c r="C13" s="451"/>
-      <c r="D13" s="455"/>
-      <c r="E13" s="455"/>
+      <c r="A13" s="492"/>
+      <c r="B13" s="519"/>
+      <c r="C13" s="492"/>
+      <c r="D13" s="515"/>
+      <c r="E13" s="515"/>
       <c r="F13" s="243"/>
       <c r="G13" s="243"/>
       <c r="H13" s="326"/>
@@ -8902,11 +8908,11 @@
       <c r="L13" s="326"/>
     </row>
     <row r="14" spans="1:13" s="328" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="457"/>
-      <c r="B14" s="497"/>
-      <c r="C14" s="457"/>
-      <c r="D14" s="501"/>
-      <c r="E14" s="501"/>
+      <c r="A14" s="518"/>
+      <c r="B14" s="520"/>
+      <c r="C14" s="518"/>
+      <c r="D14" s="517"/>
+      <c r="E14" s="517"/>
       <c r="F14" s="243"/>
       <c r="G14" s="243"/>
       <c r="H14" s="326"/>
@@ -8916,11 +8922,11 @@
       <c r="L14" s="326"/>
     </row>
     <row r="15" spans="1:13" s="328" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="452"/>
-      <c r="B15" s="498"/>
-      <c r="C15" s="452"/>
-      <c r="D15" s="456"/>
-      <c r="E15" s="456"/>
+      <c r="A15" s="493"/>
+      <c r="B15" s="521"/>
+      <c r="C15" s="493"/>
+      <c r="D15" s="516"/>
+      <c r="E15" s="516"/>
       <c r="F15" s="243"/>
       <c r="G15" s="243"/>
       <c r="H15" s="326"/>
@@ -8944,16 +8950,16 @@
       <c r="L16" s="326"/>
     </row>
     <row r="17" spans="1:12" s="213" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="486" t="s">
+      <c r="A17" s="498" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="487"/>
-      <c r="C17" s="487"/>
-      <c r="D17" s="487"/>
-      <c r="E17" s="487"/>
-      <c r="F17" s="487"/>
-      <c r="G17" s="487"/>
-      <c r="H17" s="488"/>
+      <c r="B17" s="499"/>
+      <c r="C17" s="499"/>
+      <c r="D17" s="499"/>
+      <c r="E17" s="499"/>
+      <c r="F17" s="499"/>
+      <c r="G17" s="499"/>
+      <c r="H17" s="500"/>
       <c r="I17" s="214">
         <f>SUM(I9:I16)</f>
         <v>0</v>
@@ -9020,72 +9026,72 @@
       <c r="A22" s="365"/>
       <c r="B22" s="365"/>
       <c r="C22" s="365"/>
-      <c r="D22" s="482" t="s">
+      <c r="D22" s="502" t="s">
         <v>139</v>
       </c>
-      <c r="E22" s="482"/>
-      <c r="F22" s="482"/>
-      <c r="G22" s="482"/>
-      <c r="H22" s="482"/>
-      <c r="I22" s="482"/>
-      <c r="J22" s="483" t="s">
+      <c r="E22" s="502"/>
+      <c r="F22" s="502"/>
+      <c r="G22" s="502"/>
+      <c r="H22" s="502"/>
+      <c r="I22" s="502"/>
+      <c r="J22" s="503" t="s">
         <v>51</v>
       </c>
-      <c r="K22" s="483"/>
+      <c r="K22" s="503"/>
       <c r="L22" s="220"/>
     </row>
     <row r="23" spans="1:12" s="221" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="365"/>
       <c r="B23" s="365"/>
       <c r="C23" s="365"/>
-      <c r="D23" s="471" t="s">
+      <c r="D23" s="501" t="s">
         <v>140</v>
       </c>
-      <c r="E23" s="471"/>
-      <c r="F23" s="471"/>
-      <c r="G23" s="471"/>
-      <c r="H23" s="471"/>
-      <c r="I23" s="471"/>
-      <c r="J23" s="475">
+      <c r="E23" s="501"/>
+      <c r="F23" s="501"/>
+      <c r="G23" s="501"/>
+      <c r="H23" s="501"/>
+      <c r="I23" s="501"/>
+      <c r="J23" s="509">
         <f>L17</f>
         <v>0</v>
       </c>
-      <c r="K23" s="475"/>
+      <c r="K23" s="509"/>
       <c r="L23" s="220"/>
     </row>
     <row r="24" spans="1:12" s="221" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="365"/>
       <c r="B24" s="365"/>
       <c r="C24" s="365"/>
-      <c r="D24" s="472" t="s">
+      <c r="D24" s="506" t="s">
         <v>157</v>
       </c>
-      <c r="E24" s="473"/>
-      <c r="F24" s="473"/>
-      <c r="G24" s="473"/>
-      <c r="H24" s="473"/>
-      <c r="I24" s="474"/>
-      <c r="J24" s="476"/>
-      <c r="K24" s="477"/>
+      <c r="E24" s="507"/>
+      <c r="F24" s="507"/>
+      <c r="G24" s="507"/>
+      <c r="H24" s="507"/>
+      <c r="I24" s="508"/>
+      <c r="J24" s="510"/>
+      <c r="K24" s="511"/>
       <c r="L24" s="220"/>
     </row>
     <row r="25" spans="1:12" s="221" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="365"/>
       <c r="B25" s="365"/>
       <c r="C25" s="365"/>
-      <c r="D25" s="471" t="s">
+      <c r="D25" s="501" t="s">
         <v>149</v>
       </c>
-      <c r="E25" s="471"/>
-      <c r="F25" s="471"/>
-      <c r="G25" s="471"/>
-      <c r="H25" s="471"/>
-      <c r="I25" s="471"/>
-      <c r="J25" s="475">
+      <c r="E25" s="501"/>
+      <c r="F25" s="501"/>
+      <c r="G25" s="501"/>
+      <c r="H25" s="501"/>
+      <c r="I25" s="501"/>
+      <c r="J25" s="509">
         <f>J23-J24</f>
         <v>0</v>
       </c>
-      <c r="K25" s="475"/>
+      <c r="K25" s="509"/>
       <c r="L25" s="220"/>
     </row>
     <row r="26" spans="1:12" s="221" customFormat="1" x14ac:dyDescent="0.25">
@@ -9206,8 +9212,8 @@
       <c r="I35" s="217"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="489"/>
-      <c r="B36" s="489"/>
+      <c r="A36" s="486"/>
+      <c r="B36" s="486"/>
       <c r="E36" s="39"/>
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
@@ -9217,8 +9223,8 @@
       <c r="H38" s="218"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="489"/>
-      <c r="B40" s="489"/>
+      <c r="A40" s="486"/>
+      <c r="B40" s="486"/>
       <c r="E40" s="39"/>
       <c r="F40" s="39"/>
       <c r="G40" s="39"/>
@@ -9226,14 +9232,23 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="J24:K24"/>
     <mergeCell ref="D22:I22"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="A17:H17"/>
@@ -9249,23 +9264,14 @@
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9275,8 +9281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN42"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9805,16 +9811,16 @@
       <c r="C1" s="174"/>
       <c r="D1" s="174"/>
       <c r="E1" s="174"/>
-      <c r="Z1" s="507" t="s">
+      <c r="Z1" s="540" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="508"/>
-      <c r="AB1" s="508"/>
-      <c r="AC1" s="508"/>
-      <c r="AD1" s="508"/>
-      <c r="AE1" s="508"/>
-      <c r="AF1" s="508"/>
-      <c r="AG1" s="509"/>
+      <c r="AA1" s="541"/>
+      <c r="AB1" s="541"/>
+      <c r="AC1" s="541"/>
+      <c r="AD1" s="541"/>
+      <c r="AE1" s="541"/>
+      <c r="AF1" s="541"/>
+      <c r="AG1" s="542"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="177" t="s">
@@ -9824,18 +9830,18 @@
       <c r="C2" s="178"/>
       <c r="D2" s="178"/>
       <c r="E2" s="178"/>
-      <c r="Z2" s="502" t="s">
+      <c r="Z2" s="523" t="s">
         <v>89</v>
       </c>
-      <c r="AA2" s="503"/>
-      <c r="AB2" s="503"/>
-      <c r="AC2" s="503"/>
-      <c r="AD2" s="503"/>
-      <c r="AE2" s="504"/>
-      <c r="AF2" s="505" t="s">
+      <c r="AA2" s="524"/>
+      <c r="AB2" s="524"/>
+      <c r="AC2" s="524"/>
+      <c r="AD2" s="524"/>
+      <c r="AE2" s="525"/>
+      <c r="AF2" s="526" t="s">
         <v>90</v>
       </c>
-      <c r="AG2" s="506"/>
+      <c r="AG2" s="527"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="177" t="s">
@@ -9845,18 +9851,18 @@
       <c r="C3" s="86"/>
       <c r="D3" s="86"/>
       <c r="E3" s="86"/>
-      <c r="Z3" s="502" t="s">
+      <c r="Z3" s="523" t="s">
         <v>92</v>
       </c>
-      <c r="AA3" s="503"/>
-      <c r="AB3" s="503"/>
-      <c r="AC3" s="503"/>
-      <c r="AD3" s="503"/>
-      <c r="AE3" s="504"/>
-      <c r="AF3" s="505" t="s">
+      <c r="AA3" s="524"/>
+      <c r="AB3" s="524"/>
+      <c r="AC3" s="524"/>
+      <c r="AD3" s="524"/>
+      <c r="AE3" s="525"/>
+      <c r="AF3" s="526" t="s">
         <v>93</v>
       </c>
-      <c r="AG3" s="506"/>
+      <c r="AG3" s="527"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="177" t="s">
@@ -9869,18 +9875,18 @@
       <c r="T4" s="175" t="s">
         <v>50</v>
       </c>
-      <c r="Z4" s="502" t="s">
+      <c r="Z4" s="523" t="s">
         <v>95</v>
       </c>
-      <c r="AA4" s="503"/>
-      <c r="AB4" s="503"/>
-      <c r="AC4" s="503"/>
-      <c r="AD4" s="503"/>
-      <c r="AE4" s="504"/>
-      <c r="AF4" s="505" t="s">
+      <c r="AA4" s="524"/>
+      <c r="AB4" s="524"/>
+      <c r="AC4" s="524"/>
+      <c r="AD4" s="524"/>
+      <c r="AE4" s="525"/>
+      <c r="AF4" s="526" t="s">
         <v>96</v>
       </c>
-      <c r="AG4" s="506"/>
+      <c r="AG4" s="527"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="177" t="s">
@@ -9890,18 +9896,18 @@
       <c r="C5" s="86"/>
       <c r="D5" s="86"/>
       <c r="E5" s="86"/>
-      <c r="Z5" s="502" t="s">
+      <c r="Z5" s="523" t="s">
         <v>98</v>
       </c>
-      <c r="AA5" s="503"/>
-      <c r="AB5" s="503"/>
-      <c r="AC5" s="503"/>
-      <c r="AD5" s="503"/>
-      <c r="AE5" s="504"/>
-      <c r="AF5" s="505" t="s">
+      <c r="AA5" s="524"/>
+      <c r="AB5" s="524"/>
+      <c r="AC5" s="524"/>
+      <c r="AD5" s="524"/>
+      <c r="AE5" s="525"/>
+      <c r="AF5" s="526" t="s">
         <v>99</v>
       </c>
-      <c r="AG5" s="506"/>
+      <c r="AG5" s="527"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="179"/>
@@ -9911,93 +9917,93 @@
       <c r="E6" s="179"/>
     </row>
     <row r="7" spans="1:40" s="182" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="511" t="s">
+      <c r="A7" s="528" t="s">
         <v>161</v>
       </c>
-      <c r="B7" s="511"/>
-      <c r="C7" s="511"/>
-      <c r="D7" s="511"/>
-      <c r="E7" s="511"/>
-      <c r="F7" s="511"/>
-      <c r="G7" s="511"/>
-      <c r="H7" s="511"/>
-      <c r="I7" s="511"/>
-      <c r="J7" s="511"/>
-      <c r="K7" s="511"/>
-      <c r="L7" s="511"/>
-      <c r="M7" s="511"/>
-      <c r="N7" s="511"/>
-      <c r="O7" s="511"/>
-      <c r="P7" s="511"/>
-      <c r="Q7" s="511"/>
-      <c r="R7" s="511"/>
-      <c r="S7" s="511"/>
-      <c r="T7" s="511"/>
-      <c r="U7" s="511"/>
-      <c r="V7" s="511"/>
-      <c r="W7" s="511"/>
-      <c r="X7" s="511"/>
-      <c r="Y7" s="511"/>
-      <c r="Z7" s="511"/>
-      <c r="AA7" s="511"/>
-      <c r="AB7" s="511"/>
-      <c r="AC7" s="511"/>
-      <c r="AD7" s="511"/>
-      <c r="AE7" s="511"/>
-      <c r="AF7" s="511"/>
-      <c r="AG7" s="511"/>
-      <c r="AH7" s="511"/>
-      <c r="AI7" s="511"/>
-      <c r="AJ7" s="511"/>
-      <c r="AK7" s="511"/>
-      <c r="AL7" s="511"/>
-      <c r="AM7" s="511"/>
+      <c r="B7" s="528"/>
+      <c r="C7" s="528"/>
+      <c r="D7" s="528"/>
+      <c r="E7" s="528"/>
+      <c r="F7" s="528"/>
+      <c r="G7" s="528"/>
+      <c r="H7" s="528"/>
+      <c r="I7" s="528"/>
+      <c r="J7" s="528"/>
+      <c r="K7" s="528"/>
+      <c r="L7" s="528"/>
+      <c r="M7" s="528"/>
+      <c r="N7" s="528"/>
+      <c r="O7" s="528"/>
+      <c r="P7" s="528"/>
+      <c r="Q7" s="528"/>
+      <c r="R7" s="528"/>
+      <c r="S7" s="528"/>
+      <c r="T7" s="528"/>
+      <c r="U7" s="528"/>
+      <c r="V7" s="528"/>
+      <c r="W7" s="528"/>
+      <c r="X7" s="528"/>
+      <c r="Y7" s="528"/>
+      <c r="Z7" s="528"/>
+      <c r="AA7" s="528"/>
+      <c r="AB7" s="528"/>
+      <c r="AC7" s="528"/>
+      <c r="AD7" s="528"/>
+      <c r="AE7" s="528"/>
+      <c r="AF7" s="528"/>
+      <c r="AG7" s="528"/>
+      <c r="AH7" s="528"/>
+      <c r="AI7" s="528"/>
+      <c r="AJ7" s="528"/>
+      <c r="AK7" s="528"/>
+      <c r="AL7" s="528"/>
+      <c r="AM7" s="528"/>
       <c r="AN7" s="181"/>
     </row>
     <row r="9" spans="1:40" s="187" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="512" t="s">
+      <c r="A9" s="529" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="512" t="s">
+      <c r="B9" s="529" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="512" t="s">
+      <c r="C9" s="529" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="515" t="s">
+      <c r="D9" s="532" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="516"/>
-      <c r="F9" s="516"/>
-      <c r="G9" s="516"/>
-      <c r="H9" s="516"/>
-      <c r="I9" s="516"/>
-      <c r="J9" s="516"/>
-      <c r="K9" s="516"/>
-      <c r="L9" s="516"/>
-      <c r="M9" s="516"/>
-      <c r="N9" s="516"/>
-      <c r="O9" s="516"/>
-      <c r="P9" s="516"/>
-      <c r="Q9" s="516"/>
-      <c r="R9" s="516"/>
-      <c r="S9" s="516"/>
-      <c r="T9" s="516"/>
-      <c r="U9" s="516"/>
-      <c r="V9" s="516"/>
-      <c r="W9" s="516"/>
-      <c r="X9" s="516"/>
-      <c r="Y9" s="516"/>
-      <c r="Z9" s="516"/>
-      <c r="AA9" s="516"/>
-      <c r="AB9" s="516"/>
-      <c r="AC9" s="516"/>
-      <c r="AD9" s="516"/>
-      <c r="AE9" s="516"/>
-      <c r="AF9" s="516"/>
-      <c r="AG9" s="516"/>
-      <c r="AH9" s="517"/>
-      <c r="AI9" s="518" t="s">
+      <c r="E9" s="533"/>
+      <c r="F9" s="533"/>
+      <c r="G9" s="533"/>
+      <c r="H9" s="533"/>
+      <c r="I9" s="533"/>
+      <c r="J9" s="533"/>
+      <c r="K9" s="533"/>
+      <c r="L9" s="533"/>
+      <c r="M9" s="533"/>
+      <c r="N9" s="533"/>
+      <c r="O9" s="533"/>
+      <c r="P9" s="533"/>
+      <c r="Q9" s="533"/>
+      <c r="R9" s="533"/>
+      <c r="S9" s="533"/>
+      <c r="T9" s="533"/>
+      <c r="U9" s="533"/>
+      <c r="V9" s="533"/>
+      <c r="W9" s="533"/>
+      <c r="X9" s="533"/>
+      <c r="Y9" s="533"/>
+      <c r="Z9" s="533"/>
+      <c r="AA9" s="533"/>
+      <c r="AB9" s="533"/>
+      <c r="AC9" s="533"/>
+      <c r="AD9" s="533"/>
+      <c r="AE9" s="533"/>
+      <c r="AF9" s="533"/>
+      <c r="AG9" s="533"/>
+      <c r="AH9" s="534"/>
+      <c r="AI9" s="535" t="s">
         <v>104</v>
       </c>
       <c r="AJ9" s="183"/>
@@ -10007,9 +10013,9 @@
       <c r="AN9" s="186"/>
     </row>
     <row r="10" spans="1:40" s="187" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="513"/>
-      <c r="B10" s="513"/>
-      <c r="C10" s="513"/>
+      <c r="A10" s="530"/>
+      <c r="B10" s="530"/>
+      <c r="C10" s="530"/>
       <c r="D10" s="188">
         <v>1</v>
       </c>
@@ -10103,7 +10109,7 @@
       <c r="AH10" s="188">
         <v>31</v>
       </c>
-      <c r="AI10" s="518"/>
+      <c r="AI10" s="535"/>
       <c r="AJ10" s="189"/>
       <c r="AK10" s="185"/>
       <c r="AL10" s="185"/>
@@ -10111,9 +10117,9 @@
       <c r="AN10" s="186"/>
     </row>
     <row r="11" spans="1:40" s="194" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="514"/>
-      <c r="B11" s="514"/>
-      <c r="C11" s="514"/>
+      <c r="A11" s="531"/>
+      <c r="B11" s="531"/>
+      <c r="C11" s="531"/>
       <c r="D11" s="188" t="s">
         <v>110</v>
       </c>
@@ -10207,7 +10213,7 @@
       <c r="AH11" s="190" t="s">
         <v>105</v>
       </c>
-      <c r="AI11" s="518"/>
+      <c r="AI11" s="535"/>
       <c r="AJ11" s="193"/>
       <c r="AN11" s="195"/>
     </row>
@@ -10498,9 +10504,11 @@
         <v>90</v>
       </c>
       <c r="N15" s="192" t="s">
-        <v>93</v>
-      </c>
-      <c r="O15" s="272"/>
+        <v>90</v>
+      </c>
+      <c r="O15" s="272" t="s">
+        <v>90</v>
+      </c>
       <c r="P15" s="192" t="s">
         <v>90</v>
       </c>
@@ -10556,7 +10564,7 @@
       </c>
       <c r="AI15" s="196">
         <f t="shared" si="0"/>
-        <v>24.5</v>
+        <v>26</v>
       </c>
       <c r="AJ15" s="193"/>
       <c r="AN15" s="195"/>
@@ -10768,10 +10776,10 @@
       <c r="AN17" s="195"/>
     </row>
     <row r="18" spans="1:40" s="194" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="519" t="s">
+      <c r="A18" s="536" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="520"/>
+      <c r="B18" s="537"/>
       <c r="C18" s="197"/>
       <c r="D18" s="197"/>
       <c r="E18" s="198"/>
@@ -10806,7 +10814,7 @@
       <c r="AH18" s="198"/>
       <c r="AI18" s="199">
         <f>SUM(AI12:AI16)</f>
-        <v>102.5</v>
+        <v>104</v>
       </c>
       <c r="AJ18" s="200"/>
       <c r="AK18" s="201"/>
@@ -10814,49 +10822,49 @@
       <c r="AN18" s="195"/>
     </row>
     <row r="20" spans="1:40" s="207" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="521" t="s">
+      <c r="A20" s="538" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="521"/>
-      <c r="C20" s="521"/>
-      <c r="D20" s="521"/>
-      <c r="E20" s="521"/>
-      <c r="F20" s="521"/>
-      <c r="G20" s="521"/>
+      <c r="B20" s="538"/>
+      <c r="C20" s="538"/>
+      <c r="D20" s="538"/>
+      <c r="E20" s="538"/>
+      <c r="F20" s="538"/>
+      <c r="G20" s="538"/>
       <c r="H20" s="202"/>
-      <c r="I20" s="522"/>
-      <c r="J20" s="522"/>
-      <c r="K20" s="522"/>
-      <c r="L20" s="522"/>
-      <c r="M20" s="522"/>
+      <c r="I20" s="539"/>
+      <c r="J20" s="539"/>
+      <c r="K20" s="539"/>
+      <c r="L20" s="539"/>
+      <c r="M20" s="539"/>
       <c r="N20" s="203"/>
-      <c r="O20" s="522" t="s">
+      <c r="O20" s="539" t="s">
         <v>114</v>
       </c>
-      <c r="P20" s="522"/>
-      <c r="Q20" s="522"/>
-      <c r="R20" s="522"/>
-      <c r="S20" s="522"/>
-      <c r="T20" s="522"/>
-      <c r="U20" s="522"/>
-      <c r="V20" s="522"/>
-      <c r="W20" s="522"/>
-      <c r="X20" s="522"/>
-      <c r="Y20" s="522"/>
+      <c r="P20" s="539"/>
+      <c r="Q20" s="539"/>
+      <c r="R20" s="539"/>
+      <c r="S20" s="539"/>
+      <c r="T20" s="539"/>
+      <c r="U20" s="539"/>
+      <c r="V20" s="539"/>
+      <c r="W20" s="539"/>
+      <c r="X20" s="539"/>
+      <c r="Y20" s="539"/>
       <c r="Z20" s="204"/>
       <c r="AA20" s="204"/>
       <c r="AB20" s="205"/>
-      <c r="AC20" s="522"/>
-      <c r="AD20" s="522"/>
-      <c r="AE20" s="522"/>
-      <c r="AF20" s="522"/>
-      <c r="AG20" s="522"/>
-      <c r="AH20" s="522"/>
-      <c r="AI20" s="522"/>
-      <c r="AJ20" s="522"/>
-      <c r="AK20" s="522"/>
-      <c r="AL20" s="522"/>
-      <c r="AM20" s="522"/>
+      <c r="AC20" s="539"/>
+      <c r="AD20" s="539"/>
+      <c r="AE20" s="539"/>
+      <c r="AF20" s="539"/>
+      <c r="AG20" s="539"/>
+      <c r="AH20" s="539"/>
+      <c r="AI20" s="539"/>
+      <c r="AJ20" s="539"/>
+      <c r="AK20" s="539"/>
+      <c r="AL20" s="539"/>
+      <c r="AM20" s="539"/>
       <c r="AN20" s="206"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
@@ -10890,131 +10898,131 @@
       <c r="AN35" s="211"/>
     </row>
     <row r="36" spans="3:40" s="210" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="510"/>
-      <c r="H36" s="510"/>
-      <c r="I36" s="510"/>
-      <c r="J36" s="510"/>
-      <c r="K36" s="510"/>
-      <c r="L36" s="510"/>
-      <c r="M36" s="510"/>
-      <c r="N36" s="510"/>
-      <c r="O36" s="510"/>
-      <c r="P36" s="510"/>
-      <c r="Q36" s="510"/>
-      <c r="R36" s="510"/>
-      <c r="S36" s="510"/>
-      <c r="T36" s="510"/>
-      <c r="U36" s="510"/>
-      <c r="V36" s="510"/>
-      <c r="W36" s="510"/>
-      <c r="X36" s="510"/>
+      <c r="G36" s="522"/>
+      <c r="H36" s="522"/>
+      <c r="I36" s="522"/>
+      <c r="J36" s="522"/>
+      <c r="K36" s="522"/>
+      <c r="L36" s="522"/>
+      <c r="M36" s="522"/>
+      <c r="N36" s="522"/>
+      <c r="O36" s="522"/>
+      <c r="P36" s="522"/>
+      <c r="Q36" s="522"/>
+      <c r="R36" s="522"/>
+      <c r="S36" s="522"/>
+      <c r="T36" s="522"/>
+      <c r="U36" s="522"/>
+      <c r="V36" s="522"/>
+      <c r="W36" s="522"/>
+      <c r="X36" s="522"/>
       <c r="AN36" s="211"/>
     </row>
     <row r="37" spans="3:40" s="210" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="510"/>
-      <c r="H37" s="510"/>
-      <c r="I37" s="510"/>
-      <c r="J37" s="510"/>
-      <c r="K37" s="510"/>
-      <c r="L37" s="510"/>
-      <c r="M37" s="510"/>
-      <c r="N37" s="510"/>
-      <c r="O37" s="510"/>
-      <c r="P37" s="510"/>
-      <c r="Q37" s="510"/>
-      <c r="R37" s="510"/>
-      <c r="S37" s="510"/>
-      <c r="T37" s="510"/>
-      <c r="U37" s="510"/>
-      <c r="V37" s="510"/>
-      <c r="W37" s="510"/>
-      <c r="X37" s="510"/>
+      <c r="G37" s="522"/>
+      <c r="H37" s="522"/>
+      <c r="I37" s="522"/>
+      <c r="J37" s="522"/>
+      <c r="K37" s="522"/>
+      <c r="L37" s="522"/>
+      <c r="M37" s="522"/>
+      <c r="N37" s="522"/>
+      <c r="O37" s="522"/>
+      <c r="P37" s="522"/>
+      <c r="Q37" s="522"/>
+      <c r="R37" s="522"/>
+      <c r="S37" s="522"/>
+      <c r="T37" s="522"/>
+      <c r="U37" s="522"/>
+      <c r="V37" s="522"/>
+      <c r="W37" s="522"/>
+      <c r="X37" s="522"/>
       <c r="AN37" s="211"/>
     </row>
     <row r="38" spans="3:40" s="210" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="510"/>
-      <c r="H38" s="510"/>
-      <c r="I38" s="510"/>
-      <c r="J38" s="510"/>
-      <c r="K38" s="510"/>
-      <c r="L38" s="510"/>
-      <c r="M38" s="510"/>
-      <c r="N38" s="510"/>
-      <c r="O38" s="510"/>
-      <c r="P38" s="510"/>
-      <c r="Q38" s="510"/>
-      <c r="R38" s="510"/>
-      <c r="S38" s="510"/>
-      <c r="T38" s="510"/>
-      <c r="U38" s="510"/>
-      <c r="V38" s="510"/>
-      <c r="W38" s="510"/>
-      <c r="X38" s="510"/>
+      <c r="G38" s="522"/>
+      <c r="H38" s="522"/>
+      <c r="I38" s="522"/>
+      <c r="J38" s="522"/>
+      <c r="K38" s="522"/>
+      <c r="L38" s="522"/>
+      <c r="M38" s="522"/>
+      <c r="N38" s="522"/>
+      <c r="O38" s="522"/>
+      <c r="P38" s="522"/>
+      <c r="Q38" s="522"/>
+      <c r="R38" s="522"/>
+      <c r="S38" s="522"/>
+      <c r="T38" s="522"/>
+      <c r="U38" s="522"/>
+      <c r="V38" s="522"/>
+      <c r="W38" s="522"/>
+      <c r="X38" s="522"/>
       <c r="AN38" s="211"/>
     </row>
     <row r="39" spans="3:40" s="210" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="510"/>
-      <c r="H39" s="510"/>
-      <c r="I39" s="510"/>
-      <c r="J39" s="510"/>
-      <c r="K39" s="510"/>
-      <c r="L39" s="510"/>
-      <c r="M39" s="510"/>
-      <c r="N39" s="510"/>
-      <c r="O39" s="510"/>
-      <c r="P39" s="510"/>
-      <c r="Q39" s="510"/>
-      <c r="R39" s="510"/>
-      <c r="S39" s="510"/>
-      <c r="T39" s="510"/>
-      <c r="U39" s="510"/>
-      <c r="V39" s="510"/>
-      <c r="W39" s="510"/>
-      <c r="X39" s="510"/>
+      <c r="G39" s="522"/>
+      <c r="H39" s="522"/>
+      <c r="I39" s="522"/>
+      <c r="J39" s="522"/>
+      <c r="K39" s="522"/>
+      <c r="L39" s="522"/>
+      <c r="M39" s="522"/>
+      <c r="N39" s="522"/>
+      <c r="O39" s="522"/>
+      <c r="P39" s="522"/>
+      <c r="Q39" s="522"/>
+      <c r="R39" s="522"/>
+      <c r="S39" s="522"/>
+      <c r="T39" s="522"/>
+      <c r="U39" s="522"/>
+      <c r="V39" s="522"/>
+      <c r="W39" s="522"/>
+      <c r="X39" s="522"/>
       <c r="AN39" s="211"/>
     </row>
     <row r="40" spans="3:40" s="210" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="510"/>
-      <c r="H40" s="510"/>
-      <c r="I40" s="510"/>
-      <c r="J40" s="510"/>
-      <c r="K40" s="510"/>
-      <c r="L40" s="510"/>
-      <c r="M40" s="510"/>
-      <c r="N40" s="510"/>
-      <c r="O40" s="510"/>
-      <c r="P40" s="510"/>
-      <c r="Q40" s="510"/>
-      <c r="R40" s="510"/>
-      <c r="S40" s="510"/>
-      <c r="T40" s="510"/>
-      <c r="U40" s="510"/>
-      <c r="V40" s="510"/>
-      <c r="W40" s="510"/>
-      <c r="X40" s="510"/>
+      <c r="G40" s="522"/>
+      <c r="H40" s="522"/>
+      <c r="I40" s="522"/>
+      <c r="J40" s="522"/>
+      <c r="K40" s="522"/>
+      <c r="L40" s="522"/>
+      <c r="M40" s="522"/>
+      <c r="N40" s="522"/>
+      <c r="O40" s="522"/>
+      <c r="P40" s="522"/>
+      <c r="Q40" s="522"/>
+      <c r="R40" s="522"/>
+      <c r="S40" s="522"/>
+      <c r="T40" s="522"/>
+      <c r="U40" s="522"/>
+      <c r="V40" s="522"/>
+      <c r="W40" s="522"/>
+      <c r="X40" s="522"/>
       <c r="AN40" s="211"/>
     </row>
     <row r="41" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C41" s="175"/>
       <c r="D41" s="175"/>
-      <c r="G41" s="510"/>
-      <c r="H41" s="510"/>
-      <c r="I41" s="510"/>
-      <c r="J41" s="510"/>
-      <c r="K41" s="510"/>
-      <c r="L41" s="510"/>
-      <c r="M41" s="510"/>
-      <c r="N41" s="510"/>
-      <c r="O41" s="510"/>
-      <c r="P41" s="510"/>
-      <c r="Q41" s="510"/>
-      <c r="R41" s="510"/>
-      <c r="S41" s="510"/>
-      <c r="T41" s="510"/>
-      <c r="U41" s="510"/>
-      <c r="V41" s="510"/>
-      <c r="W41" s="510"/>
-      <c r="X41" s="510"/>
+      <c r="G41" s="522"/>
+      <c r="H41" s="522"/>
+      <c r="I41" s="522"/>
+      <c r="J41" s="522"/>
+      <c r="K41" s="522"/>
+      <c r="L41" s="522"/>
+      <c r="M41" s="522"/>
+      <c r="N41" s="522"/>
+      <c r="O41" s="522"/>
+      <c r="P41" s="522"/>
+      <c r="Q41" s="522"/>
+      <c r="R41" s="522"/>
+      <c r="S41" s="522"/>
+      <c r="T41" s="522"/>
+      <c r="U41" s="522"/>
+      <c r="V41" s="522"/>
+      <c r="W41" s="522"/>
+      <c r="X41" s="522"/>
       <c r="AN41" s="175"/>
     </row>
     <row r="42" spans="3:40" x14ac:dyDescent="0.25">
@@ -11024,6 +11032,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G36:X41"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -11038,13 +11053,6 @@
     <mergeCell ref="I20:M20"/>
     <mergeCell ref="O20:Y20"/>
     <mergeCell ref="AC20:AM20"/>
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -11055,8 +11063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -11900,42 +11908,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="291" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="523" t="s">
+      <c r="A1" s="552" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="523"/>
-      <c r="C1" s="523"/>
-      <c r="D1" s="523"/>
+      <c r="B1" s="552"/>
+      <c r="C1" s="552"/>
+      <c r="D1" s="552"/>
       <c r="E1" s="290"/>
-      <c r="F1" s="524" t="s">
+      <c r="F1" s="553" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="524"/>
-      <c r="H1" s="524"/>
-      <c r="I1" s="524"/>
-      <c r="J1" s="524"/>
-      <c r="K1" s="524"/>
-      <c r="L1" s="524"/>
-      <c r="M1" s="524"/>
+      <c r="G1" s="553"/>
+      <c r="H1" s="553"/>
+      <c r="I1" s="553"/>
+      <c r="J1" s="553"/>
+      <c r="K1" s="553"/>
+      <c r="L1" s="553"/>
+      <c r="M1" s="553"/>
     </row>
     <row r="2" spans="1:17" s="291" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="525" t="s">
+      <c r="A2" s="554" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="525"/>
-      <c r="C2" s="525"/>
-      <c r="D2" s="525"/>
+      <c r="B2" s="554"/>
+      <c r="C2" s="554"/>
+      <c r="D2" s="554"/>
       <c r="E2" s="290"/>
-      <c r="F2" s="526" t="s">
+      <c r="F2" s="555" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="526"/>
-      <c r="H2" s="526"/>
-      <c r="I2" s="526"/>
-      <c r="J2" s="526"/>
-      <c r="K2" s="526"/>
-      <c r="L2" s="526"/>
-      <c r="M2" s="526"/>
+      <c r="G2" s="555"/>
+      <c r="H2" s="555"/>
+      <c r="I2" s="555"/>
+      <c r="J2" s="555"/>
+      <c r="K2" s="555"/>
+      <c r="L2" s="555"/>
+      <c r="M2" s="555"/>
     </row>
     <row r="3" spans="1:17" s="291" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="292"/>
@@ -11950,47 +11958,47 @@
       <c r="K3" s="293"/>
     </row>
     <row r="4" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="527" t="s">
+      <c r="A4" s="543" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="527"/>
-      <c r="C4" s="527"/>
-      <c r="D4" s="527"/>
-      <c r="E4" s="527"/>
-      <c r="F4" s="527"/>
-      <c r="G4" s="527"/>
-      <c r="H4" s="527"/>
-      <c r="I4" s="527"/>
-      <c r="J4" s="527"/>
-      <c r="K4" s="527"/>
-      <c r="L4" s="527"/>
-      <c r="M4" s="527"/>
-      <c r="N4" s="527"/>
+      <c r="B4" s="543"/>
+      <c r="C4" s="543"/>
+      <c r="D4" s="543"/>
+      <c r="E4" s="543"/>
+      <c r="F4" s="543"/>
+      <c r="G4" s="543"/>
+      <c r="H4" s="543"/>
+      <c r="I4" s="543"/>
+      <c r="J4" s="543"/>
+      <c r="K4" s="543"/>
+      <c r="L4" s="543"/>
+      <c r="M4" s="543"/>
+      <c r="N4" s="543"/>
     </row>
     <row r="5" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="527" t="s">
+      <c r="A5" s="543" t="s">
         <v>150</v>
       </c>
-      <c r="B5" s="527"/>
-      <c r="C5" s="527"/>
-      <c r="D5" s="527"/>
-      <c r="E5" s="527"/>
-      <c r="F5" s="527"/>
-      <c r="G5" s="527"/>
-      <c r="H5" s="527"/>
-      <c r="I5" s="527"/>
-      <c r="J5" s="527"/>
-      <c r="K5" s="527"/>
-      <c r="L5" s="527"/>
-      <c r="M5" s="527"/>
-      <c r="N5" s="527"/>
+      <c r="B5" s="543"/>
+      <c r="C5" s="543"/>
+      <c r="D5" s="543"/>
+      <c r="E5" s="543"/>
+      <c r="F5" s="543"/>
+      <c r="G5" s="543"/>
+      <c r="H5" s="543"/>
+      <c r="I5" s="543"/>
+      <c r="J5" s="543"/>
+      <c r="K5" s="543"/>
+      <c r="L5" s="543"/>
+      <c r="M5" s="543"/>
+      <c r="N5" s="543"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L6" s="528" t="s">
+      <c r="L6" s="544" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="528"/>
-      <c r="N6" s="528"/>
+      <c r="M6" s="544"/>
+      <c r="N6" s="544"/>
     </row>
     <row r="7" spans="1:17" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
@@ -12067,10 +12075,10 @@
       <c r="N8" s="50"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="529" t="s">
+      <c r="A9" s="545" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="530"/>
+      <c r="B9" s="546"/>
       <c r="C9" s="49"/>
       <c r="D9" s="49"/>
       <c r="E9" s="51"/>
@@ -12218,39 +12226,39 @@
       </c>
       <c r="E13" s="309">
         <f>'bảng chấm công'!AI15</f>
-        <v>24.5</v>
+        <v>26</v>
       </c>
       <c r="F13" s="60">
         <f t="shared" si="0"/>
-        <v>5653846.153846154</v>
+        <v>6000000</v>
       </c>
       <c r="G13" s="55">
         <f>F13*30%</f>
-        <v>1696153.8461538462</v>
+        <v>1800000</v>
       </c>
       <c r="H13" s="60">
         <f>'Hỗ trợ vận chuyển'!F33</f>
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I13" s="61"/>
       <c r="J13" s="61"/>
       <c r="K13" s="61">
-        <v>6315127</v>
+        <v>20127</v>
       </c>
       <c r="L13" s="56">
         <f>F13-G13+H13-I13-J13+K13</f>
-        <v>10272819.307692308</v>
+        <v>4280127</v>
       </c>
       <c r="M13" s="61"/>
       <c r="N13" s="58"/>
       <c r="Q13" s="158"/>
     </row>
     <row r="14" spans="1:17" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="533" t="s">
+      <c r="A14" s="549" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="534"/>
-      <c r="C14" s="535"/>
+      <c r="B14" s="550"/>
+      <c r="C14" s="551"/>
       <c r="D14" s="269">
         <f>SUM(D10:D13)</f>
         <v>37000000</v>
@@ -12258,11 +12266,11 @@
       <c r="E14" s="310"/>
       <c r="F14" s="269">
         <f>SUM(F10:F13)</f>
-        <v>26653846.153846152</v>
+        <v>27000000</v>
       </c>
       <c r="G14" s="269">
         <f>SUM(G10:G13)</f>
-        <v>7996153.8461538451</v>
+        <v>8099999.9999999991</v>
       </c>
       <c r="H14" s="269"/>
       <c r="I14" s="295">
@@ -12275,20 +12283,20 @@
       </c>
       <c r="K14" s="295">
         <f>SUM(K10:K13)</f>
-        <v>40394669</v>
+        <v>34099669</v>
       </c>
       <c r="L14" s="295">
         <f>SUM(L10:L13)</f>
-        <v>57052361.307692304</v>
+        <v>51059669</v>
       </c>
       <c r="M14" s="295"/>
       <c r="N14" s="296"/>
     </row>
     <row r="15" spans="1:17" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="531" t="s">
+      <c r="A15" s="547" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="532"/>
+      <c r="B15" s="548"/>
       <c r="C15" s="87"/>
       <c r="D15" s="88"/>
       <c r="E15" s="311"/>
@@ -12329,19 +12337,21 @@
       </c>
       <c r="H16" s="60">
         <f>'Hỗ trợ vận chuyển'!D33</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="61"/>
+        <v>20000</v>
+      </c>
+      <c r="I16" s="61">
+        <v>830508</v>
+      </c>
       <c r="J16" s="61"/>
       <c r="K16" s="56"/>
       <c r="L16" s="56">
         <f>F16-G16+H16-I16-J16+K16</f>
-        <v>2180769.230769231</v>
+        <v>1370261.230769231</v>
       </c>
       <c r="M16" s="61"/>
       <c r="N16" s="58"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="62">
         <v>3</v>
       </c>
@@ -12384,12 +12394,12 @@
       <c r="M17" s="65"/>
       <c r="N17" s="62"/>
     </row>
-    <row r="18" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="533" t="s">
+    <row r="18" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="549" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="534"/>
-      <c r="C18" s="535"/>
+      <c r="B18" s="550"/>
+      <c r="C18" s="551"/>
       <c r="D18" s="297">
         <f>SUM(D16:D17)</f>
         <v>8000000</v>
@@ -12406,7 +12416,7 @@
       <c r="H18" s="297"/>
       <c r="I18" s="297">
         <f>SUM(I16:I17)</f>
-        <v>0</v>
+        <v>830508</v>
       </c>
       <c r="J18" s="297">
         <f>SUM(J16:J17)</f>
@@ -12418,22 +12428,22 @@
       </c>
       <c r="L18" s="297">
         <f>SUM(L15:L17)</f>
-        <v>5680769.230769231</v>
+        <v>4870261.230769231</v>
       </c>
       <c r="M18" s="296"/>
       <c r="N18" s="296"/>
     </row>
-    <row r="20" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="527"/>
-      <c r="C20" s="527"/>
-      <c r="D20" s="527"/>
+    <row r="20" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="543"/>
+      <c r="C20" s="543"/>
+      <c r="D20" s="543"/>
       <c r="E20" s="270"/>
-      <c r="J20" s="527"/>
-      <c r="K20" s="527"/>
-      <c r="L20" s="527"/>
-      <c r="M20" s="527"/>
-    </row>
-    <row r="21" spans="1:14" s="291" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J20" s="543"/>
+      <c r="K20" s="543"/>
+      <c r="L20" s="543"/>
+      <c r="M20" s="543"/>
+    </row>
+    <row r="21" spans="1:15" s="291" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C21" s="299" t="s">
         <v>112</v>
       </c>
@@ -12448,7 +12458,7 @@
       <c r="K21" s="300"/>
       <c r="L21" s="301"/>
     </row>
-    <row r="22" spans="1:14" s="291" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" s="291" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C22" s="302" t="s">
         <v>15</v>
       </c>
@@ -12462,10 +12472,16 @@
       </c>
       <c r="K22" s="304"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F23" s="158"/>
     </row>
-    <row r="25" spans="1:14" s="305" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O24" s="43">
+        <f>6315127-1395000-4900000</f>
+        <v>20127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="305" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C25" s="299" t="s">
         <v>75</v>
       </c>
@@ -12477,13 +12493,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H30" s="43" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:N4"/>
     <mergeCell ref="A5:N5"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="A9:B9"/>
@@ -12492,11 +12513,6 @@
     <mergeCell ref="J20:M20"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:N4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -12507,8 +12523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12522,32 +12538,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="276" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="536" t="s">
+      <c r="A1" s="556" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="536"/>
-      <c r="C1" s="536"/>
+      <c r="B1" s="556"/>
+      <c r="C1" s="556"/>
       <c r="D1" s="278"/>
       <c r="J1" s="277"/>
       <c r="K1" s="278"/>
     </row>
     <row r="2" spans="1:15" s="276" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="537" t="s">
+      <c r="A2" s="557" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="537"/>
-      <c r="C2" s="537"/>
+      <c r="B2" s="557"/>
+      <c r="C2" s="557"/>
       <c r="D2" s="278"/>
       <c r="J2" s="277"/>
       <c r="K2" s="278"/>
     </row>
     <row r="3" spans="1:15" s="276" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="463" t="s">
+      <c r="A3" s="468" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="463"/>
-      <c r="C3" s="463"/>
-      <c r="D3" s="463"/>
+      <c r="B3" s="468"/>
+      <c r="C3" s="468"/>
+      <c r="D3" s="468"/>
       <c r="E3" s="275"/>
       <c r="F3" s="275"/>
       <c r="G3" s="275"/>
@@ -12578,25 +12594,25 @@
       <c r="O4" s="275"/>
     </row>
     <row r="5" spans="1:15" s="276" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="542" t="s">
+      <c r="A5" s="562" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="544" t="s">
+      <c r="B5" s="564" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="542" t="s">
+      <c r="C5" s="562" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="541" t="s">
+      <c r="D5" s="561" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="541"/>
-      <c r="F5" s="541"/>
+      <c r="E5" s="561"/>
+      <c r="F5" s="561"/>
     </row>
     <row r="6" spans="1:15" s="276" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="543"/>
-      <c r="B6" s="545"/>
-      <c r="C6" s="543"/>
+      <c r="A6" s="563"/>
+      <c r="B6" s="565"/>
+      <c r="C6" s="563"/>
       <c r="D6" s="287" t="s">
         <v>135</v>
       </c>
@@ -12665,19 +12681,31 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="281"/>
-      <c r="B14" s="283"/>
-      <c r="C14" s="281"/>
+      <c r="B14" s="283">
+        <v>44027</v>
+      </c>
+      <c r="C14" s="281" t="s">
+        <v>162</v>
+      </c>
       <c r="D14" s="285"/>
       <c r="E14" s="285"/>
-      <c r="F14" s="285"/>
+      <c r="F14" s="285">
+        <v>40000</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="281"/>
       <c r="B15" s="283"/>
-      <c r="C15" s="281"/>
-      <c r="D15" s="285"/>
+      <c r="C15" s="281" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" s="285">
+        <v>20000</v>
+      </c>
       <c r="E15" s="285"/>
-      <c r="F15" s="285"/>
+      <c r="F15" s="285">
+        <v>20000</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="281"/>
@@ -12816,14 +12844,14 @@
       <c r="F32" s="285"/>
     </row>
     <row r="33" spans="1:6" s="289" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="538" t="s">
+      <c r="A33" s="558" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="539"/>
-      <c r="C33" s="540"/>
+      <c r="B33" s="559"/>
+      <c r="C33" s="560"/>
       <c r="D33" s="288">
         <f>SUM(D7:D32)</f>
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E33" s="288">
         <f t="shared" ref="E33:F33" si="0">SUM(E7:E32)</f>
@@ -12831,7 +12859,7 @@
       </c>
       <c r="F33" s="288">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60000</v>
       </c>
     </row>
   </sheetData>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 7_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 7_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DOANH THU'!$A$6:$P$127</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$6:$G$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$6:$G$100</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="274">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -742,6 +742,111 @@
   </si>
   <si>
     <t>- Chi phí ăn uống buổi trưa ở văn phòng : 1,709,000</t>
+  </si>
+  <si>
+    <t>Đi Đường</t>
+  </si>
+  <si>
+    <t>Dịch vụ dừng đỗ xe</t>
+  </si>
+  <si>
+    <t>Đi đường</t>
+  </si>
+  <si>
+    <t>Cước đường bộ</t>
+  </si>
+  <si>
+    <t>Cước Đường bộ</t>
+  </si>
+  <si>
+    <t>Xăng dầu</t>
+  </si>
+  <si>
+    <t>Tiếp khách, Công tác</t>
+  </si>
+  <si>
+    <t>Bia Lâm Già</t>
+  </si>
+  <si>
+    <t>Khác</t>
+  </si>
+  <si>
+    <t>Trường Hằng Mart</t>
+  </si>
+  <si>
+    <t>Vinmart</t>
+  </si>
+  <si>
+    <t>Café</t>
+  </si>
+  <si>
+    <t>Nước uống</t>
+  </si>
+  <si>
+    <t>Gà mạnh hoạch</t>
+  </si>
+  <si>
+    <t>Nhà hàng hoa lư quán</t>
+  </si>
+  <si>
+    <t>Karaoke</t>
+  </si>
+  <si>
+    <t>Ăn uống</t>
+  </si>
+  <si>
+    <t>Nhà hàng Sơn Lộc</t>
+  </si>
+  <si>
+    <t>Gia cung quán</t>
+  </si>
+  <si>
+    <t>Phạt xe chạy quá  tốc độ</t>
+  </si>
+  <si>
+    <t>Tiền phòng nghỉ Cao Bằng</t>
+  </si>
+  <si>
+    <t>Điện thoại</t>
+  </si>
+  <si>
+    <t>Công tác miền nam, café</t>
+  </si>
+  <si>
+    <t>Công tác miền nam</t>
+  </si>
+  <si>
+    <t>Vận Chuyển</t>
+  </si>
+  <si>
+    <t>Vận chuyển hàng Miền nam</t>
+  </si>
+  <si>
+    <t>Công tác miền nam, Tiếp khách miền nam</t>
+  </si>
+  <si>
+    <t>Thuê xe khai trương hải vui thanh hóa</t>
+  </si>
+  <si>
+    <t>Lương, thưởng</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Sơn ứng lương</t>
+  </si>
+  <si>
+    <t>Công ty luật</t>
+  </si>
+  <si>
+    <t>Thanh toán lương tháng 6 cho Tâm</t>
+  </si>
+  <si>
+    <t>Thanh toán lương tháng 6 cho Hoàng</t>
+  </si>
+  <si>
+    <t>Biển Bảng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trả biển bảng </t>
   </si>
 </sst>
 </file>
@@ -2598,6 +2703,12 @@
     <xf numFmtId="166" fontId="45" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2628,134 +2739,140 @@
     <xf numFmtId="168" fontId="18" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2793,12 +2910,6 @@
     <xf numFmtId="167" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2808,19 +2919,58 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2831,43 +2981,10 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2877,27 +2994,33 @@
     <xf numFmtId="167" fontId="27" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2934,13 +3057,16 @@
     <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2970,18 +3096,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3011,15 +3125,6 @@
     </xf>
     <xf numFmtId="14" fontId="36" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3331,11 +3436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3387,15 +3492,15 @@
       <c r="H3" s="117"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="457" t="s">
+      <c r="A4" s="459" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="457"/>
-      <c r="C4" s="457"/>
-      <c r="D4" s="457"/>
-      <c r="E4" s="457"/>
-      <c r="F4" s="457"/>
-      <c r="G4" s="457"/>
+      <c r="B4" s="459"/>
+      <c r="C4" s="459"/>
+      <c r="D4" s="459"/>
+      <c r="E4" s="459"/>
+      <c r="F4" s="459"/>
+      <c r="G4" s="459"/>
       <c r="H4" s="117"/>
     </row>
     <row r="5" spans="1:8" s="115" customFormat="1" x14ac:dyDescent="0.25">
@@ -3407,28 +3512,28 @@
       <c r="G5" s="114"/>
     </row>
     <row r="6" spans="1:8" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="458" t="s">
+      <c r="A6" s="460" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="458" t="s">
+      <c r="B6" s="460" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="460" t="s">
+      <c r="C6" s="462" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="462" t="s">
+      <c r="D6" s="464" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="462"/>
-      <c r="F6" s="462" t="s">
+      <c r="E6" s="464"/>
+      <c r="F6" s="464" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="462"/>
+      <c r="G6" s="464"/>
     </row>
     <row r="7" spans="1:8" s="115" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="459"/>
-      <c r="B7" s="459"/>
-      <c r="C7" s="461"/>
+      <c r="A7" s="461"/>
+      <c r="B7" s="461"/>
+      <c r="C7" s="463"/>
       <c r="D7" s="119" t="s">
         <v>82</v>
       </c>
@@ -3443,58 +3548,106 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="150"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="102"/>
+      <c r="A8" s="150">
+        <v>43986</v>
+      </c>
+      <c r="B8" s="101" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="102" t="s">
+        <v>258</v>
+      </c>
       <c r="D8" s="103"/>
       <c r="E8" s="120"/>
       <c r="F8" s="103"/>
-      <c r="G8" s="120"/>
+      <c r="G8" s="120">
+        <v>4132000</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="150"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="102"/>
+      <c r="A9" s="150">
+        <v>43950</v>
+      </c>
+      <c r="B9" s="101" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" s="102" t="s">
+        <v>242</v>
+      </c>
       <c r="D9" s="103"/>
       <c r="E9" s="120"/>
       <c r="F9" s="103"/>
-      <c r="G9" s="120"/>
+      <c r="G9" s="120">
+        <v>65000</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="150"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="102"/>
+      <c r="A10" s="150">
+        <v>43976</v>
+      </c>
+      <c r="B10" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="102" t="s">
+        <v>253</v>
+      </c>
       <c r="D10" s="103"/>
       <c r="E10" s="120"/>
       <c r="F10" s="103"/>
-      <c r="G10" s="120"/>
+      <c r="G10" s="120">
+        <v>1119000</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="150"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="102"/>
+      <c r="A11" s="150">
+        <v>43980</v>
+      </c>
+      <c r="B11" s="101" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" s="102" t="s">
+        <v>249</v>
+      </c>
       <c r="D11" s="103"/>
       <c r="E11" s="120"/>
       <c r="F11" s="103"/>
-      <c r="G11" s="120"/>
+      <c r="G11" s="120">
+        <v>59000</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="150"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="102"/>
+      <c r="A12" s="150">
+        <v>43989</v>
+      </c>
+      <c r="B12" s="101" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="102" t="s">
+        <v>248</v>
+      </c>
       <c r="D12" s="103"/>
       <c r="E12" s="120"/>
       <c r="F12" s="103"/>
-      <c r="G12" s="120"/>
+      <c r="G12" s="120">
+        <v>270000</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="150"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="102"/>
+      <c r="A13" s="150">
+        <v>44001</v>
+      </c>
+      <c r="B13" s="101" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" s="102" t="s">
+        <v>251</v>
+      </c>
       <c r="D13" s="103"/>
       <c r="E13" s="120"/>
       <c r="F13" s="103"/>
-      <c r="G13" s="120"/>
+      <c r="G13" s="120">
+        <v>113000</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="150"/>
@@ -3506,429 +3659,801 @@
       <c r="G14" s="120"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="150"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="102"/>
+      <c r="A15" s="150">
+        <v>44013</v>
+      </c>
+      <c r="B15" s="101" t="s">
+        <v>247</v>
+      </c>
+      <c r="C15" s="102" t="s">
+        <v>266</v>
+      </c>
       <c r="D15" s="103"/>
       <c r="E15" s="120"/>
-      <c r="F15" s="103"/>
+      <c r="F15" s="103">
+        <v>3400000</v>
+      </c>
       <c r="G15" s="120"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="150"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="102"/>
+      <c r="A16" s="150">
+        <v>44013</v>
+      </c>
+      <c r="B16" s="101" t="s">
+        <v>239</v>
+      </c>
+      <c r="C16" s="102" t="s">
+        <v>243</v>
+      </c>
       <c r="D16" s="103"/>
       <c r="E16" s="120"/>
       <c r="F16" s="103"/>
-      <c r="G16" s="120"/>
+      <c r="G16" s="120">
+        <v>40000</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="150"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="102"/>
+      <c r="A17" s="150">
+        <v>44014</v>
+      </c>
+      <c r="B17" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" s="102" t="s">
+        <v>252</v>
+      </c>
       <c r="D17" s="103"/>
       <c r="E17" s="120"/>
       <c r="F17" s="103"/>
-      <c r="G17" s="120"/>
+      <c r="G17" s="120">
+        <v>257000</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="150"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="102"/>
+      <c r="A18" s="150">
+        <v>44014</v>
+      </c>
+      <c r="B18" s="101" t="s">
+        <v>247</v>
+      </c>
+      <c r="C18" s="102" t="s">
+        <v>269</v>
+      </c>
       <c r="D18" s="103"/>
       <c r="E18" s="120"/>
-      <c r="F18" s="103"/>
+      <c r="F18" s="103">
+        <v>2420000</v>
+      </c>
       <c r="G18" s="120"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="150"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="102"/>
+      <c r="A19" s="150">
+        <v>44014</v>
+      </c>
+      <c r="B19" s="101" t="s">
+        <v>239</v>
+      </c>
+      <c r="C19" s="102" t="s">
+        <v>243</v>
+      </c>
       <c r="D19" s="103"/>
       <c r="E19" s="120"/>
       <c r="F19" s="103"/>
-      <c r="G19" s="120"/>
+      <c r="G19" s="120">
+        <v>40000</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="150"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="102"/>
+      <c r="A20" s="150">
+        <v>44016</v>
+      </c>
+      <c r="B20" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C20" s="102" t="s">
+        <v>257</v>
+      </c>
       <c r="D20" s="103"/>
       <c r="E20" s="120"/>
       <c r="F20" s="103"/>
-      <c r="G20" s="120"/>
+      <c r="G20" s="120">
+        <v>775000</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="150"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="102"/>
+      <c r="A21" s="150">
+        <v>44016</v>
+      </c>
+      <c r="B21" s="101" t="s">
+        <v>267</v>
+      </c>
+      <c r="C21" s="102" t="s">
+        <v>268</v>
+      </c>
       <c r="D21" s="103"/>
       <c r="E21" s="120"/>
-      <c r="F21" s="103"/>
+      <c r="F21" s="103">
+        <v>2000000</v>
+      </c>
       <c r="G21" s="120"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="150"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="102"/>
+      <c r="A22" s="150">
+        <v>44016</v>
+      </c>
+      <c r="B22" s="101" t="s">
+        <v>239</v>
+      </c>
+      <c r="C22" s="102" t="s">
+        <v>244</v>
+      </c>
       <c r="D22" s="103"/>
       <c r="E22" s="120"/>
       <c r="F22" s="103"/>
-      <c r="G22" s="120"/>
+      <c r="G22" s="120">
+        <v>1000000</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="150"/>
-      <c r="B23" s="101"/>
-      <c r="C23" s="102"/>
+      <c r="A23" s="150">
+        <v>44017</v>
+      </c>
+      <c r="B23" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23" s="102" t="s">
+        <v>257</v>
+      </c>
       <c r="D23" s="103"/>
       <c r="E23" s="120"/>
       <c r="F23" s="103"/>
-      <c r="G23" s="120"/>
+      <c r="G23" s="120">
+        <v>686000</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="150"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="102"/>
+      <c r="A24" s="150">
+        <v>44017</v>
+      </c>
+      <c r="B24" s="101" t="s">
+        <v>267</v>
+      </c>
+      <c r="C24" s="102" t="s">
+        <v>271</v>
+      </c>
       <c r="D24" s="103"/>
       <c r="E24" s="120"/>
-      <c r="F24" s="103"/>
+      <c r="F24" s="103">
+        <v>2107000</v>
+      </c>
       <c r="G24" s="120"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="150"/>
-      <c r="B25" s="101"/>
-      <c r="C25" s="102"/>
+      <c r="A25" s="150">
+        <v>44017</v>
+      </c>
+      <c r="B25" s="101" t="s">
+        <v>267</v>
+      </c>
+      <c r="C25" s="102" t="s">
+        <v>270</v>
+      </c>
       <c r="D25" s="103"/>
       <c r="E25" s="120"/>
       <c r="F25" s="103"/>
-      <c r="G25" s="120"/>
+      <c r="G25" s="120">
+        <v>2395000</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="150"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="102"/>
+      <c r="A26" s="150">
+        <v>44017</v>
+      </c>
+      <c r="B26" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" s="102" t="s">
+        <v>250</v>
+      </c>
       <c r="D26" s="103"/>
       <c r="E26" s="120"/>
       <c r="F26" s="103"/>
-      <c r="G26" s="120"/>
+      <c r="G26" s="120">
+        <v>260000</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="150"/>
-      <c r="B27" s="101"/>
-      <c r="C27" s="121"/>
+      <c r="A27" s="150">
+        <v>44017</v>
+      </c>
+      <c r="B27" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C27" s="102" t="s">
+        <v>259</v>
+      </c>
       <c r="D27" s="103"/>
       <c r="E27" s="120"/>
       <c r="F27" s="103"/>
-      <c r="G27" s="120"/>
+      <c r="G27" s="120">
+        <v>700000</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="150"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="A28" s="150">
+        <v>44018</v>
+      </c>
+      <c r="B28" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C28" s="102" t="s">
+        <v>249</v>
+      </c>
       <c r="D28" s="103"/>
       <c r="E28" s="120"/>
       <c r="F28" s="103"/>
-      <c r="G28" s="122"/>
+      <c r="G28" s="120">
+        <v>154770</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="150"/>
-      <c r="B29" s="101"/>
-      <c r="C29" s="102"/>
+      <c r="A29" s="150">
+        <v>44020</v>
+      </c>
+      <c r="B29" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C29" s="102" t="s">
+        <v>253</v>
+      </c>
       <c r="D29" s="103"/>
       <c r="E29" s="120"/>
       <c r="F29" s="103"/>
-      <c r="G29" s="122"/>
+      <c r="G29" s="120">
+        <v>1042000</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="150"/>
-      <c r="B30" s="101"/>
-      <c r="C30" s="102"/>
+      <c r="A30" s="150">
+        <v>44020</v>
+      </c>
+      <c r="B30" s="101" t="s">
+        <v>239</v>
+      </c>
+      <c r="C30" s="102" t="s">
+        <v>244</v>
+      </c>
       <c r="D30" s="103"/>
       <c r="E30" s="120"/>
       <c r="F30" s="103"/>
-      <c r="G30" s="122"/>
+      <c r="G30" s="120">
+        <v>700000</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="150"/>
-      <c r="B31" s="101"/>
-      <c r="C31" s="123"/>
+      <c r="A31" s="150">
+        <v>44021</v>
+      </c>
+      <c r="B31" s="101" t="s">
+        <v>272</v>
+      </c>
+      <c r="C31" s="102" t="s">
+        <v>273</v>
+      </c>
       <c r="D31" s="103"/>
       <c r="E31" s="120"/>
       <c r="F31" s="103"/>
-      <c r="G31" s="122"/>
+      <c r="G31" s="120"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="150"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="102"/>
+      <c r="A32" s="150">
+        <v>44021</v>
+      </c>
+      <c r="B32" s="101" t="s">
+        <v>241</v>
+      </c>
+      <c r="C32" s="102" t="s">
+        <v>242</v>
+      </c>
       <c r="D32" s="103"/>
       <c r="E32" s="120"/>
       <c r="F32" s="103"/>
-      <c r="G32" s="122"/>
+      <c r="G32" s="120">
+        <v>65000</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="150"/>
-      <c r="B33" s="101"/>
-      <c r="C33" s="121"/>
+      <c r="A33" s="150">
+        <v>44021</v>
+      </c>
+      <c r="B33" s="101" t="s">
+        <v>239</v>
+      </c>
+      <c r="C33" s="102" t="s">
+        <v>244</v>
+      </c>
       <c r="D33" s="103"/>
       <c r="E33" s="120"/>
       <c r="F33" s="103"/>
-      <c r="G33" s="122"/>
+      <c r="G33" s="120">
+        <v>500140</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="150"/>
-      <c r="B34" s="101"/>
-      <c r="C34" s="121"/>
+      <c r="A34" s="150">
+        <v>44021</v>
+      </c>
+      <c r="B34" s="101" t="s">
+        <v>241</v>
+      </c>
+      <c r="C34" s="102" t="s">
+        <v>242</v>
+      </c>
       <c r="D34" s="103"/>
       <c r="E34" s="120"/>
       <c r="F34" s="103"/>
-      <c r="G34" s="122"/>
+      <c r="G34" s="120">
+        <v>45000</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="150"/>
-      <c r="B35" s="101"/>
-      <c r="C35" s="102"/>
+      <c r="A35" s="150">
+        <v>44021</v>
+      </c>
+      <c r="B35" s="101" t="s">
+        <v>241</v>
+      </c>
+      <c r="C35" s="102" t="s">
+        <v>242</v>
+      </c>
       <c r="D35" s="103"/>
       <c r="E35" s="120"/>
       <c r="F35" s="103"/>
-      <c r="G35" s="122"/>
+      <c r="G35" s="120">
+        <v>45000</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="150"/>
-      <c r="B36" s="101"/>
-      <c r="C36" s="102"/>
+      <c r="A36" s="150">
+        <v>44022</v>
+      </c>
+      <c r="B36" s="101" t="s">
+        <v>239</v>
+      </c>
+      <c r="C36" s="102" t="s">
+        <v>244</v>
+      </c>
       <c r="D36" s="103"/>
       <c r="E36" s="120"/>
       <c r="F36" s="103"/>
-      <c r="G36" s="122"/>
+      <c r="G36" s="120">
+        <v>1002990</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="150"/>
-      <c r="B37" s="101"/>
-      <c r="C37" s="102"/>
+      <c r="A37" s="150">
+        <v>44022</v>
+      </c>
+      <c r="B37" s="101" t="s">
+        <v>241</v>
+      </c>
+      <c r="C37" s="102" t="s">
+        <v>242</v>
+      </c>
       <c r="D37" s="103"/>
       <c r="E37" s="120"/>
       <c r="F37" s="103"/>
-      <c r="G37" s="122"/>
+      <c r="G37" s="120">
+        <v>40000</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="150"/>
-      <c r="B38" s="101"/>
-      <c r="C38" s="102"/>
+      <c r="A38" s="150">
+        <v>44023</v>
+      </c>
+      <c r="B38" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C38" s="102" t="s">
+        <v>256</v>
+      </c>
       <c r="D38" s="103"/>
       <c r="E38" s="120"/>
       <c r="F38" s="103"/>
-      <c r="G38" s="122"/>
+      <c r="G38" s="120">
+        <v>675000</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="150"/>
-      <c r="B39" s="101"/>
-      <c r="C39" s="102"/>
+      <c r="A39" s="150">
+        <v>44024</v>
+      </c>
+      <c r="B39" s="101" t="s">
+        <v>239</v>
+      </c>
+      <c r="C39" s="102" t="s">
+        <v>244</v>
+      </c>
       <c r="D39" s="103"/>
       <c r="E39" s="120"/>
       <c r="F39" s="103"/>
-      <c r="G39" s="122"/>
+      <c r="G39" s="120">
+        <v>730000</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="150"/>
-      <c r="B40" s="101"/>
-      <c r="C40" s="102"/>
+      <c r="A40" s="150">
+        <v>44026</v>
+      </c>
+      <c r="B40" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C40" s="102" t="s">
+        <v>246</v>
+      </c>
       <c r="D40" s="103"/>
       <c r="E40" s="120"/>
       <c r="F40" s="103"/>
-      <c r="G40" s="122"/>
+      <c r="G40" s="120">
+        <v>550000</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="150"/>
-      <c r="B41" s="101"/>
-      <c r="C41" s="102"/>
+      <c r="A41" s="150">
+        <v>44026</v>
+      </c>
+      <c r="B41" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C41" s="102" t="s">
+        <v>250</v>
+      </c>
       <c r="D41" s="103"/>
       <c r="E41" s="120"/>
       <c r="F41" s="103"/>
-      <c r="G41" s="122"/>
+      <c r="G41" s="120">
+        <v>94000</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="150"/>
-      <c r="B42" s="101"/>
-      <c r="C42" s="102"/>
+      <c r="A42" s="150">
+        <v>44026</v>
+      </c>
+      <c r="B42" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C42" s="102" t="s">
+        <v>254</v>
+      </c>
       <c r="D42" s="103"/>
       <c r="E42" s="120"/>
       <c r="F42" s="103"/>
-      <c r="G42" s="122"/>
+      <c r="G42" s="120">
+        <v>2061000</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="150"/>
-      <c r="B43" s="101"/>
-      <c r="C43" s="102"/>
+      <c r="A43" s="150">
+        <v>44027</v>
+      </c>
+      <c r="B43" s="101" t="s">
+        <v>241</v>
+      </c>
+      <c r="C43" s="102" t="s">
+        <v>244</v>
+      </c>
       <c r="D43" s="103"/>
       <c r="E43" s="120"/>
       <c r="F43" s="103"/>
-      <c r="G43" s="122"/>
+      <c r="G43" s="120">
+        <v>400000</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="150"/>
-      <c r="B44" s="101"/>
-      <c r="C44" s="102"/>
+      <c r="A44" s="150">
+        <v>44027</v>
+      </c>
+      <c r="B44" s="101" t="s">
+        <v>247</v>
+      </c>
+      <c r="C44" s="102" t="s">
+        <v>260</v>
+      </c>
       <c r="D44" s="103"/>
       <c r="E44" s="120"/>
       <c r="F44" s="103"/>
-      <c r="G44" s="122"/>
+      <c r="G44" s="120">
+        <v>5070000</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="150"/>
-      <c r="B45" s="101"/>
-      <c r="C45" s="102"/>
+      <c r="A45" s="150">
+        <v>44027</v>
+      </c>
+      <c r="B45" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C45" s="102" t="s">
+        <v>253</v>
+      </c>
       <c r="D45" s="103"/>
       <c r="E45" s="120"/>
       <c r="F45" s="103"/>
-      <c r="G45" s="122"/>
+      <c r="G45" s="120">
+        <v>1002000</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="150"/>
-      <c r="B46" s="101"/>
-      <c r="C46" s="102"/>
+      <c r="A46" s="150">
+        <v>44027</v>
+      </c>
+      <c r="B46" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C46" s="102" t="s">
+        <v>254</v>
+      </c>
       <c r="D46" s="103"/>
       <c r="E46" s="120"/>
       <c r="F46" s="103"/>
-      <c r="G46" s="122"/>
+      <c r="G46" s="120">
+        <v>6583000</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="150"/>
-      <c r="B47" s="101"/>
-      <c r="C47" s="102"/>
+      <c r="A47" s="150">
+        <v>44030</v>
+      </c>
+      <c r="B47" s="101" t="s">
+        <v>241</v>
+      </c>
+      <c r="C47" s="102" t="s">
+        <v>242</v>
+      </c>
       <c r="D47" s="103"/>
       <c r="E47" s="120"/>
       <c r="F47" s="103"/>
-      <c r="G47" s="122"/>
+      <c r="G47" s="120">
+        <v>105000</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="150"/>
-      <c r="B48" s="101"/>
-      <c r="C48" s="102"/>
+      <c r="A48" s="150">
+        <v>44031</v>
+      </c>
+      <c r="B48" s="101" t="s">
+        <v>239</v>
+      </c>
+      <c r="C48" s="102" t="s">
+        <v>244</v>
+      </c>
       <c r="D48" s="103"/>
       <c r="E48" s="120"/>
       <c r="F48" s="103"/>
-      <c r="G48" s="122"/>
+      <c r="G48" s="120">
+        <v>513000</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="150"/>
-      <c r="B49" s="101"/>
-      <c r="C49" s="102"/>
+      <c r="A49" s="150">
+        <v>44032</v>
+      </c>
+      <c r="B49" s="101" t="s">
+        <v>239</v>
+      </c>
+      <c r="C49" s="102" t="s">
+        <v>240</v>
+      </c>
       <c r="D49" s="103"/>
       <c r="E49" s="120"/>
       <c r="F49" s="103"/>
-      <c r="G49" s="122"/>
+      <c r="G49" s="120">
+        <v>15000</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="150"/>
-      <c r="B50" s="101"/>
-      <c r="C50" s="102"/>
+      <c r="A50" s="150">
+        <v>44032</v>
+      </c>
+      <c r="B50" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C50" s="102" t="s">
+        <v>261</v>
+      </c>
       <c r="D50" s="103"/>
       <c r="E50" s="120"/>
       <c r="F50" s="103"/>
-      <c r="G50" s="122"/>
+      <c r="G50" s="120">
+        <v>70000</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="150"/>
-      <c r="B51" s="101"/>
-      <c r="C51" s="102"/>
+      <c r="A51" s="150">
+        <v>44033</v>
+      </c>
+      <c r="B51" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C51" s="102" t="s">
+        <v>261</v>
+      </c>
       <c r="D51" s="103"/>
       <c r="E51" s="120"/>
       <c r="F51" s="103"/>
-      <c r="G51" s="122"/>
+      <c r="G51" s="120">
+        <v>42000</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="150"/>
-      <c r="B52" s="101"/>
-      <c r="C52" s="102"/>
+      <c r="A52" s="150">
+        <v>44033</v>
+      </c>
+      <c r="B52" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C52" s="102" t="s">
+        <v>265</v>
+      </c>
       <c r="D52" s="103"/>
       <c r="E52" s="120"/>
       <c r="F52" s="103"/>
-      <c r="G52" s="122"/>
+      <c r="G52" s="120">
+        <v>3434000</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="248"/>
-      <c r="B53" s="249"/>
-      <c r="C53" s="250"/>
+      <c r="A53" s="150">
+        <v>44034</v>
+      </c>
+      <c r="B53" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C53" s="102" t="s">
+        <v>262</v>
+      </c>
       <c r="D53" s="103"/>
       <c r="E53" s="120"/>
       <c r="F53" s="103"/>
-      <c r="G53" s="122"/>
+      <c r="G53" s="120">
+        <v>785000</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="150"/>
-      <c r="B54" s="101"/>
-      <c r="C54" s="102"/>
-      <c r="D54" s="103" t="s">
-        <v>49</v>
-      </c>
+      <c r="A54" s="150">
+        <v>44035</v>
+      </c>
+      <c r="B54" s="101" t="s">
+        <v>263</v>
+      </c>
+      <c r="C54" s="102" t="s">
+        <v>264</v>
+      </c>
+      <c r="D54" s="103"/>
       <c r="E54" s="120"/>
       <c r="F54" s="103"/>
-      <c r="G54" s="122"/>
+      <c r="G54" s="120">
+        <v>3640000</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="150"/>
-      <c r="B55" s="101"/>
-      <c r="C55" s="102"/>
+      <c r="A55" s="150">
+        <v>44038</v>
+      </c>
+      <c r="B55" s="101" t="s">
+        <v>239</v>
+      </c>
+      <c r="C55" s="102" t="s">
+        <v>240</v>
+      </c>
       <c r="D55" s="103"/>
       <c r="E55" s="120"/>
       <c r="F55" s="103"/>
-      <c r="G55" s="122"/>
+      <c r="G55" s="120">
+        <v>15000</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="150"/>
-      <c r="B56" s="101"/>
-      <c r="C56" s="102"/>
+      <c r="A56" s="150">
+        <v>44038</v>
+      </c>
+      <c r="B56" s="101" t="s">
+        <v>239</v>
+      </c>
+      <c r="C56" s="102" t="s">
+        <v>242</v>
+      </c>
       <c r="D56" s="103"/>
       <c r="E56" s="120"/>
       <c r="F56" s="103"/>
-      <c r="G56" s="122"/>
+      <c r="G56" s="120">
+        <v>105000</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="150"/>
-      <c r="B57" s="101"/>
-      <c r="C57" s="102"/>
+      <c r="A57" s="150">
+        <v>44038</v>
+      </c>
+      <c r="B57" s="101" t="s">
+        <v>241</v>
+      </c>
+      <c r="C57" s="102" t="s">
+        <v>242</v>
+      </c>
       <c r="D57" s="103"/>
       <c r="E57" s="120"/>
       <c r="F57" s="103"/>
-      <c r="G57" s="122"/>
+      <c r="G57" s="120">
+        <v>40000</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="150"/>
-      <c r="B58" s="101"/>
-      <c r="C58" s="102"/>
+      <c r="A58" s="150">
+        <v>44040</v>
+      </c>
+      <c r="B58" s="101" t="s">
+        <v>239</v>
+      </c>
+      <c r="C58" s="102" t="s">
+        <v>242</v>
+      </c>
       <c r="D58" s="103"/>
       <c r="E58" s="120"/>
       <c r="F58" s="103"/>
-      <c r="G58" s="122"/>
+      <c r="G58" s="120">
+        <v>105000</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="150"/>
-      <c r="B59" s="101"/>
-      <c r="C59" s="102"/>
+      <c r="A59" s="150">
+        <v>44041</v>
+      </c>
+      <c r="B59" s="101" t="s">
+        <v>239</v>
+      </c>
+      <c r="C59" s="121" t="s">
+        <v>242</v>
+      </c>
       <c r="D59" s="103"/>
       <c r="E59" s="120"/>
       <c r="F59" s="103"/>
-      <c r="G59" s="122"/>
+      <c r="G59" s="120">
+        <v>105000</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="150"/>
-      <c r="B60" s="101"/>
-      <c r="C60" s="102"/>
+      <c r="A60" s="150">
+        <v>44041</v>
+      </c>
+      <c r="B60" s="101" t="s">
+        <v>239</v>
+      </c>
+      <c r="C60" s="102" t="s">
+        <v>242</v>
+      </c>
       <c r="D60" s="103"/>
       <c r="E60" s="120"/>
       <c r="F60" s="103"/>
-      <c r="G60" s="122"/>
+      <c r="G60" s="122">
+        <v>40000</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="150"/>
-      <c r="B61" s="101"/>
-      <c r="C61" s="102"/>
+      <c r="A61" s="150">
+        <v>44041</v>
+      </c>
+      <c r="B61" s="101" t="s">
+        <v>239</v>
+      </c>
+      <c r="C61" s="102" t="s">
+        <v>244</v>
+      </c>
       <c r="D61" s="103"/>
       <c r="E61" s="120"/>
       <c r="F61" s="103"/>
-      <c r="G61" s="122"/>
+      <c r="G61" s="122">
+        <v>1000000</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="150"/>
@@ -3942,7 +4467,7 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="150"/>
       <c r="B63" s="101"/>
-      <c r="C63" s="102"/>
+      <c r="C63" s="123"/>
       <c r="D63" s="103"/>
       <c r="E63" s="120"/>
       <c r="F63" s="103"/>
@@ -3960,7 +4485,7 @@
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="150"/>
       <c r="B65" s="101"/>
-      <c r="C65" s="102"/>
+      <c r="C65" s="121"/>
       <c r="D65" s="103"/>
       <c r="E65" s="120"/>
       <c r="F65" s="103"/>
@@ -3969,7 +4494,7 @@
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="150"/>
       <c r="B66" s="101"/>
-      <c r="C66" s="123"/>
+      <c r="C66" s="102"/>
       <c r="D66" s="103"/>
       <c r="E66" s="120"/>
       <c r="F66" s="103"/>
@@ -3978,7 +4503,7 @@
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="150"/>
       <c r="B67" s="101"/>
-      <c r="C67" s="123"/>
+      <c r="C67" s="102"/>
       <c r="D67" s="103"/>
       <c r="E67" s="120"/>
       <c r="F67" s="103"/>
@@ -3987,7 +4512,7 @@
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="150"/>
       <c r="B68" s="101"/>
-      <c r="C68" s="123"/>
+      <c r="C68" s="102"/>
       <c r="D68" s="103"/>
       <c r="E68" s="120"/>
       <c r="F68" s="103"/>
@@ -4048,9 +4573,9 @@
       <c r="G74" s="122"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="150"/>
-      <c r="B75" s="101"/>
-      <c r="C75" s="102"/>
+      <c r="A75" s="248"/>
+      <c r="B75" s="249"/>
+      <c r="C75" s="250"/>
       <c r="D75" s="103"/>
       <c r="E75" s="120"/>
       <c r="F75" s="103"/>
@@ -4060,7 +4585,9 @@
       <c r="A76" s="150"/>
       <c r="B76" s="101"/>
       <c r="C76" s="102"/>
-      <c r="D76" s="103"/>
+      <c r="D76" s="103" t="s">
+        <v>49</v>
+      </c>
       <c r="E76" s="120"/>
       <c r="F76" s="103"/>
       <c r="G76" s="122"/>
@@ -4074,128 +4601,367 @@
       <c r="F77" s="103"/>
       <c r="G77" s="122"/>
     </row>
-    <row r="78" spans="1:7" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A78" s="454" t="s">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="150"/>
+      <c r="B78" s="101"/>
+      <c r="C78" s="102"/>
+      <c r="D78" s="103"/>
+      <c r="E78" s="120"/>
+      <c r="F78" s="103"/>
+      <c r="G78" s="122"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="150"/>
+      <c r="B79" s="101"/>
+      <c r="C79" s="102"/>
+      <c r="D79" s="103"/>
+      <c r="E79" s="120"/>
+      <c r="F79" s="103"/>
+      <c r="G79" s="122"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="150"/>
+      <c r="B80" s="101"/>
+      <c r="C80" s="102"/>
+      <c r="D80" s="103"/>
+      <c r="E80" s="120"/>
+      <c r="F80" s="103"/>
+      <c r="G80" s="122"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="150"/>
+      <c r="B81" s="101"/>
+      <c r="C81" s="102"/>
+      <c r="D81" s="103"/>
+      <c r="E81" s="120"/>
+      <c r="F81" s="103"/>
+      <c r="G81" s="122"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="150"/>
+      <c r="B82" s="101"/>
+      <c r="C82" s="102"/>
+      <c r="D82" s="103"/>
+      <c r="E82" s="120"/>
+      <c r="F82" s="103"/>
+      <c r="G82" s="122"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="150"/>
+      <c r="B83" s="101"/>
+      <c r="C83" s="102"/>
+      <c r="D83" s="103"/>
+      <c r="E83" s="120"/>
+      <c r="F83" s="103"/>
+      <c r="G83" s="122"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="150"/>
+      <c r="B84" s="101"/>
+      <c r="C84" s="102"/>
+      <c r="D84" s="103"/>
+      <c r="E84" s="120"/>
+      <c r="F84" s="103"/>
+      <c r="G84" s="122"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="150"/>
+      <c r="B85" s="101"/>
+      <c r="C85" s="102"/>
+      <c r="D85" s="103"/>
+      <c r="E85" s="120"/>
+      <c r="F85" s="103"/>
+      <c r="G85" s="122"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="150"/>
+      <c r="B86" s="101"/>
+      <c r="C86" s="102"/>
+      <c r="D86" s="103"/>
+      <c r="E86" s="120"/>
+      <c r="F86" s="103"/>
+      <c r="G86" s="122"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="150"/>
+      <c r="B87" s="101"/>
+      <c r="C87" s="102"/>
+      <c r="D87" s="103"/>
+      <c r="E87" s="120"/>
+      <c r="F87" s="103"/>
+      <c r="G87" s="122"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="150"/>
+      <c r="B88" s="101"/>
+      <c r="C88" s="123"/>
+      <c r="D88" s="103"/>
+      <c r="E88" s="120"/>
+      <c r="F88" s="103"/>
+      <c r="G88" s="122"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="150"/>
+      <c r="B89" s="101"/>
+      <c r="C89" s="123"/>
+      <c r="D89" s="103"/>
+      <c r="E89" s="120"/>
+      <c r="F89" s="103"/>
+      <c r="G89" s="122"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="150"/>
+      <c r="B90" s="101"/>
+      <c r="C90" s="123"/>
+      <c r="D90" s="103"/>
+      <c r="E90" s="120"/>
+      <c r="F90" s="103"/>
+      <c r="G90" s="122"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="150"/>
+      <c r="B91" s="101"/>
+      <c r="C91" s="102"/>
+      <c r="D91" s="103"/>
+      <c r="E91" s="120"/>
+      <c r="F91" s="103"/>
+      <c r="G91" s="122"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="150"/>
+      <c r="B92" s="101"/>
+      <c r="C92" s="102"/>
+      <c r="D92" s="103"/>
+      <c r="E92" s="120"/>
+      <c r="F92" s="103"/>
+      <c r="G92" s="122"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="150"/>
+      <c r="B93" s="101"/>
+      <c r="C93" s="102"/>
+      <c r="D93" s="103"/>
+      <c r="E93" s="120"/>
+      <c r="F93" s="103"/>
+      <c r="G93" s="122"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="150">
+        <v>44043</v>
+      </c>
+      <c r="B94" s="101" t="s">
+        <v>239</v>
+      </c>
+      <c r="C94" s="102" t="s">
+        <v>242</v>
+      </c>
+      <c r="D94" s="103"/>
+      <c r="E94" s="120"/>
+      <c r="F94" s="103"/>
+      <c r="G94" s="122">
+        <f>17*15000</f>
+        <v>255000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="150">
+        <v>44043</v>
+      </c>
+      <c r="B95" s="101" t="s">
+        <v>239</v>
+      </c>
+      <c r="C95" s="102" t="s">
+        <v>242</v>
+      </c>
+      <c r="D95" s="103"/>
+      <c r="E95" s="120"/>
+      <c r="F95" s="103"/>
+      <c r="G95" s="122">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="150">
+        <v>44043</v>
+      </c>
+      <c r="B96" s="101" t="s">
+        <v>239</v>
+      </c>
+      <c r="C96" s="102" t="s">
+        <v>242</v>
+      </c>
+      <c r="D96" s="103"/>
+      <c r="E96" s="120"/>
+      <c r="F96" s="103"/>
+      <c r="G96" s="122">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="150">
+        <v>44043</v>
+      </c>
+      <c r="B97" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C97" s="102" t="s">
+        <v>255</v>
+      </c>
+      <c r="D97" s="103"/>
+      <c r="E97" s="120"/>
+      <c r="F97" s="103"/>
+      <c r="G97" s="122">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="150">
+        <v>44043</v>
+      </c>
+      <c r="B98" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C98" s="102" t="s">
+        <v>255</v>
+      </c>
+      <c r="D98" s="103"/>
+      <c r="E98" s="120"/>
+      <c r="F98" s="103"/>
+      <c r="G98" s="122">
+        <v>365000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="150"/>
+      <c r="B99" s="101"/>
+      <c r="C99" s="102"/>
+      <c r="D99" s="103"/>
+      <c r="E99" s="120"/>
+      <c r="F99" s="103"/>
+      <c r="G99" s="122"/>
+    </row>
+    <row r="100" spans="1:8" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A100" s="456" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="455"/>
-      <c r="C78" s="456"/>
-      <c r="D78" s="124">
-        <f>SUM(D8:D77)</f>
+      <c r="B100" s="457"/>
+      <c r="C100" s="458"/>
+      <c r="D100" s="124">
+        <f>SUM(D8:D99)</f>
         <v>0</v>
       </c>
-      <c r="E78" s="124">
-        <f>SUM(E8:E77)</f>
+      <c r="E100" s="124">
+        <f>SUM(E8:E99)</f>
         <v>0</v>
       </c>
-      <c r="F78" s="124">
-        <f>SUM(F8:F77)</f>
-        <v>0</v>
-      </c>
-      <c r="G78" s="124">
-        <f>SUM(G8:G77)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="151"/>
-      <c r="B79" s="126"/>
-      <c r="C79" s="126"/>
-      <c r="D79" s="127"/>
-      <c r="E79" s="127"/>
-      <c r="F79" s="127"/>
-      <c r="G79" s="127"/>
-    </row>
-    <row r="80" spans="1:7" s="125" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="453" t="s">
+      <c r="F100" s="124">
+        <f>SUM(F8:F99)</f>
+        <v>9927000</v>
+      </c>
+      <c r="G100" s="124">
+        <f>SUM(G8:G99)</f>
+        <v>43724900</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A101" s="151"/>
+      <c r="B101" s="126"/>
+      <c r="C101" s="126"/>
+      <c r="D101" s="127"/>
+      <c r="E101" s="127"/>
+      <c r="F101" s="127"/>
+      <c r="G101" s="127"/>
+    </row>
+    <row r="102" spans="1:8" s="125" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A102" s="455" t="s">
         <v>83</v>
       </c>
-      <c r="B80" s="453"/>
-      <c r="C80" s="126"/>
-      <c r="D80" s="127"/>
-      <c r="E80" s="127"/>
-      <c r="F80" s="127"/>
-      <c r="G80" s="127"/>
-    </row>
-    <row r="81" spans="1:8" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A81" s="151"/>
-      <c r="B81" s="126"/>
-      <c r="C81" s="126"/>
-      <c r="D81" s="127"/>
-      <c r="E81" s="127"/>
-      <c r="F81" s="127"/>
-      <c r="G81" s="127"/>
-    </row>
-    <row r="82" spans="1:8" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="242"/>
-      <c r="B82" s="243"/>
-      <c r="C82" s="244"/>
-      <c r="D82" s="245"/>
-      <c r="E82" s="246"/>
-      <c r="F82" s="245"/>
-      <c r="G82" s="247"/>
-    </row>
-    <row r="83" spans="1:8" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="242"/>
-      <c r="B83" s="243"/>
-      <c r="C83" s="244"/>
-      <c r="D83" s="245"/>
-      <c r="E83" s="246"/>
-      <c r="F83" s="245"/>
-      <c r="G83" s="247"/>
-    </row>
-    <row r="84" spans="1:8" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="151"/>
-      <c r="B84" s="126"/>
-      <c r="C84" s="126"/>
-      <c r="D84" s="127"/>
-      <c r="E84" s="127"/>
-      <c r="F84" s="127"/>
-      <c r="G84" s="127"/>
-    </row>
-    <row r="85" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="152"/>
-      <c r="B85" s="94" t="s">
+      <c r="B102" s="455"/>
+      <c r="C102" s="126"/>
+      <c r="D102" s="127"/>
+      <c r="E102" s="127"/>
+      <c r="F102" s="127"/>
+      <c r="G102" s="127"/>
+    </row>
+    <row r="103" spans="1:8" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A103" s="151"/>
+      <c r="B103" s="126"/>
+      <c r="C103" s="126"/>
+      <c r="D103" s="127"/>
+      <c r="E103" s="127"/>
+      <c r="F103" s="127"/>
+      <c r="G103" s="127"/>
+    </row>
+    <row r="104" spans="1:8" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="242"/>
+      <c r="B104" s="243"/>
+      <c r="C104" s="244"/>
+      <c r="D104" s="245"/>
+      <c r="E104" s="246"/>
+      <c r="F104" s="245"/>
+      <c r="G104" s="247"/>
+    </row>
+    <row r="105" spans="1:8" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="242"/>
+      <c r="B105" s="243"/>
+      <c r="C105" s="244"/>
+      <c r="D105" s="245"/>
+      <c r="E105" s="246"/>
+      <c r="F105" s="245"/>
+      <c r="G105" s="247"/>
+    </row>
+    <row r="106" spans="1:8" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A106" s="151"/>
+      <c r="B106" s="126"/>
+      <c r="C106" s="126"/>
+      <c r="D106" s="127"/>
+      <c r="E106" s="127"/>
+      <c r="F106" s="127"/>
+      <c r="G106" s="127"/>
+    </row>
+    <row r="107" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="152"/>
+      <c r="B107" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="C85" s="70"/>
-      <c r="D85" s="94" t="s">
+      <c r="C107" s="70"/>
+      <c r="D107" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="E85" s="70"/>
-      <c r="F85" s="70"/>
-      <c r="G85" s="70"/>
-      <c r="H85" s="70"/>
-    </row>
-    <row r="86" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="152"/>
-      <c r="B86" s="4" t="s">
+      <c r="E107" s="70"/>
+      <c r="F107" s="70"/>
+      <c r="G107" s="70"/>
+      <c r="H107" s="70"/>
+    </row>
+    <row r="108" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="152"/>
+      <c r="B108" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="4" t="s">
+      <c r="C108" s="5"/>
+      <c r="D108" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="94"/>
-      <c r="C89" s="94"/>
-      <c r="D89" s="139" t="s">
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="94"/>
+      <c r="C111" s="94"/>
+      <c r="D111" s="139" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A6:G78">
+  <autoFilter ref="A6:G100">
     <filterColumn colId="3" hiddenButton="1" showButton="0"/>
     <filterColumn colId="5" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="8">
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A100:C100"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
@@ -4239,13 +5005,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="310" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="487" t="s">
+      <c r="A1" s="481" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="487"/>
-      <c r="C1" s="487"/>
-      <c r="D1" s="487"/>
-      <c r="E1" s="487"/>
+      <c r="B1" s="481"/>
+      <c r="C1" s="481"/>
+      <c r="D1" s="481"/>
+      <c r="E1" s="481"/>
       <c r="H1" s="311"/>
       <c r="I1" s="311"/>
       <c r="J1" s="311"/>
@@ -4273,153 +5039,153 @@
       <c r="O2" s="311"/>
     </row>
     <row r="3" spans="1:17" s="310" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="488" t="s">
+      <c r="A3" s="482" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="488"/>
-      <c r="C3" s="488"/>
-      <c r="D3" s="488"/>
-      <c r="E3" s="488"/>
-      <c r="F3" s="488"/>
-      <c r="G3" s="488"/>
-      <c r="H3" s="488"/>
-      <c r="I3" s="488"/>
-      <c r="J3" s="488"/>
-      <c r="K3" s="488"/>
-      <c r="L3" s="488"/>
-      <c r="M3" s="488"/>
-      <c r="N3" s="488"/>
-      <c r="O3" s="488"/>
-      <c r="P3" s="488"/>
+      <c r="B3" s="482"/>
+      <c r="C3" s="482"/>
+      <c r="D3" s="482"/>
+      <c r="E3" s="482"/>
+      <c r="F3" s="482"/>
+      <c r="G3" s="482"/>
+      <c r="H3" s="482"/>
+      <c r="I3" s="482"/>
+      <c r="J3" s="482"/>
+      <c r="K3" s="482"/>
+      <c r="L3" s="482"/>
+      <c r="M3" s="482"/>
+      <c r="N3" s="482"/>
+      <c r="O3" s="482"/>
+      <c r="P3" s="482"/>
     </row>
     <row r="4" spans="1:17" s="310" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="488" t="s">
+      <c r="A4" s="482" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="488"/>
-      <c r="C4" s="488"/>
-      <c r="D4" s="488"/>
-      <c r="E4" s="488"/>
-      <c r="F4" s="488"/>
-      <c r="G4" s="488"/>
-      <c r="H4" s="488"/>
-      <c r="I4" s="488"/>
-      <c r="J4" s="488"/>
-      <c r="K4" s="488"/>
-      <c r="L4" s="488"/>
-      <c r="M4" s="488"/>
-      <c r="N4" s="488"/>
-      <c r="O4" s="488"/>
-      <c r="P4" s="488"/>
+      <c r="B4" s="482"/>
+      <c r="C4" s="482"/>
+      <c r="D4" s="482"/>
+      <c r="E4" s="482"/>
+      <c r="F4" s="482"/>
+      <c r="G4" s="482"/>
+      <c r="H4" s="482"/>
+      <c r="I4" s="482"/>
+      <c r="J4" s="482"/>
+      <c r="K4" s="482"/>
+      <c r="L4" s="482"/>
+      <c r="M4" s="482"/>
+      <c r="N4" s="482"/>
+      <c r="O4" s="482"/>
+      <c r="P4" s="482"/>
     </row>
     <row r="5" spans="1:17" s="310" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="488"/>
-      <c r="B5" s="488"/>
-      <c r="C5" s="488"/>
-      <c r="D5" s="488"/>
-      <c r="E5" s="488"/>
-      <c r="F5" s="488"/>
-      <c r="G5" s="488"/>
-      <c r="H5" s="488"/>
-      <c r="I5" s="488"/>
-      <c r="J5" s="488"/>
-      <c r="K5" s="489"/>
-      <c r="L5" s="489"/>
+      <c r="A5" s="482"/>
+      <c r="B5" s="482"/>
+      <c r="C5" s="482"/>
+      <c r="D5" s="482"/>
+      <c r="E5" s="482"/>
+      <c r="F5" s="482"/>
+      <c r="G5" s="482"/>
+      <c r="H5" s="482"/>
+      <c r="I5" s="482"/>
+      <c r="J5" s="482"/>
+      <c r="K5" s="483"/>
+      <c r="L5" s="483"/>
       <c r="M5" s="311"/>
       <c r="N5" s="311"/>
       <c r="O5" s="311"/>
     </row>
     <row r="6" spans="1:17" s="318" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="490" t="s">
+      <c r="A6" s="484" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="492" t="s">
+      <c r="B6" s="486" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="490" t="s">
+      <c r="C6" s="484" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="496" t="s">
+      <c r="D6" s="490" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="496"/>
-      <c r="F6" s="497" t="s">
+      <c r="E6" s="490"/>
+      <c r="F6" s="491" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="497"/>
-      <c r="H6" s="497"/>
-      <c r="I6" s="497"/>
-      <c r="J6" s="497"/>
-      <c r="K6" s="497"/>
-      <c r="L6" s="497"/>
-      <c r="M6" s="498"/>
-      <c r="N6" s="498"/>
-      <c r="O6" s="498"/>
-      <c r="P6" s="499" t="s">
+      <c r="G6" s="491"/>
+      <c r="H6" s="491"/>
+      <c r="I6" s="491"/>
+      <c r="J6" s="491"/>
+      <c r="K6" s="491"/>
+      <c r="L6" s="491"/>
+      <c r="M6" s="492"/>
+      <c r="N6" s="492"/>
+      <c r="O6" s="492"/>
+      <c r="P6" s="493" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="318" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="491"/>
-      <c r="B7" s="493"/>
-      <c r="C7" s="491"/>
-      <c r="D7" s="490" t="s">
+      <c r="A7" s="485"/>
+      <c r="B7" s="487"/>
+      <c r="C7" s="485"/>
+      <c r="D7" s="484" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="490" t="s">
+      <c r="E7" s="484" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="490" t="s">
+      <c r="F7" s="484" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="490" t="s">
+      <c r="G7" s="484" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="494" t="s">
+      <c r="H7" s="488" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="494" t="s">
+      <c r="I7" s="488" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="501" t="s">
+      <c r="J7" s="495" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="501"/>
-      <c r="L7" s="494" t="s">
+      <c r="K7" s="495"/>
+      <c r="L7" s="488" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="494" t="s">
+      <c r="M7" s="488" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="494" t="s">
+      <c r="N7" s="488" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="494" t="s">
+      <c r="O7" s="488" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="500"/>
+      <c r="P7" s="494"/>
     </row>
     <row r="8" spans="1:17" s="318" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="491"/>
-      <c r="B8" s="493"/>
-      <c r="C8" s="491"/>
-      <c r="D8" s="491"/>
-      <c r="E8" s="491"/>
-      <c r="F8" s="491"/>
-      <c r="G8" s="491"/>
-      <c r="H8" s="495"/>
-      <c r="I8" s="495"/>
+      <c r="A8" s="485"/>
+      <c r="B8" s="487"/>
+      <c r="C8" s="485"/>
+      <c r="D8" s="485"/>
+      <c r="E8" s="485"/>
+      <c r="F8" s="485"/>
+      <c r="G8" s="485"/>
+      <c r="H8" s="489"/>
+      <c r="I8" s="489"/>
       <c r="J8" s="319" t="s">
         <v>85</v>
       </c>
       <c r="K8" s="320" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="495"/>
-      <c r="M8" s="495"/>
-      <c r="N8" s="495"/>
-      <c r="O8" s="495"/>
-      <c r="P8" s="500"/>
+      <c r="L8" s="489"/>
+      <c r="M8" s="489"/>
+      <c r="N8" s="489"/>
+      <c r="O8" s="489"/>
+      <c r="P8" s="494"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="239">
@@ -4516,17 +5282,17 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="471">
+      <c r="A11" s="469">
         <v>1165</v>
       </c>
-      <c r="B11" s="478">
+      <c r="B11" s="475">
         <v>44013</v>
       </c>
-      <c r="C11" s="471" t="s">
+      <c r="C11" s="469" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="471"/>
-      <c r="E11" s="471" t="s">
+      <c r="D11" s="469"/>
+      <c r="E11" s="469" t="s">
         <v>167</v>
       </c>
       <c r="F11" s="365" t="s">
@@ -4556,16 +5322,16 @@
       </c>
       <c r="N11" s="366"/>
       <c r="O11" s="366"/>
-      <c r="P11" s="471" t="s">
+      <c r="P11" s="469" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="468"/>
-      <c r="B12" s="480"/>
-      <c r="C12" s="468"/>
-      <c r="D12" s="468"/>
-      <c r="E12" s="468"/>
+      <c r="A12" s="471"/>
+      <c r="B12" s="477"/>
+      <c r="C12" s="471"/>
+      <c r="D12" s="471"/>
+      <c r="E12" s="471"/>
       <c r="F12" s="372" t="s">
         <v>158</v>
       </c>
@@ -4593,23 +5359,23 @@
       </c>
       <c r="N12" s="373"/>
       <c r="O12" s="373"/>
-      <c r="P12" s="468"/>
+      <c r="P12" s="471"/>
       <c r="Q12" s="324"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="471">
+      <c r="A13" s="469">
         <v>1180</v>
       </c>
-      <c r="B13" s="478">
+      <c r="B13" s="475">
         <v>25628</v>
       </c>
-      <c r="C13" s="471" t="s">
+      <c r="C13" s="469" t="s">
         <v>159</v>
       </c>
-      <c r="D13" s="471" t="s">
+      <c r="D13" s="469" t="s">
         <v>160</v>
       </c>
-      <c r="E13" s="471"/>
+      <c r="E13" s="469"/>
       <c r="F13" s="365" t="s">
         <v>161</v>
       </c>
@@ -4640,11 +5406,11 @@
       <c r="P13" s="223"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="468"/>
-      <c r="B14" s="480"/>
-      <c r="C14" s="468"/>
-      <c r="D14" s="468"/>
-      <c r="E14" s="468"/>
+      <c r="A14" s="471"/>
+      <c r="B14" s="477"/>
+      <c r="C14" s="471"/>
+      <c r="D14" s="471"/>
+      <c r="E14" s="471"/>
       <c r="F14" s="372" t="s">
         <v>158</v>
       </c>
@@ -4765,17 +5531,17 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="471">
+      <c r="A17" s="469">
         <v>1177</v>
       </c>
-      <c r="B17" s="478">
+      <c r="B17" s="475">
         <v>44018</v>
       </c>
-      <c r="C17" s="471"/>
-      <c r="D17" s="481" t="s">
+      <c r="C17" s="469"/>
+      <c r="D17" s="472" t="s">
         <v>164</v>
       </c>
-      <c r="E17" s="481" t="s">
+      <c r="E17" s="472" t="s">
         <v>165</v>
       </c>
       <c r="F17" s="365" t="s">
@@ -4808,11 +5574,11 @@
       <c r="P17" s="379"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="468"/>
-      <c r="B18" s="480"/>
-      <c r="C18" s="468"/>
-      <c r="D18" s="483"/>
-      <c r="E18" s="483"/>
+      <c r="A18" s="471"/>
+      <c r="B18" s="477"/>
+      <c r="C18" s="471"/>
+      <c r="D18" s="474"/>
+      <c r="E18" s="474"/>
       <c r="F18" s="372" t="s">
         <v>166</v>
       </c>
@@ -4886,19 +5652,19 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="471">
+      <c r="A20" s="469">
         <v>1183</v>
       </c>
-      <c r="B20" s="478">
+      <c r="B20" s="475">
         <v>44019</v>
       </c>
-      <c r="C20" s="471" t="s">
+      <c r="C20" s="469" t="s">
         <v>164</v>
       </c>
-      <c r="D20" s="481" t="s">
+      <c r="D20" s="472" t="s">
         <v>164</v>
       </c>
-      <c r="E20" s="481" t="s">
+      <c r="E20" s="472" t="s">
         <v>167</v>
       </c>
       <c r="F20" s="365" t="s">
@@ -4931,11 +5697,11 @@
       <c r="P20" s="379"/>
     </row>
     <row r="21" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="467"/>
-      <c r="B21" s="479"/>
-      <c r="C21" s="467"/>
-      <c r="D21" s="482"/>
-      <c r="E21" s="482"/>
+      <c r="A21" s="470"/>
+      <c r="B21" s="476"/>
+      <c r="C21" s="470"/>
+      <c r="D21" s="473"/>
+      <c r="E21" s="473"/>
       <c r="F21" s="369" t="s">
         <v>154</v>
       </c>
@@ -4966,11 +5732,11 @@
       <c r="P21" s="378"/>
     </row>
     <row r="22" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="468"/>
-      <c r="B22" s="480"/>
-      <c r="C22" s="468"/>
-      <c r="D22" s="483"/>
-      <c r="E22" s="483"/>
+      <c r="A22" s="471"/>
+      <c r="B22" s="477"/>
+      <c r="C22" s="471"/>
+      <c r="D22" s="474"/>
+      <c r="E22" s="474"/>
       <c r="F22" s="372" t="s">
         <v>162</v>
       </c>
@@ -5002,17 +5768,17 @@
       <c r="R22" s="324"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="475">
+      <c r="A23" s="496">
         <v>493</v>
       </c>
-      <c r="B23" s="484">
+      <c r="B23" s="499">
         <v>44020</v>
       </c>
-      <c r="C23" s="475"/>
-      <c r="D23" s="475" t="s">
+      <c r="C23" s="496"/>
+      <c r="D23" s="496" t="s">
         <v>171</v>
       </c>
-      <c r="E23" s="475" t="s">
+      <c r="E23" s="496" t="s">
         <v>172</v>
       </c>
       <c r="F23" s="407" t="s">
@@ -5045,11 +5811,11 @@
       <c r="P23" s="407"/>
     </row>
     <row r="24" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="469"/>
-      <c r="B24" s="485"/>
-      <c r="C24" s="469"/>
-      <c r="D24" s="469"/>
-      <c r="E24" s="469"/>
+      <c r="A24" s="497"/>
+      <c r="B24" s="500"/>
+      <c r="C24" s="497"/>
+      <c r="D24" s="497"/>
+      <c r="E24" s="497"/>
       <c r="F24" s="369" t="s">
         <v>158</v>
       </c>
@@ -5080,11 +5846,11 @@
       <c r="P24" s="369"/>
     </row>
     <row r="25" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="469"/>
-      <c r="B25" s="485"/>
-      <c r="C25" s="469"/>
-      <c r="D25" s="469"/>
-      <c r="E25" s="469"/>
+      <c r="A25" s="497"/>
+      <c r="B25" s="500"/>
+      <c r="C25" s="497"/>
+      <c r="D25" s="497"/>
+      <c r="E25" s="497"/>
       <c r="F25" s="369" t="s">
         <v>168</v>
       </c>
@@ -5115,11 +5881,11 @@
       <c r="P25" s="369"/>
     </row>
     <row r="26" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="469"/>
-      <c r="B26" s="485"/>
-      <c r="C26" s="469"/>
-      <c r="D26" s="469"/>
-      <c r="E26" s="469"/>
+      <c r="A26" s="497"/>
+      <c r="B26" s="500"/>
+      <c r="C26" s="497"/>
+      <c r="D26" s="497"/>
+      <c r="E26" s="497"/>
       <c r="F26" s="369" t="s">
         <v>154</v>
       </c>
@@ -5150,11 +5916,11 @@
       <c r="P26" s="369"/>
     </row>
     <row r="27" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="469"/>
-      <c r="B27" s="485"/>
-      <c r="C27" s="469"/>
-      <c r="D27" s="469"/>
-      <c r="E27" s="469"/>
+      <c r="A27" s="497"/>
+      <c r="B27" s="500"/>
+      <c r="C27" s="497"/>
+      <c r="D27" s="497"/>
+      <c r="E27" s="497"/>
       <c r="F27" s="369" t="s">
         <v>170</v>
       </c>
@@ -5185,11 +5951,11 @@
       <c r="P27" s="369"/>
     </row>
     <row r="28" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="469"/>
-      <c r="B28" s="485"/>
-      <c r="C28" s="469"/>
-      <c r="D28" s="469"/>
-      <c r="E28" s="469"/>
+      <c r="A28" s="497"/>
+      <c r="B28" s="500"/>
+      <c r="C28" s="497"/>
+      <c r="D28" s="497"/>
+      <c r="E28" s="497"/>
       <c r="F28" s="369" t="s">
         <v>162</v>
       </c>
@@ -5220,11 +5986,11 @@
       <c r="P28" s="378"/>
     </row>
     <row r="29" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="477"/>
-      <c r="B29" s="486"/>
-      <c r="C29" s="477"/>
-      <c r="D29" s="477"/>
-      <c r="E29" s="477"/>
+      <c r="A29" s="498"/>
+      <c r="B29" s="501"/>
+      <c r="C29" s="498"/>
+      <c r="D29" s="498"/>
+      <c r="E29" s="498"/>
       <c r="F29" s="372" t="s">
         <v>166</v>
       </c>
@@ -5343,17 +6109,17 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="471">
+      <c r="A32" s="469">
         <v>1186</v>
       </c>
-      <c r="B32" s="478">
+      <c r="B32" s="475">
         <v>44020</v>
       </c>
-      <c r="C32" s="471"/>
-      <c r="D32" s="481" t="s">
+      <c r="C32" s="469"/>
+      <c r="D32" s="472" t="s">
         <v>177</v>
       </c>
-      <c r="E32" s="471" t="s">
+      <c r="E32" s="469" t="s">
         <v>178</v>
       </c>
       <c r="F32" s="365" t="s">
@@ -5385,16 +6151,16 @@
         <f>L32-J32</f>
         <v>7426200</v>
       </c>
-      <c r="P32" s="481" t="s">
+      <c r="P32" s="472" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="467"/>
-      <c r="B33" s="479"/>
-      <c r="C33" s="467"/>
-      <c r="D33" s="482"/>
-      <c r="E33" s="467"/>
+      <c r="A33" s="470"/>
+      <c r="B33" s="476"/>
+      <c r="C33" s="470"/>
+      <c r="D33" s="473"/>
+      <c r="E33" s="470"/>
       <c r="F33" s="369" t="s">
         <v>158</v>
       </c>
@@ -5422,14 +6188,14 @@
         <f>L33</f>
         <v>5468400</v>
       </c>
-      <c r="P33" s="482"/>
+      <c r="P33" s="473"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="468"/>
-      <c r="B34" s="480"/>
-      <c r="C34" s="468"/>
-      <c r="D34" s="483"/>
-      <c r="E34" s="468"/>
+      <c r="A34" s="471"/>
+      <c r="B34" s="477"/>
+      <c r="C34" s="471"/>
+      <c r="D34" s="474"/>
+      <c r="E34" s="471"/>
       <c r="F34" s="372" t="s">
         <v>154</v>
       </c>
@@ -5457,20 +6223,20 @@
         <f>L34</f>
         <v>2851800</v>
       </c>
-      <c r="P34" s="483"/>
+      <c r="P34" s="474"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="471">
+      <c r="A35" s="469">
         <v>1191</v>
       </c>
-      <c r="B35" s="478">
+      <c r="B35" s="475">
         <v>44021</v>
       </c>
-      <c r="C35" s="471"/>
-      <c r="D35" s="481" t="s">
+      <c r="C35" s="469"/>
+      <c r="D35" s="472" t="s">
         <v>180</v>
       </c>
-      <c r="E35" s="471" t="s">
+      <c r="E35" s="469" t="s">
         <v>181</v>
       </c>
       <c r="F35" s="365" t="s">
@@ -5503,11 +6269,11 @@
       <c r="P35" s="365"/>
     </row>
     <row r="36" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="467"/>
-      <c r="B36" s="479"/>
-      <c r="C36" s="467"/>
-      <c r="D36" s="482"/>
-      <c r="E36" s="467"/>
+      <c r="A36" s="470"/>
+      <c r="B36" s="476"/>
+      <c r="C36" s="470"/>
+      <c r="D36" s="473"/>
+      <c r="E36" s="470"/>
       <c r="F36" s="369" t="s">
         <v>173</v>
       </c>
@@ -5538,11 +6304,11 @@
       <c r="P36" s="369"/>
     </row>
     <row r="37" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="467"/>
-      <c r="B37" s="479"/>
-      <c r="C37" s="467"/>
-      <c r="D37" s="482"/>
-      <c r="E37" s="467"/>
+      <c r="A37" s="470"/>
+      <c r="B37" s="476"/>
+      <c r="C37" s="470"/>
+      <c r="D37" s="473"/>
+      <c r="E37" s="470"/>
       <c r="F37" s="369" t="s">
         <v>174</v>
       </c>
@@ -5573,11 +6339,11 @@
       <c r="P37" s="369"/>
     </row>
     <row r="38" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="467"/>
-      <c r="B38" s="479"/>
-      <c r="C38" s="467"/>
-      <c r="D38" s="482"/>
-      <c r="E38" s="467"/>
+      <c r="A38" s="470"/>
+      <c r="B38" s="476"/>
+      <c r="C38" s="470"/>
+      <c r="D38" s="473"/>
+      <c r="E38" s="470"/>
       <c r="F38" s="369" t="s">
         <v>175</v>
       </c>
@@ -5608,11 +6374,11 @@
       <c r="P38" s="369"/>
     </row>
     <row r="39" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="468"/>
-      <c r="B39" s="480"/>
-      <c r="C39" s="468"/>
-      <c r="D39" s="483"/>
-      <c r="E39" s="468"/>
+      <c r="A39" s="471"/>
+      <c r="B39" s="477"/>
+      <c r="C39" s="471"/>
+      <c r="D39" s="474"/>
+      <c r="E39" s="471"/>
       <c r="F39" s="372" t="s">
         <v>182</v>
       </c>
@@ -5780,19 +6546,19 @@
       <c r="P42" s="239"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="471">
+      <c r="A43" s="469">
         <v>495</v>
       </c>
-      <c r="B43" s="478">
+      <c r="B43" s="475">
         <v>44023</v>
       </c>
-      <c r="C43" s="471" t="s">
+      <c r="C43" s="469" t="s">
         <v>159</v>
       </c>
-      <c r="D43" s="481" t="s">
+      <c r="D43" s="472" t="s">
         <v>190</v>
       </c>
-      <c r="E43" s="471" t="s">
+      <c r="E43" s="469" t="s">
         <v>172</v>
       </c>
       <c r="F43" s="397" t="s">
@@ -5825,11 +6591,11 @@
       <c r="P43" s="397"/>
     </row>
     <row r="44" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="467"/>
-      <c r="B44" s="479"/>
-      <c r="C44" s="467"/>
-      <c r="D44" s="482"/>
-      <c r="E44" s="467"/>
+      <c r="A44" s="470"/>
+      <c r="B44" s="476"/>
+      <c r="C44" s="470"/>
+      <c r="D44" s="473"/>
+      <c r="E44" s="470"/>
       <c r="F44" s="412" t="s">
         <v>158</v>
       </c>
@@ -5860,11 +6626,11 @@
       <c r="P44" s="412"/>
     </row>
     <row r="45" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="467"/>
-      <c r="B45" s="479"/>
-      <c r="C45" s="467"/>
-      <c r="D45" s="482"/>
-      <c r="E45" s="467"/>
+      <c r="A45" s="470"/>
+      <c r="B45" s="476"/>
+      <c r="C45" s="470"/>
+      <c r="D45" s="473"/>
+      <c r="E45" s="470"/>
       <c r="F45" s="412" t="s">
         <v>168</v>
       </c>
@@ -5895,11 +6661,11 @@
       <c r="P45" s="412"/>
     </row>
     <row r="46" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="467"/>
-      <c r="B46" s="479"/>
-      <c r="C46" s="467"/>
-      <c r="D46" s="482"/>
-      <c r="E46" s="467"/>
+      <c r="A46" s="470"/>
+      <c r="B46" s="476"/>
+      <c r="C46" s="470"/>
+      <c r="D46" s="473"/>
+      <c r="E46" s="470"/>
       <c r="F46" s="412" t="s">
         <v>154</v>
       </c>
@@ -5930,11 +6696,11 @@
       <c r="P46" s="412"/>
     </row>
     <row r="47" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="467"/>
-      <c r="B47" s="479"/>
-      <c r="C47" s="467"/>
-      <c r="D47" s="482"/>
-      <c r="E47" s="467"/>
+      <c r="A47" s="470"/>
+      <c r="B47" s="476"/>
+      <c r="C47" s="470"/>
+      <c r="D47" s="473"/>
+      <c r="E47" s="470"/>
       <c r="F47" s="412" t="s">
         <v>170</v>
       </c>
@@ -5966,11 +6732,11 @@
       <c r="Q47" s="324"/>
     </row>
     <row r="48" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="467"/>
-      <c r="B48" s="479"/>
-      <c r="C48" s="467"/>
-      <c r="D48" s="482"/>
-      <c r="E48" s="467"/>
+      <c r="A48" s="470"/>
+      <c r="B48" s="476"/>
+      <c r="C48" s="470"/>
+      <c r="D48" s="473"/>
+      <c r="E48" s="470"/>
       <c r="F48" s="412" t="s">
         <v>162</v>
       </c>
@@ -6002,11 +6768,11 @@
       <c r="Q48" s="324"/>
     </row>
     <row r="49" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="468"/>
-      <c r="B49" s="480"/>
-      <c r="C49" s="468"/>
-      <c r="D49" s="483"/>
-      <c r="E49" s="468"/>
+      <c r="A49" s="471"/>
+      <c r="B49" s="477"/>
+      <c r="C49" s="471"/>
+      <c r="D49" s="474"/>
+      <c r="E49" s="471"/>
       <c r="F49" s="398" t="s">
         <v>166</v>
       </c>
@@ -6132,17 +6898,17 @@
       <c r="Q51" s="324"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="471">
+      <c r="A52" s="469">
         <v>1199</v>
       </c>
-      <c r="B52" s="478">
+      <c r="B52" s="475">
         <v>44026</v>
       </c>
-      <c r="C52" s="471"/>
-      <c r="D52" s="481" t="s">
+      <c r="C52" s="469"/>
+      <c r="D52" s="472" t="s">
         <v>195</v>
       </c>
-      <c r="E52" s="471" t="s">
+      <c r="E52" s="469" t="s">
         <v>196</v>
       </c>
       <c r="F52" s="416" t="s">
@@ -6176,11 +6942,11 @@
       <c r="Q52" s="324"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="468"/>
-      <c r="B53" s="480"/>
-      <c r="C53" s="468"/>
-      <c r="D53" s="483"/>
-      <c r="E53" s="468"/>
+      <c r="A53" s="471"/>
+      <c r="B53" s="477"/>
+      <c r="C53" s="471"/>
+      <c r="D53" s="474"/>
+      <c r="E53" s="471"/>
       <c r="F53" s="418" t="s">
         <v>166</v>
       </c>
@@ -6212,19 +6978,19 @@
       <c r="Q53" s="324"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="471">
+      <c r="A54" s="469">
         <v>1200</v>
       </c>
-      <c r="B54" s="478">
+      <c r="B54" s="475">
         <v>44026</v>
       </c>
-      <c r="C54" s="471" t="s">
+      <c r="C54" s="469" t="s">
         <v>159</v>
       </c>
-      <c r="D54" s="481" t="s">
+      <c r="D54" s="472" t="s">
         <v>198</v>
       </c>
-      <c r="E54" s="471"/>
+      <c r="E54" s="469"/>
       <c r="F54" s="416" t="s">
         <v>161</v>
       </c>
@@ -6253,11 +7019,11 @@
       <c r="Q54" s="324"/>
     </row>
     <row r="55" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="467"/>
-      <c r="B55" s="479"/>
-      <c r="C55" s="467"/>
-      <c r="D55" s="482"/>
-      <c r="E55" s="467"/>
+      <c r="A55" s="470"/>
+      <c r="B55" s="476"/>
+      <c r="C55" s="470"/>
+      <c r="D55" s="473"/>
+      <c r="E55" s="470"/>
       <c r="F55" s="417" t="s">
         <v>158</v>
       </c>
@@ -6286,11 +7052,11 @@
       <c r="Q55" s="324"/>
     </row>
     <row r="56" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="467"/>
-      <c r="B56" s="479"/>
-      <c r="C56" s="467"/>
-      <c r="D56" s="482"/>
-      <c r="E56" s="467"/>
+      <c r="A56" s="470"/>
+      <c r="B56" s="476"/>
+      <c r="C56" s="470"/>
+      <c r="D56" s="473"/>
+      <c r="E56" s="470"/>
       <c r="F56" s="417" t="s">
         <v>168</v>
       </c>
@@ -6319,11 +7085,11 @@
       <c r="Q56" s="324"/>
     </row>
     <row r="57" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="467"/>
-      <c r="B57" s="479"/>
-      <c r="C57" s="467"/>
-      <c r="D57" s="482"/>
-      <c r="E57" s="467"/>
+      <c r="A57" s="470"/>
+      <c r="B57" s="476"/>
+      <c r="C57" s="470"/>
+      <c r="D57" s="473"/>
+      <c r="E57" s="470"/>
       <c r="F57" s="417" t="s">
         <v>154</v>
       </c>
@@ -6352,11 +7118,11 @@
       <c r="Q57" s="324"/>
     </row>
     <row r="58" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="467"/>
-      <c r="B58" s="479"/>
-      <c r="C58" s="467"/>
-      <c r="D58" s="482"/>
-      <c r="E58" s="467"/>
+      <c r="A58" s="470"/>
+      <c r="B58" s="476"/>
+      <c r="C58" s="470"/>
+      <c r="D58" s="473"/>
+      <c r="E58" s="470"/>
       <c r="F58" s="417" t="s">
         <v>170</v>
       </c>
@@ -6385,11 +7151,11 @@
       <c r="Q58" s="324"/>
     </row>
     <row r="59" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="467"/>
-      <c r="B59" s="479"/>
-      <c r="C59" s="467"/>
-      <c r="D59" s="482"/>
-      <c r="E59" s="467"/>
+      <c r="A59" s="470"/>
+      <c r="B59" s="476"/>
+      <c r="C59" s="470"/>
+      <c r="D59" s="473"/>
+      <c r="E59" s="470"/>
       <c r="F59" s="417" t="s">
         <v>162</v>
       </c>
@@ -6418,11 +7184,11 @@
       <c r="Q59" s="324"/>
     </row>
     <row r="60" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="468"/>
-      <c r="B60" s="480"/>
-      <c r="C60" s="468"/>
-      <c r="D60" s="483"/>
-      <c r="E60" s="468"/>
+      <c r="A60" s="471"/>
+      <c r="B60" s="477"/>
+      <c r="C60" s="471"/>
+      <c r="D60" s="474"/>
+      <c r="E60" s="471"/>
       <c r="F60" s="418" t="s">
         <v>166</v>
       </c>
@@ -6451,17 +7217,17 @@
       <c r="Q60" s="324"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="471">
+      <c r="A61" s="469">
         <v>603</v>
       </c>
-      <c r="B61" s="478">
+      <c r="B61" s="475">
         <v>44027</v>
       </c>
-      <c r="C61" s="471"/>
-      <c r="D61" s="481" t="s">
+      <c r="C61" s="469"/>
+      <c r="D61" s="472" t="s">
         <v>199</v>
       </c>
-      <c r="E61" s="471" t="s">
+      <c r="E61" s="469" t="s">
         <v>200</v>
       </c>
       <c r="F61" s="416" t="s">
@@ -6495,11 +7261,11 @@
       <c r="Q61" s="324"/>
     </row>
     <row r="62" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="467"/>
-      <c r="B62" s="479"/>
-      <c r="C62" s="467"/>
-      <c r="D62" s="482"/>
-      <c r="E62" s="467"/>
+      <c r="A62" s="470"/>
+      <c r="B62" s="476"/>
+      <c r="C62" s="470"/>
+      <c r="D62" s="473"/>
+      <c r="E62" s="470"/>
       <c r="F62" s="417" t="s">
         <v>158</v>
       </c>
@@ -6531,11 +7297,11 @@
       <c r="Q62" s="324"/>
     </row>
     <row r="63" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="467"/>
-      <c r="B63" s="479"/>
-      <c r="C63" s="467"/>
-      <c r="D63" s="482"/>
-      <c r="E63" s="467"/>
+      <c r="A63" s="470"/>
+      <c r="B63" s="476"/>
+      <c r="C63" s="470"/>
+      <c r="D63" s="473"/>
+      <c r="E63" s="470"/>
       <c r="F63" s="417" t="s">
         <v>168</v>
       </c>
@@ -6568,11 +7334,11 @@
       <c r="Q63" s="324"/>
     </row>
     <row r="64" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="467"/>
-      <c r="B64" s="479"/>
-      <c r="C64" s="467"/>
-      <c r="D64" s="482"/>
-      <c r="E64" s="467"/>
+      <c r="A64" s="470"/>
+      <c r="B64" s="476"/>
+      <c r="C64" s="470"/>
+      <c r="D64" s="473"/>
+      <c r="E64" s="470"/>
       <c r="F64" s="417" t="s">
         <v>154</v>
       </c>
@@ -6602,11 +7368,11 @@
       <c r="Q64" s="324"/>
     </row>
     <row r="65" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="467"/>
-      <c r="B65" s="479"/>
-      <c r="C65" s="467"/>
-      <c r="D65" s="482"/>
-      <c r="E65" s="467"/>
+      <c r="A65" s="470"/>
+      <c r="B65" s="476"/>
+      <c r="C65" s="470"/>
+      <c r="D65" s="473"/>
+      <c r="E65" s="470"/>
       <c r="F65" s="417" t="s">
         <v>170</v>
       </c>
@@ -6635,11 +7401,11 @@
       <c r="P65" s="231"/>
     </row>
     <row r="66" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="467"/>
-      <c r="B66" s="479"/>
-      <c r="C66" s="467"/>
-      <c r="D66" s="482"/>
-      <c r="E66" s="467"/>
+      <c r="A66" s="470"/>
+      <c r="B66" s="476"/>
+      <c r="C66" s="470"/>
+      <c r="D66" s="473"/>
+      <c r="E66" s="470"/>
       <c r="F66" s="417" t="s">
         <v>193</v>
       </c>
@@ -6668,11 +7434,11 @@
       <c r="P66" s="231"/>
     </row>
     <row r="67" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="467"/>
-      <c r="B67" s="479"/>
-      <c r="C67" s="467"/>
-      <c r="D67" s="482"/>
-      <c r="E67" s="467"/>
+      <c r="A67" s="470"/>
+      <c r="B67" s="476"/>
+      <c r="C67" s="470"/>
+      <c r="D67" s="473"/>
+      <c r="E67" s="470"/>
       <c r="F67" s="417" t="s">
         <v>162</v>
       </c>
@@ -6701,11 +7467,11 @@
       <c r="P67" s="231"/>
     </row>
     <row r="68" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="468"/>
-      <c r="B68" s="480"/>
-      <c r="C68" s="468"/>
-      <c r="D68" s="483"/>
-      <c r="E68" s="468"/>
+      <c r="A68" s="471"/>
+      <c r="B68" s="477"/>
+      <c r="C68" s="471"/>
+      <c r="D68" s="474"/>
+      <c r="E68" s="471"/>
       <c r="F68" s="418" t="s">
         <v>166</v>
       </c>
@@ -6822,19 +7588,19 @@
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="471">
+      <c r="A71" s="469">
         <v>498</v>
       </c>
-      <c r="B71" s="472">
+      <c r="B71" s="478">
         <v>44029</v>
       </c>
-      <c r="C71" s="471" t="s">
+      <c r="C71" s="469" t="s">
         <v>159</v>
       </c>
-      <c r="D71" s="471" t="s">
+      <c r="D71" s="469" t="s">
         <v>201</v>
       </c>
-      <c r="E71" s="471" t="s">
+      <c r="E71" s="469" t="s">
         <v>202</v>
       </c>
       <c r="F71" s="416" t="s">
@@ -6864,11 +7630,11 @@
       <c r="P71" s="226"/>
     </row>
     <row r="72" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="468"/>
-      <c r="B72" s="473"/>
-      <c r="C72" s="468"/>
-      <c r="D72" s="468"/>
-      <c r="E72" s="468"/>
+      <c r="A72" s="471"/>
+      <c r="B72" s="479"/>
+      <c r="C72" s="471"/>
+      <c r="D72" s="471"/>
+      <c r="E72" s="471"/>
       <c r="F72" s="418" t="s">
         <v>158</v>
       </c>
@@ -6896,17 +7662,17 @@
       <c r="P72" s="235"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="471">
+      <c r="A73" s="469">
         <v>499</v>
       </c>
-      <c r="B73" s="472">
+      <c r="B73" s="478">
         <v>44029</v>
       </c>
-      <c r="C73" s="471"/>
-      <c r="D73" s="471" t="s">
+      <c r="C73" s="469"/>
+      <c r="D73" s="469" t="s">
         <v>203</v>
       </c>
-      <c r="E73" s="471"/>
+      <c r="E73" s="469"/>
       <c r="F73" s="416" t="s">
         <v>161</v>
       </c>
@@ -6934,11 +7700,11 @@
       <c r="P73" s="226"/>
     </row>
     <row r="74" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="467"/>
-      <c r="B74" s="474"/>
-      <c r="C74" s="467"/>
-      <c r="D74" s="467"/>
-      <c r="E74" s="467"/>
+      <c r="A74" s="470"/>
+      <c r="B74" s="480"/>
+      <c r="C74" s="470"/>
+      <c r="D74" s="470"/>
+      <c r="E74" s="470"/>
       <c r="F74" s="417" t="s">
         <v>168</v>
       </c>
@@ -6966,11 +7732,11 @@
       <c r="P74" s="417"/>
     </row>
     <row r="75" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="468"/>
-      <c r="B75" s="473"/>
-      <c r="C75" s="468"/>
-      <c r="D75" s="468"/>
-      <c r="E75" s="468"/>
+      <c r="A75" s="471"/>
+      <c r="B75" s="479"/>
+      <c r="C75" s="471"/>
+      <c r="D75" s="471"/>
+      <c r="E75" s="471"/>
       <c r="F75" s="418" t="s">
         <v>154</v>
       </c>
@@ -6998,19 +7764,19 @@
       <c r="P75" s="418"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="471">
+      <c r="A76" s="469">
         <v>607</v>
       </c>
-      <c r="B76" s="472">
+      <c r="B76" s="478">
         <v>44029</v>
       </c>
-      <c r="C76" s="471" t="s">
+      <c r="C76" s="469" t="s">
         <v>152</v>
       </c>
-      <c r="D76" s="471" t="s">
+      <c r="D76" s="469" t="s">
         <v>153</v>
       </c>
-      <c r="E76" s="471" t="s">
+      <c r="E76" s="469" t="s">
         <v>178</v>
       </c>
       <c r="F76" s="416" t="s">
@@ -7040,16 +7806,16 @@
       </c>
       <c r="N76" s="366"/>
       <c r="O76" s="366"/>
-      <c r="P76" s="471" t="s">
+      <c r="P76" s="469" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="467"/>
-      <c r="B77" s="474"/>
-      <c r="C77" s="467"/>
-      <c r="D77" s="467"/>
-      <c r="E77" s="467"/>
+      <c r="A77" s="470"/>
+      <c r="B77" s="480"/>
+      <c r="C77" s="470"/>
+      <c r="D77" s="470"/>
+      <c r="E77" s="470"/>
       <c r="F77" s="417" t="s">
         <v>154</v>
       </c>
@@ -7077,14 +7843,14 @@
       </c>
       <c r="N77" s="370"/>
       <c r="O77" s="370"/>
-      <c r="P77" s="467"/>
+      <c r="P77" s="470"/>
     </row>
     <row r="78" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="468"/>
-      <c r="B78" s="473"/>
-      <c r="C78" s="468"/>
-      <c r="D78" s="468"/>
-      <c r="E78" s="468"/>
+      <c r="A78" s="471"/>
+      <c r="B78" s="479"/>
+      <c r="C78" s="471"/>
+      <c r="D78" s="471"/>
+      <c r="E78" s="471"/>
       <c r="F78" s="418" t="s">
         <v>166</v>
       </c>
@@ -7112,7 +7878,7 @@
       </c>
       <c r="N78" s="373"/>
       <c r="O78" s="373"/>
-      <c r="P78" s="468"/>
+      <c r="P78" s="471"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="419">
@@ -7158,17 +7924,17 @@
       <c r="P79" s="419"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="471">
+      <c r="A80" s="469">
         <v>611</v>
       </c>
-      <c r="B80" s="472">
+      <c r="B80" s="478">
         <v>44032</v>
       </c>
-      <c r="C80" s="471"/>
-      <c r="D80" s="471" t="s">
+      <c r="C80" s="469"/>
+      <c r="D80" s="469" t="s">
         <v>205</v>
       </c>
-      <c r="E80" s="471" t="s">
+      <c r="E80" s="469" t="s">
         <v>206</v>
       </c>
       <c r="F80" s="416" t="s">
@@ -7198,16 +7964,16 @@
         <f>L80</f>
         <v>68250000</v>
       </c>
-      <c r="P80" s="475" t="s">
+      <c r="P80" s="496" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="467"/>
-      <c r="B81" s="474"/>
-      <c r="C81" s="467"/>
-      <c r="D81" s="467"/>
-      <c r="E81" s="467"/>
+      <c r="A81" s="470"/>
+      <c r="B81" s="480"/>
+      <c r="C81" s="470"/>
+      <c r="D81" s="470"/>
+      <c r="E81" s="470"/>
       <c r="F81" s="417" t="s">
         <v>158</v>
       </c>
@@ -7235,14 +8001,14 @@
         <f t="shared" ref="O81:O87" si="9">L81</f>
         <v>41850000</v>
       </c>
-      <c r="P81" s="469"/>
+      <c r="P81" s="497"/>
     </row>
     <row r="82" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="467"/>
-      <c r="B82" s="474"/>
-      <c r="C82" s="467"/>
-      <c r="D82" s="467"/>
-      <c r="E82" s="467"/>
+      <c r="A82" s="470"/>
+      <c r="B82" s="480"/>
+      <c r="C82" s="470"/>
+      <c r="D82" s="470"/>
+      <c r="E82" s="470"/>
       <c r="F82" s="417" t="s">
         <v>168</v>
       </c>
@@ -7270,14 +8036,14 @@
         <f t="shared" si="9"/>
         <v>28500000</v>
       </c>
-      <c r="P82" s="469"/>
+      <c r="P82" s="497"/>
     </row>
     <row r="83" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="467"/>
-      <c r="B83" s="474"/>
-      <c r="C83" s="467"/>
-      <c r="D83" s="467"/>
-      <c r="E83" s="467"/>
+      <c r="A83" s="470"/>
+      <c r="B83" s="480"/>
+      <c r="C83" s="470"/>
+      <c r="D83" s="470"/>
+      <c r="E83" s="470"/>
       <c r="F83" s="417" t="s">
         <v>154</v>
       </c>
@@ -7305,14 +8071,14 @@
         <f t="shared" si="9"/>
         <v>58200000</v>
       </c>
-      <c r="P83" s="469"/>
+      <c r="P83" s="497"/>
     </row>
     <row r="84" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="467"/>
-      <c r="B84" s="474"/>
-      <c r="C84" s="467"/>
-      <c r="D84" s="467"/>
-      <c r="E84" s="467"/>
+      <c r="A84" s="470"/>
+      <c r="B84" s="480"/>
+      <c r="C84" s="470"/>
+      <c r="D84" s="470"/>
+      <c r="E84" s="470"/>
       <c r="F84" s="417" t="s">
         <v>170</v>
       </c>
@@ -7340,14 +8106,14 @@
         <f t="shared" si="9"/>
         <v>14550000</v>
       </c>
-      <c r="P84" s="469"/>
+      <c r="P84" s="497"/>
     </row>
     <row r="85" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="467"/>
-      <c r="B85" s="474"/>
-      <c r="C85" s="467"/>
-      <c r="D85" s="467"/>
-      <c r="E85" s="467"/>
+      <c r="A85" s="470"/>
+      <c r="B85" s="480"/>
+      <c r="C85" s="470"/>
+      <c r="D85" s="470"/>
+      <c r="E85" s="470"/>
       <c r="F85" s="417" t="s">
         <v>193</v>
       </c>
@@ -7375,14 +8141,14 @@
         <f t="shared" si="9"/>
         <v>66000000</v>
       </c>
-      <c r="P85" s="469"/>
+      <c r="P85" s="497"/>
     </row>
     <row r="86" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="467"/>
-      <c r="B86" s="474"/>
-      <c r="C86" s="467"/>
-      <c r="D86" s="467"/>
-      <c r="E86" s="467"/>
+      <c r="A86" s="470"/>
+      <c r="B86" s="480"/>
+      <c r="C86" s="470"/>
+      <c r="D86" s="470"/>
+      <c r="E86" s="470"/>
       <c r="F86" s="417" t="s">
         <v>162</v>
       </c>
@@ -7410,14 +8176,14 @@
         <f t="shared" si="9"/>
         <v>19110000</v>
       </c>
-      <c r="P86" s="469"/>
+      <c r="P86" s="497"/>
     </row>
     <row r="87" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="468"/>
-      <c r="B87" s="473"/>
-      <c r="C87" s="468"/>
-      <c r="D87" s="468"/>
-      <c r="E87" s="468"/>
+      <c r="A87" s="471"/>
+      <c r="B87" s="479"/>
+      <c r="C87" s="471"/>
+      <c r="D87" s="471"/>
+      <c r="E87" s="471"/>
       <c r="F87" s="418" t="s">
         <v>166</v>
       </c>
@@ -7445,22 +8211,22 @@
         <f t="shared" si="9"/>
         <v>54600000</v>
       </c>
-      <c r="P87" s="477"/>
+      <c r="P87" s="498"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="471">
+      <c r="A88" s="469">
         <v>612</v>
       </c>
-      <c r="B88" s="472">
+      <c r="B88" s="478">
         <v>44032</v>
       </c>
-      <c r="C88" s="471" t="s">
+      <c r="C88" s="469" t="s">
         <v>163</v>
       </c>
-      <c r="D88" s="471" t="s">
+      <c r="D88" s="469" t="s">
         <v>163</v>
       </c>
-      <c r="E88" s="471"/>
+      <c r="E88" s="469"/>
       <c r="F88" s="416" t="s">
         <v>161</v>
       </c>
@@ -7488,14 +8254,14 @@
         <f t="shared" ref="O88:O94" si="10">L88</f>
         <v>3221400.0000000005</v>
       </c>
-      <c r="P88" s="475"/>
+      <c r="P88" s="496"/>
     </row>
     <row r="89" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="467"/>
-      <c r="B89" s="474"/>
-      <c r="C89" s="467"/>
-      <c r="D89" s="467"/>
-      <c r="E89" s="467"/>
+      <c r="A89" s="470"/>
+      <c r="B89" s="480"/>
+      <c r="C89" s="470"/>
+      <c r="D89" s="470"/>
+      <c r="E89" s="470"/>
       <c r="F89" s="417" t="s">
         <v>158</v>
       </c>
@@ -7523,14 +8289,14 @@
         <f t="shared" si="10"/>
         <v>3292200.0000000005</v>
       </c>
-      <c r="P89" s="469"/>
+      <c r="P89" s="497"/>
     </row>
     <row r="90" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="467"/>
-      <c r="B90" s="474"/>
-      <c r="C90" s="467"/>
-      <c r="D90" s="467"/>
-      <c r="E90" s="467"/>
+      <c r="A90" s="470"/>
+      <c r="B90" s="480"/>
+      <c r="C90" s="470"/>
+      <c r="D90" s="470"/>
+      <c r="E90" s="470"/>
       <c r="F90" s="417" t="s">
         <v>168</v>
       </c>
@@ -7558,14 +8324,14 @@
         <f t="shared" si="10"/>
         <v>3363000.0000000005</v>
       </c>
-      <c r="P90" s="469"/>
+      <c r="P90" s="497"/>
     </row>
     <row r="91" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="467"/>
-      <c r="B91" s="474"/>
-      <c r="C91" s="467"/>
-      <c r="D91" s="467"/>
-      <c r="E91" s="467"/>
+      <c r="A91" s="470"/>
+      <c r="B91" s="480"/>
+      <c r="C91" s="470"/>
+      <c r="D91" s="470"/>
+      <c r="E91" s="470"/>
       <c r="F91" s="417" t="s">
         <v>170</v>
       </c>
@@ -7593,14 +8359,14 @@
         <f t="shared" si="10"/>
         <v>3433800.0000000005</v>
       </c>
-      <c r="P91" s="469"/>
+      <c r="P91" s="497"/>
     </row>
     <row r="92" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="467"/>
-      <c r="B92" s="474"/>
-      <c r="C92" s="467"/>
-      <c r="D92" s="467"/>
-      <c r="E92" s="467"/>
+      <c r="A92" s="470"/>
+      <c r="B92" s="480"/>
+      <c r="C92" s="470"/>
+      <c r="D92" s="470"/>
+      <c r="E92" s="470"/>
       <c r="F92" s="417" t="s">
         <v>193</v>
       </c>
@@ -7628,14 +8394,14 @@
         <f t="shared" si="10"/>
         <v>3245000.0000000005</v>
       </c>
-      <c r="P92" s="469"/>
+      <c r="P92" s="497"/>
     </row>
     <row r="93" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="467"/>
-      <c r="B93" s="474"/>
-      <c r="C93" s="467"/>
-      <c r="D93" s="467"/>
-      <c r="E93" s="467"/>
+      <c r="A93" s="470"/>
+      <c r="B93" s="480"/>
+      <c r="C93" s="470"/>
+      <c r="D93" s="470"/>
+      <c r="E93" s="470"/>
       <c r="F93" s="417" t="s">
         <v>162</v>
       </c>
@@ -7663,14 +8429,14 @@
         <f t="shared" si="10"/>
         <v>3221400.0000000005</v>
       </c>
-      <c r="P93" s="469"/>
+      <c r="P93" s="497"/>
     </row>
     <row r="94" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="468"/>
-      <c r="B94" s="473"/>
-      <c r="C94" s="468"/>
-      <c r="D94" s="468"/>
-      <c r="E94" s="468"/>
+      <c r="A94" s="471"/>
+      <c r="B94" s="479"/>
+      <c r="C94" s="471"/>
+      <c r="D94" s="471"/>
+      <c r="E94" s="471"/>
       <c r="F94" s="418" t="s">
         <v>166</v>
       </c>
@@ -7698,20 +8464,20 @@
         <f t="shared" si="10"/>
         <v>3221400.0000000005</v>
       </c>
-      <c r="P94" s="477"/>
+      <c r="P94" s="498"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="471">
+      <c r="A95" s="469">
         <v>613</v>
       </c>
-      <c r="B95" s="472">
+      <c r="B95" s="478">
         <v>44032</v>
       </c>
-      <c r="C95" s="471"/>
-      <c r="D95" s="471" t="s">
+      <c r="C95" s="469"/>
+      <c r="D95" s="469" t="s">
         <v>177</v>
       </c>
-      <c r="E95" s="471" t="s">
+      <c r="E95" s="469" t="s">
         <v>178</v>
       </c>
       <c r="F95" s="416" t="s">
@@ -7748,11 +8514,11 @@
       </c>
     </row>
     <row r="96" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="467"/>
-      <c r="B96" s="474"/>
-      <c r="C96" s="467"/>
-      <c r="D96" s="467"/>
-      <c r="E96" s="467"/>
+      <c r="A96" s="470"/>
+      <c r="B96" s="480"/>
+      <c r="C96" s="470"/>
+      <c r="D96" s="470"/>
+      <c r="E96" s="470"/>
       <c r="F96" s="417" t="s">
         <v>158</v>
       </c>
@@ -7783,11 +8549,11 @@
       <c r="P96" s="417"/>
     </row>
     <row r="97" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="467"/>
-      <c r="B97" s="474"/>
-      <c r="C97" s="467"/>
-      <c r="D97" s="467"/>
-      <c r="E97" s="467"/>
+      <c r="A97" s="470"/>
+      <c r="B97" s="480"/>
+      <c r="C97" s="470"/>
+      <c r="D97" s="470"/>
+      <c r="E97" s="470"/>
       <c r="F97" s="417" t="s">
         <v>154</v>
       </c>
@@ -7818,11 +8584,11 @@
       <c r="P97" s="417"/>
     </row>
     <row r="98" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="468"/>
-      <c r="B98" s="473"/>
-      <c r="C98" s="468"/>
-      <c r="D98" s="468"/>
-      <c r="E98" s="468"/>
+      <c r="A98" s="471"/>
+      <c r="B98" s="479"/>
+      <c r="C98" s="471"/>
+      <c r="D98" s="471"/>
+      <c r="E98" s="471"/>
       <c r="F98" s="418" t="s">
         <v>170</v>
       </c>
@@ -7853,17 +8619,17 @@
       <c r="P98" s="418"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="471">
+      <c r="A99" s="469">
         <v>500</v>
       </c>
-      <c r="B99" s="472">
+      <c r="B99" s="478">
         <v>44032</v>
       </c>
-      <c r="C99" s="471"/>
-      <c r="D99" s="471" t="s">
+      <c r="C99" s="469"/>
+      <c r="D99" s="469" t="s">
         <v>208</v>
       </c>
-      <c r="E99" s="471"/>
+      <c r="E99" s="469"/>
       <c r="F99" s="416" t="s">
         <v>161</v>
       </c>
@@ -7894,11 +8660,11 @@
       <c r="P99" s="416"/>
     </row>
     <row r="100" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="468"/>
-      <c r="B100" s="473"/>
-      <c r="C100" s="468"/>
-      <c r="D100" s="468"/>
-      <c r="E100" s="468"/>
+      <c r="A100" s="471"/>
+      <c r="B100" s="479"/>
+      <c r="C100" s="471"/>
+      <c r="D100" s="471"/>
+      <c r="E100" s="471"/>
       <c r="F100" s="418" t="s">
         <v>154</v>
       </c>
@@ -7929,17 +8695,17 @@
       <c r="P100" s="418"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="471">
+      <c r="A101" s="469">
         <v>619</v>
       </c>
-      <c r="B101" s="472">
+      <c r="B101" s="478">
         <v>44034</v>
       </c>
-      <c r="C101" s="471"/>
-      <c r="D101" s="471" t="s">
+      <c r="C101" s="469"/>
+      <c r="D101" s="469" t="s">
         <v>215</v>
       </c>
-      <c r="E101" s="471" t="s">
+      <c r="E101" s="469" t="s">
         <v>216</v>
       </c>
       <c r="F101" s="436" t="s">
@@ -7972,11 +8738,11 @@
       <c r="P101" s="436"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="468"/>
-      <c r="B102" s="473"/>
-      <c r="C102" s="468"/>
-      <c r="D102" s="468"/>
-      <c r="E102" s="468"/>
+      <c r="A102" s="471"/>
+      <c r="B102" s="479"/>
+      <c r="C102" s="471"/>
+      <c r="D102" s="471"/>
+      <c r="E102" s="471"/>
       <c r="F102" s="438" t="s">
         <v>168</v>
       </c>
@@ -8007,17 +8773,17 @@
       <c r="P102" s="438"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="471">
+      <c r="A103" s="469">
         <v>620</v>
       </c>
-      <c r="B103" s="472">
+      <c r="B103" s="478">
         <v>44036</v>
       </c>
-      <c r="C103" s="471"/>
-      <c r="D103" s="471" t="s">
+      <c r="C103" s="469"/>
+      <c r="D103" s="469" t="s">
         <v>203</v>
       </c>
-      <c r="E103" s="471" t="s">
+      <c r="E103" s="469" t="s">
         <v>217</v>
       </c>
       <c r="F103" s="436" t="s">
@@ -8050,11 +8816,11 @@
       <c r="P103" s="436"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="467"/>
-      <c r="B104" s="474"/>
-      <c r="C104" s="467"/>
-      <c r="D104" s="467"/>
-      <c r="E104" s="467"/>
+      <c r="A104" s="470"/>
+      <c r="B104" s="480"/>
+      <c r="C104" s="470"/>
+      <c r="D104" s="470"/>
+      <c r="E104" s="470"/>
       <c r="F104" s="437" t="s">
         <v>158</v>
       </c>
@@ -8085,11 +8851,11 @@
       <c r="P104" s="437"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="468"/>
-      <c r="B105" s="473"/>
-      <c r="C105" s="468"/>
-      <c r="D105" s="468"/>
-      <c r="E105" s="468"/>
+      <c r="A105" s="471"/>
+      <c r="B105" s="479"/>
+      <c r="C105" s="471"/>
+      <c r="D105" s="471"/>
+      <c r="E105" s="471"/>
       <c r="F105" s="438" t="s">
         <v>168</v>
       </c>
@@ -8120,19 +8886,19 @@
       <c r="P105" s="438"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="475">
+      <c r="A106" s="496">
         <v>622</v>
       </c>
-      <c r="B106" s="476">
+      <c r="B106" s="504">
         <v>44040</v>
       </c>
-      <c r="C106" s="475" t="s">
+      <c r="C106" s="496" t="s">
         <v>220</v>
       </c>
-      <c r="D106" s="475" t="s">
+      <c r="D106" s="496" t="s">
         <v>218</v>
       </c>
-      <c r="E106" s="475" t="s">
+      <c r="E106" s="496" t="s">
         <v>219</v>
       </c>
       <c r="F106" s="365" t="s">
@@ -8162,16 +8928,16 @@
         <f t="shared" si="12"/>
         <v>6584400.0000000009</v>
       </c>
-      <c r="P106" s="463" t="s">
+      <c r="P106" s="502" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="469"/>
-      <c r="B107" s="470"/>
-      <c r="C107" s="469"/>
-      <c r="D107" s="469"/>
-      <c r="E107" s="469"/>
+      <c r="A107" s="497"/>
+      <c r="B107" s="505"/>
+      <c r="C107" s="497"/>
+      <c r="D107" s="497"/>
+      <c r="E107" s="497"/>
       <c r="F107" s="369" t="s">
         <v>168</v>
       </c>
@@ -8199,14 +8965,14 @@
         <f t="shared" si="12"/>
         <v>10089000.000000002</v>
       </c>
-      <c r="P107" s="464"/>
+      <c r="P107" s="503"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="469"/>
-      <c r="B108" s="470"/>
-      <c r="C108" s="469"/>
-      <c r="D108" s="469"/>
-      <c r="E108" s="469"/>
+      <c r="A108" s="497"/>
+      <c r="B108" s="505"/>
+      <c r="C108" s="497"/>
+      <c r="D108" s="497"/>
+      <c r="E108" s="497"/>
       <c r="F108" s="369" t="s">
         <v>170</v>
       </c>
@@ -8234,14 +9000,14 @@
         <f t="shared" si="12"/>
         <v>6867600.0000000009</v>
       </c>
-      <c r="P108" s="464"/>
+      <c r="P108" s="503"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="469"/>
-      <c r="B109" s="470"/>
-      <c r="C109" s="469"/>
-      <c r="D109" s="469"/>
-      <c r="E109" s="469"/>
+      <c r="A109" s="497"/>
+      <c r="B109" s="505"/>
+      <c r="C109" s="497"/>
+      <c r="D109" s="497"/>
+      <c r="E109" s="497"/>
       <c r="F109" s="369" t="s">
         <v>193</v>
       </c>
@@ -8269,14 +9035,14 @@
         <f t="shared" si="12"/>
         <v>15576000.000000002</v>
       </c>
-      <c r="P109" s="464"/>
+      <c r="P109" s="503"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="469"/>
-      <c r="B110" s="470"/>
-      <c r="C110" s="469"/>
-      <c r="D110" s="469"/>
-      <c r="E110" s="469"/>
+      <c r="A110" s="497"/>
+      <c r="B110" s="505"/>
+      <c r="C110" s="497"/>
+      <c r="D110" s="497"/>
+      <c r="E110" s="497"/>
       <c r="F110" s="369" t="s">
         <v>162</v>
       </c>
@@ -8304,14 +9070,14 @@
         <f t="shared" si="12"/>
         <v>12885600.000000002</v>
       </c>
-      <c r="P110" s="464"/>
+      <c r="P110" s="503"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="469"/>
-      <c r="B111" s="470"/>
-      <c r="C111" s="469"/>
-      <c r="D111" s="469"/>
-      <c r="E111" s="469"/>
+      <c r="A111" s="497"/>
+      <c r="B111" s="505"/>
+      <c r="C111" s="497"/>
+      <c r="D111" s="497"/>
+      <c r="E111" s="497"/>
       <c r="F111" s="442" t="s">
         <v>166</v>
       </c>
@@ -8339,20 +9105,20 @@
         <f t="shared" si="12"/>
         <v>9664200.0000000019</v>
       </c>
-      <c r="P111" s="464"/>
+      <c r="P111" s="503"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A112" s="471">
+      <c r="A112" s="469">
         <v>623</v>
       </c>
-      <c r="B112" s="472">
+      <c r="B112" s="478">
         <v>44041</v>
       </c>
-      <c r="C112" s="471"/>
-      <c r="D112" s="471" t="s">
+      <c r="C112" s="469"/>
+      <c r="D112" s="469" t="s">
         <v>221</v>
       </c>
-      <c r="E112" s="471" t="s">
+      <c r="E112" s="469" t="s">
         <v>222</v>
       </c>
       <c r="F112" s="436" t="s">
@@ -8385,11 +9151,11 @@
       <c r="P112" s="439"/>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A113" s="468"/>
-      <c r="B113" s="473"/>
-      <c r="C113" s="468"/>
-      <c r="D113" s="468"/>
-      <c r="E113" s="468"/>
+      <c r="A113" s="471"/>
+      <c r="B113" s="479"/>
+      <c r="C113" s="471"/>
+      <c r="D113" s="471"/>
+      <c r="E113" s="471"/>
       <c r="F113" s="438" t="s">
         <v>154</v>
       </c>
@@ -8420,17 +9186,17 @@
       <c r="P113" s="440"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A114" s="471">
+      <c r="A114" s="469">
         <v>624</v>
       </c>
-      <c r="B114" s="472">
+      <c r="B114" s="478">
         <v>44041</v>
       </c>
-      <c r="C114" s="471"/>
-      <c r="D114" s="471" t="s">
+      <c r="C114" s="469"/>
+      <c r="D114" s="469" t="s">
         <v>223</v>
       </c>
-      <c r="E114" s="471" t="s">
+      <c r="E114" s="469" t="s">
         <v>217</v>
       </c>
       <c r="F114" s="436" t="s">
@@ -8463,11 +9229,11 @@
       <c r="P114" s="439"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A115" s="468"/>
-      <c r="B115" s="473"/>
-      <c r="C115" s="468"/>
-      <c r="D115" s="468"/>
-      <c r="E115" s="468"/>
+      <c r="A115" s="471"/>
+      <c r="B115" s="479"/>
+      <c r="C115" s="471"/>
+      <c r="D115" s="471"/>
+      <c r="E115" s="471"/>
       <c r="F115" s="438" t="s">
         <v>161</v>
       </c>
@@ -8541,17 +9307,17 @@
       <c r="P116" s="326"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A117" s="469">
+      <c r="A117" s="497">
         <v>626</v>
       </c>
-      <c r="B117" s="470">
+      <c r="B117" s="505">
         <v>44043</v>
       </c>
-      <c r="C117" s="469"/>
-      <c r="D117" s="466" t="s">
+      <c r="C117" s="497"/>
+      <c r="D117" s="507" t="s">
         <v>225</v>
       </c>
-      <c r="E117" s="466" t="s">
+      <c r="E117" s="507" t="s">
         <v>200</v>
       </c>
       <c r="F117" s="441" t="s">
@@ -8579,16 +9345,16 @@
         <f t="shared" si="12"/>
         <v>11160000</v>
       </c>
-      <c r="P117" s="463" t="s">
+      <c r="P117" s="502" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A118" s="469"/>
-      <c r="B118" s="470"/>
-      <c r="C118" s="469"/>
-      <c r="D118" s="467"/>
-      <c r="E118" s="467"/>
+      <c r="A118" s="497"/>
+      <c r="B118" s="505"/>
+      <c r="C118" s="497"/>
+      <c r="D118" s="470"/>
+      <c r="E118" s="470"/>
       <c r="F118" s="437" t="s">
         <v>168</v>
       </c>
@@ -8614,14 +9380,14 @@
         <f t="shared" si="12"/>
         <v>5700000</v>
       </c>
-      <c r="P118" s="464"/>
+      <c r="P118" s="503"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A119" s="469"/>
-      <c r="B119" s="470"/>
-      <c r="C119" s="469"/>
-      <c r="D119" s="467"/>
-      <c r="E119" s="467"/>
+      <c r="A119" s="497"/>
+      <c r="B119" s="505"/>
+      <c r="C119" s="497"/>
+      <c r="D119" s="470"/>
+      <c r="E119" s="470"/>
       <c r="F119" s="437" t="s">
         <v>154</v>
       </c>
@@ -8647,14 +9413,14 @@
         <f t="shared" si="12"/>
         <v>5820000</v>
       </c>
-      <c r="P119" s="464"/>
+      <c r="P119" s="503"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A120" s="469"/>
-      <c r="B120" s="470"/>
-      <c r="C120" s="469"/>
-      <c r="D120" s="468"/>
-      <c r="E120" s="468"/>
+      <c r="A120" s="497"/>
+      <c r="B120" s="505"/>
+      <c r="C120" s="497"/>
+      <c r="D120" s="471"/>
+      <c r="E120" s="471"/>
       <c r="F120" s="438" t="s">
         <v>162</v>
       </c>
@@ -8680,20 +9446,20 @@
         <f t="shared" si="12"/>
         <v>5460000</v>
       </c>
-      <c r="P120" s="465"/>
+      <c r="P120" s="506"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A121" s="471">
+      <c r="A121" s="469">
         <v>627</v>
       </c>
-      <c r="B121" s="472">
+      <c r="B121" s="478">
         <v>44043</v>
       </c>
-      <c r="C121" s="471"/>
-      <c r="D121" s="471" t="s">
+      <c r="C121" s="469"/>
+      <c r="D121" s="469" t="s">
         <v>215</v>
       </c>
-      <c r="E121" s="471" t="s">
+      <c r="E121" s="469" t="s">
         <v>216</v>
       </c>
       <c r="F121" s="436" t="s">
@@ -8726,11 +9492,11 @@
       <c r="P121" s="439"/>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A122" s="468"/>
-      <c r="B122" s="473"/>
-      <c r="C122" s="468"/>
-      <c r="D122" s="468"/>
-      <c r="E122" s="468"/>
+      <c r="A122" s="471"/>
+      <c r="B122" s="479"/>
+      <c r="C122" s="471"/>
+      <c r="D122" s="471"/>
+      <c r="E122" s="471"/>
       <c r="F122" s="438" t="s">
         <v>154</v>
       </c>
@@ -8761,14 +9527,14 @@
       <c r="P122" s="438"/>
     </row>
     <row r="123" spans="1:17" s="334" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A123" s="504" t="s">
+      <c r="A123" s="467" t="s">
         <v>78</v>
       </c>
-      <c r="B123" s="504"/>
-      <c r="C123" s="504"/>
-      <c r="D123" s="504"/>
-      <c r="E123" s="504"/>
-      <c r="F123" s="504"/>
+      <c r="B123" s="467"/>
+      <c r="C123" s="467"/>
+      <c r="D123" s="467"/>
+      <c r="E123" s="467"/>
+      <c r="F123" s="467"/>
       <c r="G123" s="446">
         <f>SUM(G9:G122)</f>
         <v>2563</v>
@@ -8787,18 +9553,18 @@
       <c r="M123" s="452"/>
       <c r="N123" s="452"/>
       <c r="O123" s="452"/>
-      <c r="P123" s="505"/>
-      <c r="Q123" s="502"/>
+      <c r="P123" s="468"/>
+      <c r="Q123" s="465"/>
     </row>
     <row r="124" spans="1:17" s="334" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A124" s="503" t="s">
+      <c r="A124" s="466" t="s">
         <v>139</v>
       </c>
-      <c r="B124" s="503"/>
-      <c r="C124" s="503"/>
-      <c r="D124" s="503"/>
-      <c r="E124" s="503"/>
-      <c r="F124" s="503"/>
+      <c r="B124" s="466"/>
+      <c r="C124" s="466"/>
+      <c r="D124" s="466"/>
+      <c r="E124" s="466"/>
+      <c r="F124" s="466"/>
       <c r="G124" s="328">
         <f>G123</f>
         <v>2563</v>
@@ -8814,18 +9580,18 @@
       <c r="M124" s="331"/>
       <c r="N124" s="331"/>
       <c r="O124" s="331"/>
-      <c r="P124" s="505"/>
-      <c r="Q124" s="502"/>
+      <c r="P124" s="468"/>
+      <c r="Q124" s="465"/>
     </row>
     <row r="125" spans="1:17" s="334" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A125" s="503" t="s">
+      <c r="A125" s="466" t="s">
         <v>79</v>
       </c>
-      <c r="B125" s="503"/>
-      <c r="C125" s="503"/>
-      <c r="D125" s="503"/>
-      <c r="E125" s="503"/>
-      <c r="F125" s="503"/>
+      <c r="B125" s="466"/>
+      <c r="C125" s="466"/>
+      <c r="D125" s="466"/>
+      <c r="E125" s="466"/>
+      <c r="F125" s="466"/>
       <c r="G125" s="335" t="s">
         <v>49</v>
       </c>
@@ -8842,14 +9608,14 @@
       <c r="O125" s="331"/>
     </row>
     <row r="126" spans="1:17" s="334" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A126" s="503" t="s">
+      <c r="A126" s="466" t="s">
         <v>80</v>
       </c>
-      <c r="B126" s="503"/>
-      <c r="C126" s="503"/>
-      <c r="D126" s="503"/>
-      <c r="E126" s="503"/>
-      <c r="F126" s="503"/>
+      <c r="B126" s="466"/>
+      <c r="C126" s="466"/>
+      <c r="D126" s="466"/>
+      <c r="E126" s="466"/>
+      <c r="F126" s="466"/>
       <c r="G126" s="335"/>
       <c r="H126" s="401"/>
       <c r="I126" s="329"/>
@@ -8864,14 +9630,14 @@
       <c r="O126" s="331"/>
     </row>
     <row r="127" spans="1:17" s="334" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A127" s="503" t="s">
+      <c r="A127" s="466" t="s">
         <v>81</v>
       </c>
-      <c r="B127" s="503"/>
-      <c r="C127" s="503"/>
-      <c r="D127" s="503"/>
-      <c r="E127" s="503"/>
-      <c r="F127" s="503"/>
+      <c r="B127" s="466"/>
+      <c r="C127" s="466"/>
+      <c r="D127" s="466"/>
+      <c r="E127" s="466"/>
+      <c r="F127" s="466"/>
       <c r="G127" s="335"/>
       <c r="H127" s="401"/>
       <c r="I127" s="329"/>
@@ -8944,6 +9710,143 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="161">
+    <mergeCell ref="P117:P120"/>
+    <mergeCell ref="E117:E120"/>
+    <mergeCell ref="D117:D120"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="E103:E105"/>
+    <mergeCell ref="P106:P111"/>
+    <mergeCell ref="E106:E111"/>
+    <mergeCell ref="D106:D111"/>
+    <mergeCell ref="C106:C111"/>
+    <mergeCell ref="B106:B111"/>
+    <mergeCell ref="A106:A111"/>
+    <mergeCell ref="P76:P78"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="P88:P94"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="C95:C98"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="E95:E98"/>
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="B88:B94"/>
+    <mergeCell ref="C88:C94"/>
+    <mergeCell ref="D88:D94"/>
+    <mergeCell ref="E88:E94"/>
+    <mergeCell ref="P80:P87"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="B80:B87"/>
+    <mergeCell ref="C80:C87"/>
+    <mergeCell ref="D80:D87"/>
+    <mergeCell ref="E80:E87"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="A61:A68"/>
+    <mergeCell ref="B61:B68"/>
+    <mergeCell ref="D61:D68"/>
+    <mergeCell ref="E61:E68"/>
+    <mergeCell ref="C61:C68"/>
+    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="B54:B60"/>
+    <mergeCell ref="C54:C60"/>
+    <mergeCell ref="D54:D60"/>
+    <mergeCell ref="E54:E60"/>
+    <mergeCell ref="P32:P34"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="D23:D29"/>
+    <mergeCell ref="E23:E29"/>
+    <mergeCell ref="C23:C29"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="Q123:Q124"/>
     <mergeCell ref="A124:F124"/>
     <mergeCell ref="A125:F125"/>
@@ -8968,143 +9871,6 @@
     <mergeCell ref="E52:E53"/>
     <mergeCell ref="A73:A75"/>
     <mergeCell ref="B73:B75"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="P32:P34"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="D23:D29"/>
-    <mergeCell ref="E23:E29"/>
-    <mergeCell ref="C23:C29"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="E35:E39"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="A61:A68"/>
-    <mergeCell ref="B61:B68"/>
-    <mergeCell ref="D61:D68"/>
-    <mergeCell ref="E61:E68"/>
-    <mergeCell ref="C61:C68"/>
-    <mergeCell ref="A54:A60"/>
-    <mergeCell ref="B54:B60"/>
-    <mergeCell ref="C54:C60"/>
-    <mergeCell ref="D54:D60"/>
-    <mergeCell ref="E54:E60"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="B80:B87"/>
-    <mergeCell ref="C80:C87"/>
-    <mergeCell ref="D80:D87"/>
-    <mergeCell ref="E80:E87"/>
-    <mergeCell ref="P76:P78"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="P88:P94"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="C95:C98"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="E95:E98"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="B88:B94"/>
-    <mergeCell ref="C88:C94"/>
-    <mergeCell ref="D88:D94"/>
-    <mergeCell ref="E88:E94"/>
-    <mergeCell ref="P80:P87"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="E103:E105"/>
-    <mergeCell ref="P106:P111"/>
-    <mergeCell ref="E106:E111"/>
-    <mergeCell ref="D106:D111"/>
-    <mergeCell ref="C106:C111"/>
-    <mergeCell ref="B106:B111"/>
-    <mergeCell ref="A106:A111"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="P117:P120"/>
-    <mergeCell ref="E117:E120"/>
-    <mergeCell ref="D117:D120"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -9136,93 +9902,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="518" t="s">
+      <c r="A1" s="508" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="518"/>
-      <c r="C1" s="518"/>
-      <c r="D1" s="518"/>
+      <c r="B1" s="508"/>
+      <c r="C1" s="508"/>
+      <c r="D1" s="508"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="519" t="s">
+      <c r="A2" s="509" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="519"/>
-      <c r="C2" s="519"/>
-      <c r="D2" s="519"/>
+      <c r="B2" s="509"/>
+      <c r="C2" s="509"/>
+      <c r="D2" s="509"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="507" t="s">
+      <c r="A3" s="511" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="507"/>
-      <c r="C3" s="507"/>
-      <c r="D3" s="507"/>
-      <c r="E3" s="507"/>
-      <c r="F3" s="507"/>
-      <c r="G3" s="507"/>
-      <c r="H3" s="507"/>
-      <c r="I3" s="507"/>
-      <c r="J3" s="507"/>
-      <c r="K3" s="507"/>
-      <c r="L3" s="507"/>
-      <c r="M3" s="507"/>
-      <c r="N3" s="507"/>
+      <c r="B3" s="511"/>
+      <c r="C3" s="511"/>
+      <c r="D3" s="511"/>
+      <c r="E3" s="511"/>
+      <c r="F3" s="511"/>
+      <c r="G3" s="511"/>
+      <c r="H3" s="511"/>
+      <c r="I3" s="511"/>
+      <c r="J3" s="511"/>
+      <c r="K3" s="511"/>
+      <c r="L3" s="511"/>
+      <c r="M3" s="511"/>
+      <c r="N3" s="511"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="508" t="s">
+      <c r="A4" s="512" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="508"/>
-      <c r="C4" s="508"/>
-      <c r="D4" s="508"/>
-      <c r="E4" s="508"/>
-      <c r="F4" s="508"/>
-      <c r="G4" s="508"/>
-      <c r="H4" s="508"/>
-      <c r="I4" s="509"/>
-      <c r="J4" s="508"/>
-      <c r="K4" s="508"/>
-      <c r="L4" s="508"/>
-      <c r="M4" s="508"/>
-      <c r="N4" s="508"/>
+      <c r="B4" s="512"/>
+      <c r="C4" s="512"/>
+      <c r="D4" s="512"/>
+      <c r="E4" s="512"/>
+      <c r="F4" s="512"/>
+      <c r="G4" s="512"/>
+      <c r="H4" s="512"/>
+      <c r="I4" s="513"/>
+      <c r="J4" s="512"/>
+      <c r="K4" s="512"/>
+      <c r="L4" s="512"/>
+      <c r="M4" s="512"/>
+      <c r="N4" s="512"/>
     </row>
     <row r="5" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="510" t="s">
+      <c r="A5" s="514" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="511" t="s">
+      <c r="B5" s="515" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="512" t="s">
+      <c r="C5" s="516" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="387" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="513" t="s">
+      <c r="E5" s="517" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="513"/>
-      <c r="G5" s="513"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="514"/>
-      <c r="J5" s="515" t="s">
+      <c r="F5" s="517"/>
+      <c r="G5" s="517"/>
+      <c r="H5" s="517"/>
+      <c r="I5" s="518"/>
+      <c r="J5" s="519" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="513" t="s">
+      <c r="K5" s="517" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="513"/>
-      <c r="M5" s="513"/>
-      <c r="N5" s="512" t="s">
+      <c r="L5" s="517"/>
+      <c r="M5" s="517"/>
+      <c r="N5" s="516" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="510"/>
-      <c r="B6" s="511"/>
-      <c r="C6" s="512"/>
+      <c r="A6" s="514"/>
+      <c r="B6" s="515"/>
+      <c r="C6" s="516"/>
       <c r="D6" s="384" t="s">
         <v>41</v>
       </c>
@@ -9241,7 +10007,7 @@
       <c r="I6" s="386" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="515"/>
+      <c r="J6" s="519"/>
       <c r="K6" s="384" t="s">
         <v>45</v>
       </c>
@@ -9251,17 +10017,17 @@
       <c r="M6" s="384" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="512"/>
+      <c r="N6" s="516"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="471">
+      <c r="A7" s="469">
         <v>492</v>
       </c>
-      <c r="B7" s="478">
+      <c r="B7" s="475">
         <v>44020</v>
       </c>
-      <c r="C7" s="471"/>
-      <c r="D7" s="471" t="s">
+      <c r="C7" s="469"/>
+      <c r="D7" s="469" t="s">
         <v>169</v>
       </c>
       <c r="E7" s="223" t="s">
@@ -9293,10 +10059,10 @@
       <c r="N7" s="226"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="467"/>
-      <c r="B8" s="479"/>
-      <c r="C8" s="467"/>
-      <c r="D8" s="467"/>
+      <c r="A8" s="470"/>
+      <c r="B8" s="476"/>
+      <c r="C8" s="470"/>
+      <c r="D8" s="470"/>
       <c r="E8" s="227" t="s">
         <v>161</v>
       </c>
@@ -9326,10 +10092,10 @@
       <c r="N8" s="231"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="467"/>
-      <c r="B9" s="479"/>
-      <c r="C9" s="467"/>
-      <c r="D9" s="467"/>
+      <c r="A9" s="470"/>
+      <c r="B9" s="476"/>
+      <c r="C9" s="470"/>
+      <c r="D9" s="470"/>
       <c r="E9" s="227" t="s">
         <v>158</v>
       </c>
@@ -9359,10 +10125,10 @@
       <c r="N9" s="231"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="467"/>
-      <c r="B10" s="479"/>
-      <c r="C10" s="467"/>
-      <c r="D10" s="467"/>
+      <c r="A10" s="470"/>
+      <c r="B10" s="476"/>
+      <c r="C10" s="470"/>
+      <c r="D10" s="470"/>
       <c r="E10" s="227" t="s">
         <v>168</v>
       </c>
@@ -9392,10 +10158,10 @@
       <c r="N10" s="231"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="467"/>
-      <c r="B11" s="479"/>
-      <c r="C11" s="467"/>
-      <c r="D11" s="467"/>
+      <c r="A11" s="470"/>
+      <c r="B11" s="476"/>
+      <c r="C11" s="470"/>
+      <c r="D11" s="470"/>
       <c r="E11" s="227" t="s">
         <v>154</v>
       </c>
@@ -9425,10 +10191,10 @@
       <c r="N11" s="227"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="467"/>
-      <c r="B12" s="479"/>
-      <c r="C12" s="467"/>
-      <c r="D12" s="467"/>
+      <c r="A12" s="470"/>
+      <c r="B12" s="476"/>
+      <c r="C12" s="470"/>
+      <c r="D12" s="470"/>
       <c r="E12" s="227" t="s">
         <v>170</v>
       </c>
@@ -9460,10 +10226,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="516"/>
-      <c r="B13" s="517"/>
-      <c r="C13" s="516"/>
-      <c r="D13" s="516"/>
+      <c r="A13" s="520"/>
+      <c r="B13" s="521"/>
+      <c r="C13" s="520"/>
+      <c r="D13" s="520"/>
       <c r="E13" s="431" t="s">
         <v>162</v>
       </c>
@@ -9493,10 +10259,10 @@
       <c r="N13" s="435"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="468"/>
-      <c r="B14" s="480"/>
-      <c r="C14" s="468"/>
-      <c r="D14" s="468"/>
+      <c r="A14" s="471"/>
+      <c r="B14" s="477"/>
+      <c r="C14" s="471"/>
+      <c r="D14" s="471"/>
       <c r="E14" s="232" t="s">
         <v>166</v>
       </c>
@@ -9526,14 +10292,14 @@
       <c r="N14" s="235"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="471">
+      <c r="A15" s="469">
         <v>494</v>
       </c>
-      <c r="B15" s="478">
+      <c r="B15" s="475">
         <v>44020</v>
       </c>
-      <c r="C15" s="471"/>
-      <c r="D15" s="471" t="s">
+      <c r="C15" s="469"/>
+      <c r="D15" s="469" t="s">
         <v>171</v>
       </c>
       <c r="E15" s="223" t="s">
@@ -9565,10 +10331,10 @@
       <c r="N15" s="226"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="467"/>
-      <c r="B16" s="479"/>
-      <c r="C16" s="467"/>
-      <c r="D16" s="467"/>
+      <c r="A16" s="470"/>
+      <c r="B16" s="476"/>
+      <c r="C16" s="470"/>
+      <c r="D16" s="470"/>
       <c r="E16" s="227" t="s">
         <v>174</v>
       </c>
@@ -9598,10 +10364,10 @@
       <c r="N16" s="231"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="468"/>
-      <c r="B17" s="480"/>
-      <c r="C17" s="468"/>
-      <c r="D17" s="468"/>
+      <c r="A17" s="471"/>
+      <c r="B17" s="477"/>
+      <c r="C17" s="471"/>
+      <c r="D17" s="471"/>
       <c r="E17" s="232" t="s">
         <v>175</v>
       </c>
@@ -9631,14 +10397,14 @@
       <c r="N17" s="235"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="471">
+      <c r="A18" s="469">
         <v>1194</v>
       </c>
-      <c r="B18" s="478">
+      <c r="B18" s="475">
         <v>44021</v>
       </c>
-      <c r="C18" s="471"/>
-      <c r="D18" s="471" t="s">
+      <c r="C18" s="469"/>
+      <c r="D18" s="469" t="s">
         <v>180</v>
       </c>
       <c r="E18" s="223" t="s">
@@ -9670,10 +10436,10 @@
       <c r="N18" s="226"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="467"/>
-      <c r="B19" s="479"/>
-      <c r="C19" s="467"/>
-      <c r="D19" s="467"/>
+      <c r="A19" s="470"/>
+      <c r="B19" s="476"/>
+      <c r="C19" s="470"/>
+      <c r="D19" s="470"/>
       <c r="E19" s="227" t="s">
         <v>170</v>
       </c>
@@ -9703,10 +10469,10 @@
       <c r="N19" s="231"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="467"/>
-      <c r="B20" s="479"/>
-      <c r="C20" s="467"/>
-      <c r="D20" s="467"/>
+      <c r="A20" s="470"/>
+      <c r="B20" s="476"/>
+      <c r="C20" s="470"/>
+      <c r="D20" s="470"/>
       <c r="E20" s="227" t="s">
         <v>162</v>
       </c>
@@ -9736,10 +10502,10 @@
       <c r="N20" s="231"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="468"/>
-      <c r="B21" s="480"/>
-      <c r="C21" s="468"/>
-      <c r="D21" s="468"/>
+      <c r="A21" s="471"/>
+      <c r="B21" s="477"/>
+      <c r="C21" s="471"/>
+      <c r="D21" s="471"/>
       <c r="E21" s="232" t="s">
         <v>166</v>
       </c>
@@ -9925,14 +10691,14 @@
       <c r="N25" s="141"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="471">
+      <c r="A26" s="469">
         <v>617</v>
       </c>
-      <c r="B26" s="478">
+      <c r="B26" s="475">
         <v>44034</v>
       </c>
-      <c r="C26" s="471"/>
-      <c r="D26" s="471" t="s">
+      <c r="C26" s="469"/>
+      <c r="D26" s="469" t="s">
         <v>169</v>
       </c>
       <c r="E26" s="223" t="s">
@@ -9964,10 +10730,10 @@
       <c r="N26" s="226"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="468"/>
-      <c r="B27" s="480"/>
-      <c r="C27" s="468"/>
-      <c r="D27" s="468"/>
+      <c r="A27" s="471"/>
+      <c r="B27" s="477"/>
+      <c r="C27" s="471"/>
+      <c r="D27" s="471"/>
       <c r="E27" s="232" t="s">
         <v>161</v>
       </c>
@@ -10075,12 +10841,12 @@
       <c r="N29" s="141"/>
     </row>
     <row r="30" spans="1:14" s="135" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="506" t="s">
+      <c r="A30" s="510" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="506"/>
-      <c r="C30" s="506"/>
-      <c r="D30" s="506"/>
+      <c r="B30" s="510"/>
+      <c r="C30" s="510"/>
+      <c r="D30" s="510"/>
       <c r="E30" s="131"/>
       <c r="F30" s="131">
         <f>SUM(F7:F29)</f>
@@ -10164,18 +10930,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A4:N4"/>
@@ -10192,6 +10946,18 @@
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="D7:D14"/>
     <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10280,14 +11046,14 @@
       <c r="Q3" s="17"/>
     </row>
     <row r="4" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="520" t="s">
+      <c r="A4" s="522" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="520"/>
-      <c r="C4" s="520"/>
-      <c r="D4" s="520"/>
-      <c r="E4" s="520"/>
-      <c r="F4" s="520"/>
+      <c r="B4" s="522"/>
+      <c r="C4" s="522"/>
+      <c r="D4" s="522"/>
+      <c r="E4" s="522"/>
+      <c r="F4" s="522"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="19"/>
@@ -10301,14 +11067,14 @@
       <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="521" t="s">
+      <c r="A5" s="523" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="521"/>
-      <c r="C5" s="521"/>
-      <c r="D5" s="521"/>
-      <c r="E5" s="521"/>
-      <c r="F5" s="521"/>
+      <c r="B5" s="523"/>
+      <c r="C5" s="523"/>
+      <c r="D5" s="523"/>
+      <c r="E5" s="523"/>
+      <c r="F5" s="523"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="20"/>
@@ -10655,10 +11421,10 @@
       <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="522" t="s">
+      <c r="A25" s="524" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="522"/>
+      <c r="B25" s="524"/>
       <c r="C25" s="31"/>
       <c r="D25" s="257">
         <f>C24-D24</f>
@@ -10716,7 +11482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
@@ -10738,13 +11504,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="535" t="s">
+      <c r="A1" s="546" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="535"/>
-      <c r="C1" s="535"/>
-      <c r="D1" s="535"/>
-      <c r="E1" s="535"/>
+      <c r="B1" s="546"/>
+      <c r="C1" s="546"/>
+      <c r="D1" s="546"/>
+      <c r="E1" s="546"/>
       <c r="F1" s="69"/>
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
@@ -10772,35 +11538,35 @@
       <c r="I3" s="69"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="536" t="s">
+      <c r="A4" s="542" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="536"/>
-      <c r="C4" s="536"/>
-      <c r="D4" s="536"/>
-      <c r="E4" s="536"/>
-      <c r="F4" s="536"/>
-      <c r="G4" s="536"/>
-      <c r="H4" s="536"/>
-      <c r="I4" s="536"/>
-      <c r="J4" s="536"/>
-      <c r="K4" s="536"/>
-      <c r="L4" s="536"/>
+      <c r="B4" s="542"/>
+      <c r="C4" s="542"/>
+      <c r="D4" s="542"/>
+      <c r="E4" s="542"/>
+      <c r="F4" s="542"/>
+      <c r="G4" s="542"/>
+      <c r="H4" s="542"/>
+      <c r="I4" s="542"/>
+      <c r="J4" s="542"/>
+      <c r="K4" s="542"/>
+      <c r="L4" s="542"/>
     </row>
     <row r="5" spans="1:13" s="142" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="525" t="s">
+      <c r="A5" s="526" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="526" t="s">
+      <c r="B5" s="538" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="525" t="s">
+      <c r="C5" s="526" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="525" t="s">
+      <c r="D5" s="526" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="525"/>
+      <c r="E5" s="526"/>
       <c r="F5" s="527" t="s">
         <v>29</v>
       </c>
@@ -10812,52 +11578,52 @@
       <c r="L5" s="527"/>
     </row>
     <row r="6" spans="1:13" s="142" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="525"/>
-      <c r="B6" s="526"/>
-      <c r="C6" s="525"/>
-      <c r="D6" s="525" t="s">
+      <c r="A6" s="526"/>
+      <c r="B6" s="538"/>
+      <c r="C6" s="526"/>
+      <c r="D6" s="526" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="525" t="s">
+      <c r="E6" s="526" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="525" t="s">
+      <c r="F6" s="526" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="525" t="s">
+      <c r="G6" s="526" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="531" t="s">
+      <c r="H6" s="535" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="531" t="s">
+      <c r="I6" s="535" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="537" t="s">
+      <c r="J6" s="536" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="537"/>
-      <c r="L6" s="531" t="s">
+      <c r="K6" s="536"/>
+      <c r="L6" s="535" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="142" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="525"/>
-      <c r="B7" s="526"/>
-      <c r="C7" s="525"/>
-      <c r="D7" s="525"/>
-      <c r="E7" s="525"/>
-      <c r="F7" s="525"/>
-      <c r="G7" s="525"/>
-      <c r="H7" s="531"/>
-      <c r="I7" s="531"/>
+      <c r="A7" s="526"/>
+      <c r="B7" s="538"/>
+      <c r="C7" s="526"/>
+      <c r="D7" s="526"/>
+      <c r="E7" s="526"/>
+      <c r="F7" s="526"/>
+      <c r="G7" s="526"/>
+      <c r="H7" s="535"/>
+      <c r="I7" s="535"/>
       <c r="J7" s="168" t="s">
         <v>85</v>
       </c>
       <c r="K7" s="155" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="531"/>
+      <c r="L7" s="535"/>
     </row>
     <row r="8" spans="1:13" s="323" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="239">
@@ -10898,17 +11664,17 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="323" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="475">
+      <c r="A9" s="496">
         <v>1165</v>
       </c>
-      <c r="B9" s="484">
+      <c r="B9" s="499">
         <v>44013</v>
       </c>
-      <c r="C9" s="475" t="s">
+      <c r="C9" s="496" t="s">
         <v>152</v>
       </c>
-      <c r="D9" s="475"/>
-      <c r="E9" s="475" t="s">
+      <c r="D9" s="496"/>
+      <c r="E9" s="496" t="s">
         <v>167</v>
       </c>
       <c r="F9" s="416" t="s">
@@ -10934,11 +11700,11 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="323" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="477"/>
-      <c r="B10" s="486"/>
-      <c r="C10" s="477"/>
-      <c r="D10" s="477"/>
-      <c r="E10" s="477"/>
+      <c r="A10" s="498"/>
+      <c r="B10" s="501"/>
+      <c r="C10" s="498"/>
+      <c r="D10" s="498"/>
+      <c r="E10" s="498"/>
       <c r="F10" s="418" t="s">
         <v>158</v>
       </c>
@@ -11263,19 +12029,19 @@
       <c r="L27" s="162"/>
     </row>
     <row r="28" spans="1:12" s="323" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="471">
+      <c r="A28" s="469">
         <v>607</v>
       </c>
-      <c r="B28" s="472">
+      <c r="B28" s="478">
         <v>44029</v>
       </c>
-      <c r="C28" s="471" t="s">
+      <c r="C28" s="469" t="s">
         <v>152</v>
       </c>
-      <c r="D28" s="471" t="s">
+      <c r="D28" s="469" t="s">
         <v>153</v>
       </c>
-      <c r="E28" s="471" t="s">
+      <c r="E28" s="469" t="s">
         <v>178</v>
       </c>
       <c r="F28" s="416" t="s">
@@ -11301,11 +12067,11 @@
       </c>
     </row>
     <row r="29" spans="1:12" s="323" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="467"/>
-      <c r="B29" s="474"/>
-      <c r="C29" s="467"/>
-      <c r="D29" s="467"/>
-      <c r="E29" s="467"/>
+      <c r="A29" s="470"/>
+      <c r="B29" s="480"/>
+      <c r="C29" s="470"/>
+      <c r="D29" s="470"/>
+      <c r="E29" s="470"/>
       <c r="F29" s="417" t="s">
         <v>154</v>
       </c>
@@ -11329,11 +12095,11 @@
       </c>
     </row>
     <row r="30" spans="1:12" s="323" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="468"/>
-      <c r="B30" s="473"/>
-      <c r="C30" s="468"/>
-      <c r="D30" s="468"/>
-      <c r="E30" s="468"/>
+      <c r="A30" s="471"/>
+      <c r="B30" s="479"/>
+      <c r="C30" s="471"/>
+      <c r="D30" s="471"/>
+      <c r="E30" s="471"/>
       <c r="F30" s="418" t="s">
         <v>166</v>
       </c>
@@ -11357,16 +12123,16 @@
       </c>
     </row>
     <row r="31" spans="1:12" s="209" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="528" t="s">
+      <c r="A31" s="543" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="529"/>
-      <c r="C31" s="529"/>
-      <c r="D31" s="529"/>
-      <c r="E31" s="529"/>
-      <c r="F31" s="529"/>
-      <c r="G31" s="529"/>
-      <c r="H31" s="530"/>
+      <c r="B31" s="544"/>
+      <c r="C31" s="544"/>
+      <c r="D31" s="544"/>
+      <c r="E31" s="544"/>
+      <c r="F31" s="544"/>
+      <c r="G31" s="544"/>
+      <c r="H31" s="545"/>
       <c r="I31" s="210">
         <f>SUM(I8:I30)</f>
         <v>10995000</v>
@@ -11391,35 +12157,35 @@
       <c r="L32" s="216"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="536" t="s">
+      <c r="A33" s="542" t="s">
         <v>142</v>
       </c>
-      <c r="B33" s="536"/>
-      <c r="C33" s="536"/>
-      <c r="D33" s="536"/>
-      <c r="E33" s="536"/>
-      <c r="F33" s="536"/>
-      <c r="G33" s="536"/>
-      <c r="H33" s="536"/>
-      <c r="I33" s="536"/>
-      <c r="J33" s="536"/>
-      <c r="K33" s="536"/>
-      <c r="L33" s="536"/>
+      <c r="B33" s="542"/>
+      <c r="C33" s="542"/>
+      <c r="D33" s="542"/>
+      <c r="E33" s="542"/>
+      <c r="F33" s="542"/>
+      <c r="G33" s="542"/>
+      <c r="H33" s="542"/>
+      <c r="I33" s="542"/>
+      <c r="J33" s="542"/>
+      <c r="K33" s="542"/>
+      <c r="L33" s="542"/>
     </row>
     <row r="34" spans="1:12" s="142" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="525" t="s">
+      <c r="A34" s="526" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="526" t="s">
+      <c r="B34" s="538" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="525" t="s">
+      <c r="C34" s="526" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="525" t="s">
+      <c r="D34" s="526" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="525"/>
+      <c r="E34" s="526"/>
       <c r="F34" s="527" t="s">
         <v>29</v>
       </c>
@@ -11431,52 +12197,52 @@
       <c r="L34" s="527"/>
     </row>
     <row r="35" spans="1:12" s="142" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="525"/>
-      <c r="B35" s="526"/>
-      <c r="C35" s="525"/>
-      <c r="D35" s="525" t="s">
+      <c r="A35" s="526"/>
+      <c r="B35" s="538"/>
+      <c r="C35" s="526"/>
+      <c r="D35" s="526" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="525" t="s">
+      <c r="E35" s="526" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="525" t="s">
+      <c r="F35" s="526" t="s">
         <v>31</v>
       </c>
-      <c r="G35" s="525" t="s">
+      <c r="G35" s="526" t="s">
         <v>32</v>
       </c>
-      <c r="H35" s="531" t="s">
+      <c r="H35" s="535" t="s">
         <v>33</v>
       </c>
-      <c r="I35" s="531" t="s">
+      <c r="I35" s="535" t="s">
         <v>43</v>
       </c>
-      <c r="J35" s="537" t="s">
+      <c r="J35" s="536" t="s">
         <v>35</v>
       </c>
-      <c r="K35" s="537"/>
-      <c r="L35" s="531" t="s">
+      <c r="K35" s="536"/>
+      <c r="L35" s="535" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="142" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="525"/>
-      <c r="B36" s="526"/>
-      <c r="C36" s="525"/>
-      <c r="D36" s="525"/>
-      <c r="E36" s="525"/>
-      <c r="F36" s="525"/>
-      <c r="G36" s="525"/>
-      <c r="H36" s="531"/>
-      <c r="I36" s="531"/>
+      <c r="A36" s="526"/>
+      <c r="B36" s="538"/>
+      <c r="C36" s="526"/>
+      <c r="D36" s="526"/>
+      <c r="E36" s="526"/>
+      <c r="F36" s="526"/>
+      <c r="G36" s="526"/>
+      <c r="H36" s="535"/>
+      <c r="I36" s="535"/>
       <c r="J36" s="309" t="s">
         <v>85</v>
       </c>
       <c r="K36" s="155" t="s">
         <v>48</v>
       </c>
-      <c r="L36" s="531"/>
+      <c r="L36" s="535"/>
     </row>
     <row r="37" spans="1:12" s="323" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="239">
@@ -11551,16 +12317,16 @@
       </c>
     </row>
     <row r="39" spans="1:12" s="209" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="528" t="s">
+      <c r="A39" s="543" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="529"/>
-      <c r="C39" s="529"/>
-      <c r="D39" s="529"/>
-      <c r="E39" s="529"/>
-      <c r="F39" s="529"/>
-      <c r="G39" s="529"/>
-      <c r="H39" s="530"/>
+      <c r="B39" s="544"/>
+      <c r="C39" s="544"/>
+      <c r="D39" s="544"/>
+      <c r="E39" s="544"/>
+      <c r="F39" s="544"/>
+      <c r="G39" s="544"/>
+      <c r="H39" s="545"/>
       <c r="I39" s="210">
         <f>SUM(I37:I38)</f>
         <v>910000</v>
@@ -11641,35 +12407,35 @@
       <c r="L44" s="216"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="536" t="s">
+      <c r="A45" s="542" t="s">
         <v>135</v>
       </c>
-      <c r="B45" s="536"/>
-      <c r="C45" s="536"/>
-      <c r="D45" s="536"/>
-      <c r="E45" s="536"/>
-      <c r="F45" s="536"/>
-      <c r="G45" s="536"/>
-      <c r="H45" s="536"/>
-      <c r="I45" s="536"/>
-      <c r="J45" s="536"/>
-      <c r="K45" s="536"/>
-      <c r="L45" s="536"/>
+      <c r="B45" s="542"/>
+      <c r="C45" s="542"/>
+      <c r="D45" s="542"/>
+      <c r="E45" s="542"/>
+      <c r="F45" s="542"/>
+      <c r="G45" s="542"/>
+      <c r="H45" s="542"/>
+      <c r="I45" s="542"/>
+      <c r="J45" s="542"/>
+      <c r="K45" s="542"/>
+      <c r="L45" s="542"/>
     </row>
     <row r="46" spans="1:12" s="142" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="525" t="s">
+      <c r="A46" s="526" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="545" t="s">
+      <c r="B46" s="549" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="525" t="s">
+      <c r="C46" s="526" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="525" t="s">
+      <c r="D46" s="526" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="525"/>
+      <c r="E46" s="526"/>
       <c r="F46" s="527" t="s">
         <v>29</v>
       </c>
@@ -11681,52 +12447,52 @@
       <c r="L46" s="527"/>
     </row>
     <row r="47" spans="1:12" s="142" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="525"/>
-      <c r="B47" s="545"/>
-      <c r="C47" s="525"/>
-      <c r="D47" s="525" t="s">
+      <c r="A47" s="526"/>
+      <c r="B47" s="549"/>
+      <c r="C47" s="526"/>
+      <c r="D47" s="526" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="525" t="s">
+      <c r="E47" s="526" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="525" t="s">
+      <c r="F47" s="526" t="s">
         <v>31</v>
       </c>
-      <c r="G47" s="525" t="s">
+      <c r="G47" s="526" t="s">
         <v>32</v>
       </c>
-      <c r="H47" s="531" t="s">
+      <c r="H47" s="535" t="s">
         <v>33</v>
       </c>
-      <c r="I47" s="531" t="s">
+      <c r="I47" s="535" t="s">
         <v>43</v>
       </c>
-      <c r="J47" s="537" t="s">
+      <c r="J47" s="536" t="s">
         <v>35</v>
       </c>
-      <c r="K47" s="537"/>
-      <c r="L47" s="531" t="s">
+      <c r="K47" s="536"/>
+      <c r="L47" s="535" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="142" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="525"/>
-      <c r="B48" s="545"/>
-      <c r="C48" s="525"/>
-      <c r="D48" s="525"/>
-      <c r="E48" s="525"/>
-      <c r="F48" s="525"/>
-      <c r="G48" s="525"/>
-      <c r="H48" s="531"/>
-      <c r="I48" s="531"/>
+      <c r="A48" s="526"/>
+      <c r="B48" s="549"/>
+      <c r="C48" s="526"/>
+      <c r="D48" s="526"/>
+      <c r="E48" s="526"/>
+      <c r="F48" s="526"/>
+      <c r="G48" s="526"/>
+      <c r="H48" s="535"/>
+      <c r="I48" s="535"/>
       <c r="J48" s="351" t="s">
         <v>85</v>
       </c>
       <c r="K48" s="155" t="s">
         <v>48</v>
       </c>
-      <c r="L48" s="531"/>
+      <c r="L48" s="535"/>
     </row>
     <row r="49" spans="1:13" s="323" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="239">
@@ -11833,11 +12599,11 @@
       <c r="L52" s="357"/>
     </row>
     <row r="53" spans="1:13" s="217" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="536" t="s">
+      <c r="A53" s="542" t="s">
         <v>130</v>
       </c>
-      <c r="B53" s="536"/>
-      <c r="C53" s="536"/>
+      <c r="B53" s="542"/>
+      <c r="C53" s="542"/>
       <c r="D53" s="308"/>
       <c r="E53" s="308"/>
       <c r="F53" s="308"/>
@@ -11850,150 +12616,150 @@
       <c r="A54" s="308"/>
       <c r="B54" s="308"/>
       <c r="C54" s="308"/>
-      <c r="D54" s="543" t="s">
+      <c r="D54" s="547" t="s">
         <v>131</v>
       </c>
-      <c r="E54" s="543"/>
-      <c r="F54" s="543"/>
-      <c r="G54" s="543"/>
-      <c r="H54" s="543"/>
-      <c r="I54" s="543"/>
-      <c r="J54" s="544" t="s">
+      <c r="E54" s="547"/>
+      <c r="F54" s="547"/>
+      <c r="G54" s="547"/>
+      <c r="H54" s="547"/>
+      <c r="I54" s="547"/>
+      <c r="J54" s="548" t="s">
         <v>50</v>
       </c>
-      <c r="K54" s="544"/>
+      <c r="K54" s="548"/>
       <c r="L54" s="216"/>
     </row>
     <row r="55" spans="1:13" s="217" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="308"/>
       <c r="B55" s="308"/>
       <c r="C55" s="308"/>
-      <c r="D55" s="542" t="s">
+      <c r="D55" s="528" t="s">
         <v>144</v>
       </c>
-      <c r="E55" s="542"/>
-      <c r="F55" s="542"/>
-      <c r="G55" s="542"/>
-      <c r="H55" s="542"/>
-      <c r="I55" s="542"/>
-      <c r="J55" s="546">
+      <c r="E55" s="528"/>
+      <c r="F55" s="528"/>
+      <c r="G55" s="528"/>
+      <c r="H55" s="528"/>
+      <c r="I55" s="528"/>
+      <c r="J55" s="532">
         <f>8611127-5000000</f>
         <v>3611127</v>
       </c>
-      <c r="K55" s="546"/>
+      <c r="K55" s="532"/>
       <c r="L55" s="216"/>
     </row>
     <row r="56" spans="1:13" s="217" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="308"/>
       <c r="B56" s="308"/>
       <c r="C56" s="308"/>
-      <c r="D56" s="542" t="s">
+      <c r="D56" s="528" t="s">
         <v>145</v>
       </c>
-      <c r="E56" s="542"/>
-      <c r="F56" s="542"/>
-      <c r="G56" s="542"/>
-      <c r="H56" s="542"/>
-      <c r="I56" s="542"/>
-      <c r="J56" s="546">
+      <c r="E56" s="528"/>
+      <c r="F56" s="528"/>
+      <c r="G56" s="528"/>
+      <c r="H56" s="528"/>
+      <c r="I56" s="528"/>
+      <c r="J56" s="532">
         <f>L31</f>
         <v>5291550</v>
       </c>
-      <c r="K56" s="546"/>
+      <c r="K56" s="532"/>
       <c r="L56" s="216"/>
     </row>
     <row r="57" spans="1:13" s="217" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="258"/>
       <c r="B57" s="258"/>
       <c r="C57" s="258"/>
-      <c r="D57" s="542" t="s">
+      <c r="D57" s="528" t="s">
         <v>146</v>
       </c>
-      <c r="E57" s="542"/>
-      <c r="F57" s="542"/>
-      <c r="G57" s="542"/>
-      <c r="H57" s="542"/>
-      <c r="I57" s="542"/>
-      <c r="J57" s="546">
+      <c r="E57" s="528"/>
+      <c r="F57" s="528"/>
+      <c r="G57" s="528"/>
+      <c r="H57" s="528"/>
+      <c r="I57" s="528"/>
+      <c r="J57" s="532">
         <f>L39</f>
         <v>655200</v>
       </c>
-      <c r="K57" s="546"/>
+      <c r="K57" s="532"/>
       <c r="L57" s="216"/>
     </row>
     <row r="58" spans="1:13" s="217" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="308"/>
       <c r="B58" s="308"/>
       <c r="C58" s="308"/>
-      <c r="D58" s="532" t="s">
+      <c r="D58" s="529" t="s">
         <v>143</v>
       </c>
-      <c r="E58" s="533"/>
-      <c r="F58" s="533"/>
-      <c r="G58" s="533"/>
-      <c r="H58" s="533"/>
-      <c r="I58" s="534"/>
-      <c r="J58" s="523">
+      <c r="E58" s="530"/>
+      <c r="F58" s="530"/>
+      <c r="G58" s="530"/>
+      <c r="H58" s="530"/>
+      <c r="I58" s="531"/>
+      <c r="J58" s="533">
         <f>'Bảng lương'!K15</f>
         <v>5388461.538461539</v>
       </c>
-      <c r="K58" s="524"/>
+      <c r="K58" s="534"/>
       <c r="L58" s="216"/>
     </row>
     <row r="59" spans="1:13" s="217" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="421"/>
       <c r="B59" s="421"/>
       <c r="C59" s="421"/>
-      <c r="D59" s="532" t="s">
+      <c r="D59" s="529" t="s">
         <v>210</v>
       </c>
-      <c r="E59" s="533"/>
-      <c r="F59" s="533"/>
-      <c r="G59" s="533"/>
-      <c r="H59" s="533"/>
-      <c r="I59" s="534"/>
-      <c r="J59" s="523">
+      <c r="E59" s="530"/>
+      <c r="F59" s="530"/>
+      <c r="G59" s="530"/>
+      <c r="H59" s="530"/>
+      <c r="I59" s="531"/>
+      <c r="J59" s="533">
         <v>4064000</v>
       </c>
-      <c r="K59" s="524"/>
+      <c r="K59" s="534"/>
       <c r="L59" s="216"/>
     </row>
     <row r="60" spans="1:13" s="217" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="308"/>
       <c r="B60" s="308"/>
       <c r="C60" s="308"/>
-      <c r="D60" s="532" t="s">
+      <c r="D60" s="529" t="s">
         <v>136</v>
       </c>
-      <c r="E60" s="533"/>
-      <c r="F60" s="533"/>
-      <c r="G60" s="533"/>
-      <c r="H60" s="533"/>
-      <c r="I60" s="534"/>
-      <c r="J60" s="523">
+      <c r="E60" s="530"/>
+      <c r="F60" s="530"/>
+      <c r="G60" s="530"/>
+      <c r="H60" s="530"/>
+      <c r="I60" s="531"/>
+      <c r="J60" s="533">
         <f>L51</f>
         <v>445000</v>
       </c>
-      <c r="K60" s="524"/>
+      <c r="K60" s="534"/>
       <c r="L60" s="350"/>
     </row>
     <row r="61" spans="1:13" s="217" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="258"/>
       <c r="B61" s="258"/>
       <c r="C61" s="258"/>
-      <c r="D61" s="542" t="s">
+      <c r="D61" s="528" t="s">
         <v>132</v>
       </c>
-      <c r="E61" s="542"/>
-      <c r="F61" s="542"/>
-      <c r="G61" s="542"/>
-      <c r="H61" s="542"/>
-      <c r="I61" s="542"/>
-      <c r="J61" s="546">
+      <c r="E61" s="528"/>
+      <c r="F61" s="528"/>
+      <c r="G61" s="528"/>
+      <c r="H61" s="528"/>
+      <c r="I61" s="528"/>
+      <c r="J61" s="532">
         <f>J55+J56+J57+J60-J58-J59</f>
         <v>550415.46153846104</v>
       </c>
-      <c r="K61" s="546"/>
+      <c r="K61" s="532"/>
       <c r="L61" s="429">
         <f>J61+2500000</f>
         <v>3050415.461538461</v>
@@ -12014,70 +12780,70 @@
     </row>
     <row r="63" spans="1:13" s="217" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="443"/>
-      <c r="B63" s="591" t="s">
+      <c r="B63" s="525" t="s">
         <v>233</v>
       </c>
-      <c r="C63" s="591"/>
-      <c r="D63" s="591"/>
-      <c r="E63" s="591"/>
-      <c r="F63" s="591"/>
-      <c r="G63" s="591"/>
+      <c r="C63" s="525"/>
+      <c r="D63" s="525"/>
+      <c r="E63" s="525"/>
+      <c r="F63" s="525"/>
+      <c r="G63" s="525"/>
       <c r="H63" s="443"/>
       <c r="I63" s="216"/>
       <c r="L63" s="348"/>
     </row>
     <row r="64" spans="1:13" s="217" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="443"/>
-      <c r="B64" s="592"/>
-      <c r="C64" s="593" t="s">
+      <c r="B64" s="453"/>
+      <c r="C64" s="454" t="s">
         <v>234</v>
       </c>
-      <c r="D64" s="592"/>
-      <c r="E64" s="592"/>
-      <c r="F64" s="592"/>
-      <c r="G64" s="592"/>
+      <c r="D64" s="453"/>
+      <c r="E64" s="453"/>
+      <c r="F64" s="453"/>
+      <c r="G64" s="453"/>
       <c r="H64" s="443"/>
       <c r="I64" s="216"/>
       <c r="L64" s="348"/>
     </row>
     <row r="65" spans="1:12" s="217" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="443"/>
-      <c r="B65" s="592"/>
-      <c r="C65" s="593" t="s">
+      <c r="B65" s="453"/>
+      <c r="C65" s="454" t="s">
         <v>235</v>
       </c>
-      <c r="D65" s="592"/>
-      <c r="E65" s="592"/>
-      <c r="F65" s="592"/>
-      <c r="G65" s="592"/>
+      <c r="D65" s="453"/>
+      <c r="E65" s="453"/>
+      <c r="F65" s="453"/>
+      <c r="G65" s="453"/>
       <c r="H65" s="443"/>
       <c r="I65" s="216"/>
       <c r="L65" s="348"/>
     </row>
     <row r="66" spans="1:12" s="217" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="443"/>
-      <c r="B66" s="592"/>
-      <c r="C66" s="593" t="s">
+      <c r="B66" s="453"/>
+      <c r="C66" s="454" t="s">
         <v>236</v>
       </c>
-      <c r="D66" s="592"/>
-      <c r="E66" s="592"/>
-      <c r="F66" s="592"/>
-      <c r="G66" s="592"/>
+      <c r="D66" s="453"/>
+      <c r="E66" s="453"/>
+      <c r="F66" s="453"/>
+      <c r="G66" s="453"/>
       <c r="H66" s="443"/>
       <c r="I66" s="216"/>
       <c r="L66" s="348"/>
     </row>
     <row r="67" spans="1:12" s="217" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="443"/>
-      <c r="B67" s="592"/>
-      <c r="C67" s="593" t="s">
+      <c r="B67" s="453"/>
+      <c r="C67" s="454" t="s">
         <v>237</v>
       </c>
-      <c r="D67" s="592"/>
-      <c r="E67" s="592"/>
-      <c r="F67" s="592"/>
-      <c r="G67" s="592"/>
+      <c r="D67" s="453"/>
+      <c r="E67" s="453"/>
+      <c r="F67" s="453"/>
+      <c r="G67" s="453"/>
       <c r="H67" s="443"/>
       <c r="I67" s="216"/>
       <c r="L67" s="348"/>
@@ -12085,7 +12851,7 @@
     <row r="68" spans="1:12" s="217" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="443"/>
       <c r="B68" s="443"/>
-      <c r="C68" s="593" t="s">
+      <c r="C68" s="454" t="s">
         <v>238</v>
       </c>
       <c r="D68" s="443"/>
@@ -12110,19 +12876,19 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="95"/>
-      <c r="B70" s="536" t="s">
+      <c r="B70" s="542" t="s">
         <v>110</v>
       </c>
-      <c r="C70" s="536"/>
-      <c r="D70" s="536"/>
+      <c r="C70" s="542"/>
+      <c r="D70" s="542"/>
       <c r="E70" s="95"/>
       <c r="F70" s="95"/>
       <c r="G70" s="95"/>
       <c r="H70" s="95"/>
-      <c r="I70" s="536" t="s">
+      <c r="I70" s="542" t="s">
         <v>115</v>
       </c>
-      <c r="J70" s="536"/>
+      <c r="J70" s="542"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="95"/>
@@ -12202,8 +12968,8 @@
       <c r="I77" s="213"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="538"/>
-      <c r="B78" s="538"/>
+      <c r="A78" s="537"/>
+      <c r="B78" s="537"/>
       <c r="E78" s="39"/>
       <c r="F78" s="39"/>
       <c r="G78" s="39"/>
@@ -12213,8 +12979,8 @@
       <c r="H80" s="214"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="538"/>
-      <c r="B82" s="538"/>
+      <c r="A82" s="537"/>
+      <c r="B82" s="537"/>
       <c r="E82" s="39"/>
       <c r="F82" s="39"/>
       <c r="G82" s="39"/>
@@ -12222,6 +12988,68 @@
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="A45:L45"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="D54:I54"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:L34"/>
     <mergeCell ref="B63:G63"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="F46:L46"/>
@@ -12238,68 +13066,6 @@
     <mergeCell ref="J58:K58"/>
     <mergeCell ref="J60:K60"/>
     <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A33:L33"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D56:I56"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="D54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:L34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="F47:F48"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.2" top="0.37" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -12840,16 +13606,16 @@
       <c r="C1" s="170"/>
       <c r="D1" s="170"/>
       <c r="E1" s="170"/>
-      <c r="Z1" s="565" t="s">
+      <c r="Z1" s="555" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="566"/>
-      <c r="AB1" s="566"/>
-      <c r="AC1" s="566"/>
-      <c r="AD1" s="566"/>
-      <c r="AE1" s="566"/>
-      <c r="AF1" s="566"/>
-      <c r="AG1" s="567"/>
+      <c r="AA1" s="556"/>
+      <c r="AB1" s="556"/>
+      <c r="AC1" s="556"/>
+      <c r="AD1" s="556"/>
+      <c r="AE1" s="556"/>
+      <c r="AF1" s="556"/>
+      <c r="AG1" s="557"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="173" t="s">
@@ -12859,18 +13625,18 @@
       <c r="C2" s="174"/>
       <c r="D2" s="174"/>
       <c r="E2" s="174"/>
-      <c r="Z2" s="548" t="s">
+      <c r="Z2" s="550" t="s">
         <v>87</v>
       </c>
-      <c r="AA2" s="549"/>
-      <c r="AB2" s="549"/>
-      <c r="AC2" s="549"/>
-      <c r="AD2" s="549"/>
-      <c r="AE2" s="550"/>
-      <c r="AF2" s="551" t="s">
+      <c r="AA2" s="551"/>
+      <c r="AB2" s="551"/>
+      <c r="AC2" s="551"/>
+      <c r="AD2" s="551"/>
+      <c r="AE2" s="552"/>
+      <c r="AF2" s="553" t="s">
         <v>88</v>
       </c>
-      <c r="AG2" s="552"/>
+      <c r="AG2" s="554"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="173" t="s">
@@ -12880,18 +13646,18 @@
       <c r="C3" s="86"/>
       <c r="D3" s="86"/>
       <c r="E3" s="86"/>
-      <c r="Z3" s="548" t="s">
+      <c r="Z3" s="550" t="s">
         <v>90</v>
       </c>
-      <c r="AA3" s="549"/>
-      <c r="AB3" s="549"/>
-      <c r="AC3" s="549"/>
-      <c r="AD3" s="549"/>
-      <c r="AE3" s="550"/>
-      <c r="AF3" s="551" t="s">
+      <c r="AA3" s="551"/>
+      <c r="AB3" s="551"/>
+      <c r="AC3" s="551"/>
+      <c r="AD3" s="551"/>
+      <c r="AE3" s="552"/>
+      <c r="AF3" s="553" t="s">
         <v>91</v>
       </c>
-      <c r="AG3" s="552"/>
+      <c r="AG3" s="554"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="173" t="s">
@@ -12904,18 +13670,18 @@
       <c r="T4" s="171" t="s">
         <v>49</v>
       </c>
-      <c r="Z4" s="548" t="s">
+      <c r="Z4" s="550" t="s">
         <v>93</v>
       </c>
-      <c r="AA4" s="549"/>
-      <c r="AB4" s="549"/>
-      <c r="AC4" s="549"/>
-      <c r="AD4" s="549"/>
-      <c r="AE4" s="550"/>
-      <c r="AF4" s="551" t="s">
+      <c r="AA4" s="551"/>
+      <c r="AB4" s="551"/>
+      <c r="AC4" s="551"/>
+      <c r="AD4" s="551"/>
+      <c r="AE4" s="552"/>
+      <c r="AF4" s="553" t="s">
         <v>94</v>
       </c>
-      <c r="AG4" s="552"/>
+      <c r="AG4" s="554"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="173" t="s">
@@ -12925,18 +13691,18 @@
       <c r="C5" s="86"/>
       <c r="D5" s="86"/>
       <c r="E5" s="86"/>
-      <c r="Z5" s="548" t="s">
+      <c r="Z5" s="550" t="s">
         <v>96</v>
       </c>
-      <c r="AA5" s="549"/>
-      <c r="AB5" s="549"/>
-      <c r="AC5" s="549"/>
-      <c r="AD5" s="549"/>
-      <c r="AE5" s="550"/>
-      <c r="AF5" s="551" t="s">
+      <c r="AA5" s="551"/>
+      <c r="AB5" s="551"/>
+      <c r="AC5" s="551"/>
+      <c r="AD5" s="551"/>
+      <c r="AE5" s="552"/>
+      <c r="AF5" s="553" t="s">
         <v>97</v>
       </c>
-      <c r="AG5" s="552"/>
+      <c r="AG5" s="554"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="175"/>
@@ -12946,93 +13712,93 @@
       <c r="E6" s="175"/>
     </row>
     <row r="7" spans="1:40" s="178" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="553" t="s">
+      <c r="A7" s="559" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="553"/>
-      <c r="C7" s="553"/>
-      <c r="D7" s="553"/>
-      <c r="E7" s="553"/>
-      <c r="F7" s="553"/>
-      <c r="G7" s="553"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="553"/>
-      <c r="J7" s="553"/>
-      <c r="K7" s="553"/>
-      <c r="L7" s="553"/>
-      <c r="M7" s="553"/>
-      <c r="N7" s="553"/>
-      <c r="O7" s="553"/>
-      <c r="P7" s="553"/>
-      <c r="Q7" s="553"/>
-      <c r="R7" s="553"/>
-      <c r="S7" s="553"/>
-      <c r="T7" s="553"/>
-      <c r="U7" s="553"/>
-      <c r="V7" s="553"/>
-      <c r="W7" s="553"/>
-      <c r="X7" s="553"/>
-      <c r="Y7" s="553"/>
-      <c r="Z7" s="553"/>
-      <c r="AA7" s="553"/>
-      <c r="AB7" s="553"/>
-      <c r="AC7" s="553"/>
-      <c r="AD7" s="553"/>
-      <c r="AE7" s="553"/>
-      <c r="AF7" s="553"/>
-      <c r="AG7" s="553"/>
-      <c r="AH7" s="553"/>
-      <c r="AI7" s="553"/>
-      <c r="AJ7" s="553"/>
-      <c r="AK7" s="553"/>
-      <c r="AL7" s="553"/>
-      <c r="AM7" s="553"/>
+      <c r="B7" s="559"/>
+      <c r="C7" s="559"/>
+      <c r="D7" s="559"/>
+      <c r="E7" s="559"/>
+      <c r="F7" s="559"/>
+      <c r="G7" s="559"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="559"/>
+      <c r="J7" s="559"/>
+      <c r="K7" s="559"/>
+      <c r="L7" s="559"/>
+      <c r="M7" s="559"/>
+      <c r="N7" s="559"/>
+      <c r="O7" s="559"/>
+      <c r="P7" s="559"/>
+      <c r="Q7" s="559"/>
+      <c r="R7" s="559"/>
+      <c r="S7" s="559"/>
+      <c r="T7" s="559"/>
+      <c r="U7" s="559"/>
+      <c r="V7" s="559"/>
+      <c r="W7" s="559"/>
+      <c r="X7" s="559"/>
+      <c r="Y7" s="559"/>
+      <c r="Z7" s="559"/>
+      <c r="AA7" s="559"/>
+      <c r="AB7" s="559"/>
+      <c r="AC7" s="559"/>
+      <c r="AD7" s="559"/>
+      <c r="AE7" s="559"/>
+      <c r="AF7" s="559"/>
+      <c r="AG7" s="559"/>
+      <c r="AH7" s="559"/>
+      <c r="AI7" s="559"/>
+      <c r="AJ7" s="559"/>
+      <c r="AK7" s="559"/>
+      <c r="AL7" s="559"/>
+      <c r="AM7" s="559"/>
       <c r="AN7" s="177"/>
     </row>
     <row r="9" spans="1:40" s="183" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="554" t="s">
+      <c r="A9" s="560" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="554" t="s">
+      <c r="B9" s="560" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="554" t="s">
+      <c r="C9" s="560" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="557" t="s">
+      <c r="D9" s="563" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="558"/>
-      <c r="F9" s="558"/>
-      <c r="G9" s="558"/>
-      <c r="H9" s="558"/>
-      <c r="I9" s="558"/>
-      <c r="J9" s="558"/>
-      <c r="K9" s="558"/>
-      <c r="L9" s="558"/>
-      <c r="M9" s="558"/>
-      <c r="N9" s="558"/>
-      <c r="O9" s="558"/>
-      <c r="P9" s="558"/>
-      <c r="Q9" s="558"/>
-      <c r="R9" s="558"/>
-      <c r="S9" s="558"/>
-      <c r="T9" s="558"/>
-      <c r="U9" s="558"/>
-      <c r="V9" s="558"/>
-      <c r="W9" s="558"/>
-      <c r="X9" s="558"/>
-      <c r="Y9" s="558"/>
-      <c r="Z9" s="558"/>
-      <c r="AA9" s="558"/>
-      <c r="AB9" s="558"/>
-      <c r="AC9" s="558"/>
-      <c r="AD9" s="558"/>
-      <c r="AE9" s="558"/>
-      <c r="AF9" s="558"/>
-      <c r="AG9" s="558"/>
-      <c r="AH9" s="559"/>
-      <c r="AI9" s="560" t="s">
+      <c r="E9" s="564"/>
+      <c r="F9" s="564"/>
+      <c r="G9" s="564"/>
+      <c r="H9" s="564"/>
+      <c r="I9" s="564"/>
+      <c r="J9" s="564"/>
+      <c r="K9" s="564"/>
+      <c r="L9" s="564"/>
+      <c r="M9" s="564"/>
+      <c r="N9" s="564"/>
+      <c r="O9" s="564"/>
+      <c r="P9" s="564"/>
+      <c r="Q9" s="564"/>
+      <c r="R9" s="564"/>
+      <c r="S9" s="564"/>
+      <c r="T9" s="564"/>
+      <c r="U9" s="564"/>
+      <c r="V9" s="564"/>
+      <c r="W9" s="564"/>
+      <c r="X9" s="564"/>
+      <c r="Y9" s="564"/>
+      <c r="Z9" s="564"/>
+      <c r="AA9" s="564"/>
+      <c r="AB9" s="564"/>
+      <c r="AC9" s="564"/>
+      <c r="AD9" s="564"/>
+      <c r="AE9" s="564"/>
+      <c r="AF9" s="564"/>
+      <c r="AG9" s="564"/>
+      <c r="AH9" s="565"/>
+      <c r="AI9" s="566" t="s">
         <v>102</v>
       </c>
       <c r="AJ9" s="179"/>
@@ -13042,9 +13808,9 @@
       <c r="AN9" s="182"/>
     </row>
     <row r="10" spans="1:40" s="183" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="555"/>
-      <c r="B10" s="555"/>
-      <c r="C10" s="555"/>
+      <c r="A10" s="561"/>
+      <c r="B10" s="561"/>
+      <c r="C10" s="561"/>
       <c r="D10" s="184">
         <v>1</v>
       </c>
@@ -13138,7 +13904,7 @@
       <c r="AH10" s="184">
         <v>31</v>
       </c>
-      <c r="AI10" s="560"/>
+      <c r="AI10" s="566"/>
       <c r="AJ10" s="185"/>
       <c r="AK10" s="181"/>
       <c r="AL10" s="181"/>
@@ -13146,9 +13912,9 @@
       <c r="AN10" s="182"/>
     </row>
     <row r="11" spans="1:40" s="190" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="556"/>
-      <c r="B11" s="556"/>
-      <c r="C11" s="556"/>
+      <c r="A11" s="562"/>
+      <c r="B11" s="562"/>
+      <c r="C11" s="562"/>
       <c r="D11" s="184" t="s">
         <v>108</v>
       </c>
@@ -13242,7 +14008,7 @@
       <c r="AH11" s="186" t="s">
         <v>103</v>
       </c>
-      <c r="AI11" s="560"/>
+      <c r="AI11" s="566"/>
       <c r="AJ11" s="189"/>
       <c r="AN11" s="191"/>
     </row>
@@ -13657,10 +14423,10 @@
       <c r="AN15" s="191"/>
     </row>
     <row r="16" spans="1:40" s="190" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="561" t="s">
+      <c r="A16" s="567" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="562"/>
+      <c r="B16" s="568"/>
       <c r="C16" s="193"/>
       <c r="D16" s="193"/>
       <c r="E16" s="194"/>
@@ -13703,49 +14469,49 @@
       <c r="AN16" s="191"/>
     </row>
     <row r="18" spans="1:40" s="203" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="563" t="s">
+      <c r="A18" s="569" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="563"/>
-      <c r="C18" s="563"/>
-      <c r="D18" s="563"/>
-      <c r="E18" s="563"/>
-      <c r="F18" s="563"/>
-      <c r="G18" s="563"/>
+      <c r="B18" s="569"/>
+      <c r="C18" s="569"/>
+      <c r="D18" s="569"/>
+      <c r="E18" s="569"/>
+      <c r="F18" s="569"/>
+      <c r="G18" s="569"/>
       <c r="H18" s="198"/>
-      <c r="I18" s="564"/>
-      <c r="J18" s="564"/>
-      <c r="K18" s="564"/>
-      <c r="L18" s="564"/>
-      <c r="M18" s="564"/>
+      <c r="I18" s="570"/>
+      <c r="J18" s="570"/>
+      <c r="K18" s="570"/>
+      <c r="L18" s="570"/>
+      <c r="M18" s="570"/>
       <c r="N18" s="199"/>
-      <c r="O18" s="564" t="s">
+      <c r="O18" s="570" t="s">
         <v>112</v>
       </c>
-      <c r="P18" s="564"/>
-      <c r="Q18" s="564"/>
-      <c r="R18" s="564"/>
-      <c r="S18" s="564"/>
-      <c r="T18" s="564"/>
-      <c r="U18" s="564"/>
-      <c r="V18" s="564"/>
-      <c r="W18" s="564"/>
-      <c r="X18" s="564"/>
-      <c r="Y18" s="564"/>
+      <c r="P18" s="570"/>
+      <c r="Q18" s="570"/>
+      <c r="R18" s="570"/>
+      <c r="S18" s="570"/>
+      <c r="T18" s="570"/>
+      <c r="U18" s="570"/>
+      <c r="V18" s="570"/>
+      <c r="W18" s="570"/>
+      <c r="X18" s="570"/>
+      <c r="Y18" s="570"/>
       <c r="Z18" s="200"/>
       <c r="AA18" s="200"/>
       <c r="AB18" s="201"/>
-      <c r="AC18" s="564"/>
-      <c r="AD18" s="564"/>
-      <c r="AE18" s="564"/>
-      <c r="AF18" s="564"/>
-      <c r="AG18" s="564"/>
-      <c r="AH18" s="564"/>
-      <c r="AI18" s="564"/>
-      <c r="AJ18" s="564"/>
-      <c r="AK18" s="564"/>
-      <c r="AL18" s="564"/>
-      <c r="AM18" s="564"/>
+      <c r="AC18" s="570"/>
+      <c r="AD18" s="570"/>
+      <c r="AE18" s="570"/>
+      <c r="AF18" s="570"/>
+      <c r="AG18" s="570"/>
+      <c r="AH18" s="570"/>
+      <c r="AI18" s="570"/>
+      <c r="AJ18" s="570"/>
+      <c r="AK18" s="570"/>
+      <c r="AL18" s="570"/>
+      <c r="AM18" s="570"/>
       <c r="AN18" s="202"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
@@ -13779,131 +14545,131 @@
       <c r="AN33" s="207"/>
     </row>
     <row r="34" spans="3:40" s="206" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="547"/>
-      <c r="H34" s="547"/>
-      <c r="I34" s="547"/>
-      <c r="J34" s="547"/>
-      <c r="K34" s="547"/>
-      <c r="L34" s="547"/>
-      <c r="M34" s="547"/>
-      <c r="N34" s="547"/>
-      <c r="O34" s="547"/>
-      <c r="P34" s="547"/>
-      <c r="Q34" s="547"/>
-      <c r="R34" s="547"/>
-      <c r="S34" s="547"/>
-      <c r="T34" s="547"/>
-      <c r="U34" s="547"/>
-      <c r="V34" s="547"/>
-      <c r="W34" s="547"/>
-      <c r="X34" s="547"/>
+      <c r="G34" s="558"/>
+      <c r="H34" s="558"/>
+      <c r="I34" s="558"/>
+      <c r="J34" s="558"/>
+      <c r="K34" s="558"/>
+      <c r="L34" s="558"/>
+      <c r="M34" s="558"/>
+      <c r="N34" s="558"/>
+      <c r="O34" s="558"/>
+      <c r="P34" s="558"/>
+      <c r="Q34" s="558"/>
+      <c r="R34" s="558"/>
+      <c r="S34" s="558"/>
+      <c r="T34" s="558"/>
+      <c r="U34" s="558"/>
+      <c r="V34" s="558"/>
+      <c r="W34" s="558"/>
+      <c r="X34" s="558"/>
       <c r="AN34" s="207"/>
     </row>
     <row r="35" spans="3:40" s="206" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="547"/>
-      <c r="H35" s="547"/>
-      <c r="I35" s="547"/>
-      <c r="J35" s="547"/>
-      <c r="K35" s="547"/>
-      <c r="L35" s="547"/>
-      <c r="M35" s="547"/>
-      <c r="N35" s="547"/>
-      <c r="O35" s="547"/>
-      <c r="P35" s="547"/>
-      <c r="Q35" s="547"/>
-      <c r="R35" s="547"/>
-      <c r="S35" s="547"/>
-      <c r="T35" s="547"/>
-      <c r="U35" s="547"/>
-      <c r="V35" s="547"/>
-      <c r="W35" s="547"/>
-      <c r="X35" s="547"/>
+      <c r="G35" s="558"/>
+      <c r="H35" s="558"/>
+      <c r="I35" s="558"/>
+      <c r="J35" s="558"/>
+      <c r="K35" s="558"/>
+      <c r="L35" s="558"/>
+      <c r="M35" s="558"/>
+      <c r="N35" s="558"/>
+      <c r="O35" s="558"/>
+      <c r="P35" s="558"/>
+      <c r="Q35" s="558"/>
+      <c r="R35" s="558"/>
+      <c r="S35" s="558"/>
+      <c r="T35" s="558"/>
+      <c r="U35" s="558"/>
+      <c r="V35" s="558"/>
+      <c r="W35" s="558"/>
+      <c r="X35" s="558"/>
       <c r="AN35" s="207"/>
     </row>
     <row r="36" spans="3:40" s="206" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="547"/>
-      <c r="H36" s="547"/>
-      <c r="I36" s="547"/>
-      <c r="J36" s="547"/>
-      <c r="K36" s="547"/>
-      <c r="L36" s="547"/>
-      <c r="M36" s="547"/>
-      <c r="N36" s="547"/>
-      <c r="O36" s="547"/>
-      <c r="P36" s="547"/>
-      <c r="Q36" s="547"/>
-      <c r="R36" s="547"/>
-      <c r="S36" s="547"/>
-      <c r="T36" s="547"/>
-      <c r="U36" s="547"/>
-      <c r="V36" s="547"/>
-      <c r="W36" s="547"/>
-      <c r="X36" s="547"/>
+      <c r="G36" s="558"/>
+      <c r="H36" s="558"/>
+      <c r="I36" s="558"/>
+      <c r="J36" s="558"/>
+      <c r="K36" s="558"/>
+      <c r="L36" s="558"/>
+      <c r="M36" s="558"/>
+      <c r="N36" s="558"/>
+      <c r="O36" s="558"/>
+      <c r="P36" s="558"/>
+      <c r="Q36" s="558"/>
+      <c r="R36" s="558"/>
+      <c r="S36" s="558"/>
+      <c r="T36" s="558"/>
+      <c r="U36" s="558"/>
+      <c r="V36" s="558"/>
+      <c r="W36" s="558"/>
+      <c r="X36" s="558"/>
       <c r="AN36" s="207"/>
     </row>
     <row r="37" spans="3:40" s="206" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="547"/>
-      <c r="H37" s="547"/>
-      <c r="I37" s="547"/>
-      <c r="J37" s="547"/>
-      <c r="K37" s="547"/>
-      <c r="L37" s="547"/>
-      <c r="M37" s="547"/>
-      <c r="N37" s="547"/>
-      <c r="O37" s="547"/>
-      <c r="P37" s="547"/>
-      <c r="Q37" s="547"/>
-      <c r="R37" s="547"/>
-      <c r="S37" s="547"/>
-      <c r="T37" s="547"/>
-      <c r="U37" s="547"/>
-      <c r="V37" s="547"/>
-      <c r="W37" s="547"/>
-      <c r="X37" s="547"/>
+      <c r="G37" s="558"/>
+      <c r="H37" s="558"/>
+      <c r="I37" s="558"/>
+      <c r="J37" s="558"/>
+      <c r="K37" s="558"/>
+      <c r="L37" s="558"/>
+      <c r="M37" s="558"/>
+      <c r="N37" s="558"/>
+      <c r="O37" s="558"/>
+      <c r="P37" s="558"/>
+      <c r="Q37" s="558"/>
+      <c r="R37" s="558"/>
+      <c r="S37" s="558"/>
+      <c r="T37" s="558"/>
+      <c r="U37" s="558"/>
+      <c r="V37" s="558"/>
+      <c r="W37" s="558"/>
+      <c r="X37" s="558"/>
       <c r="AN37" s="207"/>
     </row>
     <row r="38" spans="3:40" s="206" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="547"/>
-      <c r="H38" s="547"/>
-      <c r="I38" s="547"/>
-      <c r="J38" s="547"/>
-      <c r="K38" s="547"/>
-      <c r="L38" s="547"/>
-      <c r="M38" s="547"/>
-      <c r="N38" s="547"/>
-      <c r="O38" s="547"/>
-      <c r="P38" s="547"/>
-      <c r="Q38" s="547"/>
-      <c r="R38" s="547"/>
-      <c r="S38" s="547"/>
-      <c r="T38" s="547"/>
-      <c r="U38" s="547"/>
-      <c r="V38" s="547"/>
-      <c r="W38" s="547"/>
-      <c r="X38" s="547"/>
+      <c r="G38" s="558"/>
+      <c r="H38" s="558"/>
+      <c r="I38" s="558"/>
+      <c r="J38" s="558"/>
+      <c r="K38" s="558"/>
+      <c r="L38" s="558"/>
+      <c r="M38" s="558"/>
+      <c r="N38" s="558"/>
+      <c r="O38" s="558"/>
+      <c r="P38" s="558"/>
+      <c r="Q38" s="558"/>
+      <c r="R38" s="558"/>
+      <c r="S38" s="558"/>
+      <c r="T38" s="558"/>
+      <c r="U38" s="558"/>
+      <c r="V38" s="558"/>
+      <c r="W38" s="558"/>
+      <c r="X38" s="558"/>
       <c r="AN38" s="207"/>
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C39" s="171"/>
       <c r="D39" s="171"/>
-      <c r="G39" s="547"/>
-      <c r="H39" s="547"/>
-      <c r="I39" s="547"/>
-      <c r="J39" s="547"/>
-      <c r="K39" s="547"/>
-      <c r="L39" s="547"/>
-      <c r="M39" s="547"/>
-      <c r="N39" s="547"/>
-      <c r="O39" s="547"/>
-      <c r="P39" s="547"/>
-      <c r="Q39" s="547"/>
-      <c r="R39" s="547"/>
-      <c r="S39" s="547"/>
-      <c r="T39" s="547"/>
-      <c r="U39" s="547"/>
-      <c r="V39" s="547"/>
-      <c r="W39" s="547"/>
-      <c r="X39" s="547"/>
+      <c r="G39" s="558"/>
+      <c r="H39" s="558"/>
+      <c r="I39" s="558"/>
+      <c r="J39" s="558"/>
+      <c r="K39" s="558"/>
+      <c r="L39" s="558"/>
+      <c r="M39" s="558"/>
+      <c r="N39" s="558"/>
+      <c r="O39" s="558"/>
+      <c r="P39" s="558"/>
+      <c r="Q39" s="558"/>
+      <c r="R39" s="558"/>
+      <c r="S39" s="558"/>
+      <c r="T39" s="558"/>
+      <c r="U39" s="558"/>
+      <c r="V39" s="558"/>
+      <c r="W39" s="558"/>
+      <c r="X39" s="558"/>
       <c r="AN39" s="171"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.25">
@@ -13913,13 +14679,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G34:X39"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -13934,6 +14693,13 @@
     <mergeCell ref="I18:M18"/>
     <mergeCell ref="O18:Y18"/>
     <mergeCell ref="AC18:AM18"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -14788,40 +15554,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="287" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="577" t="s">
+      <c r="A1" s="571" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="577"/>
-      <c r="C1" s="577"/>
-      <c r="D1" s="577"/>
+      <c r="B1" s="571"/>
+      <c r="C1" s="571"/>
+      <c r="D1" s="571"/>
       <c r="E1" s="286"/>
-      <c r="F1" s="578" t="s">
+      <c r="F1" s="572" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="578"/>
-      <c r="H1" s="578"/>
-      <c r="I1" s="578"/>
-      <c r="J1" s="578"/>
-      <c r="K1" s="578"/>
-      <c r="L1" s="578"/>
+      <c r="G1" s="572"/>
+      <c r="H1" s="572"/>
+      <c r="I1" s="572"/>
+      <c r="J1" s="572"/>
+      <c r="K1" s="572"/>
+      <c r="L1" s="572"/>
     </row>
     <row r="2" spans="1:16" s="287" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="579" t="s">
+      <c r="A2" s="573" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="579"/>
-      <c r="C2" s="579"/>
-      <c r="D2" s="579"/>
+      <c r="B2" s="573"/>
+      <c r="C2" s="573"/>
+      <c r="D2" s="573"/>
       <c r="E2" s="286"/>
-      <c r="F2" s="580" t="s">
+      <c r="F2" s="574" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="580"/>
-      <c r="H2" s="580"/>
-      <c r="I2" s="580"/>
-      <c r="J2" s="580"/>
-      <c r="K2" s="580"/>
-      <c r="L2" s="580"/>
+      <c r="G2" s="574"/>
+      <c r="H2" s="574"/>
+      <c r="I2" s="574"/>
+      <c r="J2" s="574"/>
+      <c r="K2" s="574"/>
+      <c r="L2" s="574"/>
     </row>
     <row r="3" spans="1:16" s="287" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="288"/>
@@ -14835,45 +15601,45 @@
       <c r="J3" s="289"/>
     </row>
     <row r="4" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="568" t="s">
+      <c r="A4" s="575" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="568"/>
-      <c r="C4" s="568"/>
-      <c r="D4" s="568"/>
-      <c r="E4" s="568"/>
-      <c r="F4" s="568"/>
-      <c r="G4" s="568"/>
-      <c r="H4" s="568"/>
-      <c r="I4" s="568"/>
-      <c r="J4" s="568"/>
-      <c r="K4" s="568"/>
-      <c r="L4" s="568"/>
-      <c r="M4" s="568"/>
+      <c r="B4" s="575"/>
+      <c r="C4" s="575"/>
+      <c r="D4" s="575"/>
+      <c r="E4" s="575"/>
+      <c r="F4" s="575"/>
+      <c r="G4" s="575"/>
+      <c r="H4" s="575"/>
+      <c r="I4" s="575"/>
+      <c r="J4" s="575"/>
+      <c r="K4" s="575"/>
+      <c r="L4" s="575"/>
+      <c r="M4" s="575"/>
     </row>
     <row r="5" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="568" t="s">
+      <c r="A5" s="575" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="568"/>
-      <c r="C5" s="568"/>
-      <c r="D5" s="568"/>
-      <c r="E5" s="568"/>
-      <c r="F5" s="568"/>
-      <c r="G5" s="568"/>
-      <c r="H5" s="568"/>
-      <c r="I5" s="568"/>
-      <c r="J5" s="568"/>
-      <c r="K5" s="568"/>
-      <c r="L5" s="568"/>
-      <c r="M5" s="568"/>
+      <c r="B5" s="575"/>
+      <c r="C5" s="575"/>
+      <c r="D5" s="575"/>
+      <c r="E5" s="575"/>
+      <c r="F5" s="575"/>
+      <c r="G5" s="575"/>
+      <c r="H5" s="575"/>
+      <c r="I5" s="575"/>
+      <c r="J5" s="575"/>
+      <c r="K5" s="575"/>
+      <c r="L5" s="575"/>
+      <c r="M5" s="575"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K6" s="569" t="s">
+      <c r="K6" s="576" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="569"/>
-      <c r="M6" s="569"/>
+      <c r="L6" s="576"/>
+      <c r="M6" s="576"/>
     </row>
     <row r="7" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
@@ -14944,10 +15710,10 @@
       <c r="M8" s="50"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="570" t="s">
+      <c r="A9" s="577" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="571"/>
+      <c r="B9" s="578"/>
       <c r="C9" s="49"/>
       <c r="D9" s="49"/>
       <c r="E9" s="51"/>
@@ -15069,11 +15835,11 @@
       <c r="P12" s="154"/>
     </row>
     <row r="13" spans="1:16" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="574" t="s">
+      <c r="A13" s="581" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="575"/>
-      <c r="C13" s="576"/>
+      <c r="B13" s="582"/>
+      <c r="C13" s="583"/>
       <c r="D13" s="265">
         <f>SUM(D10:D12)</f>
         <v>27000000</v>
@@ -15098,10 +15864,10 @@
       <c r="M13" s="292"/>
     </row>
     <row r="14" spans="1:16" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="572" t="s">
+      <c r="A14" s="579" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="573"/>
+      <c r="B14" s="580"/>
       <c r="C14" s="87"/>
       <c r="D14" s="88"/>
       <c r="E14" s="307"/>
@@ -15152,11 +15918,11 @@
       </c>
     </row>
     <row r="16" spans="1:16" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="574" t="s">
+      <c r="A16" s="581" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="575"/>
-      <c r="C16" s="576"/>
+      <c r="B16" s="582"/>
+      <c r="C16" s="583"/>
       <c r="D16" s="293">
         <f>SUM(D15:D15)</f>
         <v>5000000</v>
@@ -15178,14 +15944,14 @@
       <c r="M16" s="292"/>
     </row>
     <row r="18" spans="2:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="568"/>
-      <c r="C18" s="568"/>
-      <c r="D18" s="568"/>
+      <c r="B18" s="575"/>
+      <c r="C18" s="575"/>
+      <c r="D18" s="575"/>
       <c r="E18" s="266"/>
-      <c r="I18" s="568"/>
-      <c r="J18" s="568"/>
-      <c r="K18" s="568"/>
-      <c r="L18" s="568"/>
+      <c r="I18" s="575"/>
+      <c r="J18" s="575"/>
+      <c r="K18" s="575"/>
+      <c r="L18" s="575"/>
     </row>
     <row r="19" spans="2:12" s="287" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C19" s="295" t="s">
@@ -15235,11 +16001,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="A9:B9"/>
@@ -15248,6 +16009,11 @@
     <mergeCell ref="I18:L18"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="A4:M4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -15273,32 +16039,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="272" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="581" t="s">
+      <c r="A1" s="584" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="581"/>
-      <c r="C1" s="581"/>
+      <c r="B1" s="584"/>
+      <c r="C1" s="584"/>
       <c r="D1" s="274"/>
       <c r="J1" s="273"/>
       <c r="K1" s="274"/>
     </row>
     <row r="2" spans="1:15" s="272" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="582" t="s">
+      <c r="A2" s="585" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="582"/>
-      <c r="C2" s="582"/>
+      <c r="B2" s="585"/>
+      <c r="C2" s="585"/>
       <c r="D2" s="274"/>
       <c r="J2" s="273"/>
       <c r="K2" s="274"/>
     </row>
     <row r="3" spans="1:15" s="272" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="507" t="s">
+      <c r="A3" s="511" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="507"/>
-      <c r="C3" s="507"/>
-      <c r="D3" s="507"/>
+      <c r="B3" s="511"/>
+      <c r="C3" s="511"/>
+      <c r="D3" s="511"/>
       <c r="E3" s="271"/>
       <c r="F3" s="271"/>
       <c r="G3" s="271"/>
@@ -15329,25 +16095,25 @@
       <c r="O4" s="271"/>
     </row>
     <row r="5" spans="1:15" s="272" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="587" t="s">
+      <c r="A5" s="590" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="592" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="587" t="s">
+      <c r="C5" s="590" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="586" t="s">
+      <c r="D5" s="589" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="586"/>
-      <c r="F5" s="586"/>
+      <c r="E5" s="589"/>
+      <c r="F5" s="589"/>
     </row>
     <row r="6" spans="1:15" s="272" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="588"/>
-      <c r="B6" s="590"/>
-      <c r="C6" s="588"/>
+      <c r="A6" s="591"/>
+      <c r="B6" s="593"/>
+      <c r="C6" s="591"/>
       <c r="D6" s="283" t="s">
         <v>129</v>
       </c>
@@ -15687,11 +16453,11 @@
       <c r="F31" s="281"/>
     </row>
     <row r="32" spans="1:6" s="285" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="583" t="s">
+      <c r="A32" s="586" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="584"/>
-      <c r="C32" s="585"/>
+      <c r="B32" s="587"/>
+      <c r="C32" s="588"/>
       <c r="D32" s="284">
         <f>SUM(D7:D31)</f>
         <v>60000</v>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 7_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 7_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DOANH THU'!$A$6:$P$127</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$6:$G$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$6:$G$122</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="296">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -847,6 +847,72 @@
   </si>
   <si>
     <t xml:space="preserve">Trả biển bảng </t>
+  </si>
+  <si>
+    <t>Hằng kế toán ứng lương T6</t>
+  </si>
+  <si>
+    <t>Thanh toán lương T6 kế toán Hằng</t>
+  </si>
+  <si>
+    <t>Văn sơn, thanh toán lương</t>
+  </si>
+  <si>
+    <t>Hỗ trợ ghế đá cao bằng</t>
+  </si>
+  <si>
+    <t>Kệ bông bống, thanh hà</t>
+  </si>
+  <si>
+    <t>Vé máy bay</t>
+  </si>
+  <si>
+    <t>Hóa đơn THL</t>
+  </si>
+  <si>
+    <t>Biển bảng Tân Kỳ tân Phú</t>
+  </si>
+  <si>
+    <t>Thuê xe tháng 8</t>
+  </si>
+  <si>
+    <t>Kệ đại lý tường vy</t>
+  </si>
+  <si>
+    <t>Biển bảng tân phú</t>
+  </si>
+  <si>
+    <t>Thanh toán lương a hoàng</t>
+  </si>
+  <si>
+    <t>Trả kệ e quang</t>
+  </si>
+  <si>
+    <t>ứng tiền biển bảng</t>
+  </si>
+  <si>
+    <t>Ứng biển bảng hà linh thanh hóa</t>
+  </si>
+  <si>
+    <t>Hàng hóa</t>
+  </si>
+  <si>
+    <t>Nhập hàng 90T</t>
+  </si>
+  <si>
+    <t>Nhập hàng 100T</t>
+  </si>
+  <si>
+    <t>Tâm thanh toán tiền hàng</t>
+  </si>
+  <si>
+    <t>Hoàng thanh toán tiền hàng</t>
+  </si>
+  <si>
+    <t>Chị Hà phú thọ thanh toán tiền hàng</t>
+  </si>
+  <si>
+    <t>Chị tuyết TP HCM</t>
   </si>
 </sst>
 </file>
@@ -2739,25 +2805,58 @@
     <xf numFmtId="168" fontId="18" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2769,22 +2868,13 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2832,40 +2922,52 @@
     <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2874,42 +2976,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2919,108 +2985,99 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3057,6 +3114,42 @@
     <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3067,33 +3160,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3436,11 +3502,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3799,33 +3865,33 @@
         <v>44017</v>
       </c>
       <c r="B23" s="101" t="s">
-        <v>245</v>
+        <v>289</v>
       </c>
       <c r="C23" s="102" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="D23" s="103"/>
-      <c r="E23" s="120"/>
+      <c r="E23" s="120">
+        <v>2395000</v>
+      </c>
       <c r="F23" s="103"/>
-      <c r="G23" s="120">
-        <v>686000</v>
-      </c>
+      <c r="G23" s="120"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="150">
         <v>44017</v>
       </c>
       <c r="B24" s="101" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="C24" s="102" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="D24" s="103"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="103">
+      <c r="E24" s="120">
         <v>2107000</v>
       </c>
+      <c r="F24" s="103"/>
       <c r="G24" s="120"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3833,16 +3899,16 @@
         <v>44017</v>
       </c>
       <c r="B25" s="101" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="C25" s="102" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D25" s="103"/>
       <c r="E25" s="120"/>
       <c r="F25" s="103"/>
       <c r="G25" s="120">
-        <v>2395000</v>
+        <v>686000</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3850,116 +3916,118 @@
         <v>44017</v>
       </c>
       <c r="B26" s="101" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="C26" s="102" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="D26" s="103"/>
       <c r="E26" s="120"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="120">
-        <v>260000</v>
-      </c>
+      <c r="F26" s="103">
+        <v>2107000</v>
+      </c>
+      <c r="G26" s="120"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="150">
         <v>44017</v>
       </c>
       <c r="B27" s="101" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="C27" s="102" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="D27" s="103"/>
       <c r="E27" s="120"/>
       <c r="F27" s="103"/>
       <c r="G27" s="120">
-        <v>700000</v>
+        <v>2395000</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="150">
-        <v>44018</v>
+        <v>44017</v>
       </c>
       <c r="B28" s="101" t="s">
         <v>245</v>
       </c>
       <c r="C28" s="102" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D28" s="103"/>
       <c r="E28" s="120"/>
       <c r="F28" s="103"/>
       <c r="G28" s="120">
-        <v>154770</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="150">
-        <v>44020</v>
+        <v>44017</v>
       </c>
       <c r="B29" s="101" t="s">
         <v>245</v>
       </c>
       <c r="C29" s="102" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D29" s="103"/>
       <c r="E29" s="120"/>
       <c r="F29" s="103"/>
       <c r="G29" s="120">
-        <v>1042000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="150">
-        <v>44020</v>
+        <v>44018</v>
       </c>
       <c r="B30" s="101" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C30" s="102" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D30" s="103"/>
       <c r="E30" s="120"/>
       <c r="F30" s="103"/>
       <c r="G30" s="120">
-        <v>700000</v>
+        <v>154770</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="150">
-        <v>44021</v>
+        <v>44020</v>
       </c>
       <c r="B31" s="101" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="C31" s="102" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="D31" s="103"/>
       <c r="E31" s="120"/>
       <c r="F31" s="103"/>
-      <c r="G31" s="120"/>
+      <c r="G31" s="120">
+        <v>1042000</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="150">
-        <v>44021</v>
+        <v>44020</v>
       </c>
       <c r="B32" s="101" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C32" s="102" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D32" s="103"/>
       <c r="E32" s="120"/>
       <c r="F32" s="103"/>
       <c r="G32" s="120">
-        <v>65000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3967,17 +4035,17 @@
         <v>44021</v>
       </c>
       <c r="B33" s="101" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="C33" s="102" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="D33" s="103"/>
       <c r="E33" s="120"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="120">
-        <v>500140</v>
-      </c>
+      <c r="F33" s="103">
+        <v>10000000</v>
+      </c>
+      <c r="G33" s="120"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="150">
@@ -3993,7 +4061,7 @@
       <c r="E34" s="120"/>
       <c r="F34" s="103"/>
       <c r="G34" s="120">
-        <v>45000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -4001,38 +4069,38 @@
         <v>44021</v>
       </c>
       <c r="B35" s="101" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C35" s="102" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D35" s="103"/>
       <c r="E35" s="120"/>
       <c r="F35" s="103"/>
       <c r="G35" s="120">
-        <v>45000</v>
+        <v>500140</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="150">
-        <v>44022</v>
+        <v>44021</v>
       </c>
       <c r="B36" s="101" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C36" s="102" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D36" s="103"/>
       <c r="E36" s="120"/>
       <c r="F36" s="103"/>
       <c r="G36" s="120">
-        <v>1002990</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="150">
-        <v>44022</v>
+        <v>44021</v>
       </c>
       <c r="B37" s="101" t="s">
         <v>241</v>
@@ -4044,185 +4112,185 @@
       <c r="E37" s="120"/>
       <c r="F37" s="103"/>
       <c r="G37" s="120">
-        <v>40000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="150">
-        <v>44023</v>
+        <v>44022</v>
       </c>
       <c r="B38" s="101" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C38" s="102" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D38" s="103"/>
       <c r="E38" s="120"/>
       <c r="F38" s="103"/>
       <c r="G38" s="120">
-        <v>675000</v>
+        <v>1002990</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="150">
-        <v>44024</v>
+        <v>44022</v>
       </c>
       <c r="B39" s="101" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C39" s="102" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D39" s="103"/>
       <c r="E39" s="120"/>
       <c r="F39" s="103"/>
       <c r="G39" s="120">
-        <v>730000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="150">
-        <v>44026</v>
+        <v>44023</v>
       </c>
       <c r="B40" s="101" t="s">
         <v>245</v>
       </c>
       <c r="C40" s="102" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D40" s="103"/>
       <c r="E40" s="120"/>
       <c r="F40" s="103"/>
       <c r="G40" s="120">
-        <v>550000</v>
+        <v>675000</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="150">
-        <v>44026</v>
+        <v>44024</v>
       </c>
       <c r="B41" s="101" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C41" s="102" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D41" s="103"/>
       <c r="E41" s="120"/>
       <c r="F41" s="103"/>
       <c r="G41" s="120">
-        <v>94000</v>
+        <v>730000</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="150">
-        <v>44026</v>
+        <v>44025</v>
       </c>
       <c r="B42" s="101" t="s">
-        <v>245</v>
+        <v>289</v>
       </c>
       <c r="C42" s="102" t="s">
-        <v>254</v>
-      </c>
-      <c r="D42" s="103"/>
+        <v>295</v>
+      </c>
+      <c r="D42" s="103">
+        <v>150000000</v>
+      </c>
       <c r="E42" s="120"/>
       <c r="F42" s="103"/>
-      <c r="G42" s="120">
-        <v>2061000</v>
-      </c>
+      <c r="G42" s="120"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="150">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B43" s="101" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C43" s="102" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D43" s="103"/>
       <c r="E43" s="120"/>
       <c r="F43" s="103"/>
       <c r="G43" s="120">
-        <v>400000</v>
+        <v>550000</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="150">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B44" s="101" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="C44" s="102" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="D44" s="103"/>
       <c r="E44" s="120"/>
       <c r="F44" s="103"/>
       <c r="G44" s="120">
-        <v>5070000</v>
+        <v>1395000</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="150">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B45" s="101" t="s">
-        <v>245</v>
+        <v>289</v>
       </c>
       <c r="C45" s="102" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="D45" s="103"/>
-      <c r="E45" s="120"/>
+      <c r="E45" s="120">
+        <v>1395000</v>
+      </c>
       <c r="F45" s="103"/>
-      <c r="G45" s="120">
-        <v>1002000</v>
-      </c>
+      <c r="G45" s="120"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="150">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B46" s="101" t="s">
         <v>245</v>
       </c>
       <c r="C46" s="102" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D46" s="103"/>
       <c r="E46" s="120"/>
       <c r="F46" s="103"/>
       <c r="G46" s="120">
-        <v>6583000</v>
+        <v>94000</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="150">
-        <v>44030</v>
+        <v>44026</v>
       </c>
       <c r="B47" s="101" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C47" s="102" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="D47" s="103"/>
       <c r="E47" s="120"/>
       <c r="F47" s="103"/>
       <c r="G47" s="120">
-        <v>105000</v>
+        <v>2061000</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="150">
-        <v>44031</v>
+        <v>44027</v>
       </c>
       <c r="B48" s="101" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C48" s="102" t="s">
         <v>244</v>
@@ -4231,148 +4299,148 @@
       <c r="E48" s="120"/>
       <c r="F48" s="103"/>
       <c r="G48" s="120">
-        <v>513000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="150">
-        <v>44032</v>
+        <v>44027</v>
       </c>
       <c r="B49" s="101" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C49" s="102" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="D49" s="103"/>
       <c r="E49" s="120"/>
       <c r="F49" s="103"/>
       <c r="G49" s="120">
-        <v>15000</v>
+        <v>5070000</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="150">
-        <v>44032</v>
+        <v>44027</v>
       </c>
       <c r="B50" s="101" t="s">
         <v>245</v>
       </c>
       <c r="C50" s="102" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D50" s="103"/>
       <c r="E50" s="120"/>
       <c r="F50" s="103"/>
       <c r="G50" s="120">
-        <v>70000</v>
+        <v>1002000</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="150">
-        <v>44033</v>
+        <v>44027</v>
       </c>
       <c r="B51" s="101" t="s">
         <v>245</v>
       </c>
       <c r="C51" s="102" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D51" s="103"/>
       <c r="E51" s="120"/>
       <c r="F51" s="103"/>
       <c r="G51" s="120">
-        <v>42000</v>
+        <v>6583000</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="150">
-        <v>44033</v>
+        <v>44028</v>
       </c>
       <c r="B52" s="101" t="s">
-        <v>245</v>
+        <v>289</v>
       </c>
       <c r="C52" s="102" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="D52" s="103"/>
-      <c r="E52" s="120"/>
+      <c r="E52" s="120">
+        <v>5000000</v>
+      </c>
       <c r="F52" s="103"/>
-      <c r="G52" s="120">
-        <v>3434000</v>
-      </c>
+      <c r="G52" s="120"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="150">
-        <v>44034</v>
+        <v>44028</v>
       </c>
       <c r="B53" s="101" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="C53" s="102" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="D53" s="103"/>
       <c r="E53" s="120"/>
-      <c r="F53" s="103"/>
-      <c r="G53" s="120">
-        <v>785000</v>
-      </c>
+      <c r="F53" s="103">
+        <v>3674000</v>
+      </c>
+      <c r="G53" s="120"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="150">
-        <v>44035</v>
+        <v>44028</v>
       </c>
       <c r="B54" s="101" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C54" s="102" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="D54" s="103"/>
       <c r="E54" s="120"/>
-      <c r="F54" s="103"/>
-      <c r="G54" s="120">
-        <v>3640000</v>
-      </c>
+      <c r="F54" s="103">
+        <v>4900000</v>
+      </c>
+      <c r="G54" s="120"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="150">
-        <v>44038</v>
+        <v>44029</v>
       </c>
       <c r="B55" s="101" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C55" s="102" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="D55" s="103"/>
       <c r="E55" s="120"/>
-      <c r="F55" s="103"/>
-      <c r="G55" s="120">
-        <v>15000</v>
-      </c>
+      <c r="F55" s="103">
+        <v>7600000</v>
+      </c>
+      <c r="G55" s="120"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="150">
-        <v>44038</v>
+        <v>44029</v>
       </c>
       <c r="B56" s="101" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="C56" s="102" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="D56" s="103"/>
       <c r="E56" s="120"/>
-      <c r="F56" s="103"/>
-      <c r="G56" s="120">
-        <v>105000</v>
-      </c>
+      <c r="F56" s="103">
+        <v>10000000</v>
+      </c>
+      <c r="G56" s="120"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="150">
-        <v>44038</v>
+        <v>44030</v>
       </c>
       <c r="B57" s="101" t="s">
         <v>241</v>
@@ -4384,290 +4452,472 @@
       <c r="E57" s="120"/>
       <c r="F57" s="103"/>
       <c r="G57" s="120">
-        <v>40000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="150">
-        <v>44040</v>
+        <v>44031</v>
       </c>
       <c r="B58" s="101" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C58" s="102" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="D58" s="103"/>
       <c r="E58" s="120"/>
-      <c r="F58" s="103"/>
-      <c r="G58" s="120">
-        <v>105000</v>
-      </c>
+      <c r="F58" s="103">
+        <v>4163000</v>
+      </c>
+      <c r="G58" s="120"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="150">
-        <v>44041</v>
+        <v>44031</v>
       </c>
       <c r="B59" s="101" t="s">
         <v>239</v>
       </c>
-      <c r="C59" s="121" t="s">
-        <v>242</v>
+      <c r="C59" s="102" t="s">
+        <v>244</v>
       </c>
       <c r="D59" s="103"/>
       <c r="E59" s="120"/>
       <c r="F59" s="103"/>
       <c r="G59" s="120">
-        <v>105000</v>
+        <v>513000</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="150">
-        <v>44041</v>
+        <v>44031</v>
       </c>
       <c r="B60" s="101" t="s">
-        <v>239</v>
+        <v>289</v>
       </c>
       <c r="C60" s="102" t="s">
-        <v>242</v>
+        <v>291</v>
       </c>
       <c r="D60" s="103"/>
       <c r="E60" s="120"/>
-      <c r="F60" s="103"/>
-      <c r="G60" s="122">
-        <v>40000</v>
-      </c>
+      <c r="F60" s="103">
+        <v>165000000</v>
+      </c>
+      <c r="G60" s="120"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="150">
-        <v>44041</v>
+        <v>44032</v>
       </c>
       <c r="B61" s="101" t="s">
         <v>239</v>
       </c>
       <c r="C61" s="102" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D61" s="103"/>
       <c r="E61" s="120"/>
       <c r="F61" s="103"/>
-      <c r="G61" s="122">
-        <v>1000000</v>
+      <c r="G61" s="120">
+        <v>15000</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="150"/>
-      <c r="B62" s="101"/>
-      <c r="C62" s="102"/>
+      <c r="A62" s="150">
+        <v>44032</v>
+      </c>
+      <c r="B62" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C62" s="102" t="s">
+        <v>261</v>
+      </c>
       <c r="D62" s="103"/>
       <c r="E62" s="120"/>
       <c r="F62" s="103"/>
-      <c r="G62" s="122"/>
+      <c r="G62" s="120">
+        <v>70000</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="150"/>
-      <c r="B63" s="101"/>
-      <c r="C63" s="123"/>
+      <c r="A63" s="150">
+        <v>44033</v>
+      </c>
+      <c r="B63" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C63" s="102" t="s">
+        <v>261</v>
+      </c>
       <c r="D63" s="103"/>
       <c r="E63" s="120"/>
       <c r="F63" s="103"/>
-      <c r="G63" s="122"/>
+      <c r="G63" s="120">
+        <v>42000</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="150"/>
-      <c r="B64" s="101"/>
-      <c r="C64" s="102"/>
+      <c r="A64" s="150">
+        <v>44033</v>
+      </c>
+      <c r="B64" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C64" s="102" t="s">
+        <v>265</v>
+      </c>
       <c r="D64" s="103"/>
       <c r="E64" s="120"/>
       <c r="F64" s="103"/>
-      <c r="G64" s="122"/>
+      <c r="G64" s="120">
+        <v>3434000</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="150"/>
-      <c r="B65" s="101"/>
-      <c r="C65" s="121"/>
+      <c r="A65" s="150">
+        <v>44033</v>
+      </c>
+      <c r="B65" s="101" t="s">
+        <v>247</v>
+      </c>
+      <c r="C65" s="102" t="s">
+        <v>282</v>
+      </c>
       <c r="D65" s="103"/>
       <c r="E65" s="120"/>
-      <c r="F65" s="103"/>
-      <c r="G65" s="122"/>
+      <c r="F65" s="103">
+        <v>12900000</v>
+      </c>
+      <c r="G65" s="120"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="150"/>
-      <c r="B66" s="101"/>
-      <c r="C66" s="102"/>
+      <c r="A66" s="150">
+        <v>44034</v>
+      </c>
+      <c r="B66" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C66" s="102" t="s">
+        <v>262</v>
+      </c>
       <c r="D66" s="103"/>
       <c r="E66" s="120"/>
       <c r="F66" s="103"/>
-      <c r="G66" s="122"/>
+      <c r="G66" s="120">
+        <v>785000</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="150"/>
-      <c r="B67" s="101"/>
-      <c r="C67" s="102"/>
+      <c r="A67" s="150">
+        <v>44034</v>
+      </c>
+      <c r="B67" s="101" t="s">
+        <v>247</v>
+      </c>
+      <c r="C67" s="102" t="s">
+        <v>280</v>
+      </c>
       <c r="D67" s="103"/>
       <c r="E67" s="120"/>
-      <c r="F67" s="103"/>
-      <c r="G67" s="122"/>
+      <c r="F67" s="103">
+        <v>4150000</v>
+      </c>
+      <c r="G67" s="120"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="150"/>
-      <c r="B68" s="101"/>
-      <c r="C68" s="102"/>
+      <c r="A68" s="150">
+        <v>44035</v>
+      </c>
+      <c r="B68" s="101" t="s">
+        <v>263</v>
+      </c>
+      <c r="C68" s="102" t="s">
+        <v>264</v>
+      </c>
       <c r="D68" s="103"/>
       <c r="E68" s="120"/>
       <c r="F68" s="103"/>
-      <c r="G68" s="122"/>
+      <c r="G68" s="120">
+        <v>3640000</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="150"/>
-      <c r="B69" s="101"/>
-      <c r="C69" s="102"/>
+      <c r="A69" s="150">
+        <v>44036</v>
+      </c>
+      <c r="B69" s="101" t="s">
+        <v>272</v>
+      </c>
+      <c r="C69" s="102" t="s">
+        <v>283</v>
+      </c>
       <c r="D69" s="103"/>
       <c r="E69" s="120"/>
-      <c r="F69" s="103"/>
-      <c r="G69" s="122"/>
+      <c r="F69" s="103">
+        <v>15687000</v>
+      </c>
+      <c r="G69" s="120"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="150"/>
-      <c r="B70" s="101"/>
-      <c r="C70" s="102"/>
+      <c r="A70" s="150">
+        <v>44036</v>
+      </c>
+      <c r="B70" s="101" t="s">
+        <v>272</v>
+      </c>
+      <c r="C70" s="102" t="s">
+        <v>281</v>
+      </c>
       <c r="D70" s="103"/>
       <c r="E70" s="120"/>
-      <c r="F70" s="103"/>
-      <c r="G70" s="122"/>
+      <c r="F70" s="103">
+        <v>6000000</v>
+      </c>
+      <c r="G70" s="120"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="150"/>
-      <c r="B71" s="101"/>
-      <c r="C71" s="102"/>
+      <c r="A71" s="150">
+        <v>44038</v>
+      </c>
+      <c r="B71" s="101" t="s">
+        <v>239</v>
+      </c>
+      <c r="C71" s="102" t="s">
+        <v>240</v>
+      </c>
       <c r="D71" s="103"/>
       <c r="E71" s="120"/>
       <c r="F71" s="103"/>
-      <c r="G71" s="122"/>
+      <c r="G71" s="120">
+        <v>15000</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="150"/>
-      <c r="B72" s="101"/>
-      <c r="C72" s="102"/>
+      <c r="A72" s="150">
+        <v>44038</v>
+      </c>
+      <c r="B72" s="101" t="s">
+        <v>239</v>
+      </c>
+      <c r="C72" s="102" t="s">
+        <v>242</v>
+      </c>
       <c r="D72" s="103"/>
       <c r="E72" s="120"/>
       <c r="F72" s="103"/>
-      <c r="G72" s="122"/>
+      <c r="G72" s="120">
+        <v>105000</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="150"/>
-      <c r="B73" s="101"/>
-      <c r="C73" s="102"/>
+      <c r="A73" s="150">
+        <v>44038</v>
+      </c>
+      <c r="B73" s="101" t="s">
+        <v>241</v>
+      </c>
+      <c r="C73" s="102" t="s">
+        <v>242</v>
+      </c>
       <c r="D73" s="103"/>
       <c r="E73" s="120"/>
       <c r="F73" s="103"/>
-      <c r="G73" s="122"/>
+      <c r="G73" s="120">
+        <v>40000</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="150"/>
-      <c r="B74" s="101"/>
-      <c r="C74" s="102"/>
+      <c r="A74" s="150">
+        <v>44039</v>
+      </c>
+      <c r="B74" s="101" t="s">
+        <v>272</v>
+      </c>
+      <c r="C74" s="102" t="s">
+        <v>284</v>
+      </c>
       <c r="D74" s="103"/>
       <c r="E74" s="120"/>
-      <c r="F74" s="103"/>
-      <c r="G74" s="122"/>
+      <c r="F74" s="103">
+        <v>6000000</v>
+      </c>
+      <c r="G74" s="120"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="248"/>
-      <c r="B75" s="249"/>
-      <c r="C75" s="250"/>
+      <c r="A75" s="150">
+        <v>44039</v>
+      </c>
+      <c r="B75" s="101" t="s">
+        <v>267</v>
+      </c>
+      <c r="C75" s="102" t="s">
+        <v>285</v>
+      </c>
       <c r="D75" s="103"/>
       <c r="E75" s="120"/>
-      <c r="F75" s="103"/>
-      <c r="G75" s="122"/>
+      <c r="F75" s="103">
+        <v>1500000</v>
+      </c>
+      <c r="G75" s="120"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="150"/>
-      <c r="B76" s="101"/>
-      <c r="C76" s="102"/>
-      <c r="D76" s="103" t="s">
-        <v>49</v>
-      </c>
+      <c r="A76" s="150">
+        <v>44040</v>
+      </c>
+      <c r="B76" s="101" t="s">
+        <v>239</v>
+      </c>
+      <c r="C76" s="102" t="s">
+        <v>242</v>
+      </c>
+      <c r="D76" s="103"/>
       <c r="E76" s="120"/>
       <c r="F76" s="103"/>
-      <c r="G76" s="122"/>
+      <c r="G76" s="120">
+        <v>105000</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="150"/>
-      <c r="B77" s="101"/>
-      <c r="C77" s="102"/>
+      <c r="A77" s="150">
+        <v>44040</v>
+      </c>
+      <c r="B77" s="101" t="s">
+        <v>272</v>
+      </c>
+      <c r="C77" s="102" t="s">
+        <v>286</v>
+      </c>
       <c r="D77" s="103"/>
       <c r="E77" s="120"/>
-      <c r="F77" s="103"/>
-      <c r="G77" s="122"/>
+      <c r="F77" s="103">
+        <v>5150000</v>
+      </c>
+      <c r="G77" s="120"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="150"/>
-      <c r="B78" s="101"/>
-      <c r="C78" s="102"/>
+      <c r="A78" s="150">
+        <v>44040</v>
+      </c>
+      <c r="B78" s="101" t="s">
+        <v>272</v>
+      </c>
+      <c r="C78" s="102" t="s">
+        <v>287</v>
+      </c>
       <c r="D78" s="103"/>
       <c r="E78" s="120"/>
-      <c r="F78" s="103"/>
-      <c r="G78" s="122"/>
+      <c r="F78" s="103">
+        <v>15000000</v>
+      </c>
+      <c r="G78" s="120"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="150"/>
-      <c r="B79" s="101"/>
-      <c r="C79" s="102"/>
-      <c r="D79" s="103"/>
+      <c r="A79" s="150">
+        <v>44041</v>
+      </c>
+      <c r="B79" s="101" t="s">
+        <v>289</v>
+      </c>
+      <c r="C79" s="102" t="s">
+        <v>295</v>
+      </c>
+      <c r="D79" s="103">
+        <v>67000000</v>
+      </c>
       <c r="E79" s="120"/>
       <c r="F79" s="103"/>
-      <c r="G79" s="122"/>
+      <c r="G79" s="120"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="150"/>
-      <c r="B80" s="101"/>
-      <c r="C80" s="102"/>
+      <c r="A80" s="150">
+        <v>44041</v>
+      </c>
+      <c r="B80" s="101" t="s">
+        <v>239</v>
+      </c>
+      <c r="C80" s="121" t="s">
+        <v>242</v>
+      </c>
       <c r="D80" s="103"/>
       <c r="E80" s="120"/>
       <c r="F80" s="103"/>
-      <c r="G80" s="122"/>
+      <c r="G80" s="120">
+        <v>105000</v>
+      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="150"/>
-      <c r="B81" s="101"/>
-      <c r="C81" s="102"/>
+      <c r="A81" s="150">
+        <v>44041</v>
+      </c>
+      <c r="B81" s="101" t="s">
+        <v>239</v>
+      </c>
+      <c r="C81" s="102" t="s">
+        <v>242</v>
+      </c>
       <c r="D81" s="103"/>
       <c r="E81" s="120"/>
       <c r="F81" s="103"/>
-      <c r="G81" s="122"/>
+      <c r="G81" s="122">
+        <v>40000</v>
+      </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="150"/>
-      <c r="B82" s="101"/>
-      <c r="C82" s="102"/>
+      <c r="A82" s="150">
+        <v>44041</v>
+      </c>
+      <c r="B82" s="101" t="s">
+        <v>239</v>
+      </c>
+      <c r="C82" s="102" t="s">
+        <v>244</v>
+      </c>
       <c r="D82" s="103"/>
       <c r="E82" s="120"/>
       <c r="F82" s="103"/>
-      <c r="G82" s="122"/>
+      <c r="G82" s="122">
+        <v>1000000</v>
+      </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="150"/>
-      <c r="B83" s="101"/>
-      <c r="C83" s="102"/>
+      <c r="A83" s="150">
+        <v>44041</v>
+      </c>
+      <c r="B83" s="101" t="s">
+        <v>289</v>
+      </c>
+      <c r="C83" s="102" t="s">
+        <v>290</v>
+      </c>
       <c r="D83" s="103"/>
       <c r="E83" s="120"/>
       <c r="F83" s="103"/>
-      <c r="G83" s="122"/>
+      <c r="G83" s="122">
+        <v>148500000</v>
+      </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="150"/>
-      <c r="B84" s="101"/>
-      <c r="C84" s="102"/>
+      <c r="A84" s="150">
+        <v>44043</v>
+      </c>
+      <c r="B84" s="101" t="s">
+        <v>272</v>
+      </c>
+      <c r="C84" s="102" t="s">
+        <v>288</v>
+      </c>
       <c r="D84" s="103"/>
       <c r="E84" s="120"/>
-      <c r="F84" s="103"/>
+      <c r="F84" s="103">
+        <v>10000000</v>
+      </c>
       <c r="G84" s="122"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="150"/>
       <c r="B85" s="101"/>
-      <c r="C85" s="102"/>
+      <c r="C85" s="123"/>
       <c r="D85" s="103"/>
       <c r="E85" s="120"/>
       <c r="F85" s="103"/>
@@ -4685,7 +4935,7 @@
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="150"/>
       <c r="B87" s="101"/>
-      <c r="C87" s="102"/>
+      <c r="C87" s="121"/>
       <c r="D87" s="103"/>
       <c r="E87" s="120"/>
       <c r="F87" s="103"/>
@@ -4694,7 +4944,7 @@
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="150"/>
       <c r="B88" s="101"/>
-      <c r="C88" s="123"/>
+      <c r="C88" s="102"/>
       <c r="D88" s="103"/>
       <c r="E88" s="120"/>
       <c r="F88" s="103"/>
@@ -4703,7 +4953,7 @@
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="150"/>
       <c r="B89" s="101"/>
-      <c r="C89" s="123"/>
+      <c r="C89" s="102"/>
       <c r="D89" s="103"/>
       <c r="E89" s="120"/>
       <c r="F89" s="103"/>
@@ -4712,7 +4962,7 @@
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="150"/>
       <c r="B90" s="101"/>
-      <c r="C90" s="123"/>
+      <c r="C90" s="102"/>
       <c r="D90" s="103"/>
       <c r="E90" s="120"/>
       <c r="F90" s="103"/>
@@ -4746,92 +4996,53 @@
       <c r="G93" s="122"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="150">
-        <v>44043</v>
-      </c>
-      <c r="B94" s="101" t="s">
-        <v>239</v>
-      </c>
-      <c r="C94" s="102" t="s">
-        <v>242</v>
-      </c>
+      <c r="A94" s="150"/>
+      <c r="B94" s="101"/>
+      <c r="C94" s="102"/>
       <c r="D94" s="103"/>
       <c r="E94" s="120"/>
       <c r="F94" s="103"/>
-      <c r="G94" s="122">
-        <f>17*15000</f>
-        <v>255000</v>
-      </c>
+      <c r="G94" s="122"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="150">
-        <v>44043</v>
-      </c>
-      <c r="B95" s="101" t="s">
-        <v>239</v>
-      </c>
-      <c r="C95" s="102" t="s">
-        <v>242</v>
-      </c>
+      <c r="A95" s="150"/>
+      <c r="B95" s="101"/>
+      <c r="C95" s="102"/>
       <c r="D95" s="103"/>
       <c r="E95" s="120"/>
       <c r="F95" s="103"/>
-      <c r="G95" s="122">
-        <v>70000</v>
-      </c>
+      <c r="G95" s="122"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="150">
-        <v>44043</v>
-      </c>
-      <c r="B96" s="101" t="s">
-        <v>239</v>
-      </c>
-      <c r="C96" s="102" t="s">
-        <v>242</v>
-      </c>
+      <c r="A96" s="150"/>
+      <c r="B96" s="101"/>
+      <c r="C96" s="102"/>
       <c r="D96" s="103"/>
       <c r="E96" s="120"/>
       <c r="F96" s="103"/>
-      <c r="G96" s="122">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="150">
-        <v>44043</v>
-      </c>
-      <c r="B97" s="101" t="s">
-        <v>245</v>
-      </c>
-      <c r="C97" s="102" t="s">
-        <v>255</v>
-      </c>
+      <c r="G96" s="122"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="248"/>
+      <c r="B97" s="249"/>
+      <c r="C97" s="250"/>
       <c r="D97" s="103"/>
       <c r="E97" s="120"/>
       <c r="F97" s="103"/>
-      <c r="G97" s="122">
-        <v>340000</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="150">
-        <v>44043</v>
-      </c>
-      <c r="B98" s="101" t="s">
-        <v>245</v>
-      </c>
-      <c r="C98" s="102" t="s">
-        <v>255</v>
-      </c>
-      <c r="D98" s="103"/>
+      <c r="G97" s="122"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="150"/>
+      <c r="B98" s="101"/>
+      <c r="C98" s="102"/>
+      <c r="D98" s="103" t="s">
+        <v>49</v>
+      </c>
       <c r="E98" s="120"/>
       <c r="F98" s="103"/>
-      <c r="G98" s="122">
-        <v>365000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G98" s="122"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="150"/>
       <c r="B99" s="101"/>
       <c r="C99" s="102"/>
@@ -4840,128 +5051,367 @@
       <c r="F99" s="103"/>
       <c r="G99" s="122"/>
     </row>
-    <row r="100" spans="1:8" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A100" s="456" t="s">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="150"/>
+      <c r="B100" s="101"/>
+      <c r="C100" s="102"/>
+      <c r="D100" s="103"/>
+      <c r="E100" s="120"/>
+      <c r="F100" s="103"/>
+      <c r="G100" s="122"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="150"/>
+      <c r="B101" s="101"/>
+      <c r="C101" s="102"/>
+      <c r="D101" s="103"/>
+      <c r="E101" s="120"/>
+      <c r="F101" s="103"/>
+      <c r="G101" s="122"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="150"/>
+      <c r="B102" s="101"/>
+      <c r="C102" s="102"/>
+      <c r="D102" s="103"/>
+      <c r="E102" s="120"/>
+      <c r="F102" s="103"/>
+      <c r="G102" s="122"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="150"/>
+      <c r="B103" s="101"/>
+      <c r="C103" s="102"/>
+      <c r="D103" s="103"/>
+      <c r="E103" s="120"/>
+      <c r="F103" s="103"/>
+      <c r="G103" s="122"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="150"/>
+      <c r="B104" s="101"/>
+      <c r="C104" s="102"/>
+      <c r="D104" s="103"/>
+      <c r="E104" s="120"/>
+      <c r="F104" s="103"/>
+      <c r="G104" s="122"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="150"/>
+      <c r="B105" s="101"/>
+      <c r="C105" s="102"/>
+      <c r="D105" s="103"/>
+      <c r="E105" s="120"/>
+      <c r="F105" s="103"/>
+      <c r="G105" s="122"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="150"/>
+      <c r="B106" s="101"/>
+      <c r="C106" s="102"/>
+      <c r="D106" s="103"/>
+      <c r="E106" s="120"/>
+      <c r="F106" s="103"/>
+      <c r="G106" s="122"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="150"/>
+      <c r="B107" s="101"/>
+      <c r="C107" s="102"/>
+      <c r="D107" s="103"/>
+      <c r="E107" s="120"/>
+      <c r="F107" s="103"/>
+      <c r="G107" s="122"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="150"/>
+      <c r="B108" s="101"/>
+      <c r="C108" s="102"/>
+      <c r="D108" s="103"/>
+      <c r="E108" s="120"/>
+      <c r="F108" s="103"/>
+      <c r="G108" s="122"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="150"/>
+      <c r="B109" s="101"/>
+      <c r="C109" s="102"/>
+      <c r="D109" s="103"/>
+      <c r="E109" s="120"/>
+      <c r="F109" s="103"/>
+      <c r="G109" s="122"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="150"/>
+      <c r="B110" s="101"/>
+      <c r="C110" s="123"/>
+      <c r="D110" s="103"/>
+      <c r="E110" s="120"/>
+      <c r="F110" s="103"/>
+      <c r="G110" s="122"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="150"/>
+      <c r="B111" s="101"/>
+      <c r="C111" s="123"/>
+      <c r="D111" s="103"/>
+      <c r="E111" s="120"/>
+      <c r="F111" s="103"/>
+      <c r="G111" s="122"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="150"/>
+      <c r="B112" s="101"/>
+      <c r="C112" s="123"/>
+      <c r="D112" s="103"/>
+      <c r="E112" s="120"/>
+      <c r="F112" s="103"/>
+      <c r="G112" s="122"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="150"/>
+      <c r="B113" s="101"/>
+      <c r="C113" s="102"/>
+      <c r="D113" s="103"/>
+      <c r="E113" s="120"/>
+      <c r="F113" s="103"/>
+      <c r="G113" s="122"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="150"/>
+      <c r="B114" s="101"/>
+      <c r="C114" s="102"/>
+      <c r="D114" s="103"/>
+      <c r="E114" s="120"/>
+      <c r="F114" s="103"/>
+      <c r="G114" s="122"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="150"/>
+      <c r="B115" s="101"/>
+      <c r="C115" s="102"/>
+      <c r="D115" s="103"/>
+      <c r="E115" s="120"/>
+      <c r="F115" s="103"/>
+      <c r="G115" s="122"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="150">
+        <v>44043</v>
+      </c>
+      <c r="B116" s="101" t="s">
+        <v>239</v>
+      </c>
+      <c r="C116" s="102" t="s">
+        <v>242</v>
+      </c>
+      <c r="D116" s="103"/>
+      <c r="E116" s="120"/>
+      <c r="F116" s="103"/>
+      <c r="G116" s="122">
+        <f>17*15000</f>
+        <v>255000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="150">
+        <v>44043</v>
+      </c>
+      <c r="B117" s="101" t="s">
+        <v>239</v>
+      </c>
+      <c r="C117" s="102" t="s">
+        <v>242</v>
+      </c>
+      <c r="D117" s="103"/>
+      <c r="E117" s="120"/>
+      <c r="F117" s="103"/>
+      <c r="G117" s="122">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="150">
+        <v>44043</v>
+      </c>
+      <c r="B118" s="101" t="s">
+        <v>239</v>
+      </c>
+      <c r="C118" s="102" t="s">
+        <v>242</v>
+      </c>
+      <c r="D118" s="103"/>
+      <c r="E118" s="120"/>
+      <c r="F118" s="103"/>
+      <c r="G118" s="122">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="150">
+        <v>44043</v>
+      </c>
+      <c r="B119" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C119" s="102" t="s">
+        <v>255</v>
+      </c>
+      <c r="D119" s="103"/>
+      <c r="E119" s="120"/>
+      <c r="F119" s="103"/>
+      <c r="G119" s="122">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="150">
+        <v>44043</v>
+      </c>
+      <c r="B120" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C120" s="102" t="s">
+        <v>255</v>
+      </c>
+      <c r="D120" s="103"/>
+      <c r="E120" s="120"/>
+      <c r="F120" s="103"/>
+      <c r="G120" s="122">
+        <v>365000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="150"/>
+      <c r="B121" s="101"/>
+      <c r="C121" s="102"/>
+      <c r="D121" s="103"/>
+      <c r="E121" s="120"/>
+      <c r="F121" s="103"/>
+      <c r="G121" s="122"/>
+    </row>
+    <row r="122" spans="1:7" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A122" s="456" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="457"/>
-      <c r="C100" s="458"/>
-      <c r="D100" s="124">
-        <f>SUM(D8:D99)</f>
-        <v>0</v>
-      </c>
-      <c r="E100" s="124">
-        <f>SUM(E8:E99)</f>
-        <v>0</v>
-      </c>
-      <c r="F100" s="124">
-        <f>SUM(F8:F99)</f>
-        <v>9927000</v>
-      </c>
-      <c r="G100" s="124">
-        <f>SUM(G8:G99)</f>
-        <v>43724900</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A101" s="151"/>
-      <c r="B101" s="126"/>
-      <c r="C101" s="126"/>
-      <c r="D101" s="127"/>
-      <c r="E101" s="127"/>
-      <c r="F101" s="127"/>
-      <c r="G101" s="127"/>
-    </row>
-    <row r="102" spans="1:8" s="125" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="455" t="s">
+      <c r="B122" s="457"/>
+      <c r="C122" s="458"/>
+      <c r="D122" s="124">
+        <f>SUM(D8:D121)</f>
+        <v>217000000</v>
+      </c>
+      <c r="E122" s="124">
+        <f>SUM(E8:E121)</f>
+        <v>10897000</v>
+      </c>
+      <c r="F122" s="124">
+        <f>SUM(F8:F121)</f>
+        <v>291651000</v>
+      </c>
+      <c r="G122" s="124">
+        <f>SUM(G8:G121)</f>
+        <v>193619900</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A123" s="151"/>
+      <c r="B123" s="126"/>
+      <c r="C123" s="126"/>
+      <c r="D123" s="127"/>
+      <c r="E123" s="127"/>
+      <c r="F123" s="127"/>
+      <c r="G123" s="127"/>
+    </row>
+    <row r="124" spans="1:7" s="125" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A124" s="455" t="s">
         <v>83</v>
       </c>
-      <c r="B102" s="455"/>
-      <c r="C102" s="126"/>
-      <c r="D102" s="127"/>
-      <c r="E102" s="127"/>
-      <c r="F102" s="127"/>
-      <c r="G102" s="127"/>
-    </row>
-    <row r="103" spans="1:8" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A103" s="151"/>
-      <c r="B103" s="126"/>
-      <c r="C103" s="126"/>
-      <c r="D103" s="127"/>
-      <c r="E103" s="127"/>
-      <c r="F103" s="127"/>
-      <c r="G103" s="127"/>
-    </row>
-    <row r="104" spans="1:8" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="242"/>
-      <c r="B104" s="243"/>
-      <c r="C104" s="244"/>
-      <c r="D104" s="245"/>
-      <c r="E104" s="246"/>
-      <c r="F104" s="245"/>
-      <c r="G104" s="247"/>
-    </row>
-    <row r="105" spans="1:8" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="242"/>
-      <c r="B105" s="243"/>
-      <c r="C105" s="244"/>
-      <c r="D105" s="245"/>
-      <c r="E105" s="246"/>
-      <c r="F105" s="245"/>
-      <c r="G105" s="247"/>
-    </row>
-    <row r="106" spans="1:8" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A106" s="151"/>
-      <c r="B106" s="126"/>
-      <c r="C106" s="126"/>
-      <c r="D106" s="127"/>
-      <c r="E106" s="127"/>
-      <c r="F106" s="127"/>
-      <c r="G106" s="127"/>
-    </row>
-    <row r="107" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="152"/>
-      <c r="B107" s="94" t="s">
+      <c r="B124" s="455"/>
+      <c r="C124" s="126"/>
+      <c r="D124" s="127"/>
+      <c r="E124" s="127"/>
+      <c r="F124" s="127"/>
+      <c r="G124" s="127"/>
+    </row>
+    <row r="125" spans="1:7" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A125" s="151"/>
+      <c r="B125" s="126"/>
+      <c r="C125" s="126"/>
+      <c r="D125" s="127"/>
+      <c r="E125" s="127"/>
+      <c r="F125" s="127"/>
+      <c r="G125" s="127"/>
+    </row>
+    <row r="126" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="242"/>
+      <c r="B126" s="243"/>
+      <c r="C126" s="244"/>
+      <c r="D126" s="245"/>
+      <c r="E126" s="246"/>
+      <c r="F126" s="245"/>
+      <c r="G126" s="247"/>
+    </row>
+    <row r="127" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="242"/>
+      <c r="B127" s="243"/>
+      <c r="C127" s="244"/>
+      <c r="D127" s="245"/>
+      <c r="E127" s="246"/>
+      <c r="F127" s="245"/>
+      <c r="G127" s="247"/>
+    </row>
+    <row r="128" spans="1:7" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A128" s="151"/>
+      <c r="B128" s="126"/>
+      <c r="C128" s="126"/>
+      <c r="D128" s="127"/>
+      <c r="E128" s="127"/>
+      <c r="F128" s="127"/>
+      <c r="G128" s="127"/>
+    </row>
+    <row r="129" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="152"/>
+      <c r="B129" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="C107" s="70"/>
-      <c r="D107" s="94" t="s">
+      <c r="C129" s="70"/>
+      <c r="D129" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="E107" s="70"/>
-      <c r="F107" s="70"/>
-      <c r="G107" s="70"/>
-      <c r="H107" s="70"/>
-    </row>
-    <row r="108" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="152"/>
-      <c r="B108" s="4" t="s">
+      <c r="E129" s="70"/>
+      <c r="F129" s="70"/>
+      <c r="G129" s="70"/>
+      <c r="H129" s="70"/>
+    </row>
+    <row r="130" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="152"/>
+      <c r="B130" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C108" s="5"/>
-      <c r="D108" s="4" t="s">
+      <c r="C130" s="5"/>
+      <c r="D130" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="94"/>
-      <c r="C111" s="94"/>
-      <c r="D111" s="139" t="s">
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B133" s="94"/>
+      <c r="C133" s="94"/>
+      <c r="D133" s="139" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A6:G100">
+  <autoFilter ref="A6:G122">
     <filterColumn colId="3" hiddenButton="1" showButton="0"/>
     <filterColumn colId="5" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="8">
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A122:C122"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
@@ -4978,9 +5428,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R134"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5005,13 +5455,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="310" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="481" t="s">
+      <c r="A1" s="489" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="481"/>
-      <c r="C1" s="481"/>
-      <c r="D1" s="481"/>
-      <c r="E1" s="481"/>
+      <c r="B1" s="489"/>
+      <c r="C1" s="489"/>
+      <c r="D1" s="489"/>
+      <c r="E1" s="489"/>
       <c r="H1" s="311"/>
       <c r="I1" s="311"/>
       <c r="J1" s="311"/>
@@ -5039,153 +5489,153 @@
       <c r="O2" s="311"/>
     </row>
     <row r="3" spans="1:17" s="310" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="482" t="s">
+      <c r="A3" s="490" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="482"/>
-      <c r="C3" s="482"/>
-      <c r="D3" s="482"/>
-      <c r="E3" s="482"/>
-      <c r="F3" s="482"/>
-      <c r="G3" s="482"/>
-      <c r="H3" s="482"/>
-      <c r="I3" s="482"/>
-      <c r="J3" s="482"/>
-      <c r="K3" s="482"/>
-      <c r="L3" s="482"/>
-      <c r="M3" s="482"/>
-      <c r="N3" s="482"/>
-      <c r="O3" s="482"/>
-      <c r="P3" s="482"/>
+      <c r="B3" s="490"/>
+      <c r="C3" s="490"/>
+      <c r="D3" s="490"/>
+      <c r="E3" s="490"/>
+      <c r="F3" s="490"/>
+      <c r="G3" s="490"/>
+      <c r="H3" s="490"/>
+      <c r="I3" s="490"/>
+      <c r="J3" s="490"/>
+      <c r="K3" s="490"/>
+      <c r="L3" s="490"/>
+      <c r="M3" s="490"/>
+      <c r="N3" s="490"/>
+      <c r="O3" s="490"/>
+      <c r="P3" s="490"/>
     </row>
     <row r="4" spans="1:17" s="310" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="482" t="s">
+      <c r="A4" s="490" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="482"/>
-      <c r="C4" s="482"/>
-      <c r="D4" s="482"/>
-      <c r="E4" s="482"/>
-      <c r="F4" s="482"/>
-      <c r="G4" s="482"/>
-      <c r="H4" s="482"/>
-      <c r="I4" s="482"/>
-      <c r="J4" s="482"/>
-      <c r="K4" s="482"/>
-      <c r="L4" s="482"/>
-      <c r="M4" s="482"/>
-      <c r="N4" s="482"/>
-      <c r="O4" s="482"/>
-      <c r="P4" s="482"/>
+      <c r="B4" s="490"/>
+      <c r="C4" s="490"/>
+      <c r="D4" s="490"/>
+      <c r="E4" s="490"/>
+      <c r="F4" s="490"/>
+      <c r="G4" s="490"/>
+      <c r="H4" s="490"/>
+      <c r="I4" s="490"/>
+      <c r="J4" s="490"/>
+      <c r="K4" s="490"/>
+      <c r="L4" s="490"/>
+      <c r="M4" s="490"/>
+      <c r="N4" s="490"/>
+      <c r="O4" s="490"/>
+      <c r="P4" s="490"/>
     </row>
     <row r="5" spans="1:17" s="310" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="482"/>
-      <c r="B5" s="482"/>
-      <c r="C5" s="482"/>
-      <c r="D5" s="482"/>
-      <c r="E5" s="482"/>
-      <c r="F5" s="482"/>
-      <c r="G5" s="482"/>
-      <c r="H5" s="482"/>
-      <c r="I5" s="482"/>
-      <c r="J5" s="482"/>
-      <c r="K5" s="483"/>
-      <c r="L5" s="483"/>
+      <c r="A5" s="490"/>
+      <c r="B5" s="490"/>
+      <c r="C5" s="490"/>
+      <c r="D5" s="490"/>
+      <c r="E5" s="490"/>
+      <c r="F5" s="490"/>
+      <c r="G5" s="490"/>
+      <c r="H5" s="490"/>
+      <c r="I5" s="490"/>
+      <c r="J5" s="490"/>
+      <c r="K5" s="491"/>
+      <c r="L5" s="491"/>
       <c r="M5" s="311"/>
       <c r="N5" s="311"/>
       <c r="O5" s="311"/>
     </row>
     <row r="6" spans="1:17" s="318" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="484" t="s">
+      <c r="A6" s="492" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="486" t="s">
+      <c r="B6" s="494" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="484" t="s">
+      <c r="C6" s="492" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="490" t="s">
+      <c r="D6" s="498" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="490"/>
-      <c r="F6" s="491" t="s">
+      <c r="E6" s="498"/>
+      <c r="F6" s="499" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="491"/>
-      <c r="H6" s="491"/>
-      <c r="I6" s="491"/>
-      <c r="J6" s="491"/>
-      <c r="K6" s="491"/>
-      <c r="L6" s="491"/>
-      <c r="M6" s="492"/>
-      <c r="N6" s="492"/>
-      <c r="O6" s="492"/>
-      <c r="P6" s="493" t="s">
+      <c r="G6" s="499"/>
+      <c r="H6" s="499"/>
+      <c r="I6" s="499"/>
+      <c r="J6" s="499"/>
+      <c r="K6" s="499"/>
+      <c r="L6" s="499"/>
+      <c r="M6" s="500"/>
+      <c r="N6" s="500"/>
+      <c r="O6" s="500"/>
+      <c r="P6" s="501" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="318" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="485"/>
-      <c r="B7" s="487"/>
-      <c r="C7" s="485"/>
-      <c r="D7" s="484" t="s">
+      <c r="A7" s="493"/>
+      <c r="B7" s="495"/>
+      <c r="C7" s="493"/>
+      <c r="D7" s="492" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="484" t="s">
+      <c r="E7" s="492" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="484" t="s">
+      <c r="F7" s="492" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="484" t="s">
+      <c r="G7" s="492" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="488" t="s">
+      <c r="H7" s="496" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="488" t="s">
+      <c r="I7" s="496" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="495" t="s">
+      <c r="J7" s="503" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="495"/>
-      <c r="L7" s="488" t="s">
+      <c r="K7" s="503"/>
+      <c r="L7" s="496" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="488" t="s">
+      <c r="M7" s="496" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="488" t="s">
+      <c r="N7" s="496" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="488" t="s">
+      <c r="O7" s="496" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="494"/>
+      <c r="P7" s="502"/>
     </row>
     <row r="8" spans="1:17" s="318" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="485"/>
-      <c r="B8" s="487"/>
-      <c r="C8" s="485"/>
-      <c r="D8" s="485"/>
-      <c r="E8" s="485"/>
-      <c r="F8" s="485"/>
-      <c r="G8" s="485"/>
-      <c r="H8" s="489"/>
-      <c r="I8" s="489"/>
+      <c r="A8" s="493"/>
+      <c r="B8" s="495"/>
+      <c r="C8" s="493"/>
+      <c r="D8" s="493"/>
+      <c r="E8" s="493"/>
+      <c r="F8" s="493"/>
+      <c r="G8" s="493"/>
+      <c r="H8" s="497"/>
+      <c r="I8" s="497"/>
       <c r="J8" s="319" t="s">
         <v>85</v>
       </c>
       <c r="K8" s="320" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="489"/>
-      <c r="M8" s="489"/>
-      <c r="N8" s="489"/>
-      <c r="O8" s="489"/>
-      <c r="P8" s="494"/>
+      <c r="L8" s="497"/>
+      <c r="M8" s="497"/>
+      <c r="N8" s="497"/>
+      <c r="O8" s="497"/>
+      <c r="P8" s="502"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="239">
@@ -5282,17 +5732,17 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="469">
+      <c r="A11" s="473">
         <v>1165</v>
       </c>
-      <c r="B11" s="475">
+      <c r="B11" s="480">
         <v>44013</v>
       </c>
-      <c r="C11" s="469" t="s">
+      <c r="C11" s="473" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="469"/>
-      <c r="E11" s="469" t="s">
+      <c r="D11" s="473"/>
+      <c r="E11" s="473" t="s">
         <v>167</v>
       </c>
       <c r="F11" s="365" t="s">
@@ -5322,16 +5772,16 @@
       </c>
       <c r="N11" s="366"/>
       <c r="O11" s="366"/>
-      <c r="P11" s="469" t="s">
+      <c r="P11" s="473" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="471"/>
-      <c r="B12" s="477"/>
-      <c r="C12" s="471"/>
-      <c r="D12" s="471"/>
-      <c r="E12" s="471"/>
+      <c r="A12" s="470"/>
+      <c r="B12" s="482"/>
+      <c r="C12" s="470"/>
+      <c r="D12" s="470"/>
+      <c r="E12" s="470"/>
       <c r="F12" s="372" t="s">
         <v>158</v>
       </c>
@@ -5359,23 +5809,23 @@
       </c>
       <c r="N12" s="373"/>
       <c r="O12" s="373"/>
-      <c r="P12" s="471"/>
+      <c r="P12" s="470"/>
       <c r="Q12" s="324"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="469">
+      <c r="A13" s="473">
         <v>1180</v>
       </c>
-      <c r="B13" s="475">
-        <v>25628</v>
-      </c>
-      <c r="C13" s="469" t="s">
+      <c r="B13" s="480">
+        <v>44015</v>
+      </c>
+      <c r="C13" s="473" t="s">
         <v>159</v>
       </c>
-      <c r="D13" s="469" t="s">
+      <c r="D13" s="473" t="s">
         <v>160</v>
       </c>
-      <c r="E13" s="469"/>
+      <c r="E13" s="473"/>
       <c r="F13" s="365" t="s">
         <v>161</v>
       </c>
@@ -5406,11 +5856,11 @@
       <c r="P13" s="223"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="471"/>
-      <c r="B14" s="477"/>
-      <c r="C14" s="471"/>
-      <c r="D14" s="471"/>
-      <c r="E14" s="471"/>
+      <c r="A14" s="470"/>
+      <c r="B14" s="482"/>
+      <c r="C14" s="470"/>
+      <c r="D14" s="470"/>
+      <c r="E14" s="470"/>
       <c r="F14" s="372" t="s">
         <v>158</v>
       </c>
@@ -5531,17 +5981,17 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="469">
+      <c r="A17" s="473">
         <v>1177</v>
       </c>
-      <c r="B17" s="475">
+      <c r="B17" s="480">
         <v>44018</v>
       </c>
-      <c r="C17" s="469"/>
-      <c r="D17" s="472" t="s">
+      <c r="C17" s="473"/>
+      <c r="D17" s="483" t="s">
         <v>164</v>
       </c>
-      <c r="E17" s="472" t="s">
+      <c r="E17" s="483" t="s">
         <v>165</v>
       </c>
       <c r="F17" s="365" t="s">
@@ -5565,20 +6015,20 @@
         <f t="shared" si="2"/>
         <v>536900.00000000012</v>
       </c>
-      <c r="M17" s="366"/>
-      <c r="N17" s="366"/>
-      <c r="O17" s="366">
+      <c r="M17" s="366">
         <f>L17</f>
         <v>536900.00000000012</v>
       </c>
+      <c r="N17" s="366"/>
+      <c r="O17" s="366"/>
       <c r="P17" s="379"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="471"/>
-      <c r="B18" s="477"/>
-      <c r="C18" s="471"/>
-      <c r="D18" s="474"/>
-      <c r="E18" s="474"/>
+      <c r="A18" s="470"/>
+      <c r="B18" s="482"/>
+      <c r="C18" s="470"/>
+      <c r="D18" s="485"/>
+      <c r="E18" s="485"/>
       <c r="F18" s="372" t="s">
         <v>166</v>
       </c>
@@ -5600,12 +6050,12 @@
         <f t="shared" si="2"/>
         <v>268450.00000000006</v>
       </c>
-      <c r="M18" s="373"/>
-      <c r="N18" s="373"/>
-      <c r="O18" s="373">
+      <c r="M18" s="373">
         <f>L18</f>
         <v>268450.00000000006</v>
       </c>
+      <c r="N18" s="373"/>
+      <c r="O18" s="373"/>
       <c r="P18" s="381"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -5652,19 +6102,19 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="469">
+      <c r="A20" s="473">
         <v>1183</v>
       </c>
-      <c r="B20" s="475">
+      <c r="B20" s="480">
         <v>44019</v>
       </c>
-      <c r="C20" s="469" t="s">
+      <c r="C20" s="473" t="s">
         <v>164</v>
       </c>
-      <c r="D20" s="472" t="s">
+      <c r="D20" s="483" t="s">
         <v>164</v>
       </c>
-      <c r="E20" s="472" t="s">
+      <c r="E20" s="483" t="s">
         <v>167</v>
       </c>
       <c r="F20" s="365" t="s">
@@ -5697,11 +6147,11 @@
       <c r="P20" s="379"/>
     </row>
     <row r="21" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="470"/>
-      <c r="B21" s="476"/>
-      <c r="C21" s="470"/>
-      <c r="D21" s="473"/>
-      <c r="E21" s="473"/>
+      <c r="A21" s="469"/>
+      <c r="B21" s="481"/>
+      <c r="C21" s="469"/>
+      <c r="D21" s="484"/>
+      <c r="E21" s="484"/>
       <c r="F21" s="369" t="s">
         <v>154</v>
       </c>
@@ -5732,11 +6182,11 @@
       <c r="P21" s="378"/>
     </row>
     <row r="22" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="471"/>
-      <c r="B22" s="477"/>
-      <c r="C22" s="471"/>
-      <c r="D22" s="474"/>
-      <c r="E22" s="474"/>
+      <c r="A22" s="470"/>
+      <c r="B22" s="482"/>
+      <c r="C22" s="470"/>
+      <c r="D22" s="485"/>
+      <c r="E22" s="485"/>
       <c r="F22" s="372" t="s">
         <v>162</v>
       </c>
@@ -5768,17 +6218,17 @@
       <c r="R22" s="324"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="496">
+      <c r="A23" s="477">
         <v>493</v>
       </c>
-      <c r="B23" s="499">
+      <c r="B23" s="486">
         <v>44020</v>
       </c>
-      <c r="C23" s="496"/>
-      <c r="D23" s="496" t="s">
+      <c r="C23" s="477"/>
+      <c r="D23" s="477" t="s">
         <v>171</v>
       </c>
-      <c r="E23" s="496" t="s">
+      <c r="E23" s="477" t="s">
         <v>172</v>
       </c>
       <c r="F23" s="407" t="s">
@@ -5811,11 +6261,11 @@
       <c r="P23" s="407"/>
     </row>
     <row r="24" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="497"/>
-      <c r="B24" s="500"/>
-      <c r="C24" s="497"/>
-      <c r="D24" s="497"/>
-      <c r="E24" s="497"/>
+      <c r="A24" s="471"/>
+      <c r="B24" s="487"/>
+      <c r="C24" s="471"/>
+      <c r="D24" s="471"/>
+      <c r="E24" s="471"/>
       <c r="F24" s="369" t="s">
         <v>158</v>
       </c>
@@ -5846,11 +6296,11 @@
       <c r="P24" s="369"/>
     </row>
     <row r="25" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="497"/>
-      <c r="B25" s="500"/>
-      <c r="C25" s="497"/>
-      <c r="D25" s="497"/>
-      <c r="E25" s="497"/>
+      <c r="A25" s="471"/>
+      <c r="B25" s="487"/>
+      <c r="C25" s="471"/>
+      <c r="D25" s="471"/>
+      <c r="E25" s="471"/>
       <c r="F25" s="369" t="s">
         <v>168</v>
       </c>
@@ -5881,11 +6331,11 @@
       <c r="P25" s="369"/>
     </row>
     <row r="26" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="497"/>
-      <c r="B26" s="500"/>
-      <c r="C26" s="497"/>
-      <c r="D26" s="497"/>
-      <c r="E26" s="497"/>
+      <c r="A26" s="471"/>
+      <c r="B26" s="487"/>
+      <c r="C26" s="471"/>
+      <c r="D26" s="471"/>
+      <c r="E26" s="471"/>
       <c r="F26" s="369" t="s">
         <v>154</v>
       </c>
@@ -5916,11 +6366,11 @@
       <c r="P26" s="369"/>
     </row>
     <row r="27" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="497"/>
-      <c r="B27" s="500"/>
-      <c r="C27" s="497"/>
-      <c r="D27" s="497"/>
-      <c r="E27" s="497"/>
+      <c r="A27" s="471"/>
+      <c r="B27" s="487"/>
+      <c r="C27" s="471"/>
+      <c r="D27" s="471"/>
+      <c r="E27" s="471"/>
       <c r="F27" s="369" t="s">
         <v>170</v>
       </c>
@@ -5951,11 +6401,11 @@
       <c r="P27" s="369"/>
     </row>
     <row r="28" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="497"/>
-      <c r="B28" s="500"/>
-      <c r="C28" s="497"/>
-      <c r="D28" s="497"/>
-      <c r="E28" s="497"/>
+      <c r="A28" s="471"/>
+      <c r="B28" s="487"/>
+      <c r="C28" s="471"/>
+      <c r="D28" s="471"/>
+      <c r="E28" s="471"/>
       <c r="F28" s="369" t="s">
         <v>162</v>
       </c>
@@ -5986,11 +6436,11 @@
       <c r="P28" s="378"/>
     </row>
     <row r="29" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="498"/>
-      <c r="B29" s="501"/>
-      <c r="C29" s="498"/>
-      <c r="D29" s="498"/>
-      <c r="E29" s="498"/>
+      <c r="A29" s="479"/>
+      <c r="B29" s="488"/>
+      <c r="C29" s="479"/>
+      <c r="D29" s="479"/>
+      <c r="E29" s="479"/>
       <c r="F29" s="372" t="s">
         <v>166</v>
       </c>
@@ -6109,17 +6559,17 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="469">
+      <c r="A32" s="473">
         <v>1186</v>
       </c>
-      <c r="B32" s="475">
+      <c r="B32" s="480">
         <v>44020</v>
       </c>
-      <c r="C32" s="469"/>
-      <c r="D32" s="472" t="s">
+      <c r="C32" s="473"/>
+      <c r="D32" s="483" t="s">
         <v>177</v>
       </c>
-      <c r="E32" s="469" t="s">
+      <c r="E32" s="473" t="s">
         <v>178</v>
       </c>
       <c r="F32" s="365" t="s">
@@ -6145,22 +6595,22 @@
         <f>I32*(1-K32)-J32</f>
         <v>7726200</v>
       </c>
-      <c r="M32" s="366"/>
+      <c r="M32" s="366">
+        <f>L32</f>
+        <v>7726200</v>
+      </c>
       <c r="N32" s="366"/>
-      <c r="O32" s="366">
-        <f>L32-J32</f>
-        <v>7426200</v>
-      </c>
-      <c r="P32" s="472" t="s">
+      <c r="O32" s="366"/>
+      <c r="P32" s="483" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="470"/>
-      <c r="B33" s="476"/>
-      <c r="C33" s="470"/>
-      <c r="D33" s="473"/>
-      <c r="E33" s="470"/>
+      <c r="A33" s="469"/>
+      <c r="B33" s="481"/>
+      <c r="C33" s="469"/>
+      <c r="D33" s="484"/>
+      <c r="E33" s="469"/>
       <c r="F33" s="369" t="s">
         <v>158</v>
       </c>
@@ -6182,20 +6632,20 @@
         <f t="shared" si="2"/>
         <v>5468400</v>
       </c>
-      <c r="M33" s="370"/>
-      <c r="N33" s="370"/>
-      <c r="O33" s="370">
+      <c r="M33" s="370">
         <f>L33</f>
         <v>5468400</v>
       </c>
-      <c r="P33" s="473"/>
+      <c r="N33" s="370"/>
+      <c r="O33" s="370"/>
+      <c r="P33" s="484"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="471"/>
-      <c r="B34" s="477"/>
-      <c r="C34" s="471"/>
-      <c r="D34" s="474"/>
-      <c r="E34" s="471"/>
+      <c r="A34" s="470"/>
+      <c r="B34" s="482"/>
+      <c r="C34" s="470"/>
+      <c r="D34" s="485"/>
+      <c r="E34" s="470"/>
       <c r="F34" s="372" t="s">
         <v>154</v>
       </c>
@@ -6217,26 +6667,26 @@
         <f t="shared" si="2"/>
         <v>2851800</v>
       </c>
-      <c r="M34" s="373"/>
-      <c r="N34" s="373"/>
-      <c r="O34" s="373">
+      <c r="M34" s="373">
         <f>L34</f>
         <v>2851800</v>
       </c>
-      <c r="P34" s="474"/>
+      <c r="N34" s="373"/>
+      <c r="O34" s="373"/>
+      <c r="P34" s="485"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="469">
+      <c r="A35" s="473">
         <v>1191</v>
       </c>
-      <c r="B35" s="475">
+      <c r="B35" s="480">
         <v>44021</v>
       </c>
-      <c r="C35" s="469"/>
-      <c r="D35" s="472" t="s">
+      <c r="C35" s="473"/>
+      <c r="D35" s="483" t="s">
         <v>180</v>
       </c>
-      <c r="E35" s="469" t="s">
+      <c r="E35" s="473" t="s">
         <v>181</v>
       </c>
       <c r="F35" s="365" t="s">
@@ -6269,11 +6719,11 @@
       <c r="P35" s="365"/>
     </row>
     <row r="36" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="470"/>
-      <c r="B36" s="476"/>
-      <c r="C36" s="470"/>
-      <c r="D36" s="473"/>
-      <c r="E36" s="470"/>
+      <c r="A36" s="469"/>
+      <c r="B36" s="481"/>
+      <c r="C36" s="469"/>
+      <c r="D36" s="484"/>
+      <c r="E36" s="469"/>
       <c r="F36" s="369" t="s">
         <v>173</v>
       </c>
@@ -6304,11 +6754,11 @@
       <c r="P36" s="369"/>
     </row>
     <row r="37" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="470"/>
-      <c r="B37" s="476"/>
-      <c r="C37" s="470"/>
-      <c r="D37" s="473"/>
-      <c r="E37" s="470"/>
+      <c r="A37" s="469"/>
+      <c r="B37" s="481"/>
+      <c r="C37" s="469"/>
+      <c r="D37" s="484"/>
+      <c r="E37" s="469"/>
       <c r="F37" s="369" t="s">
         <v>174</v>
       </c>
@@ -6339,11 +6789,11 @@
       <c r="P37" s="369"/>
     </row>
     <row r="38" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="470"/>
-      <c r="B38" s="476"/>
-      <c r="C38" s="470"/>
-      <c r="D38" s="473"/>
-      <c r="E38" s="470"/>
+      <c r="A38" s="469"/>
+      <c r="B38" s="481"/>
+      <c r="C38" s="469"/>
+      <c r="D38" s="484"/>
+      <c r="E38" s="469"/>
       <c r="F38" s="369" t="s">
         <v>175</v>
       </c>
@@ -6374,11 +6824,11 @@
       <c r="P38" s="369"/>
     </row>
     <row r="39" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="471"/>
-      <c r="B39" s="477"/>
-      <c r="C39" s="471"/>
-      <c r="D39" s="474"/>
-      <c r="E39" s="471"/>
+      <c r="A39" s="470"/>
+      <c r="B39" s="482"/>
+      <c r="C39" s="470"/>
+      <c r="D39" s="485"/>
+      <c r="E39" s="470"/>
       <c r="F39" s="372" t="s">
         <v>182</v>
       </c>
@@ -6546,19 +6996,19 @@
       <c r="P42" s="239"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="469">
+      <c r="A43" s="473">
         <v>495</v>
       </c>
-      <c r="B43" s="475">
+      <c r="B43" s="480">
         <v>44023</v>
       </c>
-      <c r="C43" s="469" t="s">
+      <c r="C43" s="473" t="s">
         <v>159</v>
       </c>
-      <c r="D43" s="472" t="s">
+      <c r="D43" s="483" t="s">
         <v>190</v>
       </c>
-      <c r="E43" s="469" t="s">
+      <c r="E43" s="473" t="s">
         <v>172</v>
       </c>
       <c r="F43" s="397" t="s">
@@ -6591,11 +7041,11 @@
       <c r="P43" s="397"/>
     </row>
     <row r="44" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="470"/>
-      <c r="B44" s="476"/>
-      <c r="C44" s="470"/>
-      <c r="D44" s="473"/>
-      <c r="E44" s="470"/>
+      <c r="A44" s="469"/>
+      <c r="B44" s="481"/>
+      <c r="C44" s="469"/>
+      <c r="D44" s="484"/>
+      <c r="E44" s="469"/>
       <c r="F44" s="412" t="s">
         <v>158</v>
       </c>
@@ -6626,11 +7076,11 @@
       <c r="P44" s="412"/>
     </row>
     <row r="45" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="470"/>
-      <c r="B45" s="476"/>
-      <c r="C45" s="470"/>
-      <c r="D45" s="473"/>
-      <c r="E45" s="470"/>
+      <c r="A45" s="469"/>
+      <c r="B45" s="481"/>
+      <c r="C45" s="469"/>
+      <c r="D45" s="484"/>
+      <c r="E45" s="469"/>
       <c r="F45" s="412" t="s">
         <v>168</v>
       </c>
@@ -6661,11 +7111,11 @@
       <c r="P45" s="412"/>
     </row>
     <row r="46" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="470"/>
-      <c r="B46" s="476"/>
-      <c r="C46" s="470"/>
-      <c r="D46" s="473"/>
-      <c r="E46" s="470"/>
+      <c r="A46" s="469"/>
+      <c r="B46" s="481"/>
+      <c r="C46" s="469"/>
+      <c r="D46" s="484"/>
+      <c r="E46" s="469"/>
       <c r="F46" s="412" t="s">
         <v>154</v>
       </c>
@@ -6696,11 +7146,11 @@
       <c r="P46" s="412"/>
     </row>
     <row r="47" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="470"/>
-      <c r="B47" s="476"/>
-      <c r="C47" s="470"/>
-      <c r="D47" s="473"/>
-      <c r="E47" s="470"/>
+      <c r="A47" s="469"/>
+      <c r="B47" s="481"/>
+      <c r="C47" s="469"/>
+      <c r="D47" s="484"/>
+      <c r="E47" s="469"/>
       <c r="F47" s="412" t="s">
         <v>170</v>
       </c>
@@ -6732,11 +7182,11 @@
       <c r="Q47" s="324"/>
     </row>
     <row r="48" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="470"/>
-      <c r="B48" s="476"/>
-      <c r="C48" s="470"/>
-      <c r="D48" s="473"/>
-      <c r="E48" s="470"/>
+      <c r="A48" s="469"/>
+      <c r="B48" s="481"/>
+      <c r="C48" s="469"/>
+      <c r="D48" s="484"/>
+      <c r="E48" s="469"/>
       <c r="F48" s="412" t="s">
         <v>162</v>
       </c>
@@ -6768,11 +7218,11 @@
       <c r="Q48" s="324"/>
     </row>
     <row r="49" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="471"/>
-      <c r="B49" s="477"/>
-      <c r="C49" s="471"/>
-      <c r="D49" s="474"/>
-      <c r="E49" s="471"/>
+      <c r="A49" s="470"/>
+      <c r="B49" s="482"/>
+      <c r="C49" s="470"/>
+      <c r="D49" s="485"/>
+      <c r="E49" s="470"/>
       <c r="F49" s="398" t="s">
         <v>166</v>
       </c>
@@ -6898,17 +7348,17 @@
       <c r="Q51" s="324"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="469">
+      <c r="A52" s="473">
         <v>1199</v>
       </c>
-      <c r="B52" s="475">
+      <c r="B52" s="480">
         <v>44026</v>
       </c>
-      <c r="C52" s="469"/>
-      <c r="D52" s="472" t="s">
+      <c r="C52" s="473"/>
+      <c r="D52" s="483" t="s">
         <v>195</v>
       </c>
-      <c r="E52" s="469" t="s">
+      <c r="E52" s="473" t="s">
         <v>196</v>
       </c>
       <c r="F52" s="416" t="s">
@@ -6942,11 +7392,11 @@
       <c r="Q52" s="324"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="471"/>
-      <c r="B53" s="477"/>
-      <c r="C53" s="471"/>
-      <c r="D53" s="474"/>
-      <c r="E53" s="471"/>
+      <c r="A53" s="470"/>
+      <c r="B53" s="482"/>
+      <c r="C53" s="470"/>
+      <c r="D53" s="485"/>
+      <c r="E53" s="470"/>
       <c r="F53" s="418" t="s">
         <v>166</v>
       </c>
@@ -6978,19 +7428,19 @@
       <c r="Q53" s="324"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="469">
+      <c r="A54" s="473">
         <v>1200</v>
       </c>
-      <c r="B54" s="475">
+      <c r="B54" s="480">
         <v>44026</v>
       </c>
-      <c r="C54" s="469" t="s">
+      <c r="C54" s="473" t="s">
         <v>159</v>
       </c>
-      <c r="D54" s="472" t="s">
+      <c r="D54" s="483" t="s">
         <v>198</v>
       </c>
-      <c r="E54" s="469"/>
+      <c r="E54" s="473"/>
       <c r="F54" s="416" t="s">
         <v>161</v>
       </c>
@@ -7019,11 +7469,11 @@
       <c r="Q54" s="324"/>
     </row>
     <row r="55" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="470"/>
-      <c r="B55" s="476"/>
-      <c r="C55" s="470"/>
-      <c r="D55" s="473"/>
-      <c r="E55" s="470"/>
+      <c r="A55" s="469"/>
+      <c r="B55" s="481"/>
+      <c r="C55" s="469"/>
+      <c r="D55" s="484"/>
+      <c r="E55" s="469"/>
       <c r="F55" s="417" t="s">
         <v>158</v>
       </c>
@@ -7052,11 +7502,11 @@
       <c r="Q55" s="324"/>
     </row>
     <row r="56" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="470"/>
-      <c r="B56" s="476"/>
-      <c r="C56" s="470"/>
-      <c r="D56" s="473"/>
-      <c r="E56" s="470"/>
+      <c r="A56" s="469"/>
+      <c r="B56" s="481"/>
+      <c r="C56" s="469"/>
+      <c r="D56" s="484"/>
+      <c r="E56" s="469"/>
       <c r="F56" s="417" t="s">
         <v>168</v>
       </c>
@@ -7085,11 +7535,11 @@
       <c r="Q56" s="324"/>
     </row>
     <row r="57" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="470"/>
-      <c r="B57" s="476"/>
-      <c r="C57" s="470"/>
-      <c r="D57" s="473"/>
-      <c r="E57" s="470"/>
+      <c r="A57" s="469"/>
+      <c r="B57" s="481"/>
+      <c r="C57" s="469"/>
+      <c r="D57" s="484"/>
+      <c r="E57" s="469"/>
       <c r="F57" s="417" t="s">
         <v>154</v>
       </c>
@@ -7118,11 +7568,11 @@
       <c r="Q57" s="324"/>
     </row>
     <row r="58" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="470"/>
-      <c r="B58" s="476"/>
-      <c r="C58" s="470"/>
-      <c r="D58" s="473"/>
-      <c r="E58" s="470"/>
+      <c r="A58" s="469"/>
+      <c r="B58" s="481"/>
+      <c r="C58" s="469"/>
+      <c r="D58" s="484"/>
+      <c r="E58" s="469"/>
       <c r="F58" s="417" t="s">
         <v>170</v>
       </c>
@@ -7151,11 +7601,11 @@
       <c r="Q58" s="324"/>
     </row>
     <row r="59" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="470"/>
-      <c r="B59" s="476"/>
-      <c r="C59" s="470"/>
-      <c r="D59" s="473"/>
-      <c r="E59" s="470"/>
+      <c r="A59" s="469"/>
+      <c r="B59" s="481"/>
+      <c r="C59" s="469"/>
+      <c r="D59" s="484"/>
+      <c r="E59" s="469"/>
       <c r="F59" s="417" t="s">
         <v>162</v>
       </c>
@@ -7184,11 +7634,11 @@
       <c r="Q59" s="324"/>
     </row>
     <row r="60" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="471"/>
-      <c r="B60" s="477"/>
-      <c r="C60" s="471"/>
-      <c r="D60" s="474"/>
-      <c r="E60" s="471"/>
+      <c r="A60" s="470"/>
+      <c r="B60" s="482"/>
+      <c r="C60" s="470"/>
+      <c r="D60" s="485"/>
+      <c r="E60" s="470"/>
       <c r="F60" s="418" t="s">
         <v>166</v>
       </c>
@@ -7217,17 +7667,17 @@
       <c r="Q60" s="324"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="469">
+      <c r="A61" s="473">
         <v>603</v>
       </c>
-      <c r="B61" s="475">
+      <c r="B61" s="480">
         <v>44027</v>
       </c>
-      <c r="C61" s="469"/>
-      <c r="D61" s="472" t="s">
+      <c r="C61" s="473"/>
+      <c r="D61" s="483" t="s">
         <v>199</v>
       </c>
-      <c r="E61" s="469" t="s">
+      <c r="E61" s="473" t="s">
         <v>200</v>
       </c>
       <c r="F61" s="416" t="s">
@@ -7261,11 +7711,11 @@
       <c r="Q61" s="324"/>
     </row>
     <row r="62" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="470"/>
-      <c r="B62" s="476"/>
-      <c r="C62" s="470"/>
-      <c r="D62" s="473"/>
-      <c r="E62" s="470"/>
+      <c r="A62" s="469"/>
+      <c r="B62" s="481"/>
+      <c r="C62" s="469"/>
+      <c r="D62" s="484"/>
+      <c r="E62" s="469"/>
       <c r="F62" s="417" t="s">
         <v>158</v>
       </c>
@@ -7297,11 +7747,11 @@
       <c r="Q62" s="324"/>
     </row>
     <row r="63" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="470"/>
-      <c r="B63" s="476"/>
-      <c r="C63" s="470"/>
-      <c r="D63" s="473"/>
-      <c r="E63" s="470"/>
+      <c r="A63" s="469"/>
+      <c r="B63" s="481"/>
+      <c r="C63" s="469"/>
+      <c r="D63" s="484"/>
+      <c r="E63" s="469"/>
       <c r="F63" s="417" t="s">
         <v>168</v>
       </c>
@@ -7334,11 +7784,11 @@
       <c r="Q63" s="324"/>
     </row>
     <row r="64" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="470"/>
-      <c r="B64" s="476"/>
-      <c r="C64" s="470"/>
-      <c r="D64" s="473"/>
-      <c r="E64" s="470"/>
+      <c r="A64" s="469"/>
+      <c r="B64" s="481"/>
+      <c r="C64" s="469"/>
+      <c r="D64" s="484"/>
+      <c r="E64" s="469"/>
       <c r="F64" s="417" t="s">
         <v>154</v>
       </c>
@@ -7368,11 +7818,11 @@
       <c r="Q64" s="324"/>
     </row>
     <row r="65" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="470"/>
-      <c r="B65" s="476"/>
-      <c r="C65" s="470"/>
-      <c r="D65" s="473"/>
-      <c r="E65" s="470"/>
+      <c r="A65" s="469"/>
+      <c r="B65" s="481"/>
+      <c r="C65" s="469"/>
+      <c r="D65" s="484"/>
+      <c r="E65" s="469"/>
       <c r="F65" s="417" t="s">
         <v>170</v>
       </c>
@@ -7401,11 +7851,11 @@
       <c r="P65" s="231"/>
     </row>
     <row r="66" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="470"/>
-      <c r="B66" s="476"/>
-      <c r="C66" s="470"/>
-      <c r="D66" s="473"/>
-      <c r="E66" s="470"/>
+      <c r="A66" s="469"/>
+      <c r="B66" s="481"/>
+      <c r="C66" s="469"/>
+      <c r="D66" s="484"/>
+      <c r="E66" s="469"/>
       <c r="F66" s="417" t="s">
         <v>193</v>
       </c>
@@ -7434,11 +7884,11 @@
       <c r="P66" s="231"/>
     </row>
     <row r="67" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="470"/>
-      <c r="B67" s="476"/>
-      <c r="C67" s="470"/>
-      <c r="D67" s="473"/>
-      <c r="E67" s="470"/>
+      <c r="A67" s="469"/>
+      <c r="B67" s="481"/>
+      <c r="C67" s="469"/>
+      <c r="D67" s="484"/>
+      <c r="E67" s="469"/>
       <c r="F67" s="417" t="s">
         <v>162</v>
       </c>
@@ -7467,11 +7917,11 @@
       <c r="P67" s="231"/>
     </row>
     <row r="68" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="471"/>
-      <c r="B68" s="477"/>
-      <c r="C68" s="471"/>
-      <c r="D68" s="474"/>
-      <c r="E68" s="471"/>
+      <c r="A68" s="470"/>
+      <c r="B68" s="482"/>
+      <c r="C68" s="470"/>
+      <c r="D68" s="485"/>
+      <c r="E68" s="470"/>
       <c r="F68" s="418" t="s">
         <v>166</v>
       </c>
@@ -7588,19 +8038,19 @@
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="469">
+      <c r="A71" s="473">
         <v>498</v>
       </c>
-      <c r="B71" s="478">
+      <c r="B71" s="474">
         <v>44029</v>
       </c>
-      <c r="C71" s="469" t="s">
+      <c r="C71" s="473" t="s">
         <v>159</v>
       </c>
-      <c r="D71" s="469" t="s">
+      <c r="D71" s="473" t="s">
         <v>201</v>
       </c>
-      <c r="E71" s="469" t="s">
+      <c r="E71" s="473" t="s">
         <v>202</v>
       </c>
       <c r="F71" s="416" t="s">
@@ -7630,11 +8080,11 @@
       <c r="P71" s="226"/>
     </row>
     <row r="72" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="471"/>
-      <c r="B72" s="479"/>
-      <c r="C72" s="471"/>
-      <c r="D72" s="471"/>
-      <c r="E72" s="471"/>
+      <c r="A72" s="470"/>
+      <c r="B72" s="475"/>
+      <c r="C72" s="470"/>
+      <c r="D72" s="470"/>
+      <c r="E72" s="470"/>
       <c r="F72" s="418" t="s">
         <v>158</v>
       </c>
@@ -7662,17 +8112,17 @@
       <c r="P72" s="235"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="469">
+      <c r="A73" s="473">
         <v>499</v>
       </c>
-      <c r="B73" s="478">
+      <c r="B73" s="474">
         <v>44029</v>
       </c>
-      <c r="C73" s="469"/>
-      <c r="D73" s="469" t="s">
+      <c r="C73" s="473"/>
+      <c r="D73" s="473" t="s">
         <v>203</v>
       </c>
-      <c r="E73" s="469"/>
+      <c r="E73" s="473"/>
       <c r="F73" s="416" t="s">
         <v>161</v>
       </c>
@@ -7700,11 +8150,11 @@
       <c r="P73" s="226"/>
     </row>
     <row r="74" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="470"/>
-      <c r="B74" s="480"/>
-      <c r="C74" s="470"/>
-      <c r="D74" s="470"/>
-      <c r="E74" s="470"/>
+      <c r="A74" s="469"/>
+      <c r="B74" s="476"/>
+      <c r="C74" s="469"/>
+      <c r="D74" s="469"/>
+      <c r="E74" s="469"/>
       <c r="F74" s="417" t="s">
         <v>168</v>
       </c>
@@ -7732,11 +8182,11 @@
       <c r="P74" s="417"/>
     </row>
     <row r="75" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="471"/>
-      <c r="B75" s="479"/>
-      <c r="C75" s="471"/>
-      <c r="D75" s="471"/>
-      <c r="E75" s="471"/>
+      <c r="A75" s="470"/>
+      <c r="B75" s="475"/>
+      <c r="C75" s="470"/>
+      <c r="D75" s="470"/>
+      <c r="E75" s="470"/>
       <c r="F75" s="418" t="s">
         <v>154</v>
       </c>
@@ -7764,19 +8214,19 @@
       <c r="P75" s="418"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="469">
+      <c r="A76" s="473">
         <v>607</v>
       </c>
-      <c r="B76" s="478">
+      <c r="B76" s="474">
         <v>44029</v>
       </c>
-      <c r="C76" s="469" t="s">
+      <c r="C76" s="473" t="s">
         <v>152</v>
       </c>
-      <c r="D76" s="469" t="s">
+      <c r="D76" s="473" t="s">
         <v>153</v>
       </c>
-      <c r="E76" s="469" t="s">
+      <c r="E76" s="473" t="s">
         <v>178</v>
       </c>
       <c r="F76" s="416" t="s">
@@ -7806,16 +8256,16 @@
       </c>
       <c r="N76" s="366"/>
       <c r="O76" s="366"/>
-      <c r="P76" s="469" t="s">
+      <c r="P76" s="473" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="470"/>
-      <c r="B77" s="480"/>
-      <c r="C77" s="470"/>
-      <c r="D77" s="470"/>
-      <c r="E77" s="470"/>
+      <c r="A77" s="469"/>
+      <c r="B77" s="476"/>
+      <c r="C77" s="469"/>
+      <c r="D77" s="469"/>
+      <c r="E77" s="469"/>
       <c r="F77" s="417" t="s">
         <v>154</v>
       </c>
@@ -7843,14 +8293,14 @@
       </c>
       <c r="N77" s="370"/>
       <c r="O77" s="370"/>
-      <c r="P77" s="470"/>
+      <c r="P77" s="469"/>
     </row>
     <row r="78" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="471"/>
-      <c r="B78" s="479"/>
-      <c r="C78" s="471"/>
-      <c r="D78" s="471"/>
-      <c r="E78" s="471"/>
+      <c r="A78" s="470"/>
+      <c r="B78" s="475"/>
+      <c r="C78" s="470"/>
+      <c r="D78" s="470"/>
+      <c r="E78" s="470"/>
       <c r="F78" s="418" t="s">
         <v>166</v>
       </c>
@@ -7878,7 +8328,7 @@
       </c>
       <c r="N78" s="373"/>
       <c r="O78" s="373"/>
-      <c r="P78" s="471"/>
+      <c r="P78" s="470"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="419">
@@ -7924,17 +8374,17 @@
       <c r="P79" s="419"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="469">
+      <c r="A80" s="473">
         <v>611</v>
       </c>
-      <c r="B80" s="478">
+      <c r="B80" s="474">
         <v>44032</v>
       </c>
-      <c r="C80" s="469"/>
-      <c r="D80" s="469" t="s">
+      <c r="C80" s="473"/>
+      <c r="D80" s="473" t="s">
         <v>205</v>
       </c>
-      <c r="E80" s="469" t="s">
+      <c r="E80" s="473" t="s">
         <v>206</v>
       </c>
       <c r="F80" s="416" t="s">
@@ -7964,16 +8414,16 @@
         <f>L80</f>
         <v>68250000</v>
       </c>
-      <c r="P80" s="496" t="s">
+      <c r="P80" s="477" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="470"/>
-      <c r="B81" s="480"/>
-      <c r="C81" s="470"/>
-      <c r="D81" s="470"/>
-      <c r="E81" s="470"/>
+      <c r="A81" s="469"/>
+      <c r="B81" s="476"/>
+      <c r="C81" s="469"/>
+      <c r="D81" s="469"/>
+      <c r="E81" s="469"/>
       <c r="F81" s="417" t="s">
         <v>158</v>
       </c>
@@ -8001,14 +8451,14 @@
         <f t="shared" ref="O81:O87" si="9">L81</f>
         <v>41850000</v>
       </c>
-      <c r="P81" s="497"/>
+      <c r="P81" s="471"/>
     </row>
     <row r="82" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="470"/>
-      <c r="B82" s="480"/>
-      <c r="C82" s="470"/>
-      <c r="D82" s="470"/>
-      <c r="E82" s="470"/>
+      <c r="A82" s="469"/>
+      <c r="B82" s="476"/>
+      <c r="C82" s="469"/>
+      <c r="D82" s="469"/>
+      <c r="E82" s="469"/>
       <c r="F82" s="417" t="s">
         <v>168</v>
       </c>
@@ -8036,14 +8486,14 @@
         <f t="shared" si="9"/>
         <v>28500000</v>
       </c>
-      <c r="P82" s="497"/>
+      <c r="P82" s="471"/>
     </row>
     <row r="83" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="470"/>
-      <c r="B83" s="480"/>
-      <c r="C83" s="470"/>
-      <c r="D83" s="470"/>
-      <c r="E83" s="470"/>
+      <c r="A83" s="469"/>
+      <c r="B83" s="476"/>
+      <c r="C83" s="469"/>
+      <c r="D83" s="469"/>
+      <c r="E83" s="469"/>
       <c r="F83" s="417" t="s">
         <v>154</v>
       </c>
@@ -8071,14 +8521,14 @@
         <f t="shared" si="9"/>
         <v>58200000</v>
       </c>
-      <c r="P83" s="497"/>
+      <c r="P83" s="471"/>
     </row>
     <row r="84" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="470"/>
-      <c r="B84" s="480"/>
-      <c r="C84" s="470"/>
-      <c r="D84" s="470"/>
-      <c r="E84" s="470"/>
+      <c r="A84" s="469"/>
+      <c r="B84" s="476"/>
+      <c r="C84" s="469"/>
+      <c r="D84" s="469"/>
+      <c r="E84" s="469"/>
       <c r="F84" s="417" t="s">
         <v>170</v>
       </c>
@@ -8106,14 +8556,14 @@
         <f t="shared" si="9"/>
         <v>14550000</v>
       </c>
-      <c r="P84" s="497"/>
+      <c r="P84" s="471"/>
     </row>
     <row r="85" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="470"/>
-      <c r="B85" s="480"/>
-      <c r="C85" s="470"/>
-      <c r="D85" s="470"/>
-      <c r="E85" s="470"/>
+      <c r="A85" s="469"/>
+      <c r="B85" s="476"/>
+      <c r="C85" s="469"/>
+      <c r="D85" s="469"/>
+      <c r="E85" s="469"/>
       <c r="F85" s="417" t="s">
         <v>193</v>
       </c>
@@ -8141,14 +8591,14 @@
         <f t="shared" si="9"/>
         <v>66000000</v>
       </c>
-      <c r="P85" s="497"/>
+      <c r="P85" s="471"/>
     </row>
     <row r="86" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="470"/>
-      <c r="B86" s="480"/>
-      <c r="C86" s="470"/>
-      <c r="D86" s="470"/>
-      <c r="E86" s="470"/>
+      <c r="A86" s="469"/>
+      <c r="B86" s="476"/>
+      <c r="C86" s="469"/>
+      <c r="D86" s="469"/>
+      <c r="E86" s="469"/>
       <c r="F86" s="417" t="s">
         <v>162</v>
       </c>
@@ -8176,14 +8626,14 @@
         <f t="shared" si="9"/>
         <v>19110000</v>
       </c>
-      <c r="P86" s="497"/>
+      <c r="P86" s="471"/>
     </row>
     <row r="87" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="471"/>
-      <c r="B87" s="479"/>
-      <c r="C87" s="471"/>
-      <c r="D87" s="471"/>
-      <c r="E87" s="471"/>
+      <c r="A87" s="470"/>
+      <c r="B87" s="475"/>
+      <c r="C87" s="470"/>
+      <c r="D87" s="470"/>
+      <c r="E87" s="470"/>
       <c r="F87" s="418" t="s">
         <v>166</v>
       </c>
@@ -8211,22 +8661,22 @@
         <f t="shared" si="9"/>
         <v>54600000</v>
       </c>
-      <c r="P87" s="498"/>
+      <c r="P87" s="479"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="469">
+      <c r="A88" s="473">
         <v>612</v>
       </c>
-      <c r="B88" s="478">
+      <c r="B88" s="474">
         <v>44032</v>
       </c>
-      <c r="C88" s="469" t="s">
+      <c r="C88" s="473" t="s">
         <v>163</v>
       </c>
-      <c r="D88" s="469" t="s">
+      <c r="D88" s="473" t="s">
         <v>163</v>
       </c>
-      <c r="E88" s="469"/>
+      <c r="E88" s="473"/>
       <c r="F88" s="416" t="s">
         <v>161</v>
       </c>
@@ -8254,14 +8704,14 @@
         <f t="shared" ref="O88:O94" si="10">L88</f>
         <v>3221400.0000000005</v>
       </c>
-      <c r="P88" s="496"/>
+      <c r="P88" s="477"/>
     </row>
     <row r="89" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="470"/>
-      <c r="B89" s="480"/>
-      <c r="C89" s="470"/>
-      <c r="D89" s="470"/>
-      <c r="E89" s="470"/>
+      <c r="A89" s="469"/>
+      <c r="B89" s="476"/>
+      <c r="C89" s="469"/>
+      <c r="D89" s="469"/>
+      <c r="E89" s="469"/>
       <c r="F89" s="417" t="s">
         <v>158</v>
       </c>
@@ -8289,14 +8739,14 @@
         <f t="shared" si="10"/>
         <v>3292200.0000000005</v>
       </c>
-      <c r="P89" s="497"/>
+      <c r="P89" s="471"/>
     </row>
     <row r="90" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="470"/>
-      <c r="B90" s="480"/>
-      <c r="C90" s="470"/>
-      <c r="D90" s="470"/>
-      <c r="E90" s="470"/>
+      <c r="A90" s="469"/>
+      <c r="B90" s="476"/>
+      <c r="C90" s="469"/>
+      <c r="D90" s="469"/>
+      <c r="E90" s="469"/>
       <c r="F90" s="417" t="s">
         <v>168</v>
       </c>
@@ -8324,14 +8774,14 @@
         <f t="shared" si="10"/>
         <v>3363000.0000000005</v>
       </c>
-      <c r="P90" s="497"/>
+      <c r="P90" s="471"/>
     </row>
     <row r="91" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="470"/>
-      <c r="B91" s="480"/>
-      <c r="C91" s="470"/>
-      <c r="D91" s="470"/>
-      <c r="E91" s="470"/>
+      <c r="A91" s="469"/>
+      <c r="B91" s="476"/>
+      <c r="C91" s="469"/>
+      <c r="D91" s="469"/>
+      <c r="E91" s="469"/>
       <c r="F91" s="417" t="s">
         <v>170</v>
       </c>
@@ -8359,14 +8809,14 @@
         <f t="shared" si="10"/>
         <v>3433800.0000000005</v>
       </c>
-      <c r="P91" s="497"/>
+      <c r="P91" s="471"/>
     </row>
     <row r="92" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="470"/>
-      <c r="B92" s="480"/>
-      <c r="C92" s="470"/>
-      <c r="D92" s="470"/>
-      <c r="E92" s="470"/>
+      <c r="A92" s="469"/>
+      <c r="B92" s="476"/>
+      <c r="C92" s="469"/>
+      <c r="D92" s="469"/>
+      <c r="E92" s="469"/>
       <c r="F92" s="417" t="s">
         <v>193</v>
       </c>
@@ -8394,14 +8844,14 @@
         <f t="shared" si="10"/>
         <v>3245000.0000000005</v>
       </c>
-      <c r="P92" s="497"/>
+      <c r="P92" s="471"/>
     </row>
     <row r="93" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="470"/>
-      <c r="B93" s="480"/>
-      <c r="C93" s="470"/>
-      <c r="D93" s="470"/>
-      <c r="E93" s="470"/>
+      <c r="A93" s="469"/>
+      <c r="B93" s="476"/>
+      <c r="C93" s="469"/>
+      <c r="D93" s="469"/>
+      <c r="E93" s="469"/>
       <c r="F93" s="417" t="s">
         <v>162</v>
       </c>
@@ -8429,14 +8879,14 @@
         <f t="shared" si="10"/>
         <v>3221400.0000000005</v>
       </c>
-      <c r="P93" s="497"/>
+      <c r="P93" s="471"/>
     </row>
     <row r="94" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="471"/>
-      <c r="B94" s="479"/>
-      <c r="C94" s="471"/>
-      <c r="D94" s="471"/>
-      <c r="E94" s="471"/>
+      <c r="A94" s="470"/>
+      <c r="B94" s="475"/>
+      <c r="C94" s="470"/>
+      <c r="D94" s="470"/>
+      <c r="E94" s="470"/>
       <c r="F94" s="418" t="s">
         <v>166</v>
       </c>
@@ -8464,20 +8914,20 @@
         <f t="shared" si="10"/>
         <v>3221400.0000000005</v>
       </c>
-      <c r="P94" s="498"/>
+      <c r="P94" s="479"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="469">
+      <c r="A95" s="473">
         <v>613</v>
       </c>
-      <c r="B95" s="478">
+      <c r="B95" s="474">
         <v>44032</v>
       </c>
-      <c r="C95" s="469"/>
-      <c r="D95" s="469" t="s">
+      <c r="C95" s="473"/>
+      <c r="D95" s="473" t="s">
         <v>177</v>
       </c>
-      <c r="E95" s="469" t="s">
+      <c r="E95" s="473" t="s">
         <v>178</v>
       </c>
       <c r="F95" s="416" t="s">
@@ -8514,11 +8964,11 @@
       </c>
     </row>
     <row r="96" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="470"/>
-      <c r="B96" s="480"/>
-      <c r="C96" s="470"/>
-      <c r="D96" s="470"/>
-      <c r="E96" s="470"/>
+      <c r="A96" s="469"/>
+      <c r="B96" s="476"/>
+      <c r="C96" s="469"/>
+      <c r="D96" s="469"/>
+      <c r="E96" s="469"/>
       <c r="F96" s="417" t="s">
         <v>158</v>
       </c>
@@ -8549,11 +8999,11 @@
       <c r="P96" s="417"/>
     </row>
     <row r="97" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="470"/>
-      <c r="B97" s="480"/>
-      <c r="C97" s="470"/>
-      <c r="D97" s="470"/>
-      <c r="E97" s="470"/>
+      <c r="A97" s="469"/>
+      <c r="B97" s="476"/>
+      <c r="C97" s="469"/>
+      <c r="D97" s="469"/>
+      <c r="E97" s="469"/>
       <c r="F97" s="417" t="s">
         <v>154</v>
       </c>
@@ -8584,11 +9034,11 @@
       <c r="P97" s="417"/>
     </row>
     <row r="98" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="471"/>
-      <c r="B98" s="479"/>
-      <c r="C98" s="471"/>
-      <c r="D98" s="471"/>
-      <c r="E98" s="471"/>
+      <c r="A98" s="470"/>
+      <c r="B98" s="475"/>
+      <c r="C98" s="470"/>
+      <c r="D98" s="470"/>
+      <c r="E98" s="470"/>
       <c r="F98" s="418" t="s">
         <v>170</v>
       </c>
@@ -8619,17 +9069,17 @@
       <c r="P98" s="418"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="469">
+      <c r="A99" s="473">
         <v>500</v>
       </c>
-      <c r="B99" s="478">
+      <c r="B99" s="474">
         <v>44032</v>
       </c>
-      <c r="C99" s="469"/>
-      <c r="D99" s="469" t="s">
+      <c r="C99" s="473"/>
+      <c r="D99" s="473" t="s">
         <v>208</v>
       </c>
-      <c r="E99" s="469"/>
+      <c r="E99" s="473"/>
       <c r="F99" s="416" t="s">
         <v>161</v>
       </c>
@@ -8660,11 +9110,11 @@
       <c r="P99" s="416"/>
     </row>
     <row r="100" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="471"/>
-      <c r="B100" s="479"/>
-      <c r="C100" s="471"/>
-      <c r="D100" s="471"/>
-      <c r="E100" s="471"/>
+      <c r="A100" s="470"/>
+      <c r="B100" s="475"/>
+      <c r="C100" s="470"/>
+      <c r="D100" s="470"/>
+      <c r="E100" s="470"/>
       <c r="F100" s="418" t="s">
         <v>154</v>
       </c>
@@ -8695,17 +9145,17 @@
       <c r="P100" s="418"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="469">
+      <c r="A101" s="473">
         <v>619</v>
       </c>
-      <c r="B101" s="478">
+      <c r="B101" s="474">
         <v>44034</v>
       </c>
-      <c r="C101" s="469"/>
-      <c r="D101" s="469" t="s">
+      <c r="C101" s="473"/>
+      <c r="D101" s="473" t="s">
         <v>215</v>
       </c>
-      <c r="E101" s="469" t="s">
+      <c r="E101" s="473" t="s">
         <v>216</v>
       </c>
       <c r="F101" s="436" t="s">
@@ -8738,11 +9188,11 @@
       <c r="P101" s="436"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="471"/>
-      <c r="B102" s="479"/>
-      <c r="C102" s="471"/>
-      <c r="D102" s="471"/>
-      <c r="E102" s="471"/>
+      <c r="A102" s="470"/>
+      <c r="B102" s="475"/>
+      <c r="C102" s="470"/>
+      <c r="D102" s="470"/>
+      <c r="E102" s="470"/>
       <c r="F102" s="438" t="s">
         <v>168</v>
       </c>
@@ -8773,17 +9223,17 @@
       <c r="P102" s="438"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="469">
+      <c r="A103" s="473">
         <v>620</v>
       </c>
-      <c r="B103" s="478">
+      <c r="B103" s="474">
         <v>44036</v>
       </c>
-      <c r="C103" s="469"/>
-      <c r="D103" s="469" t="s">
+      <c r="C103" s="473"/>
+      <c r="D103" s="473" t="s">
         <v>203</v>
       </c>
-      <c r="E103" s="469" t="s">
+      <c r="E103" s="473" t="s">
         <v>217</v>
       </c>
       <c r="F103" s="436" t="s">
@@ -8816,11 +9266,11 @@
       <c r="P103" s="436"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="470"/>
-      <c r="B104" s="480"/>
-      <c r="C104" s="470"/>
-      <c r="D104" s="470"/>
-      <c r="E104" s="470"/>
+      <c r="A104" s="469"/>
+      <c r="B104" s="476"/>
+      <c r="C104" s="469"/>
+      <c r="D104" s="469"/>
+      <c r="E104" s="469"/>
       <c r="F104" s="437" t="s">
         <v>158</v>
       </c>
@@ -8851,11 +9301,11 @@
       <c r="P104" s="437"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="471"/>
-      <c r="B105" s="479"/>
-      <c r="C105" s="471"/>
-      <c r="D105" s="471"/>
-      <c r="E105" s="471"/>
+      <c r="A105" s="470"/>
+      <c r="B105" s="475"/>
+      <c r="C105" s="470"/>
+      <c r="D105" s="470"/>
+      <c r="E105" s="470"/>
       <c r="F105" s="438" t="s">
         <v>168</v>
       </c>
@@ -8886,19 +9336,19 @@
       <c r="P105" s="438"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="496">
+      <c r="A106" s="477">
         <v>622</v>
       </c>
-      <c r="B106" s="504">
+      <c r="B106" s="478">
         <v>44040</v>
       </c>
-      <c r="C106" s="496" t="s">
+      <c r="C106" s="477" t="s">
         <v>220</v>
       </c>
-      <c r="D106" s="496" t="s">
+      <c r="D106" s="477" t="s">
         <v>218</v>
       </c>
-      <c r="E106" s="496" t="s">
+      <c r="E106" s="477" t="s">
         <v>219</v>
       </c>
       <c r="F106" s="365" t="s">
@@ -8928,16 +9378,16 @@
         <f t="shared" si="12"/>
         <v>6584400.0000000009</v>
       </c>
-      <c r="P106" s="502" t="s">
+      <c r="P106" s="465" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="497"/>
-      <c r="B107" s="505"/>
-      <c r="C107" s="497"/>
-      <c r="D107" s="497"/>
-      <c r="E107" s="497"/>
+      <c r="A107" s="471"/>
+      <c r="B107" s="472"/>
+      <c r="C107" s="471"/>
+      <c r="D107" s="471"/>
+      <c r="E107" s="471"/>
       <c r="F107" s="369" t="s">
         <v>168</v>
       </c>
@@ -8965,14 +9415,14 @@
         <f t="shared" si="12"/>
         <v>10089000.000000002</v>
       </c>
-      <c r="P107" s="503"/>
+      <c r="P107" s="466"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="497"/>
-      <c r="B108" s="505"/>
-      <c r="C108" s="497"/>
-      <c r="D108" s="497"/>
-      <c r="E108" s="497"/>
+      <c r="A108" s="471"/>
+      <c r="B108" s="472"/>
+      <c r="C108" s="471"/>
+      <c r="D108" s="471"/>
+      <c r="E108" s="471"/>
       <c r="F108" s="369" t="s">
         <v>170</v>
       </c>
@@ -9000,14 +9450,14 @@
         <f t="shared" si="12"/>
         <v>6867600.0000000009</v>
       </c>
-      <c r="P108" s="503"/>
+      <c r="P108" s="466"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="497"/>
-      <c r="B109" s="505"/>
-      <c r="C109" s="497"/>
-      <c r="D109" s="497"/>
-      <c r="E109" s="497"/>
+      <c r="A109" s="471"/>
+      <c r="B109" s="472"/>
+      <c r="C109" s="471"/>
+      <c r="D109" s="471"/>
+      <c r="E109" s="471"/>
       <c r="F109" s="369" t="s">
         <v>193</v>
       </c>
@@ -9035,14 +9485,14 @@
         <f t="shared" si="12"/>
         <v>15576000.000000002</v>
       </c>
-      <c r="P109" s="503"/>
+      <c r="P109" s="466"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="497"/>
-      <c r="B110" s="505"/>
-      <c r="C110" s="497"/>
-      <c r="D110" s="497"/>
-      <c r="E110" s="497"/>
+      <c r="A110" s="471"/>
+      <c r="B110" s="472"/>
+      <c r="C110" s="471"/>
+      <c r="D110" s="471"/>
+      <c r="E110" s="471"/>
       <c r="F110" s="369" t="s">
         <v>162</v>
       </c>
@@ -9070,14 +9520,14 @@
         <f t="shared" si="12"/>
         <v>12885600.000000002</v>
       </c>
-      <c r="P110" s="503"/>
+      <c r="P110" s="466"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="497"/>
-      <c r="B111" s="505"/>
-      <c r="C111" s="497"/>
-      <c r="D111" s="497"/>
-      <c r="E111" s="497"/>
+      <c r="A111" s="471"/>
+      <c r="B111" s="472"/>
+      <c r="C111" s="471"/>
+      <c r="D111" s="471"/>
+      <c r="E111" s="471"/>
       <c r="F111" s="442" t="s">
         <v>166</v>
       </c>
@@ -9105,20 +9555,20 @@
         <f t="shared" si="12"/>
         <v>9664200.0000000019</v>
       </c>
-      <c r="P111" s="503"/>
+      <c r="P111" s="466"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A112" s="469">
+      <c r="A112" s="473">
         <v>623</v>
       </c>
-      <c r="B112" s="478">
+      <c r="B112" s="474">
         <v>44041</v>
       </c>
-      <c r="C112" s="469"/>
-      <c r="D112" s="469" t="s">
+      <c r="C112" s="473"/>
+      <c r="D112" s="473" t="s">
         <v>221</v>
       </c>
-      <c r="E112" s="469" t="s">
+      <c r="E112" s="473" t="s">
         <v>222</v>
       </c>
       <c r="F112" s="436" t="s">
@@ -9151,11 +9601,11 @@
       <c r="P112" s="439"/>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A113" s="471"/>
-      <c r="B113" s="479"/>
-      <c r="C113" s="471"/>
-      <c r="D113" s="471"/>
-      <c r="E113" s="471"/>
+      <c r="A113" s="470"/>
+      <c r="B113" s="475"/>
+      <c r="C113" s="470"/>
+      <c r="D113" s="470"/>
+      <c r="E113" s="470"/>
       <c r="F113" s="438" t="s">
         <v>154</v>
       </c>
@@ -9186,17 +9636,17 @@
       <c r="P113" s="440"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A114" s="469">
+      <c r="A114" s="473">
         <v>624</v>
       </c>
-      <c r="B114" s="478">
+      <c r="B114" s="474">
         <v>44041</v>
       </c>
-      <c r="C114" s="469"/>
-      <c r="D114" s="469" t="s">
+      <c r="C114" s="473"/>
+      <c r="D114" s="473" t="s">
         <v>223</v>
       </c>
-      <c r="E114" s="469" t="s">
+      <c r="E114" s="473" t="s">
         <v>217</v>
       </c>
       <c r="F114" s="436" t="s">
@@ -9229,11 +9679,11 @@
       <c r="P114" s="439"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A115" s="471"/>
-      <c r="B115" s="479"/>
-      <c r="C115" s="471"/>
-      <c r="D115" s="471"/>
-      <c r="E115" s="471"/>
+      <c r="A115" s="470"/>
+      <c r="B115" s="475"/>
+      <c r="C115" s="470"/>
+      <c r="D115" s="470"/>
+      <c r="E115" s="470"/>
       <c r="F115" s="438" t="s">
         <v>161</v>
       </c>
@@ -9307,17 +9757,17 @@
       <c r="P116" s="326"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A117" s="497">
+      <c r="A117" s="471">
         <v>626</v>
       </c>
-      <c r="B117" s="505">
+      <c r="B117" s="472">
         <v>44043</v>
       </c>
-      <c r="C117" s="497"/>
-      <c r="D117" s="507" t="s">
+      <c r="C117" s="471"/>
+      <c r="D117" s="468" t="s">
         <v>225</v>
       </c>
-      <c r="E117" s="507" t="s">
+      <c r="E117" s="468" t="s">
         <v>200</v>
       </c>
       <c r="F117" s="441" t="s">
@@ -9345,16 +9795,16 @@
         <f t="shared" si="12"/>
         <v>11160000</v>
       </c>
-      <c r="P117" s="502" t="s">
+      <c r="P117" s="465" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A118" s="497"/>
-      <c r="B118" s="505"/>
-      <c r="C118" s="497"/>
-      <c r="D118" s="470"/>
-      <c r="E118" s="470"/>
+      <c r="A118" s="471"/>
+      <c r="B118" s="472"/>
+      <c r="C118" s="471"/>
+      <c r="D118" s="469"/>
+      <c r="E118" s="469"/>
       <c r="F118" s="437" t="s">
         <v>168</v>
       </c>
@@ -9380,14 +9830,14 @@
         <f t="shared" si="12"/>
         <v>5700000</v>
       </c>
-      <c r="P118" s="503"/>
+      <c r="P118" s="466"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A119" s="497"/>
-      <c r="B119" s="505"/>
-      <c r="C119" s="497"/>
-      <c r="D119" s="470"/>
-      <c r="E119" s="470"/>
+      <c r="A119" s="471"/>
+      <c r="B119" s="472"/>
+      <c r="C119" s="471"/>
+      <c r="D119" s="469"/>
+      <c r="E119" s="469"/>
       <c r="F119" s="437" t="s">
         <v>154</v>
       </c>
@@ -9413,14 +9863,14 @@
         <f t="shared" si="12"/>
         <v>5820000</v>
       </c>
-      <c r="P119" s="503"/>
+      <c r="P119" s="466"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A120" s="497"/>
-      <c r="B120" s="505"/>
-      <c r="C120" s="497"/>
-      <c r="D120" s="471"/>
-      <c r="E120" s="471"/>
+      <c r="A120" s="471"/>
+      <c r="B120" s="472"/>
+      <c r="C120" s="471"/>
+      <c r="D120" s="470"/>
+      <c r="E120" s="470"/>
       <c r="F120" s="438" t="s">
         <v>162</v>
       </c>
@@ -9446,20 +9896,20 @@
         <f t="shared" si="12"/>
         <v>5460000</v>
       </c>
-      <c r="P120" s="506"/>
+      <c r="P120" s="467"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A121" s="469">
+      <c r="A121" s="473">
         <v>627</v>
       </c>
-      <c r="B121" s="478">
+      <c r="B121" s="474">
         <v>44043</v>
       </c>
-      <c r="C121" s="469"/>
-      <c r="D121" s="469" t="s">
+      <c r="C121" s="473"/>
+      <c r="D121" s="473" t="s">
         <v>215</v>
       </c>
-      <c r="E121" s="469" t="s">
+      <c r="E121" s="473" t="s">
         <v>216</v>
       </c>
       <c r="F121" s="436" t="s">
@@ -9492,11 +9942,11 @@
       <c r="P121" s="439"/>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A122" s="471"/>
-      <c r="B122" s="479"/>
-      <c r="C122" s="471"/>
-      <c r="D122" s="471"/>
-      <c r="E122" s="471"/>
+      <c r="A122" s="470"/>
+      <c r="B122" s="475"/>
+      <c r="C122" s="470"/>
+      <c r="D122" s="470"/>
+      <c r="E122" s="470"/>
       <c r="F122" s="438" t="s">
         <v>154</v>
       </c>
@@ -9527,14 +9977,14 @@
       <c r="P122" s="438"/>
     </row>
     <row r="123" spans="1:17" s="334" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A123" s="467" t="s">
+      <c r="A123" s="506" t="s">
         <v>78</v>
       </c>
-      <c r="B123" s="467"/>
-      <c r="C123" s="467"/>
-      <c r="D123" s="467"/>
-      <c r="E123" s="467"/>
-      <c r="F123" s="467"/>
+      <c r="B123" s="506"/>
+      <c r="C123" s="506"/>
+      <c r="D123" s="506"/>
+      <c r="E123" s="506"/>
+      <c r="F123" s="506"/>
       <c r="G123" s="446">
         <f>SUM(G9:G122)</f>
         <v>2563</v>
@@ -9553,18 +10003,18 @@
       <c r="M123" s="452"/>
       <c r="N123" s="452"/>
       <c r="O123" s="452"/>
-      <c r="P123" s="468"/>
-      <c r="Q123" s="465"/>
+      <c r="P123" s="507"/>
+      <c r="Q123" s="504"/>
     </row>
     <row r="124" spans="1:17" s="334" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A124" s="466" t="s">
+      <c r="A124" s="505" t="s">
         <v>139</v>
       </c>
-      <c r="B124" s="466"/>
-      <c r="C124" s="466"/>
-      <c r="D124" s="466"/>
-      <c r="E124" s="466"/>
-      <c r="F124" s="466"/>
+      <c r="B124" s="505"/>
+      <c r="C124" s="505"/>
+      <c r="D124" s="505"/>
+      <c r="E124" s="505"/>
+      <c r="F124" s="505"/>
       <c r="G124" s="328">
         <f>G123</f>
         <v>2563</v>
@@ -9580,18 +10030,18 @@
       <c r="M124" s="331"/>
       <c r="N124" s="331"/>
       <c r="O124" s="331"/>
-      <c r="P124" s="468"/>
-      <c r="Q124" s="465"/>
+      <c r="P124" s="507"/>
+      <c r="Q124" s="504"/>
     </row>
     <row r="125" spans="1:17" s="334" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A125" s="466" t="s">
+      <c r="A125" s="505" t="s">
         <v>79</v>
       </c>
-      <c r="B125" s="466"/>
-      <c r="C125" s="466"/>
-      <c r="D125" s="466"/>
-      <c r="E125" s="466"/>
-      <c r="F125" s="466"/>
+      <c r="B125" s="505"/>
+      <c r="C125" s="505"/>
+      <c r="D125" s="505"/>
+      <c r="E125" s="505"/>
+      <c r="F125" s="505"/>
       <c r="G125" s="335" t="s">
         <v>49</v>
       </c>
@@ -9601,21 +10051,21 @@
       <c r="K125" s="335"/>
       <c r="L125" s="333">
         <f>SUM(M9:M122)</f>
-        <v>24335700.000000004</v>
+        <v>41187450</v>
       </c>
       <c r="M125" s="331"/>
       <c r="N125" s="331"/>
       <c r="O125" s="331"/>
     </row>
     <row r="126" spans="1:17" s="334" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A126" s="466" t="s">
+      <c r="A126" s="505" t="s">
         <v>80</v>
       </c>
-      <c r="B126" s="466"/>
-      <c r="C126" s="466"/>
-      <c r="D126" s="466"/>
-      <c r="E126" s="466"/>
-      <c r="F126" s="466"/>
+      <c r="B126" s="505"/>
+      <c r="C126" s="505"/>
+      <c r="D126" s="505"/>
+      <c r="E126" s="505"/>
+      <c r="F126" s="505"/>
       <c r="G126" s="335"/>
       <c r="H126" s="401"/>
       <c r="I126" s="329"/>
@@ -9630,14 +10080,14 @@
       <c r="O126" s="331"/>
     </row>
     <row r="127" spans="1:17" s="334" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A127" s="466" t="s">
+      <c r="A127" s="505" t="s">
         <v>81</v>
       </c>
-      <c r="B127" s="466"/>
-      <c r="C127" s="466"/>
-      <c r="D127" s="466"/>
-      <c r="E127" s="466"/>
-      <c r="F127" s="466"/>
+      <c r="B127" s="505"/>
+      <c r="C127" s="505"/>
+      <c r="D127" s="505"/>
+      <c r="E127" s="505"/>
+      <c r="F127" s="505"/>
       <c r="G127" s="335"/>
       <c r="H127" s="401"/>
       <c r="I127" s="329"/>
@@ -9645,7 +10095,7 @@
       <c r="K127" s="332"/>
       <c r="L127" s="333">
         <f>SUM(O9:O122)</f>
-        <v>601076750</v>
+        <v>584525000</v>
       </c>
       <c r="M127" s="331"/>
       <c r="N127" s="331"/>
@@ -9710,143 +10160,6 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="161">
-    <mergeCell ref="P117:P120"/>
-    <mergeCell ref="E117:E120"/>
-    <mergeCell ref="D117:D120"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="E103:E105"/>
-    <mergeCell ref="P106:P111"/>
-    <mergeCell ref="E106:E111"/>
-    <mergeCell ref="D106:D111"/>
-    <mergeCell ref="C106:C111"/>
-    <mergeCell ref="B106:B111"/>
-    <mergeCell ref="A106:A111"/>
-    <mergeCell ref="P76:P78"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="P88:P94"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="C95:C98"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="E95:E98"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="B88:B94"/>
-    <mergeCell ref="C88:C94"/>
-    <mergeCell ref="D88:D94"/>
-    <mergeCell ref="E88:E94"/>
-    <mergeCell ref="P80:P87"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="B80:B87"/>
-    <mergeCell ref="C80:C87"/>
-    <mergeCell ref="D80:D87"/>
-    <mergeCell ref="E80:E87"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="E35:E39"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="A61:A68"/>
-    <mergeCell ref="B61:B68"/>
-    <mergeCell ref="D61:D68"/>
-    <mergeCell ref="E61:E68"/>
-    <mergeCell ref="C61:C68"/>
-    <mergeCell ref="A54:A60"/>
-    <mergeCell ref="B54:B60"/>
-    <mergeCell ref="C54:C60"/>
-    <mergeCell ref="D54:D60"/>
-    <mergeCell ref="E54:E60"/>
-    <mergeCell ref="P32:P34"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="D23:D29"/>
-    <mergeCell ref="E23:E29"/>
-    <mergeCell ref="C23:C29"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
     <mergeCell ref="Q123:Q124"/>
     <mergeCell ref="A124:F124"/>
     <mergeCell ref="A125:F125"/>
@@ -9871,6 +10184,143 @@
     <mergeCell ref="E52:E53"/>
     <mergeCell ref="A73:A75"/>
     <mergeCell ref="B73:B75"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="P32:P34"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="D23:D29"/>
+    <mergeCell ref="E23:E29"/>
+    <mergeCell ref="C23:C29"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="A61:A68"/>
+    <mergeCell ref="B61:B68"/>
+    <mergeCell ref="D61:D68"/>
+    <mergeCell ref="E61:E68"/>
+    <mergeCell ref="C61:C68"/>
+    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="B54:B60"/>
+    <mergeCell ref="C54:C60"/>
+    <mergeCell ref="D54:D60"/>
+    <mergeCell ref="E54:E60"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="B80:B87"/>
+    <mergeCell ref="C80:C87"/>
+    <mergeCell ref="D80:D87"/>
+    <mergeCell ref="E80:E87"/>
+    <mergeCell ref="P76:P78"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="P88:P94"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="C95:C98"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="E95:E98"/>
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="B88:B94"/>
+    <mergeCell ref="C88:C94"/>
+    <mergeCell ref="D88:D94"/>
+    <mergeCell ref="E88:E94"/>
+    <mergeCell ref="P80:P87"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="E103:E105"/>
+    <mergeCell ref="P106:P111"/>
+    <mergeCell ref="E106:E111"/>
+    <mergeCell ref="D106:D111"/>
+    <mergeCell ref="C106:C111"/>
+    <mergeCell ref="B106:B111"/>
+    <mergeCell ref="A106:A111"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="P117:P120"/>
+    <mergeCell ref="E117:E120"/>
+    <mergeCell ref="D117:D120"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -9902,93 +10352,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="508" t="s">
+      <c r="A1" s="520" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="508"/>
-      <c r="C1" s="508"/>
-      <c r="D1" s="508"/>
+      <c r="B1" s="520"/>
+      <c r="C1" s="520"/>
+      <c r="D1" s="520"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="509" t="s">
+      <c r="A2" s="521" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="509"/>
-      <c r="C2" s="509"/>
-      <c r="D2" s="509"/>
+      <c r="B2" s="521"/>
+      <c r="C2" s="521"/>
+      <c r="D2" s="521"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="511" t="s">
+      <c r="A3" s="509" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="511"/>
-      <c r="C3" s="511"/>
-      <c r="D3" s="511"/>
-      <c r="E3" s="511"/>
-      <c r="F3" s="511"/>
-      <c r="G3" s="511"/>
-      <c r="H3" s="511"/>
-      <c r="I3" s="511"/>
-      <c r="J3" s="511"/>
-      <c r="K3" s="511"/>
-      <c r="L3" s="511"/>
-      <c r="M3" s="511"/>
-      <c r="N3" s="511"/>
+      <c r="B3" s="509"/>
+      <c r="C3" s="509"/>
+      <c r="D3" s="509"/>
+      <c r="E3" s="509"/>
+      <c r="F3" s="509"/>
+      <c r="G3" s="509"/>
+      <c r="H3" s="509"/>
+      <c r="I3" s="509"/>
+      <c r="J3" s="509"/>
+      <c r="K3" s="509"/>
+      <c r="L3" s="509"/>
+      <c r="M3" s="509"/>
+      <c r="N3" s="509"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="512" t="s">
+      <c r="A4" s="510" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="512"/>
-      <c r="C4" s="512"/>
-      <c r="D4" s="512"/>
-      <c r="E4" s="512"/>
-      <c r="F4" s="512"/>
-      <c r="G4" s="512"/>
-      <c r="H4" s="512"/>
-      <c r="I4" s="513"/>
-      <c r="J4" s="512"/>
-      <c r="K4" s="512"/>
-      <c r="L4" s="512"/>
-      <c r="M4" s="512"/>
-      <c r="N4" s="512"/>
+      <c r="B4" s="510"/>
+      <c r="C4" s="510"/>
+      <c r="D4" s="510"/>
+      <c r="E4" s="510"/>
+      <c r="F4" s="510"/>
+      <c r="G4" s="510"/>
+      <c r="H4" s="510"/>
+      <c r="I4" s="511"/>
+      <c r="J4" s="510"/>
+      <c r="K4" s="510"/>
+      <c r="L4" s="510"/>
+      <c r="M4" s="510"/>
+      <c r="N4" s="510"/>
     </row>
     <row r="5" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="514" t="s">
+      <c r="A5" s="512" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="515" t="s">
+      <c r="B5" s="513" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="516" t="s">
+      <c r="C5" s="514" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="387" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="517" t="s">
+      <c r="E5" s="515" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="517"/>
-      <c r="G5" s="517"/>
-      <c r="H5" s="517"/>
-      <c r="I5" s="518"/>
-      <c r="J5" s="519" t="s">
+      <c r="F5" s="515"/>
+      <c r="G5" s="515"/>
+      <c r="H5" s="515"/>
+      <c r="I5" s="516"/>
+      <c r="J5" s="517" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="517" t="s">
+      <c r="K5" s="515" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="517"/>
-      <c r="M5" s="517"/>
-      <c r="N5" s="516" t="s">
+      <c r="L5" s="515"/>
+      <c r="M5" s="515"/>
+      <c r="N5" s="514" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="514"/>
-      <c r="B6" s="515"/>
-      <c r="C6" s="516"/>
+      <c r="A6" s="512"/>
+      <c r="B6" s="513"/>
+      <c r="C6" s="514"/>
       <c r="D6" s="384" t="s">
         <v>41</v>
       </c>
@@ -10007,7 +10457,7 @@
       <c r="I6" s="386" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="519"/>
+      <c r="J6" s="517"/>
       <c r="K6" s="384" t="s">
         <v>45</v>
       </c>
@@ -10017,17 +10467,17 @@
       <c r="M6" s="384" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="516"/>
+      <c r="N6" s="514"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="469">
+      <c r="A7" s="473">
         <v>492</v>
       </c>
-      <c r="B7" s="475">
+      <c r="B7" s="480">
         <v>44020</v>
       </c>
-      <c r="C7" s="469"/>
-      <c r="D7" s="469" t="s">
+      <c r="C7" s="473"/>
+      <c r="D7" s="473" t="s">
         <v>169</v>
       </c>
       <c r="E7" s="223" t="s">
@@ -10059,10 +10509,10 @@
       <c r="N7" s="226"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="470"/>
-      <c r="B8" s="476"/>
-      <c r="C8" s="470"/>
-      <c r="D8" s="470"/>
+      <c r="A8" s="469"/>
+      <c r="B8" s="481"/>
+      <c r="C8" s="469"/>
+      <c r="D8" s="469"/>
       <c r="E8" s="227" t="s">
         <v>161</v>
       </c>
@@ -10092,10 +10542,10 @@
       <c r="N8" s="231"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="470"/>
-      <c r="B9" s="476"/>
-      <c r="C9" s="470"/>
-      <c r="D9" s="470"/>
+      <c r="A9" s="469"/>
+      <c r="B9" s="481"/>
+      <c r="C9" s="469"/>
+      <c r="D9" s="469"/>
       <c r="E9" s="227" t="s">
         <v>158</v>
       </c>
@@ -10125,10 +10575,10 @@
       <c r="N9" s="231"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="470"/>
-      <c r="B10" s="476"/>
-      <c r="C10" s="470"/>
-      <c r="D10" s="470"/>
+      <c r="A10" s="469"/>
+      <c r="B10" s="481"/>
+      <c r="C10" s="469"/>
+      <c r="D10" s="469"/>
       <c r="E10" s="227" t="s">
         <v>168</v>
       </c>
@@ -10158,10 +10608,10 @@
       <c r="N10" s="231"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="470"/>
-      <c r="B11" s="476"/>
-      <c r="C11" s="470"/>
-      <c r="D11" s="470"/>
+      <c r="A11" s="469"/>
+      <c r="B11" s="481"/>
+      <c r="C11" s="469"/>
+      <c r="D11" s="469"/>
       <c r="E11" s="227" t="s">
         <v>154</v>
       </c>
@@ -10191,10 +10641,10 @@
       <c r="N11" s="227"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="470"/>
-      <c r="B12" s="476"/>
-      <c r="C12" s="470"/>
-      <c r="D12" s="470"/>
+      <c r="A12" s="469"/>
+      <c r="B12" s="481"/>
+      <c r="C12" s="469"/>
+      <c r="D12" s="469"/>
       <c r="E12" s="227" t="s">
         <v>170</v>
       </c>
@@ -10226,10 +10676,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="520"/>
-      <c r="B13" s="521"/>
-      <c r="C13" s="520"/>
-      <c r="D13" s="520"/>
+      <c r="A13" s="518"/>
+      <c r="B13" s="519"/>
+      <c r="C13" s="518"/>
+      <c r="D13" s="518"/>
       <c r="E13" s="431" t="s">
         <v>162</v>
       </c>
@@ -10259,10 +10709,10 @@
       <c r="N13" s="435"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="471"/>
-      <c r="B14" s="477"/>
-      <c r="C14" s="471"/>
-      <c r="D14" s="471"/>
+      <c r="A14" s="470"/>
+      <c r="B14" s="482"/>
+      <c r="C14" s="470"/>
+      <c r="D14" s="470"/>
       <c r="E14" s="232" t="s">
         <v>166</v>
       </c>
@@ -10292,14 +10742,14 @@
       <c r="N14" s="235"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="469">
+      <c r="A15" s="473">
         <v>494</v>
       </c>
-      <c r="B15" s="475">
+      <c r="B15" s="480">
         <v>44020</v>
       </c>
-      <c r="C15" s="469"/>
-      <c r="D15" s="469" t="s">
+      <c r="C15" s="473"/>
+      <c r="D15" s="473" t="s">
         <v>171</v>
       </c>
       <c r="E15" s="223" t="s">
@@ -10331,10 +10781,10 @@
       <c r="N15" s="226"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="470"/>
-      <c r="B16" s="476"/>
-      <c r="C16" s="470"/>
-      <c r="D16" s="470"/>
+      <c r="A16" s="469"/>
+      <c r="B16" s="481"/>
+      <c r="C16" s="469"/>
+      <c r="D16" s="469"/>
       <c r="E16" s="227" t="s">
         <v>174</v>
       </c>
@@ -10364,10 +10814,10 @@
       <c r="N16" s="231"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="471"/>
-      <c r="B17" s="477"/>
-      <c r="C17" s="471"/>
-      <c r="D17" s="471"/>
+      <c r="A17" s="470"/>
+      <c r="B17" s="482"/>
+      <c r="C17" s="470"/>
+      <c r="D17" s="470"/>
       <c r="E17" s="232" t="s">
         <v>175</v>
       </c>
@@ -10397,14 +10847,14 @@
       <c r="N17" s="235"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="469">
+      <c r="A18" s="473">
         <v>1194</v>
       </c>
-      <c r="B18" s="475">
+      <c r="B18" s="480">
         <v>44021</v>
       </c>
-      <c r="C18" s="469"/>
-      <c r="D18" s="469" t="s">
+      <c r="C18" s="473"/>
+      <c r="D18" s="473" t="s">
         <v>180</v>
       </c>
       <c r="E18" s="223" t="s">
@@ -10436,10 +10886,10 @@
       <c r="N18" s="226"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="470"/>
-      <c r="B19" s="476"/>
-      <c r="C19" s="470"/>
-      <c r="D19" s="470"/>
+      <c r="A19" s="469"/>
+      <c r="B19" s="481"/>
+      <c r="C19" s="469"/>
+      <c r="D19" s="469"/>
       <c r="E19" s="227" t="s">
         <v>170</v>
       </c>
@@ -10469,10 +10919,10 @@
       <c r="N19" s="231"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="470"/>
-      <c r="B20" s="476"/>
-      <c r="C20" s="470"/>
-      <c r="D20" s="470"/>
+      <c r="A20" s="469"/>
+      <c r="B20" s="481"/>
+      <c r="C20" s="469"/>
+      <c r="D20" s="469"/>
       <c r="E20" s="227" t="s">
         <v>162</v>
       </c>
@@ -10502,10 +10952,10 @@
       <c r="N20" s="231"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="471"/>
-      <c r="B21" s="477"/>
-      <c r="C21" s="471"/>
-      <c r="D21" s="471"/>
+      <c r="A21" s="470"/>
+      <c r="B21" s="482"/>
+      <c r="C21" s="470"/>
+      <c r="D21" s="470"/>
       <c r="E21" s="232" t="s">
         <v>166</v>
       </c>
@@ -10691,14 +11141,14 @@
       <c r="N25" s="141"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="469">
+      <c r="A26" s="473">
         <v>617</v>
       </c>
-      <c r="B26" s="475">
+      <c r="B26" s="480">
         <v>44034</v>
       </c>
-      <c r="C26" s="469"/>
-      <c r="D26" s="469" t="s">
+      <c r="C26" s="473"/>
+      <c r="D26" s="473" t="s">
         <v>169</v>
       </c>
       <c r="E26" s="223" t="s">
@@ -10730,10 +11180,10 @@
       <c r="N26" s="226"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="471"/>
-      <c r="B27" s="477"/>
-      <c r="C27" s="471"/>
-      <c r="D27" s="471"/>
+      <c r="A27" s="470"/>
+      <c r="B27" s="482"/>
+      <c r="C27" s="470"/>
+      <c r="D27" s="470"/>
       <c r="E27" s="232" t="s">
         <v>161</v>
       </c>
@@ -10841,12 +11291,12 @@
       <c r="N29" s="141"/>
     </row>
     <row r="30" spans="1:14" s="135" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="510" t="s">
+      <c r="A30" s="508" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="510"/>
-      <c r="C30" s="510"/>
-      <c r="D30" s="510"/>
+      <c r="B30" s="508"/>
+      <c r="C30" s="508"/>
+      <c r="D30" s="508"/>
       <c r="E30" s="131"/>
       <c r="F30" s="131">
         <f>SUM(F7:F29)</f>
@@ -10930,6 +11380,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A4:N4"/>
@@ -10946,18 +11408,6 @@
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="D7:D14"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11174,7 +11624,7 @@
       <c r="C9" s="78"/>
       <c r="D9" s="79">
         <f>'DOANH THU'!L125</f>
-        <v>24335700.000000004</v>
+        <v>41187450</v>
       </c>
       <c r="E9" s="78"/>
       <c r="F9" s="67"/>
@@ -11248,7 +11698,7 @@
       <c r="C12" s="83"/>
       <c r="D12" s="84">
         <f>D8-D9-D10</f>
-        <v>612596750</v>
+        <v>595745000</v>
       </c>
       <c r="E12" s="81"/>
       <c r="F12" s="67"/>
@@ -11504,13 +11954,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="546" t="s">
+      <c r="A1" s="530" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="546"/>
-      <c r="C1" s="546"/>
-      <c r="D1" s="546"/>
-      <c r="E1" s="546"/>
+      <c r="B1" s="530"/>
+      <c r="C1" s="530"/>
+      <c r="D1" s="530"/>
+      <c r="E1" s="530"/>
       <c r="F1" s="69"/>
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
@@ -11538,92 +11988,92 @@
       <c r="I3" s="69"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="542" t="s">
+      <c r="A4" s="531" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="542"/>
-      <c r="C4" s="542"/>
-      <c r="D4" s="542"/>
-      <c r="E4" s="542"/>
-      <c r="F4" s="542"/>
-      <c r="G4" s="542"/>
-      <c r="H4" s="542"/>
-      <c r="I4" s="542"/>
-      <c r="J4" s="542"/>
-      <c r="K4" s="542"/>
-      <c r="L4" s="542"/>
+      <c r="B4" s="531"/>
+      <c r="C4" s="531"/>
+      <c r="D4" s="531"/>
+      <c r="E4" s="531"/>
+      <c r="F4" s="531"/>
+      <c r="G4" s="531"/>
+      <c r="H4" s="531"/>
+      <c r="I4" s="531"/>
+      <c r="J4" s="531"/>
+      <c r="K4" s="531"/>
+      <c r="L4" s="531"/>
     </row>
     <row r="5" spans="1:13" s="142" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="526" t="s">
+      <c r="A5" s="525" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="538" t="s">
+      <c r="B5" s="542" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="526" t="s">
+      <c r="C5" s="525" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="526" t="s">
+      <c r="D5" s="525" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="526"/>
-      <c r="F5" s="527" t="s">
+      <c r="E5" s="525"/>
+      <c r="F5" s="541" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="527"/>
-      <c r="H5" s="527"/>
-      <c r="I5" s="527"/>
-      <c r="J5" s="527"/>
-      <c r="K5" s="527"/>
-      <c r="L5" s="527"/>
+      <c r="G5" s="541"/>
+      <c r="H5" s="541"/>
+      <c r="I5" s="541"/>
+      <c r="J5" s="541"/>
+      <c r="K5" s="541"/>
+      <c r="L5" s="541"/>
     </row>
     <row r="6" spans="1:13" s="142" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="526"/>
-      <c r="B6" s="538"/>
-      <c r="C6" s="526"/>
-      <c r="D6" s="526" t="s">
+      <c r="A6" s="525"/>
+      <c r="B6" s="542"/>
+      <c r="C6" s="525"/>
+      <c r="D6" s="525" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="526" t="s">
+      <c r="E6" s="525" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="526" t="s">
+      <c r="F6" s="525" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="526" t="s">
+      <c r="G6" s="525" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="535" t="s">
+      <c r="H6" s="529" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="535" t="s">
+      <c r="I6" s="529" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="536" t="s">
+      <c r="J6" s="532" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="536"/>
-      <c r="L6" s="535" t="s">
+      <c r="K6" s="532"/>
+      <c r="L6" s="529" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="142" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="526"/>
-      <c r="B7" s="538"/>
-      <c r="C7" s="526"/>
-      <c r="D7" s="526"/>
-      <c r="E7" s="526"/>
-      <c r="F7" s="526"/>
-      <c r="G7" s="526"/>
-      <c r="H7" s="535"/>
-      <c r="I7" s="535"/>
+      <c r="A7" s="525"/>
+      <c r="B7" s="542"/>
+      <c r="C7" s="525"/>
+      <c r="D7" s="525"/>
+      <c r="E7" s="525"/>
+      <c r="F7" s="525"/>
+      <c r="G7" s="525"/>
+      <c r="H7" s="529"/>
+      <c r="I7" s="529"/>
       <c r="J7" s="168" t="s">
         <v>85</v>
       </c>
       <c r="K7" s="155" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="535"/>
+      <c r="L7" s="529"/>
     </row>
     <row r="8" spans="1:13" s="323" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="239">
@@ -11664,17 +12114,17 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="323" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="496">
+      <c r="A9" s="477">
         <v>1165</v>
       </c>
-      <c r="B9" s="499">
+      <c r="B9" s="486">
         <v>44013</v>
       </c>
-      <c r="C9" s="496" t="s">
+      <c r="C9" s="477" t="s">
         <v>152</v>
       </c>
-      <c r="D9" s="496"/>
-      <c r="E9" s="496" t="s">
+      <c r="D9" s="477"/>
+      <c r="E9" s="477" t="s">
         <v>167</v>
       </c>
       <c r="F9" s="416" t="s">
@@ -11700,11 +12150,11 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="323" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="498"/>
-      <c r="B10" s="501"/>
-      <c r="C10" s="498"/>
-      <c r="D10" s="498"/>
-      <c r="E10" s="498"/>
+      <c r="A10" s="479"/>
+      <c r="B10" s="488"/>
+      <c r="C10" s="479"/>
+      <c r="D10" s="479"/>
+      <c r="E10" s="479"/>
       <c r="F10" s="418" t="s">
         <v>158</v>
       </c>
@@ -11870,7 +12320,7 @@
       <c r="G16" s="165"/>
       <c r="H16" s="156"/>
       <c r="I16" s="156"/>
-      <c r="J16" s="539"/>
+      <c r="J16" s="533"/>
       <c r="K16" s="157"/>
       <c r="L16" s="156"/>
     </row>
@@ -11884,7 +12334,7 @@
       <c r="G17" s="166"/>
       <c r="H17" s="158"/>
       <c r="I17" s="158"/>
-      <c r="J17" s="540"/>
+      <c r="J17" s="534"/>
       <c r="K17" s="159"/>
       <c r="L17" s="158"/>
     </row>
@@ -11898,7 +12348,7 @@
       <c r="G18" s="167"/>
       <c r="H18" s="160"/>
       <c r="I18" s="160"/>
-      <c r="J18" s="541"/>
+      <c r="J18" s="535"/>
       <c r="K18" s="161"/>
       <c r="L18" s="160"/>
     </row>
@@ -12029,19 +12479,19 @@
       <c r="L27" s="162"/>
     </row>
     <row r="28" spans="1:12" s="323" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="469">
+      <c r="A28" s="473">
         <v>607</v>
       </c>
-      <c r="B28" s="478">
+      <c r="B28" s="474">
         <v>44029</v>
       </c>
-      <c r="C28" s="469" t="s">
+      <c r="C28" s="473" t="s">
         <v>152</v>
       </c>
-      <c r="D28" s="469" t="s">
+      <c r="D28" s="473" t="s">
         <v>153</v>
       </c>
-      <c r="E28" s="469" t="s">
+      <c r="E28" s="473" t="s">
         <v>178</v>
       </c>
       <c r="F28" s="416" t="s">
@@ -12067,11 +12517,11 @@
       </c>
     </row>
     <row r="29" spans="1:12" s="323" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="470"/>
-      <c r="B29" s="480"/>
-      <c r="C29" s="470"/>
-      <c r="D29" s="470"/>
-      <c r="E29" s="470"/>
+      <c r="A29" s="469"/>
+      <c r="B29" s="476"/>
+      <c r="C29" s="469"/>
+      <c r="D29" s="469"/>
+      <c r="E29" s="469"/>
       <c r="F29" s="417" t="s">
         <v>154</v>
       </c>
@@ -12095,11 +12545,11 @@
       </c>
     </row>
     <row r="30" spans="1:12" s="323" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="471"/>
-      <c r="B30" s="479"/>
-      <c r="C30" s="471"/>
-      <c r="D30" s="471"/>
-      <c r="E30" s="471"/>
+      <c r="A30" s="470"/>
+      <c r="B30" s="475"/>
+      <c r="C30" s="470"/>
+      <c r="D30" s="470"/>
+      <c r="E30" s="470"/>
       <c r="F30" s="418" t="s">
         <v>166</v>
       </c>
@@ -12123,16 +12573,16 @@
       </c>
     </row>
     <row r="31" spans="1:12" s="209" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="543" t="s">
+      <c r="A31" s="526" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="544"/>
-      <c r="C31" s="544"/>
-      <c r="D31" s="544"/>
-      <c r="E31" s="544"/>
-      <c r="F31" s="544"/>
-      <c r="G31" s="544"/>
-      <c r="H31" s="545"/>
+      <c r="B31" s="527"/>
+      <c r="C31" s="527"/>
+      <c r="D31" s="527"/>
+      <c r="E31" s="527"/>
+      <c r="F31" s="527"/>
+      <c r="G31" s="527"/>
+      <c r="H31" s="528"/>
       <c r="I31" s="210">
         <f>SUM(I8:I30)</f>
         <v>10995000</v>
@@ -12157,92 +12607,92 @@
       <c r="L32" s="216"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="542" t="s">
+      <c r="A33" s="531" t="s">
         <v>142</v>
       </c>
-      <c r="B33" s="542"/>
-      <c r="C33" s="542"/>
-      <c r="D33" s="542"/>
-      <c r="E33" s="542"/>
-      <c r="F33" s="542"/>
-      <c r="G33" s="542"/>
-      <c r="H33" s="542"/>
-      <c r="I33" s="542"/>
-      <c r="J33" s="542"/>
-      <c r="K33" s="542"/>
-      <c r="L33" s="542"/>
+      <c r="B33" s="531"/>
+      <c r="C33" s="531"/>
+      <c r="D33" s="531"/>
+      <c r="E33" s="531"/>
+      <c r="F33" s="531"/>
+      <c r="G33" s="531"/>
+      <c r="H33" s="531"/>
+      <c r="I33" s="531"/>
+      <c r="J33" s="531"/>
+      <c r="K33" s="531"/>
+      <c r="L33" s="531"/>
     </row>
     <row r="34" spans="1:12" s="142" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="526" t="s">
+      <c r="A34" s="525" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="538" t="s">
+      <c r="B34" s="542" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="526" t="s">
+      <c r="C34" s="525" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="526" t="s">
+      <c r="D34" s="525" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="526"/>
-      <c r="F34" s="527" t="s">
+      <c r="E34" s="525"/>
+      <c r="F34" s="541" t="s">
         <v>29</v>
       </c>
-      <c r="G34" s="527"/>
-      <c r="H34" s="527"/>
-      <c r="I34" s="527"/>
-      <c r="J34" s="527"/>
-      <c r="K34" s="527"/>
-      <c r="L34" s="527"/>
+      <c r="G34" s="541"/>
+      <c r="H34" s="541"/>
+      <c r="I34" s="541"/>
+      <c r="J34" s="541"/>
+      <c r="K34" s="541"/>
+      <c r="L34" s="541"/>
     </row>
     <row r="35" spans="1:12" s="142" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="526"/>
-      <c r="B35" s="538"/>
-      <c r="C35" s="526"/>
-      <c r="D35" s="526" t="s">
+      <c r="A35" s="525"/>
+      <c r="B35" s="542"/>
+      <c r="C35" s="525"/>
+      <c r="D35" s="525" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="526" t="s">
+      <c r="E35" s="525" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="526" t="s">
+      <c r="F35" s="525" t="s">
         <v>31</v>
       </c>
-      <c r="G35" s="526" t="s">
+      <c r="G35" s="525" t="s">
         <v>32</v>
       </c>
-      <c r="H35" s="535" t="s">
+      <c r="H35" s="529" t="s">
         <v>33</v>
       </c>
-      <c r="I35" s="535" t="s">
+      <c r="I35" s="529" t="s">
         <v>43</v>
       </c>
-      <c r="J35" s="536" t="s">
+      <c r="J35" s="532" t="s">
         <v>35</v>
       </c>
-      <c r="K35" s="536"/>
-      <c r="L35" s="535" t="s">
+      <c r="K35" s="532"/>
+      <c r="L35" s="529" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="142" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="526"/>
-      <c r="B36" s="538"/>
-      <c r="C36" s="526"/>
-      <c r="D36" s="526"/>
-      <c r="E36" s="526"/>
-      <c r="F36" s="526"/>
-      <c r="G36" s="526"/>
-      <c r="H36" s="535"/>
-      <c r="I36" s="535"/>
+      <c r="A36" s="525"/>
+      <c r="B36" s="542"/>
+      <c r="C36" s="525"/>
+      <c r="D36" s="525"/>
+      <c r="E36" s="525"/>
+      <c r="F36" s="525"/>
+      <c r="G36" s="525"/>
+      <c r="H36" s="529"/>
+      <c r="I36" s="529"/>
       <c r="J36" s="309" t="s">
         <v>85</v>
       </c>
       <c r="K36" s="155" t="s">
         <v>48</v>
       </c>
-      <c r="L36" s="535"/>
+      <c r="L36" s="529"/>
     </row>
     <row r="37" spans="1:12" s="323" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="239">
@@ -12317,16 +12767,16 @@
       </c>
     </row>
     <row r="39" spans="1:12" s="209" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="543" t="s">
+      <c r="A39" s="526" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="544"/>
-      <c r="C39" s="544"/>
-      <c r="D39" s="544"/>
-      <c r="E39" s="544"/>
-      <c r="F39" s="544"/>
-      <c r="G39" s="544"/>
-      <c r="H39" s="545"/>
+      <c r="B39" s="527"/>
+      <c r="C39" s="527"/>
+      <c r="D39" s="527"/>
+      <c r="E39" s="527"/>
+      <c r="F39" s="527"/>
+      <c r="G39" s="527"/>
+      <c r="H39" s="528"/>
       <c r="I39" s="210">
         <f>SUM(I37:I38)</f>
         <v>910000</v>
@@ -12407,92 +12857,92 @@
       <c r="L44" s="216"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="542" t="s">
+      <c r="A45" s="531" t="s">
         <v>135</v>
       </c>
-      <c r="B45" s="542"/>
-      <c r="C45" s="542"/>
-      <c r="D45" s="542"/>
-      <c r="E45" s="542"/>
-      <c r="F45" s="542"/>
-      <c r="G45" s="542"/>
-      <c r="H45" s="542"/>
-      <c r="I45" s="542"/>
-      <c r="J45" s="542"/>
-      <c r="K45" s="542"/>
-      <c r="L45" s="542"/>
+      <c r="B45" s="531"/>
+      <c r="C45" s="531"/>
+      <c r="D45" s="531"/>
+      <c r="E45" s="531"/>
+      <c r="F45" s="531"/>
+      <c r="G45" s="531"/>
+      <c r="H45" s="531"/>
+      <c r="I45" s="531"/>
+      <c r="J45" s="531"/>
+      <c r="K45" s="531"/>
+      <c r="L45" s="531"/>
     </row>
     <row r="46" spans="1:12" s="142" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="526" t="s">
+      <c r="A46" s="525" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="549" t="s">
+      <c r="B46" s="545" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="526" t="s">
+      <c r="C46" s="525" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="526" t="s">
+      <c r="D46" s="525" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="526"/>
-      <c r="F46" s="527" t="s">
+      <c r="E46" s="525"/>
+      <c r="F46" s="541" t="s">
         <v>29</v>
       </c>
-      <c r="G46" s="527"/>
-      <c r="H46" s="527"/>
-      <c r="I46" s="527"/>
-      <c r="J46" s="527"/>
-      <c r="K46" s="527"/>
-      <c r="L46" s="527"/>
+      <c r="G46" s="541"/>
+      <c r="H46" s="541"/>
+      <c r="I46" s="541"/>
+      <c r="J46" s="541"/>
+      <c r="K46" s="541"/>
+      <c r="L46" s="541"/>
     </row>
     <row r="47" spans="1:12" s="142" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="526"/>
-      <c r="B47" s="549"/>
-      <c r="C47" s="526"/>
-      <c r="D47" s="526" t="s">
+      <c r="A47" s="525"/>
+      <c r="B47" s="545"/>
+      <c r="C47" s="525"/>
+      <c r="D47" s="525" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="526" t="s">
+      <c r="E47" s="525" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="526" t="s">
+      <c r="F47" s="525" t="s">
         <v>31</v>
       </c>
-      <c r="G47" s="526" t="s">
+      <c r="G47" s="525" t="s">
         <v>32</v>
       </c>
-      <c r="H47" s="535" t="s">
+      <c r="H47" s="529" t="s">
         <v>33</v>
       </c>
-      <c r="I47" s="535" t="s">
+      <c r="I47" s="529" t="s">
         <v>43</v>
       </c>
-      <c r="J47" s="536" t="s">
+      <c r="J47" s="532" t="s">
         <v>35</v>
       </c>
-      <c r="K47" s="536"/>
-      <c r="L47" s="535" t="s">
+      <c r="K47" s="532"/>
+      <c r="L47" s="529" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="142" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="526"/>
-      <c r="B48" s="549"/>
-      <c r="C48" s="526"/>
-      <c r="D48" s="526"/>
-      <c r="E48" s="526"/>
-      <c r="F48" s="526"/>
-      <c r="G48" s="526"/>
-      <c r="H48" s="535"/>
-      <c r="I48" s="535"/>
+      <c r="A48" s="525"/>
+      <c r="B48" s="545"/>
+      <c r="C48" s="525"/>
+      <c r="D48" s="525"/>
+      <c r="E48" s="525"/>
+      <c r="F48" s="525"/>
+      <c r="G48" s="525"/>
+      <c r="H48" s="529"/>
+      <c r="I48" s="529"/>
       <c r="J48" s="351" t="s">
         <v>85</v>
       </c>
       <c r="K48" s="155" t="s">
         <v>48</v>
       </c>
-      <c r="L48" s="535"/>
+      <c r="L48" s="529"/>
     </row>
     <row r="49" spans="1:13" s="323" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="239">
@@ -12599,11 +13049,11 @@
       <c r="L52" s="357"/>
     </row>
     <row r="53" spans="1:13" s="217" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="542" t="s">
+      <c r="A53" s="531" t="s">
         <v>130</v>
       </c>
-      <c r="B53" s="542"/>
-      <c r="C53" s="542"/>
+      <c r="B53" s="531"/>
+      <c r="C53" s="531"/>
       <c r="D53" s="308"/>
       <c r="E53" s="308"/>
       <c r="F53" s="308"/>
@@ -12616,150 +13066,150 @@
       <c r="A54" s="308"/>
       <c r="B54" s="308"/>
       <c r="C54" s="308"/>
-      <c r="D54" s="547" t="s">
+      <c r="D54" s="540" t="s">
         <v>131</v>
       </c>
-      <c r="E54" s="547"/>
-      <c r="F54" s="547"/>
-      <c r="G54" s="547"/>
-      <c r="H54" s="547"/>
-      <c r="I54" s="547"/>
-      <c r="J54" s="548" t="s">
+      <c r="E54" s="540"/>
+      <c r="F54" s="540"/>
+      <c r="G54" s="540"/>
+      <c r="H54" s="540"/>
+      <c r="I54" s="540"/>
+      <c r="J54" s="544" t="s">
         <v>50</v>
       </c>
-      <c r="K54" s="548"/>
+      <c r="K54" s="544"/>
       <c r="L54" s="216"/>
     </row>
     <row r="55" spans="1:13" s="217" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="308"/>
       <c r="B55" s="308"/>
       <c r="C55" s="308"/>
-      <c r="D55" s="528" t="s">
+      <c r="D55" s="539" t="s">
         <v>144</v>
       </c>
-      <c r="E55" s="528"/>
-      <c r="F55" s="528"/>
-      <c r="G55" s="528"/>
-      <c r="H55" s="528"/>
-      <c r="I55" s="528"/>
-      <c r="J55" s="532">
+      <c r="E55" s="539"/>
+      <c r="F55" s="539"/>
+      <c r="G55" s="539"/>
+      <c r="H55" s="539"/>
+      <c r="I55" s="539"/>
+      <c r="J55" s="549">
         <f>8611127-5000000</f>
         <v>3611127</v>
       </c>
-      <c r="K55" s="532"/>
+      <c r="K55" s="549"/>
       <c r="L55" s="216"/>
     </row>
     <row r="56" spans="1:13" s="217" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="308"/>
       <c r="B56" s="308"/>
       <c r="C56" s="308"/>
-      <c r="D56" s="528" t="s">
+      <c r="D56" s="539" t="s">
         <v>145</v>
       </c>
-      <c r="E56" s="528"/>
-      <c r="F56" s="528"/>
-      <c r="G56" s="528"/>
-      <c r="H56" s="528"/>
-      <c r="I56" s="528"/>
-      <c r="J56" s="532">
+      <c r="E56" s="539"/>
+      <c r="F56" s="539"/>
+      <c r="G56" s="539"/>
+      <c r="H56" s="539"/>
+      <c r="I56" s="539"/>
+      <c r="J56" s="549">
         <f>L31</f>
         <v>5291550</v>
       </c>
-      <c r="K56" s="532"/>
+      <c r="K56" s="549"/>
       <c r="L56" s="216"/>
     </row>
     <row r="57" spans="1:13" s="217" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="258"/>
       <c r="B57" s="258"/>
       <c r="C57" s="258"/>
-      <c r="D57" s="528" t="s">
+      <c r="D57" s="539" t="s">
         <v>146</v>
       </c>
-      <c r="E57" s="528"/>
-      <c r="F57" s="528"/>
-      <c r="G57" s="528"/>
-      <c r="H57" s="528"/>
-      <c r="I57" s="528"/>
-      <c r="J57" s="532">
+      <c r="E57" s="539"/>
+      <c r="F57" s="539"/>
+      <c r="G57" s="539"/>
+      <c r="H57" s="539"/>
+      <c r="I57" s="539"/>
+      <c r="J57" s="549">
         <f>L39</f>
         <v>655200</v>
       </c>
-      <c r="K57" s="532"/>
+      <c r="K57" s="549"/>
       <c r="L57" s="216"/>
     </row>
     <row r="58" spans="1:13" s="217" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="308"/>
       <c r="B58" s="308"/>
       <c r="C58" s="308"/>
-      <c r="D58" s="529" t="s">
+      <c r="D58" s="536" t="s">
         <v>143</v>
       </c>
-      <c r="E58" s="530"/>
-      <c r="F58" s="530"/>
-      <c r="G58" s="530"/>
-      <c r="H58" s="530"/>
-      <c r="I58" s="531"/>
-      <c r="J58" s="533">
+      <c r="E58" s="537"/>
+      <c r="F58" s="537"/>
+      <c r="G58" s="537"/>
+      <c r="H58" s="537"/>
+      <c r="I58" s="538"/>
+      <c r="J58" s="546">
         <f>'Bảng lương'!K15</f>
         <v>5388461.538461539</v>
       </c>
-      <c r="K58" s="534"/>
+      <c r="K58" s="547"/>
       <c r="L58" s="216"/>
     </row>
     <row r="59" spans="1:13" s="217" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="421"/>
       <c r="B59" s="421"/>
       <c r="C59" s="421"/>
-      <c r="D59" s="529" t="s">
+      <c r="D59" s="536" t="s">
         <v>210</v>
       </c>
-      <c r="E59" s="530"/>
-      <c r="F59" s="530"/>
-      <c r="G59" s="530"/>
-      <c r="H59" s="530"/>
-      <c r="I59" s="531"/>
-      <c r="J59" s="533">
+      <c r="E59" s="537"/>
+      <c r="F59" s="537"/>
+      <c r="G59" s="537"/>
+      <c r="H59" s="537"/>
+      <c r="I59" s="538"/>
+      <c r="J59" s="546">
         <v>4064000</v>
       </c>
-      <c r="K59" s="534"/>
+      <c r="K59" s="547"/>
       <c r="L59" s="216"/>
     </row>
     <row r="60" spans="1:13" s="217" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="308"/>
       <c r="B60" s="308"/>
       <c r="C60" s="308"/>
-      <c r="D60" s="529" t="s">
+      <c r="D60" s="536" t="s">
         <v>136</v>
       </c>
-      <c r="E60" s="530"/>
-      <c r="F60" s="530"/>
-      <c r="G60" s="530"/>
-      <c r="H60" s="530"/>
-      <c r="I60" s="531"/>
-      <c r="J60" s="533">
+      <c r="E60" s="537"/>
+      <c r="F60" s="537"/>
+      <c r="G60" s="537"/>
+      <c r="H60" s="537"/>
+      <c r="I60" s="538"/>
+      <c r="J60" s="546">
         <f>L51</f>
         <v>445000</v>
       </c>
-      <c r="K60" s="534"/>
+      <c r="K60" s="547"/>
       <c r="L60" s="350"/>
     </row>
     <row r="61" spans="1:13" s="217" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="258"/>
       <c r="B61" s="258"/>
       <c r="C61" s="258"/>
-      <c r="D61" s="528" t="s">
+      <c r="D61" s="539" t="s">
         <v>132</v>
       </c>
-      <c r="E61" s="528"/>
-      <c r="F61" s="528"/>
-      <c r="G61" s="528"/>
-      <c r="H61" s="528"/>
-      <c r="I61" s="528"/>
-      <c r="J61" s="532">
+      <c r="E61" s="539"/>
+      <c r="F61" s="539"/>
+      <c r="G61" s="539"/>
+      <c r="H61" s="539"/>
+      <c r="I61" s="539"/>
+      <c r="J61" s="549">
         <f>J55+J56+J57+J60-J58-J59</f>
         <v>550415.46153846104</v>
       </c>
-      <c r="K61" s="532"/>
+      <c r="K61" s="549"/>
       <c r="L61" s="429">
         <f>J61+2500000</f>
         <v>3050415.461538461</v>
@@ -12780,14 +13230,14 @@
     </row>
     <row r="63" spans="1:13" s="217" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="443"/>
-      <c r="B63" s="525" t="s">
+      <c r="B63" s="548" t="s">
         <v>233</v>
       </c>
-      <c r="C63" s="525"/>
-      <c r="D63" s="525"/>
-      <c r="E63" s="525"/>
-      <c r="F63" s="525"/>
-      <c r="G63" s="525"/>
+      <c r="C63" s="548"/>
+      <c r="D63" s="548"/>
+      <c r="E63" s="548"/>
+      <c r="F63" s="548"/>
+      <c r="G63" s="548"/>
       <c r="H63" s="443"/>
       <c r="I63" s="216"/>
       <c r="L63" s="348"/>
@@ -12876,19 +13326,19 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="95"/>
-      <c r="B70" s="542" t="s">
+      <c r="B70" s="531" t="s">
         <v>110</v>
       </c>
-      <c r="C70" s="542"/>
-      <c r="D70" s="542"/>
+      <c r="C70" s="531"/>
+      <c r="D70" s="531"/>
       <c r="E70" s="95"/>
       <c r="F70" s="95"/>
       <c r="G70" s="95"/>
       <c r="H70" s="95"/>
-      <c r="I70" s="542" t="s">
+      <c r="I70" s="531" t="s">
         <v>115</v>
       </c>
-      <c r="J70" s="542"/>
+      <c r="J70" s="531"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="95"/>
@@ -12968,8 +13418,8 @@
       <c r="I77" s="213"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="537"/>
-      <c r="B78" s="537"/>
+      <c r="A78" s="543"/>
+      <c r="B78" s="543"/>
       <c r="E78" s="39"/>
       <c r="F78" s="39"/>
       <c r="G78" s="39"/>
@@ -12979,8 +13429,8 @@
       <c r="H80" s="214"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="537"/>
-      <c r="B82" s="537"/>
+      <c r="A82" s="543"/>
+      <c r="B82" s="543"/>
       <c r="E82" s="39"/>
       <c r="F82" s="39"/>
       <c r="G82" s="39"/>
@@ -12988,31 +13438,42 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:L46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="D57:I57"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:L34"/>
+    <mergeCell ref="G47:G48"/>
     <mergeCell ref="J16:J18"/>
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="G35:G36"/>
@@ -13029,43 +13490,32 @@
     <mergeCell ref="L47:L48"/>
     <mergeCell ref="A53:C53"/>
     <mergeCell ref="D54:I54"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:L34"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:L46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="F47:F48"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.2" top="0.37" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -13606,16 +14056,16 @@
       <c r="C1" s="170"/>
       <c r="D1" s="170"/>
       <c r="E1" s="170"/>
-      <c r="Z1" s="555" t="s">
+      <c r="Z1" s="568" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="556"/>
-      <c r="AB1" s="556"/>
-      <c r="AC1" s="556"/>
-      <c r="AD1" s="556"/>
-      <c r="AE1" s="556"/>
-      <c r="AF1" s="556"/>
-      <c r="AG1" s="557"/>
+      <c r="AA1" s="569"/>
+      <c r="AB1" s="569"/>
+      <c r="AC1" s="569"/>
+      <c r="AD1" s="569"/>
+      <c r="AE1" s="569"/>
+      <c r="AF1" s="569"/>
+      <c r="AG1" s="570"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="173" t="s">
@@ -13625,18 +14075,18 @@
       <c r="C2" s="174"/>
       <c r="D2" s="174"/>
       <c r="E2" s="174"/>
-      <c r="Z2" s="550" t="s">
+      <c r="Z2" s="551" t="s">
         <v>87</v>
       </c>
-      <c r="AA2" s="551"/>
-      <c r="AB2" s="551"/>
-      <c r="AC2" s="551"/>
-      <c r="AD2" s="551"/>
-      <c r="AE2" s="552"/>
-      <c r="AF2" s="553" t="s">
+      <c r="AA2" s="552"/>
+      <c r="AB2" s="552"/>
+      <c r="AC2" s="552"/>
+      <c r="AD2" s="552"/>
+      <c r="AE2" s="553"/>
+      <c r="AF2" s="554" t="s">
         <v>88</v>
       </c>
-      <c r="AG2" s="554"/>
+      <c r="AG2" s="555"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="173" t="s">
@@ -13646,18 +14096,18 @@
       <c r="C3" s="86"/>
       <c r="D3" s="86"/>
       <c r="E3" s="86"/>
-      <c r="Z3" s="550" t="s">
+      <c r="Z3" s="551" t="s">
         <v>90</v>
       </c>
-      <c r="AA3" s="551"/>
-      <c r="AB3" s="551"/>
-      <c r="AC3" s="551"/>
-      <c r="AD3" s="551"/>
-      <c r="AE3" s="552"/>
-      <c r="AF3" s="553" t="s">
+      <c r="AA3" s="552"/>
+      <c r="AB3" s="552"/>
+      <c r="AC3" s="552"/>
+      <c r="AD3" s="552"/>
+      <c r="AE3" s="553"/>
+      <c r="AF3" s="554" t="s">
         <v>91</v>
       </c>
-      <c r="AG3" s="554"/>
+      <c r="AG3" s="555"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="173" t="s">
@@ -13670,18 +14120,18 @@
       <c r="T4" s="171" t="s">
         <v>49</v>
       </c>
-      <c r="Z4" s="550" t="s">
+      <c r="Z4" s="551" t="s">
         <v>93</v>
       </c>
-      <c r="AA4" s="551"/>
-      <c r="AB4" s="551"/>
-      <c r="AC4" s="551"/>
-      <c r="AD4" s="551"/>
-      <c r="AE4" s="552"/>
-      <c r="AF4" s="553" t="s">
+      <c r="AA4" s="552"/>
+      <c r="AB4" s="552"/>
+      <c r="AC4" s="552"/>
+      <c r="AD4" s="552"/>
+      <c r="AE4" s="553"/>
+      <c r="AF4" s="554" t="s">
         <v>94</v>
       </c>
-      <c r="AG4" s="554"/>
+      <c r="AG4" s="555"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="173" t="s">
@@ -13691,18 +14141,18 @@
       <c r="C5" s="86"/>
       <c r="D5" s="86"/>
       <c r="E5" s="86"/>
-      <c r="Z5" s="550" t="s">
+      <c r="Z5" s="551" t="s">
         <v>96</v>
       </c>
-      <c r="AA5" s="551"/>
-      <c r="AB5" s="551"/>
-      <c r="AC5" s="551"/>
-      <c r="AD5" s="551"/>
-      <c r="AE5" s="552"/>
-      <c r="AF5" s="553" t="s">
+      <c r="AA5" s="552"/>
+      <c r="AB5" s="552"/>
+      <c r="AC5" s="552"/>
+      <c r="AD5" s="552"/>
+      <c r="AE5" s="553"/>
+      <c r="AF5" s="554" t="s">
         <v>97</v>
       </c>
-      <c r="AG5" s="554"/>
+      <c r="AG5" s="555"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="175"/>
@@ -13712,93 +14162,93 @@
       <c r="E6" s="175"/>
     </row>
     <row r="7" spans="1:40" s="178" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="559" t="s">
+      <c r="A7" s="556" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="559"/>
-      <c r="C7" s="559"/>
-      <c r="D7" s="559"/>
-      <c r="E7" s="559"/>
-      <c r="F7" s="559"/>
-      <c r="G7" s="559"/>
-      <c r="H7" s="559"/>
-      <c r="I7" s="559"/>
-      <c r="J7" s="559"/>
-      <c r="K7" s="559"/>
-      <c r="L7" s="559"/>
-      <c r="M7" s="559"/>
-      <c r="N7" s="559"/>
-      <c r="O7" s="559"/>
-      <c r="P7" s="559"/>
-      <c r="Q7" s="559"/>
-      <c r="R7" s="559"/>
-      <c r="S7" s="559"/>
-      <c r="T7" s="559"/>
-      <c r="U7" s="559"/>
-      <c r="V7" s="559"/>
-      <c r="W7" s="559"/>
-      <c r="X7" s="559"/>
-      <c r="Y7" s="559"/>
-      <c r="Z7" s="559"/>
-      <c r="AA7" s="559"/>
-      <c r="AB7" s="559"/>
-      <c r="AC7" s="559"/>
-      <c r="AD7" s="559"/>
-      <c r="AE7" s="559"/>
-      <c r="AF7" s="559"/>
-      <c r="AG7" s="559"/>
-      <c r="AH7" s="559"/>
-      <c r="AI7" s="559"/>
-      <c r="AJ7" s="559"/>
-      <c r="AK7" s="559"/>
-      <c r="AL7" s="559"/>
-      <c r="AM7" s="559"/>
+      <c r="B7" s="556"/>
+      <c r="C7" s="556"/>
+      <c r="D7" s="556"/>
+      <c r="E7" s="556"/>
+      <c r="F7" s="556"/>
+      <c r="G7" s="556"/>
+      <c r="H7" s="556"/>
+      <c r="I7" s="556"/>
+      <c r="J7" s="556"/>
+      <c r="K7" s="556"/>
+      <c r="L7" s="556"/>
+      <c r="M7" s="556"/>
+      <c r="N7" s="556"/>
+      <c r="O7" s="556"/>
+      <c r="P7" s="556"/>
+      <c r="Q7" s="556"/>
+      <c r="R7" s="556"/>
+      <c r="S7" s="556"/>
+      <c r="T7" s="556"/>
+      <c r="U7" s="556"/>
+      <c r="V7" s="556"/>
+      <c r="W7" s="556"/>
+      <c r="X7" s="556"/>
+      <c r="Y7" s="556"/>
+      <c r="Z7" s="556"/>
+      <c r="AA7" s="556"/>
+      <c r="AB7" s="556"/>
+      <c r="AC7" s="556"/>
+      <c r="AD7" s="556"/>
+      <c r="AE7" s="556"/>
+      <c r="AF7" s="556"/>
+      <c r="AG7" s="556"/>
+      <c r="AH7" s="556"/>
+      <c r="AI7" s="556"/>
+      <c r="AJ7" s="556"/>
+      <c r="AK7" s="556"/>
+      <c r="AL7" s="556"/>
+      <c r="AM7" s="556"/>
       <c r="AN7" s="177"/>
     </row>
     <row r="9" spans="1:40" s="183" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="560" t="s">
+      <c r="A9" s="557" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="560" t="s">
+      <c r="B9" s="557" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="560" t="s">
+      <c r="C9" s="557" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="563" t="s">
+      <c r="D9" s="560" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="564"/>
-      <c r="F9" s="564"/>
-      <c r="G9" s="564"/>
-      <c r="H9" s="564"/>
-      <c r="I9" s="564"/>
-      <c r="J9" s="564"/>
-      <c r="K9" s="564"/>
-      <c r="L9" s="564"/>
-      <c r="M9" s="564"/>
-      <c r="N9" s="564"/>
-      <c r="O9" s="564"/>
-      <c r="P9" s="564"/>
-      <c r="Q9" s="564"/>
-      <c r="R9" s="564"/>
-      <c r="S9" s="564"/>
-      <c r="T9" s="564"/>
-      <c r="U9" s="564"/>
-      <c r="V9" s="564"/>
-      <c r="W9" s="564"/>
-      <c r="X9" s="564"/>
-      <c r="Y9" s="564"/>
-      <c r="Z9" s="564"/>
-      <c r="AA9" s="564"/>
-      <c r="AB9" s="564"/>
-      <c r="AC9" s="564"/>
-      <c r="AD9" s="564"/>
-      <c r="AE9" s="564"/>
-      <c r="AF9" s="564"/>
-      <c r="AG9" s="564"/>
-      <c r="AH9" s="565"/>
-      <c r="AI9" s="566" t="s">
+      <c r="E9" s="561"/>
+      <c r="F9" s="561"/>
+      <c r="G9" s="561"/>
+      <c r="H9" s="561"/>
+      <c r="I9" s="561"/>
+      <c r="J9" s="561"/>
+      <c r="K9" s="561"/>
+      <c r="L9" s="561"/>
+      <c r="M9" s="561"/>
+      <c r="N9" s="561"/>
+      <c r="O9" s="561"/>
+      <c r="P9" s="561"/>
+      <c r="Q9" s="561"/>
+      <c r="R9" s="561"/>
+      <c r="S9" s="561"/>
+      <c r="T9" s="561"/>
+      <c r="U9" s="561"/>
+      <c r="V9" s="561"/>
+      <c r="W9" s="561"/>
+      <c r="X9" s="561"/>
+      <c r="Y9" s="561"/>
+      <c r="Z9" s="561"/>
+      <c r="AA9" s="561"/>
+      <c r="AB9" s="561"/>
+      <c r="AC9" s="561"/>
+      <c r="AD9" s="561"/>
+      <c r="AE9" s="561"/>
+      <c r="AF9" s="561"/>
+      <c r="AG9" s="561"/>
+      <c r="AH9" s="562"/>
+      <c r="AI9" s="563" t="s">
         <v>102</v>
       </c>
       <c r="AJ9" s="179"/>
@@ -13808,9 +14258,9 @@
       <c r="AN9" s="182"/>
     </row>
     <row r="10" spans="1:40" s="183" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="561"/>
-      <c r="B10" s="561"/>
-      <c r="C10" s="561"/>
+      <c r="A10" s="558"/>
+      <c r="B10" s="558"/>
+      <c r="C10" s="558"/>
       <c r="D10" s="184">
         <v>1</v>
       </c>
@@ -13904,7 +14354,7 @@
       <c r="AH10" s="184">
         <v>31</v>
       </c>
-      <c r="AI10" s="566"/>
+      <c r="AI10" s="563"/>
       <c r="AJ10" s="185"/>
       <c r="AK10" s="181"/>
       <c r="AL10" s="181"/>
@@ -13912,9 +14362,9 @@
       <c r="AN10" s="182"/>
     </row>
     <row r="11" spans="1:40" s="190" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="562"/>
-      <c r="B11" s="562"/>
-      <c r="C11" s="562"/>
+      <c r="A11" s="559"/>
+      <c r="B11" s="559"/>
+      <c r="C11" s="559"/>
       <c r="D11" s="184" t="s">
         <v>108</v>
       </c>
@@ -14008,7 +14458,7 @@
       <c r="AH11" s="186" t="s">
         <v>103</v>
       </c>
-      <c r="AI11" s="566"/>
+      <c r="AI11" s="563"/>
       <c r="AJ11" s="189"/>
       <c r="AN11" s="191"/>
     </row>
@@ -14423,10 +14873,10 @@
       <c r="AN15" s="191"/>
     </row>
     <row r="16" spans="1:40" s="190" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="567" t="s">
+      <c r="A16" s="564" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="568"/>
+      <c r="B16" s="565"/>
       <c r="C16" s="193"/>
       <c r="D16" s="193"/>
       <c r="E16" s="194"/>
@@ -14469,49 +14919,49 @@
       <c r="AN16" s="191"/>
     </row>
     <row r="18" spans="1:40" s="203" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="569" t="s">
+      <c r="A18" s="566" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="569"/>
-      <c r="C18" s="569"/>
-      <c r="D18" s="569"/>
-      <c r="E18" s="569"/>
-      <c r="F18" s="569"/>
-      <c r="G18" s="569"/>
+      <c r="B18" s="566"/>
+      <c r="C18" s="566"/>
+      <c r="D18" s="566"/>
+      <c r="E18" s="566"/>
+      <c r="F18" s="566"/>
+      <c r="G18" s="566"/>
       <c r="H18" s="198"/>
-      <c r="I18" s="570"/>
-      <c r="J18" s="570"/>
-      <c r="K18" s="570"/>
-      <c r="L18" s="570"/>
-      <c r="M18" s="570"/>
+      <c r="I18" s="567"/>
+      <c r="J18" s="567"/>
+      <c r="K18" s="567"/>
+      <c r="L18" s="567"/>
+      <c r="M18" s="567"/>
       <c r="N18" s="199"/>
-      <c r="O18" s="570" t="s">
+      <c r="O18" s="567" t="s">
         <v>112</v>
       </c>
-      <c r="P18" s="570"/>
-      <c r="Q18" s="570"/>
-      <c r="R18" s="570"/>
-      <c r="S18" s="570"/>
-      <c r="T18" s="570"/>
-      <c r="U18" s="570"/>
-      <c r="V18" s="570"/>
-      <c r="W18" s="570"/>
-      <c r="X18" s="570"/>
-      <c r="Y18" s="570"/>
+      <c r="P18" s="567"/>
+      <c r="Q18" s="567"/>
+      <c r="R18" s="567"/>
+      <c r="S18" s="567"/>
+      <c r="T18" s="567"/>
+      <c r="U18" s="567"/>
+      <c r="V18" s="567"/>
+      <c r="W18" s="567"/>
+      <c r="X18" s="567"/>
+      <c r="Y18" s="567"/>
       <c r="Z18" s="200"/>
       <c r="AA18" s="200"/>
       <c r="AB18" s="201"/>
-      <c r="AC18" s="570"/>
-      <c r="AD18" s="570"/>
-      <c r="AE18" s="570"/>
-      <c r="AF18" s="570"/>
-      <c r="AG18" s="570"/>
-      <c r="AH18" s="570"/>
-      <c r="AI18" s="570"/>
-      <c r="AJ18" s="570"/>
-      <c r="AK18" s="570"/>
-      <c r="AL18" s="570"/>
-      <c r="AM18" s="570"/>
+      <c r="AC18" s="567"/>
+      <c r="AD18" s="567"/>
+      <c r="AE18" s="567"/>
+      <c r="AF18" s="567"/>
+      <c r="AG18" s="567"/>
+      <c r="AH18" s="567"/>
+      <c r="AI18" s="567"/>
+      <c r="AJ18" s="567"/>
+      <c r="AK18" s="567"/>
+      <c r="AL18" s="567"/>
+      <c r="AM18" s="567"/>
       <c r="AN18" s="202"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
@@ -14545,131 +14995,131 @@
       <c r="AN33" s="207"/>
     </row>
     <row r="34" spans="3:40" s="206" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="558"/>
-      <c r="H34" s="558"/>
-      <c r="I34" s="558"/>
-      <c r="J34" s="558"/>
-      <c r="K34" s="558"/>
-      <c r="L34" s="558"/>
-      <c r="M34" s="558"/>
-      <c r="N34" s="558"/>
-      <c r="O34" s="558"/>
-      <c r="P34" s="558"/>
-      <c r="Q34" s="558"/>
-      <c r="R34" s="558"/>
-      <c r="S34" s="558"/>
-      <c r="T34" s="558"/>
-      <c r="U34" s="558"/>
-      <c r="V34" s="558"/>
-      <c r="W34" s="558"/>
-      <c r="X34" s="558"/>
+      <c r="G34" s="550"/>
+      <c r="H34" s="550"/>
+      <c r="I34" s="550"/>
+      <c r="J34" s="550"/>
+      <c r="K34" s="550"/>
+      <c r="L34" s="550"/>
+      <c r="M34" s="550"/>
+      <c r="N34" s="550"/>
+      <c r="O34" s="550"/>
+      <c r="P34" s="550"/>
+      <c r="Q34" s="550"/>
+      <c r="R34" s="550"/>
+      <c r="S34" s="550"/>
+      <c r="T34" s="550"/>
+      <c r="U34" s="550"/>
+      <c r="V34" s="550"/>
+      <c r="W34" s="550"/>
+      <c r="X34" s="550"/>
       <c r="AN34" s="207"/>
     </row>
     <row r="35" spans="3:40" s="206" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="558"/>
-      <c r="H35" s="558"/>
-      <c r="I35" s="558"/>
-      <c r="J35" s="558"/>
-      <c r="K35" s="558"/>
-      <c r="L35" s="558"/>
-      <c r="M35" s="558"/>
-      <c r="N35" s="558"/>
-      <c r="O35" s="558"/>
-      <c r="P35" s="558"/>
-      <c r="Q35" s="558"/>
-      <c r="R35" s="558"/>
-      <c r="S35" s="558"/>
-      <c r="T35" s="558"/>
-      <c r="U35" s="558"/>
-      <c r="V35" s="558"/>
-      <c r="W35" s="558"/>
-      <c r="X35" s="558"/>
+      <c r="G35" s="550"/>
+      <c r="H35" s="550"/>
+      <c r="I35" s="550"/>
+      <c r="J35" s="550"/>
+      <c r="K35" s="550"/>
+      <c r="L35" s="550"/>
+      <c r="M35" s="550"/>
+      <c r="N35" s="550"/>
+      <c r="O35" s="550"/>
+      <c r="P35" s="550"/>
+      <c r="Q35" s="550"/>
+      <c r="R35" s="550"/>
+      <c r="S35" s="550"/>
+      <c r="T35" s="550"/>
+      <c r="U35" s="550"/>
+      <c r="V35" s="550"/>
+      <c r="W35" s="550"/>
+      <c r="X35" s="550"/>
       <c r="AN35" s="207"/>
     </row>
     <row r="36" spans="3:40" s="206" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="558"/>
-      <c r="H36" s="558"/>
-      <c r="I36" s="558"/>
-      <c r="J36" s="558"/>
-      <c r="K36" s="558"/>
-      <c r="L36" s="558"/>
-      <c r="M36" s="558"/>
-      <c r="N36" s="558"/>
-      <c r="O36" s="558"/>
-      <c r="P36" s="558"/>
-      <c r="Q36" s="558"/>
-      <c r="R36" s="558"/>
-      <c r="S36" s="558"/>
-      <c r="T36" s="558"/>
-      <c r="U36" s="558"/>
-      <c r="V36" s="558"/>
-      <c r="W36" s="558"/>
-      <c r="X36" s="558"/>
+      <c r="G36" s="550"/>
+      <c r="H36" s="550"/>
+      <c r="I36" s="550"/>
+      <c r="J36" s="550"/>
+      <c r="K36" s="550"/>
+      <c r="L36" s="550"/>
+      <c r="M36" s="550"/>
+      <c r="N36" s="550"/>
+      <c r="O36" s="550"/>
+      <c r="P36" s="550"/>
+      <c r="Q36" s="550"/>
+      <c r="R36" s="550"/>
+      <c r="S36" s="550"/>
+      <c r="T36" s="550"/>
+      <c r="U36" s="550"/>
+      <c r="V36" s="550"/>
+      <c r="W36" s="550"/>
+      <c r="X36" s="550"/>
       <c r="AN36" s="207"/>
     </row>
     <row r="37" spans="3:40" s="206" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="558"/>
-      <c r="H37" s="558"/>
-      <c r="I37" s="558"/>
-      <c r="J37" s="558"/>
-      <c r="K37" s="558"/>
-      <c r="L37" s="558"/>
-      <c r="M37" s="558"/>
-      <c r="N37" s="558"/>
-      <c r="O37" s="558"/>
-      <c r="P37" s="558"/>
-      <c r="Q37" s="558"/>
-      <c r="R37" s="558"/>
-      <c r="S37" s="558"/>
-      <c r="T37" s="558"/>
-      <c r="U37" s="558"/>
-      <c r="V37" s="558"/>
-      <c r="W37" s="558"/>
-      <c r="X37" s="558"/>
+      <c r="G37" s="550"/>
+      <c r="H37" s="550"/>
+      <c r="I37" s="550"/>
+      <c r="J37" s="550"/>
+      <c r="K37" s="550"/>
+      <c r="L37" s="550"/>
+      <c r="M37" s="550"/>
+      <c r="N37" s="550"/>
+      <c r="O37" s="550"/>
+      <c r="P37" s="550"/>
+      <c r="Q37" s="550"/>
+      <c r="R37" s="550"/>
+      <c r="S37" s="550"/>
+      <c r="T37" s="550"/>
+      <c r="U37" s="550"/>
+      <c r="V37" s="550"/>
+      <c r="W37" s="550"/>
+      <c r="X37" s="550"/>
       <c r="AN37" s="207"/>
     </row>
     <row r="38" spans="3:40" s="206" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="558"/>
-      <c r="H38" s="558"/>
-      <c r="I38" s="558"/>
-      <c r="J38" s="558"/>
-      <c r="K38" s="558"/>
-      <c r="L38" s="558"/>
-      <c r="M38" s="558"/>
-      <c r="N38" s="558"/>
-      <c r="O38" s="558"/>
-      <c r="P38" s="558"/>
-      <c r="Q38" s="558"/>
-      <c r="R38" s="558"/>
-      <c r="S38" s="558"/>
-      <c r="T38" s="558"/>
-      <c r="U38" s="558"/>
-      <c r="V38" s="558"/>
-      <c r="W38" s="558"/>
-      <c r="X38" s="558"/>
+      <c r="G38" s="550"/>
+      <c r="H38" s="550"/>
+      <c r="I38" s="550"/>
+      <c r="J38" s="550"/>
+      <c r="K38" s="550"/>
+      <c r="L38" s="550"/>
+      <c r="M38" s="550"/>
+      <c r="N38" s="550"/>
+      <c r="O38" s="550"/>
+      <c r="P38" s="550"/>
+      <c r="Q38" s="550"/>
+      <c r="R38" s="550"/>
+      <c r="S38" s="550"/>
+      <c r="T38" s="550"/>
+      <c r="U38" s="550"/>
+      <c r="V38" s="550"/>
+      <c r="W38" s="550"/>
+      <c r="X38" s="550"/>
       <c r="AN38" s="207"/>
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C39" s="171"/>
       <c r="D39" s="171"/>
-      <c r="G39" s="558"/>
-      <c r="H39" s="558"/>
-      <c r="I39" s="558"/>
-      <c r="J39" s="558"/>
-      <c r="K39" s="558"/>
-      <c r="L39" s="558"/>
-      <c r="M39" s="558"/>
-      <c r="N39" s="558"/>
-      <c r="O39" s="558"/>
-      <c r="P39" s="558"/>
-      <c r="Q39" s="558"/>
-      <c r="R39" s="558"/>
-      <c r="S39" s="558"/>
-      <c r="T39" s="558"/>
-      <c r="U39" s="558"/>
-      <c r="V39" s="558"/>
-      <c r="W39" s="558"/>
-      <c r="X39" s="558"/>
+      <c r="G39" s="550"/>
+      <c r="H39" s="550"/>
+      <c r="I39" s="550"/>
+      <c r="J39" s="550"/>
+      <c r="K39" s="550"/>
+      <c r="L39" s="550"/>
+      <c r="M39" s="550"/>
+      <c r="N39" s="550"/>
+      <c r="O39" s="550"/>
+      <c r="P39" s="550"/>
+      <c r="Q39" s="550"/>
+      <c r="R39" s="550"/>
+      <c r="S39" s="550"/>
+      <c r="T39" s="550"/>
+      <c r="U39" s="550"/>
+      <c r="V39" s="550"/>
+      <c r="W39" s="550"/>
+      <c r="X39" s="550"/>
       <c r="AN39" s="171"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.25">
@@ -14679,6 +15129,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G34:X39"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -14693,13 +15150,6 @@
     <mergeCell ref="I18:M18"/>
     <mergeCell ref="O18:Y18"/>
     <mergeCell ref="AC18:AM18"/>
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -15554,40 +16004,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="287" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="571" t="s">
+      <c r="A1" s="580" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="571"/>
-      <c r="C1" s="571"/>
-      <c r="D1" s="571"/>
+      <c r="B1" s="580"/>
+      <c r="C1" s="580"/>
+      <c r="D1" s="580"/>
       <c r="E1" s="286"/>
-      <c r="F1" s="572" t="s">
+      <c r="F1" s="581" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="572"/>
-      <c r="H1" s="572"/>
-      <c r="I1" s="572"/>
-      <c r="J1" s="572"/>
-      <c r="K1" s="572"/>
-      <c r="L1" s="572"/>
+      <c r="G1" s="581"/>
+      <c r="H1" s="581"/>
+      <c r="I1" s="581"/>
+      <c r="J1" s="581"/>
+      <c r="K1" s="581"/>
+      <c r="L1" s="581"/>
     </row>
     <row r="2" spans="1:16" s="287" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="573" t="s">
+      <c r="A2" s="582" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="573"/>
-      <c r="C2" s="573"/>
-      <c r="D2" s="573"/>
+      <c r="B2" s="582"/>
+      <c r="C2" s="582"/>
+      <c r="D2" s="582"/>
       <c r="E2" s="286"/>
-      <c r="F2" s="574" t="s">
+      <c r="F2" s="583" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="574"/>
-      <c r="H2" s="574"/>
-      <c r="I2" s="574"/>
-      <c r="J2" s="574"/>
-      <c r="K2" s="574"/>
-      <c r="L2" s="574"/>
+      <c r="G2" s="583"/>
+      <c r="H2" s="583"/>
+      <c r="I2" s="583"/>
+      <c r="J2" s="583"/>
+      <c r="K2" s="583"/>
+      <c r="L2" s="583"/>
     </row>
     <row r="3" spans="1:16" s="287" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="288"/>
@@ -15601,45 +16051,45 @@
       <c r="J3" s="289"/>
     </row>
     <row r="4" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="575" t="s">
+      <c r="A4" s="571" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="575"/>
-      <c r="C4" s="575"/>
-      <c r="D4" s="575"/>
-      <c r="E4" s="575"/>
-      <c r="F4" s="575"/>
-      <c r="G4" s="575"/>
-      <c r="H4" s="575"/>
-      <c r="I4" s="575"/>
-      <c r="J4" s="575"/>
-      <c r="K4" s="575"/>
-      <c r="L4" s="575"/>
-      <c r="M4" s="575"/>
+      <c r="B4" s="571"/>
+      <c r="C4" s="571"/>
+      <c r="D4" s="571"/>
+      <c r="E4" s="571"/>
+      <c r="F4" s="571"/>
+      <c r="G4" s="571"/>
+      <c r="H4" s="571"/>
+      <c r="I4" s="571"/>
+      <c r="J4" s="571"/>
+      <c r="K4" s="571"/>
+      <c r="L4" s="571"/>
+      <c r="M4" s="571"/>
     </row>
     <row r="5" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="575" t="s">
+      <c r="A5" s="571" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="575"/>
-      <c r="C5" s="575"/>
-      <c r="D5" s="575"/>
-      <c r="E5" s="575"/>
-      <c r="F5" s="575"/>
-      <c r="G5" s="575"/>
-      <c r="H5" s="575"/>
-      <c r="I5" s="575"/>
-      <c r="J5" s="575"/>
-      <c r="K5" s="575"/>
-      <c r="L5" s="575"/>
-      <c r="M5" s="575"/>
+      <c r="B5" s="571"/>
+      <c r="C5" s="571"/>
+      <c r="D5" s="571"/>
+      <c r="E5" s="571"/>
+      <c r="F5" s="571"/>
+      <c r="G5" s="571"/>
+      <c r="H5" s="571"/>
+      <c r="I5" s="571"/>
+      <c r="J5" s="571"/>
+      <c r="K5" s="571"/>
+      <c r="L5" s="571"/>
+      <c r="M5" s="571"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K6" s="576" t="s">
+      <c r="K6" s="572" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="576"/>
-      <c r="M6" s="576"/>
+      <c r="L6" s="572"/>
+      <c r="M6" s="572"/>
     </row>
     <row r="7" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
@@ -15710,10 +16160,10 @@
       <c r="M8" s="50"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="577" t="s">
+      <c r="A9" s="573" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="578"/>
+      <c r="B9" s="574"/>
       <c r="C9" s="49"/>
       <c r="D9" s="49"/>
       <c r="E9" s="51"/>
@@ -15835,11 +16285,11 @@
       <c r="P12" s="154"/>
     </row>
     <row r="13" spans="1:16" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="581" t="s">
+      <c r="A13" s="577" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="582"/>
-      <c r="C13" s="583"/>
+      <c r="B13" s="578"/>
+      <c r="C13" s="579"/>
       <c r="D13" s="265">
         <f>SUM(D10:D12)</f>
         <v>27000000</v>
@@ -15864,10 +16314,10 @@
       <c r="M13" s="292"/>
     </row>
     <row r="14" spans="1:16" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="579" t="s">
+      <c r="A14" s="575" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="580"/>
+      <c r="B14" s="576"/>
       <c r="C14" s="87"/>
       <c r="D14" s="88"/>
       <c r="E14" s="307"/>
@@ -15918,11 +16368,11 @@
       </c>
     </row>
     <row r="16" spans="1:16" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="581" t="s">
+      <c r="A16" s="577" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="582"/>
-      <c r="C16" s="583"/>
+      <c r="B16" s="578"/>
+      <c r="C16" s="579"/>
       <c r="D16" s="293">
         <f>SUM(D15:D15)</f>
         <v>5000000</v>
@@ -15944,14 +16394,14 @@
       <c r="M16" s="292"/>
     </row>
     <row r="18" spans="2:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="575"/>
-      <c r="C18" s="575"/>
-      <c r="D18" s="575"/>
+      <c r="B18" s="571"/>
+      <c r="C18" s="571"/>
+      <c r="D18" s="571"/>
       <c r="E18" s="266"/>
-      <c r="I18" s="575"/>
-      <c r="J18" s="575"/>
-      <c r="K18" s="575"/>
-      <c r="L18" s="575"/>
+      <c r="I18" s="571"/>
+      <c r="J18" s="571"/>
+      <c r="K18" s="571"/>
+      <c r="L18" s="571"/>
     </row>
     <row r="19" spans="2:12" s="287" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C19" s="295" t="s">
@@ -16001,6 +16451,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="A9:B9"/>
@@ -16009,11 +16464,6 @@
     <mergeCell ref="I18:L18"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="A4:M4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -16059,12 +16509,12 @@
       <c r="K2" s="274"/>
     </row>
     <row r="3" spans="1:15" s="272" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="511" t="s">
+      <c r="A3" s="509" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="511"/>
-      <c r="C3" s="511"/>
-      <c r="D3" s="511"/>
+      <c r="B3" s="509"/>
+      <c r="C3" s="509"/>
+      <c r="D3" s="509"/>
       <c r="E3" s="271"/>
       <c r="F3" s="271"/>
       <c r="G3" s="271"/>
